--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -846,15 +846,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -864,41 +855,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1274,7 +1244,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1301,47 +1271,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="35" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42">
+      <c r="A1" s="39">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="39" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="39" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="39" t="s">
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="39" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="37"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
       <c r="AF1" s="36" t="s">
         <v>71</v>
       </c>
@@ -1467,7 +1437,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="19">
         <v>2</v>
@@ -1476,8 +1446,8 @@
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="8">
-        <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>116.66666666666667</v>
+        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <v>133.33333333333334</v>
       </c>
       <c r="L3" s="12">
         <v>100</v>
@@ -1495,7 +1465,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="8">
-        <f>SUM(L3:R3)/(A$1)</f>
+        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
         <v>116.66666666666667</v>
       </c>
       <c r="T3" s="12"/>
@@ -1504,7 +1474,7 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="8">
-        <f>SUM(T3:X3)</f>
+        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="12"/>
@@ -1513,13 +1483,13 @@
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="8">
-        <f>SUM(Z3:AD3)</f>
+        <f t="shared" ref="AE3:AE33" si="3">SUM(Z3:AD3)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="18">
-        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>35</v>
+        <f t="shared" ref="AG3:AG33" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>36.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="19">
         <v>2</v>
@@ -1548,8 +1518,8 @@
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="8">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>83.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -1567,7 +1537,7 @@
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="8">
-        <f>SUM(L4:R4)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="T4" s="12"/>
@@ -1576,7 +1546,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="8">
-        <f>SUM(T4:X4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z4" s="12"/>
@@ -1585,13 +1555,13 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="8">
-        <f>SUM(Z4:AD4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="18">
-        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>26.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="19">
         <v>2</v>
@@ -1620,8 +1590,8 @@
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="8">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>83.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -1639,7 +1609,7 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="8">
-        <f>SUM(L5:R5)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="T5" s="12"/>
@@ -1648,7 +1618,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="8">
-        <f>SUM(T5:X5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="12"/>
@@ -1657,13 +1627,13 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="8">
-        <f>SUM(Z5:AD5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="18">
-        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>25.666666666666671</v>
+        <f t="shared" si="4"/>
+        <v>27.333333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1681,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="19">
         <v>2</v>
@@ -1690,8 +1660,8 @@
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="8">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>83.333333333333329</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -1709,7 +1679,7 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="8">
-        <f>SUM(L6:R6)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>86.666666666666671</v>
       </c>
       <c r="T6" s="12"/>
@@ -1718,7 +1688,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="8">
-        <f>SUM(T6:X6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="12"/>
@@ -1727,13 +1697,13 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="8">
-        <f>SUM(Z6:AD6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="18">
-        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>25.666666666666671</v>
+        <f t="shared" si="4"/>
+        <v>27.333333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,7 +1732,7 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="8">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="L7" s="12">
@@ -1781,7 +1751,7 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="8">
-        <f>SUM(L7:R7)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="T7" s="12"/>
@@ -1790,7 +1760,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="8">
-        <f>SUM(T7:X7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="12"/>
@@ -1799,12 +1769,12 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="8">
-        <f>SUM(Z7:AD7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF7" s="12"/>
       <c r="AG7" s="18">
-        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
+        <f t="shared" si="4"/>
         <v>18.666666666666668</v>
       </c>
     </row>
@@ -1825,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="19">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="G8" s="19">
         <v>0</v>
@@ -1834,8 +1804,8 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="K8" s="8">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>46.666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>63.333333333333336</v>
       </c>
       <c r="L8" s="12">
         <v>100</v>
@@ -1853,7 +1823,7 @@
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="8">
-        <f>SUM(L8:R8)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>63.333333333333336</v>
       </c>
       <c r="T8" s="12"/>
@@ -1862,7 +1832,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="8">
-        <f>SUM(T8:X8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="12"/>
@@ -1871,13 +1841,13 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
       <c r="AE8" s="8">
-        <f>SUM(Z8:AD8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF8" s="12"/>
       <c r="AG8" s="18">
-        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>17.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1906,7 +1876,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="K9" s="8">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L9" s="12">
@@ -1925,7 +1895,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="8">
-        <f>SUM(L9:R9)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="T9" s="12"/>
@@ -1934,7 +1904,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="8">
-        <f>SUM(T9:X9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="12"/>
@@ -1943,12 +1913,12 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="8">
-        <f>SUM(Z9:AD9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF9" s="12"/>
       <c r="AG9" s="18">
-        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -1978,7 +1948,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="K10" s="8">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="L10" s="12">
@@ -1997,7 +1967,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="8">
-        <f>SUM(L10:R10)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="T10" s="12"/>
@@ -2006,7 +1976,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="8">
-        <f>SUM(T10:X10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="12"/>
@@ -2015,12 +1985,12 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="8">
-        <f>SUM(Z10:AD10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF10" s="12"/>
       <c r="AG10" s="18">
-        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
     </row>
@@ -2041,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="19">
         <v>2</v>
@@ -2050,8 +2020,8 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="K11" s="8">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -2069,7 +2039,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="8">
-        <f>SUM(L11:R11)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>56.666666666666664</v>
       </c>
       <c r="T11" s="12"/>
@@ -2078,7 +2048,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="8">
-        <f>SUM(T11:X11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="12"/>
@@ -2087,13 +2057,13 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="8">
-        <f>SUM(Z11:AD11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF11" s="12"/>
       <c r="AG11" s="18">
-        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>16.333333333333336</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2113,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="19">
         <v>1.5</v>
@@ -2122,8 +2092,8 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="8">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>41.666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -2141,7 +2111,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="8">
-        <f>SUM(L12:R12)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>46.666666666666664</v>
       </c>
       <c r="T12" s="12"/>
@@ -2150,7 +2120,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="8">
-        <f>SUM(T12:X12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="12"/>
@@ -2159,13 +2129,13 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="8">
-        <f>SUM(Z12:AD12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF12" s="12"/>
       <c r="AG12" s="18">
-        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>13.5</v>
+        <f t="shared" si="4"/>
+        <v>15.166666666666668</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2194,7 +2164,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="8">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>20.833333333333332</v>
       </c>
       <c r="L13" s="12">
@@ -2213,7 +2183,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="8">
-        <f>SUM(L13:R13)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>28.333333333333332</v>
       </c>
       <c r="T13" s="12"/>
@@ -2222,7 +2192,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="8">
-        <f>SUM(T13:X13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="12"/>
@@ -2231,12 +2201,12 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="8">
-        <f>SUM(Z13:AD13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF13" s="12"/>
       <c r="AG13" s="18">
-        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
+        <f t="shared" si="4"/>
         <v>7.75</v>
       </c>
     </row>
@@ -2257,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -2266,8 +2236,8 @@
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
       <c r="K14" s="8">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>16.666666666666668</v>
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -2285,7 +2255,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="8">
-        <f>SUM(L14:R14)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="T14" s="12"/>
@@ -2294,7 +2264,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="8">
-        <f>SUM(T14:X14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="12"/>
@@ -2303,13 +2273,13 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="8">
-        <f>SUM(Z14:AD14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF14" s="12"/>
       <c r="AG14" s="18">
-        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
-        <v>7.666666666666667</v>
+        <f t="shared" si="4"/>
+        <v>9.3333333333333339</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2338,7 +2308,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="8">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L15" s="12">
@@ -2357,7 +2327,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="8">
-        <f>SUM(L15:R15)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>26.666666666666668</v>
       </c>
       <c r="T15" s="12"/>
@@ -2366,7 +2336,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="8">
-        <f>SUM(T15:X15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15" s="12"/>
@@ -2375,12 +2345,12 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="8">
-        <f>SUM(Z15:AD15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF15" s="12"/>
       <c r="AG15" s="18">
-        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000009</v>
       </c>
       <c r="AH15" s="2" t="s">
@@ -2413,7 +2383,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
       <c r="K16" s="8">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L16" s="12">
@@ -2432,7 +2402,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="8">
-        <f>SUM(L16:R16)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>26.666666666666668</v>
       </c>
       <c r="T16" s="12"/>
@@ -2441,7 +2411,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="8">
-        <f>SUM(T16:X16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="12"/>
@@ -2450,12 +2420,12 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="8">
-        <f>SUM(Z16:AD16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF16" s="12"/>
       <c r="AG16" s="18">
-        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000009</v>
       </c>
     </row>
@@ -2485,7 +2455,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="8">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L17" s="12">
@@ -2504,7 +2474,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="8">
-        <f>SUM(L17:R17)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>26.666666666666668</v>
       </c>
       <c r="T17" s="12"/>
@@ -2513,7 +2483,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="8">
-        <f>SUM(T17:X17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z17" s="12"/>
@@ -2522,12 +2492,12 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="8">
-        <f>SUM(Z17:AD17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF17" s="12"/>
       <c r="AG17" s="18">
-        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
+        <f t="shared" si="4"/>
         <v>7.0000000000000009</v>
       </c>
     </row>
@@ -2548,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="19">
         <v>0</v>
@@ -2557,8 +2527,8 @@
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="8">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
-        <v>16.666666666666668</v>
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
@@ -2576,7 +2546,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="8">
-        <f>SUM(L18:R18)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T18" s="12"/>
@@ -2585,7 +2555,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="8">
-        <f>SUM(T18:X18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z18" s="12"/>
@@ -2594,13 +2564,13 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="8">
-        <f>SUM(Z18:AD18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF18" s="12"/>
       <c r="AG18" s="18">
-        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
-        <v>5.0000000000000009</v>
+        <f t="shared" si="4"/>
+        <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,7 +2591,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="8">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="12"/>
@@ -2632,7 +2602,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="8">
-        <f>SUM(L19:R19)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="12"/>
@@ -2641,7 +2611,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="8">
-        <f>SUM(T19:X19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="12"/>
@@ -2650,12 +2620,12 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="8">
-        <f>SUM(Z19:AD19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF19" s="12"/>
       <c r="AG19" s="18">
-        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2677,7 +2647,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="8">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20" s="12"/>
@@ -2688,7 +2658,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="8">
-        <f>SUM(L20:R20)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="12"/>
@@ -2697,7 +2667,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="8">
-        <f>SUM(T20:X20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z20" s="12"/>
@@ -2706,12 +2676,12 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="8">
-        <f>SUM(Z20:AD20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF20" s="12"/>
       <c r="AG20" s="18">
-        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2733,7 +2703,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="8">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="12"/>
@@ -2744,7 +2714,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="8">
-        <f>SUM(L21:R21)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21" s="12"/>
@@ -2753,7 +2723,7 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="8">
-        <f>SUM(T21:X21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z21" s="12"/>
@@ -2762,12 +2732,12 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="8">
-        <f>SUM(Z21:AD21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF21" s="12"/>
       <c r="AG21" s="18">
-        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2789,7 +2759,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="8">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="12"/>
@@ -2800,7 +2770,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="8">
-        <f>SUM(L22:R22)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="12"/>
@@ -2809,7 +2779,7 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="8">
-        <f>SUM(T22:X22)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z22" s="12"/>
@@ -2818,12 +2788,12 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="8">
-        <f>SUM(Z22:AD22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF22" s="12"/>
       <c r="AG22" s="18">
-        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2845,7 +2815,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="8">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23" s="12"/>
@@ -2856,7 +2826,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="8">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="12"/>
@@ -2865,7 +2835,7 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="8">
-        <f>SUM(T23:X23)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z23" s="12"/>
@@ -2874,12 +2844,12 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="8">
-        <f>SUM(Z23:AD23)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF23" s="12"/>
       <c r="AG23" s="18">
-        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2901,7 +2871,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="8">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24" s="12"/>
@@ -2912,7 +2882,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="8">
-        <f>SUM(L24:R24)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="12"/>
@@ -2921,7 +2891,7 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="8">
-        <f>SUM(T24:X24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z24" s="12"/>
@@ -2930,12 +2900,12 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="8">
-        <f>SUM(Z24:AD24)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF24" s="12"/>
       <c r="AG24" s="18">
-        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2957,7 +2927,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="8">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="12"/>
@@ -2968,7 +2938,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="8">
-        <f>SUM(L25:R25)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="12"/>
@@ -2977,7 +2947,7 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="8">
-        <f>SUM(T25:X25)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="12"/>
@@ -2986,12 +2956,12 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="8">
-        <f>SUM(Z25:AD25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF25" s="12"/>
       <c r="AG25" s="18">
-        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3013,7 +2983,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="8">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="12"/>
@@ -3024,7 +2994,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="8">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="12"/>
@@ -3033,7 +3003,7 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="8">
-        <f>SUM(T26:X26)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z26" s="12"/>
@@ -3042,12 +3012,12 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="8">
-        <f>SUM(Z26:AD26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF26" s="12"/>
       <c r="AG26" s="18">
-        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3069,7 +3039,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="8">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="12"/>
@@ -3080,7 +3050,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="8">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="12"/>
@@ -3089,7 +3059,7 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="8">
-        <f>SUM(T27:X27)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z27" s="12"/>
@@ -3098,12 +3068,12 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="8">
-        <f>SUM(Z27:AD27)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF27" s="12"/>
       <c r="AG27" s="18">
-        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3125,7 +3095,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="8">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="12"/>
@@ -3136,7 +3106,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="8">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="12"/>
@@ -3145,7 +3115,7 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="8">
-        <f>SUM(T28:X28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z28" s="12"/>
@@ -3154,12 +3124,12 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="8">
-        <f>SUM(Z28:AD28)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF28" s="12"/>
       <c r="AG28" s="18">
-        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3151,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="8">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="12"/>
@@ -3192,7 +3162,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="8">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="12"/>
@@ -3201,7 +3171,7 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="8">
-        <f>SUM(T29:X29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z29" s="12"/>
@@ -3210,12 +3180,12 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="8">
-        <f>SUM(Z29:AD29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF29" s="12"/>
       <c r="AG29" s="18">
-        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3237,7 +3207,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="8">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="12"/>
@@ -3248,7 +3218,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="8">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="12"/>
@@ -3257,7 +3227,7 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="8">
-        <f>SUM(T30:X30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z30" s="12"/>
@@ -3266,12 +3236,12 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="8">
-        <f>SUM(Z30:AD30)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF30" s="12"/>
       <c r="AG30" s="18">
-        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3293,7 +3263,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="8">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="12"/>
@@ -3304,7 +3274,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="8">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="12"/>
@@ -3313,7 +3283,7 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="8">
-        <f>SUM(T31:X31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z31" s="12"/>
@@ -3322,12 +3292,12 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="8">
-        <f>SUM(Z31:AD31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF31" s="12"/>
       <c r="AG31" s="18">
-        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3349,7 +3319,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="8">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="12"/>
@@ -3360,7 +3330,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="8">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="12"/>
@@ -3369,7 +3339,7 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="8">
-        <f>SUM(T32:X32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z32" s="12"/>
@@ -3378,12 +3348,12 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="8">
-        <f>SUM(Z32:AD32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF32" s="12"/>
       <c r="AG32" s="18">
-        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3405,7 +3375,7 @@
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="8">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="12"/>
@@ -3416,7 +3386,7 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="8">
-        <f>SUM(L33:R33)/(A$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T33" s="7"/>
@@ -3425,7 +3395,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10">
-        <f>SUM(T33:X33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="7"/>
@@ -3434,12 +3404,12 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="8">
-        <f>SUM(Z33:AD33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="6">
-        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4732,14 +4702,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4814,18 +4784,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -788,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -803,7 +803,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -868,7 +867,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="77">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -904,6 +903,680 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1242,9 +1915,9 @@
   </sheetPr>
   <dimension ref="A1:AH81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1254,11 +1927,13 @@
     <col min="3" max="3" width="9.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="2" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -1270,184 +1945,186 @@
     <col min="34" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="35" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39">
+    <row r="1" spans="1:33" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30">
         <v>3</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="27" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="29">
+      <c r="G2" s="30">
+        <v>4</v>
+      </c>
+      <c r="H2" s="30">
+        <v>5</v>
+      </c>
+      <c r="I2" s="30">
+        <v>6</v>
+      </c>
+      <c r="J2" s="30">
+        <v>7</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="28">
         <v>1</v>
       </c>
-      <c r="E2" s="31">
-        <v>2</v>
-      </c>
-      <c r="F2" s="31">
+      <c r="M2" s="30">
+        <v>2</v>
+      </c>
+      <c r="N2" s="30">
         <v>3</v>
       </c>
-      <c r="G2" s="31">
+      <c r="O2" s="30">
         <v>4</v>
       </c>
-      <c r="H2" s="31">
+      <c r="P2" s="30">
         <v>5</v>
       </c>
-      <c r="I2" s="31">
+      <c r="Q2" s="30">
         <v>6</v>
       </c>
-      <c r="J2" s="31">
+      <c r="R2" s="30">
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="S2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="29">
+      <c r="T2" s="28">
         <v>1</v>
       </c>
-      <c r="M2" s="31">
-        <v>2</v>
-      </c>
-      <c r="N2" s="31">
+      <c r="U2" s="30">
+        <v>2</v>
+      </c>
+      <c r="V2" s="30">
         <v>3</v>
       </c>
-      <c r="O2" s="31">
+      <c r="W2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="31">
+      <c r="X2" s="30">
         <v>5</v>
       </c>
-      <c r="Q2" s="31">
-        <v>6</v>
-      </c>
-      <c r="R2" s="31">
-        <v>7</v>
-      </c>
-      <c r="S2" s="30" t="s">
+      <c r="Y2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="29">
+      <c r="Z2" s="28">
         <v>1</v>
       </c>
-      <c r="U2" s="31">
-        <v>2</v>
-      </c>
-      <c r="V2" s="31">
+      <c r="AA2" s="30">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="30">
         <v>3</v>
       </c>
-      <c r="W2" s="31">
+      <c r="AC2" s="30">
         <v>4</v>
       </c>
-      <c r="X2" s="31">
+      <c r="AD2" s="30">
         <v>5</v>
       </c>
-      <c r="Y2" s="30" t="s">
+      <c r="AE2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="29">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="31">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="31">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="31">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="31">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AG2" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="20">
-        <v>2</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19">
-        <v>2</v>
-      </c>
-      <c r="G3" s="19">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="8">
-        <f t="shared" ref="K3:K33" si="0">100*SUM(D3:J3)/(2*A$1)</f>
-        <v>133.33333333333334</v>
+        <f>100*SUM(D3:J3)/(2*A$1)</f>
+        <v>123.75</v>
       </c>
       <c r="L3" s="12">
         <v>100</v>
@@ -1461,12 +2138,14 @@
       <c r="O3" s="11">
         <v>70</v>
       </c>
-      <c r="P3" s="11"/>
+      <c r="P3" s="11">
+        <v>85</v>
+      </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="8">
-        <f t="shared" ref="S3:S33" si="1">SUM(L3:R3)/(A$1)</f>
-        <v>116.66666666666667</v>
+        <f>SUM(L3:R3)/(A$1)</f>
+        <v>108.75</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="11"/>
@@ -1474,7 +2153,7 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
+        <f>SUM(T3:X3)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="12"/>
@@ -1483,42 +2162,44 @@
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
       <c r="AE3" s="8">
-        <f t="shared" ref="AE3:AE33" si="3">SUM(Z3:AD3)</f>
+        <f>SUM(Z3:AD3)</f>
         <v>0</v>
       </c>
       <c r="AF3" s="12"/>
-      <c r="AG3" s="18">
-        <f t="shared" ref="AG3:AG33" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>36.666666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="AG3" s="17">
+        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>34.125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="20">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>2</v>
-      </c>
-      <c r="F4" s="19">
-        <v>2</v>
-      </c>
-      <c r="G4" s="19">
-        <v>2</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
       <c r="K4" s="8">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D4:J4)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L4" s="12">
@@ -1533,12 +2214,14 @@
       <c r="O4" s="11">
         <v>80</v>
       </c>
-      <c r="P4" s="11"/>
+      <c r="P4" s="11">
+        <v>85</v>
+      </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="8">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f>SUM(L4:R4)/(A$1)</f>
+        <v>88.75</v>
       </c>
       <c r="T4" s="12"/>
       <c r="U4" s="11"/>
@@ -1546,7 +2229,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T4:X4)</f>
         <v>0</v>
       </c>
       <c r="Z4" s="12"/>
@@ -1555,42 +2238,44 @@
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
       <c r="AE4" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z4:AD4)</f>
         <v>0</v>
       </c>
       <c r="AF4" s="12"/>
-      <c r="AG4" s="18">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="AG4" s="17">
+        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="20">
-        <v>0</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19">
-        <v>2</v>
-      </c>
-      <c r="G5" s="19">
-        <v>2</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="8">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D5:J5)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L5" s="12">
@@ -1605,12 +2290,14 @@
       <c r="O5" s="11">
         <v>80</v>
       </c>
-      <c r="P5" s="11"/>
+      <c r="P5" s="11">
+        <v>85</v>
+      </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="8">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <f>SUM(L5:R5)/(A$1)</f>
+        <v>86.25</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="11"/>
@@ -1618,7 +2305,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T5:X5)</f>
         <v>0</v>
       </c>
       <c r="Z5" s="12"/>
@@ -1627,40 +2314,42 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z5:AD5)</f>
         <v>0</v>
       </c>
       <c r="AF5" s="12"/>
-      <c r="AG5" s="18">
-        <f t="shared" si="4"/>
-        <v>27.333333333333336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="AG5" s="17">
+        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="19">
-        <v>2</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>2</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="8">
-        <f t="shared" si="0"/>
+        <f>100*SUM(D6:J6)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L6" s="12">
@@ -1675,12 +2364,14 @@
       <c r="O6" s="11">
         <v>80</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11">
+        <v>85</v>
+      </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="8">
-        <f t="shared" si="1"/>
-        <v>86.666666666666671</v>
+        <f>SUM(L6:R6)/(A$1)</f>
+        <v>86.25</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="11"/>
@@ -1688,7 +2379,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T6:X6)</f>
         <v>0</v>
       </c>
       <c r="Z6" s="12"/>
@@ -1697,43 +2388,45 @@
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
       <c r="AE6" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z6:AD6)</f>
         <v>0</v>
       </c>
       <c r="AF6" s="12"/>
-      <c r="AG6" s="18">
-        <f t="shared" si="4"/>
-        <v>27.333333333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="AG6" s="17">
+        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
+        <v>27.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="20">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>2</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <v>75</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1747,12 +2440,14 @@
       <c r="O7" s="11">
         <v>80</v>
       </c>
-      <c r="P7" s="11"/>
+      <c r="P7" s="11">
+        <v>85</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="8">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(L7:R7)/(A$1)</f>
+        <v>66.25</v>
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="11"/>
@@ -1760,7 +2455,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T7:X7)</f>
         <v>0</v>
       </c>
       <c r="Z7" s="12"/>
@@ -1769,62 +2464,66 @@
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
       <c r="AE7" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z7:AD7)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="12"/>
-      <c r="AG7" s="18">
-        <f t="shared" si="4"/>
-        <v>18.666666666666668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="AG7" s="17">
+        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>63.333333333333336</v>
+        <f>100*SUM(D8:J8)/(2*A$1)</f>
+        <v>62.5</v>
       </c>
       <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>80</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
         <v>100</v>
       </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
-        <v>90</v>
-      </c>
-      <c r="O8" s="11">
-        <v>0</v>
-      </c>
-      <c r="P8" s="11"/>
+      <c r="P8" s="12">
+        <v>95</v>
+      </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="8">
-        <f t="shared" si="1"/>
-        <v>63.333333333333336</v>
+        <f>SUM(L8:R8)/(A$1)</f>
+        <v>68.75</v>
       </c>
       <c r="T8" s="12"/>
       <c r="U8" s="11"/>
@@ -1832,7 +2531,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T8:X8)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="12"/>
@@ -1841,62 +2540,66 @@
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
       <c r="AE8" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z8:AD8)</f>
         <v>0</v>
       </c>
       <c r="AF8" s="12"/>
-      <c r="AG8" s="18">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="20">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>2</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="AG8" s="17">
+        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <v>71.25</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
       </c>
       <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
         <v>80</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
       <c r="O9" s="11">
-        <v>100</v>
-      </c>
-      <c r="P9" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="P9" s="11">
+        <v>85</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="8">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(L9:R9)/(A$1)</f>
+        <v>63.75</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="11"/>
@@ -1904,7 +2607,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T9:X9)</f>
         <v>0</v>
       </c>
       <c r="Z9" s="12"/>
@@ -1913,43 +2616,45 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z9:AD9)</f>
         <v>0</v>
       </c>
       <c r="AF9" s="12"/>
-      <c r="AG9" s="18">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="20">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
+      <c r="AG9" s="17">
+        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
+        <v>19.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
         <v>1</v>
       </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>2</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>2</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="8">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <v>62.5</v>
       </c>
       <c r="L10" s="12">
         <v>0</v>
@@ -1963,12 +2668,14 @@
       <c r="O10" s="11">
         <v>100</v>
       </c>
-      <c r="P10" s="11"/>
+      <c r="P10" s="11">
+        <v>90</v>
+      </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="8">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUM(L10:R10)/(A$1)</f>
+        <v>67.5</v>
       </c>
       <c r="T10" s="12"/>
       <c r="U10" s="11"/>
@@ -1976,7 +2683,7 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T10:X10)</f>
         <v>0</v>
       </c>
       <c r="Z10" s="12"/>
@@ -1985,62 +2692,66 @@
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
       <c r="AE10" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z10:AD10)</f>
         <v>0</v>
       </c>
       <c r="AF10" s="12"/>
-      <c r="AG10" s="18">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="20">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19">
-        <v>2</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="AG10" s="17">
+        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="19">
+        <v>2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="8">
-        <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <v>62.5</v>
       </c>
       <c r="L11" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="11">
         <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O11" s="11">
-        <v>90</v>
-      </c>
-      <c r="P11" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="12">
+        <v>70</v>
+      </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="8">
-        <f t="shared" si="1"/>
-        <v>56.666666666666664</v>
+        <f>SUM(L11:R11)/(A$1)</f>
+        <v>65</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="11"/>
@@ -2048,7 +2759,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T11:X11)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="12"/>
@@ -2057,43 +2768,45 @@
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
       <c r="AE11" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z11:AD11)</f>
         <v>0</v>
       </c>
       <c r="AF11" s="12"/>
-      <c r="AG11" s="18">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="AG11" s="17">
+        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <v>2</v>
-      </c>
-      <c r="G12" s="19">
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18">
         <v>1.5</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="H12" s="18">
+        <v>2</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>58.333333333333336</v>
+        <f>100*SUM(D12:J12)/(2*A$1)</f>
+        <v>68.75</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -2107,12 +2820,14 @@
       <c r="O12" s="11">
         <v>70</v>
       </c>
-      <c r="P12" s="11"/>
+      <c r="P12" s="11">
+        <v>85</v>
+      </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="8">
-        <f t="shared" si="1"/>
-        <v>46.666666666666664</v>
+        <f>SUM(L12:R12)/(A$1)</f>
+        <v>56.25</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="11"/>
@@ -2120,7 +2835,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T12:X12)</f>
         <v>0</v>
       </c>
       <c r="Z12" s="12"/>
@@ -2129,62 +2844,66 @@
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
       <c r="AE12" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z12:AD12)</f>
         <v>0</v>
       </c>
       <c r="AF12" s="12"/>
-      <c r="AG12" s="18">
-        <f t="shared" si="4"/>
-        <v>15.166666666666668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="AG12" s="17">
+        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
+        <v>18.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="8">
-        <f t="shared" si="0"/>
-        <v>20.833333333333332</v>
+        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <v>45</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O13" s="11">
         <v>0</v>
       </c>
-      <c r="P13" s="11"/>
+      <c r="P13" s="12">
+        <v>90</v>
+      </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="8">
-        <f t="shared" si="1"/>
-        <v>28.333333333333332</v>
+        <f>SUM(L13:R13)/(A$1)</f>
+        <v>45</v>
       </c>
       <c r="T13" s="12"/>
       <c r="U13" s="11"/>
@@ -2192,7 +2911,7 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T13:X13)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="12"/>
@@ -2201,62 +2920,66 @@
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
       <c r="AE13" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z13:AD13)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="12"/>
-      <c r="AG13" s="18">
-        <f t="shared" si="4"/>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="20">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="AG13" s="17">
+        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="8">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <v>50</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N14" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O14" s="11">
         <v>0</v>
       </c>
-      <c r="P14" s="11"/>
+      <c r="P14" s="12">
+        <v>85</v>
+      </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="8">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>SUM(L14:R14)/(A$1)</f>
+        <v>41.25</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="11"/>
@@ -2264,7 +2987,7 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T14:X14)</f>
         <v>0</v>
       </c>
       <c r="Z14" s="12"/>
@@ -2273,62 +2996,66 @@
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
       <c r="AE14" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z14:AD14)</f>
         <v>0</v>
       </c>
       <c r="AF14" s="12"/>
-      <c r="AG14" s="18">
-        <f t="shared" si="4"/>
-        <v>9.3333333333333339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="AG14" s="17">
+        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="8">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <v>50</v>
       </c>
       <c r="L15" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M15" s="11">
         <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="11"/>
+      <c r="P15" s="12">
+        <v>85</v>
+      </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="8">
-        <f t="shared" si="1"/>
-        <v>26.666666666666668</v>
+        <f>SUM(L15:R15)/(A$1)</f>
+        <v>33.75</v>
       </c>
       <c r="T15" s="12"/>
       <c r="U15" s="11"/>
@@ -2336,7 +3063,7 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T15:X15)</f>
         <v>0</v>
       </c>
       <c r="Z15" s="12"/>
@@ -2345,49 +3072,48 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z15:AD15)</f>
         <v>0</v>
       </c>
       <c r="AF15" s="12"/>
-      <c r="AG15" s="18">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="AG15" s="17">
+        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="8">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <v>25</v>
       </c>
       <c r="L16" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
         <v>0</v>
@@ -2398,12 +3124,14 @@
       <c r="O16" s="11">
         <v>0</v>
       </c>
-      <c r="P16" s="11"/>
+      <c r="P16" s="12">
+        <v>85</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="8">
-        <f t="shared" si="1"/>
-        <v>26.666666666666668</v>
+        <f>SUM(L16:R16)/(A$1)</f>
+        <v>21.25</v>
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="11"/>
@@ -2411,7 +3139,7 @@
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T16:X16)</f>
         <v>0</v>
       </c>
       <c r="Z16" s="12"/>
@@ -2420,49 +3148,51 @@
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
       <c r="AE16" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z16:AD16)</f>
         <v>0</v>
       </c>
       <c r="AF16" s="12"/>
-      <c r="AG16" s="18">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="AG16" s="17">
+        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="8">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <v>15.625</v>
       </c>
       <c r="L17" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M17" s="11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N17" s="11">
         <v>0</v>
@@ -2470,12 +3200,14 @@
       <c r="O17" s="11">
         <v>0</v>
       </c>
-      <c r="P17" s="11"/>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="8">
-        <f t="shared" si="1"/>
-        <v>26.666666666666668</v>
+        <f>SUM(L17:R17)/(A$1)</f>
+        <v>21.25</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="11"/>
@@ -2483,7 +3215,7 @@
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T17:X17)</f>
         <v>0</v>
       </c>
       <c r="Z17" s="12"/>
@@ -2492,62 +3224,66 @@
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
       <c r="AE17" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z17:AD17)</f>
         <v>0</v>
       </c>
       <c r="AF17" s="12"/>
-      <c r="AG17" s="18">
-        <f t="shared" si="4"/>
-        <v>7.0000000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="20">
-        <v>0</v>
-      </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>2</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="AG17" s="17">
+        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="8">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <v>12.5</v>
       </c>
       <c r="L18" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M18" s="11">
         <v>0</v>
       </c>
       <c r="N18" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O18" s="11">
         <v>0</v>
       </c>
-      <c r="P18" s="11"/>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="8">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
+        <f>SUM(L18:R18)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="11"/>
@@ -2555,7 +3291,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T18:X18)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="12"/>
@@ -2564,46 +3300,69 @@
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
       <c r="AE18" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z18:AD18)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="12"/>
-      <c r="AG18" s="18">
-        <f t="shared" si="4"/>
-        <v>6.6666666666666679</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="AG18" s="17">
+        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
+        <v>5.25</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="8">
+        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="L19" s="12">
         <v>80</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L19:R19)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T19" s="12"/>
       <c r="U19" s="11"/>
@@ -2611,7 +3370,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T19:X19)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="12"/>
@@ -2620,46 +3379,66 @@
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
       <c r="AE19" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z19:AD19)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="AG19" s="17">
+        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="L20" s="12">
+        <v>80</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(L20:R20)/(A$1)</f>
+        <v>20</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="11"/>
@@ -2667,7 +3446,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T20:X20)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="12"/>
@@ -2676,45 +3455,65 @@
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
       <c r="AE20" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z20:AD20)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="12"/>
-      <c r="AG20" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="AG20" s="17">
+        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L21:R21)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T21" s="12"/>
@@ -2723,7 +3522,7 @@
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T21:X21)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="12"/>
@@ -2732,45 +3531,65 @@
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
       <c r="AE21" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z21:AD21)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="12"/>
-      <c r="AG21" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="AG21" s="17">
+        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L22:R22)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T22" s="12"/>
@@ -2779,7 +3598,7 @@
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T22:X22)</f>
         <v>0</v>
       </c>
       <c r="Z22" s="12"/>
@@ -2788,45 +3607,65 @@
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z22:AD22)</f>
         <v>0</v>
       </c>
       <c r="AF22" s="12"/>
-      <c r="AG22" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="AG22" s="17">
+        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L23:R23)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T23" s="12"/>
@@ -2835,7 +3674,7 @@
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T23:X23)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="12"/>
@@ -2844,45 +3683,65 @@
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z23:AD23)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="12"/>
-      <c r="AG23" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
+      <c r="AG23" s="17">
+        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L24:R24)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T24" s="12"/>
@@ -2891,7 +3750,7 @@
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T24:X24)</f>
         <v>0</v>
       </c>
       <c r="Z24" s="12"/>
@@ -2900,45 +3759,65 @@
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z24:AD24)</f>
         <v>0</v>
       </c>
       <c r="AF24" s="12"/>
-      <c r="AG24" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="AG24" s="17">
+        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L25:R25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T25" s="12"/>
@@ -2947,7 +3826,7 @@
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T25:X25)</f>
         <v>0</v>
       </c>
       <c r="Z25" s="12"/>
@@ -2956,45 +3835,65 @@
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z25:AD25)</f>
         <v>0</v>
       </c>
       <c r="AF25" s="12"/>
-      <c r="AG25" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="AG25" s="17">
+        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T26" s="12"/>
@@ -3003,7 +3902,7 @@
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T26:X26)</f>
         <v>0</v>
       </c>
       <c r="Z26" s="12"/>
@@ -3012,45 +3911,65 @@
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z26:AD26)</f>
         <v>0</v>
       </c>
       <c r="AF26" s="12"/>
-      <c r="AG26" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="AG26" s="17">
+        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T27" s="12"/>
@@ -3059,7 +3978,7 @@
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T27:X27)</f>
         <v>0</v>
       </c>
       <c r="Z27" s="12"/>
@@ -3068,45 +3987,65 @@
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z27:AD27)</f>
         <v>0</v>
       </c>
       <c r="AF27" s="12"/>
-      <c r="AG27" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="AG27" s="17">
+        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0</v>
+      </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T28" s="12"/>
@@ -3115,7 +4054,7 @@
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T28:X28)</f>
         <v>0</v>
       </c>
       <c r="Z28" s="12"/>
@@ -3124,45 +4063,65 @@
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
       <c r="AE28" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z28:AD28)</f>
         <v>0</v>
       </c>
       <c r="AF28" s="12"/>
-      <c r="AG28" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="AG28" s="17">
+        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T29" s="12"/>
@@ -3171,7 +4130,7 @@
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T29:X29)</f>
         <v>0</v>
       </c>
       <c r="Z29" s="12"/>
@@ -3180,45 +4139,65 @@
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
       <c r="AE29" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z29:AD29)</f>
         <v>0</v>
       </c>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="AG29" s="17">
+        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T30" s="12"/>
@@ -3227,7 +4206,7 @@
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T30:X30)</f>
         <v>0</v>
       </c>
       <c r="Z30" s="12"/>
@@ -3236,45 +4215,65 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
       <c r="AE30" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z30:AD30)</f>
         <v>0</v>
       </c>
       <c r="AF30" s="12"/>
-      <c r="AG30" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="AG30" s="17">
+        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0</v>
+      </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T31" s="12"/>
@@ -3283,7 +4282,7 @@
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T31:X31)</f>
         <v>0</v>
       </c>
       <c r="Z31" s="12"/>
@@ -3292,45 +4291,65 @@
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
       <c r="AE31" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z31:AD31)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="12"/>
-      <c r="AG31" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="AG31" s="17">
+        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0</v>
+      </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T32" s="12"/>
@@ -3339,7 +4358,7 @@
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(T32:X32)</f>
         <v>0</v>
       </c>
       <c r="Z32" s="12"/>
@@ -3348,45 +4367,65 @@
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
       <c r="AE32" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z32:AD32)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="12"/>
-      <c r="AG32" s="18">
-        <f t="shared" si="4"/>
+      <c r="AG32" s="17">
+        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
       <c r="I33" s="13"/>
       <c r="J33" s="13"/>
       <c r="K33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
+        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="T33" s="7"/>
@@ -3395,7 +4434,7 @@
       <c r="W33" s="9"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10">
-        <f t="shared" si="2"/>
+        <f>SUM(T33:X33)</f>
         <v>0</v>
       </c>
       <c r="Z33" s="7"/>
@@ -3404,12 +4443,12 @@
       <c r="AC33" s="9"/>
       <c r="AD33" s="9"/>
       <c r="AE33" s="8">
-        <f t="shared" si="3"/>
+        <f>SUM(Z33:AD33)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="7"/>
       <c r="AG33" s="6">
-        <f t="shared" si="4"/>
+        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
         <v>0</v>
       </c>
     </row>
@@ -4693,7 +5732,7 @@
     </row>
   </sheetData>
   <sortState ref="A3:AH33">
-    <sortCondition descending="1" ref="AG2"/>
+    <sortCondition descending="1" ref="AG1"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="T1:Y1"/>
@@ -4702,14 +5741,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4784,18 +5823,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
   <si>
     <t>Ad Soyad</t>
   </si>
@@ -432,6 +432,12 @@
   </si>
   <si>
     <t>DEMİR</t>
+  </si>
+  <si>
+    <t>ALPEREN</t>
+  </si>
+  <si>
+    <t>TÜRKER</t>
   </si>
 </sst>
 </file>
@@ -788,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -863,505 +869,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1442,31 +955,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C6500"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1481,102 +974,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1913,27 +1314,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH81"/>
+  <dimension ref="A1:AH82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1:Y1"/>
+      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="2" customWidth="1"/>
     <col min="20" max="21" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="24" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
@@ -2120,11 +1522,13 @@
       <c r="H3" s="18">
         <v>1.9</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="18">
+        <v>2</v>
+      </c>
       <c r="J3" s="18"/>
       <c r="K3" s="8">
         <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>123.75</v>
+        <v>148.75</v>
       </c>
       <c r="L3" s="12">
         <v>100</v>
@@ -2141,11 +1545,13 @@
       <c r="P3" s="11">
         <v>85</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="11">
+        <v>100</v>
+      </c>
       <c r="R3" s="11"/>
       <c r="S3" s="8">
         <f>SUM(L3:R3)/(A$1)</f>
-        <v>108.75</v>
+        <v>133.75</v>
       </c>
       <c r="T3" s="12"/>
       <c r="U3" s="11"/>
@@ -2168,7 +1574,7 @@
       <c r="AF3" s="12"/>
       <c r="AG3" s="17">
         <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>34.125</v>
+        <v>41.625</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,11 +1602,13 @@
       <c r="H4" s="18">
         <v>2</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
       <c r="J4" s="18"/>
       <c r="K4" s="8">
         <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -2217,11 +1625,13 @@
       <c r="P4" s="11">
         <v>85</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="11">
+        <v>100</v>
+      </c>
       <c r="R4" s="11"/>
       <c r="S4" s="8">
         <f>SUM(L4:R4)/(A$1)</f>
-        <v>88.75</v>
+        <v>113.75</v>
       </c>
       <c r="T4" s="12"/>
       <c r="U4" s="11"/>
@@ -2244,7 +1654,7 @@
       <c r="AF4" s="12"/>
       <c r="AG4" s="17">
         <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>27.75</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,11 +1682,13 @@
       <c r="H5" s="18">
         <v>2</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
       <c r="J5" s="18"/>
       <c r="K5" s="8">
         <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -2293,11 +1705,13 @@
       <c r="P5" s="11">
         <v>85</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="11">
+        <v>100</v>
+      </c>
       <c r="R5" s="11"/>
       <c r="S5" s="8">
         <f>SUM(L5:R5)/(A$1)</f>
-        <v>86.25</v>
+        <v>111.25</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="11"/>
@@ -2320,7 +1734,7 @@
       <c r="AF5" s="12"/>
       <c r="AG5" s="17">
         <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>27.25</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2346,11 +1760,13 @@
       <c r="H6" s="18">
         <v>2</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="8">
         <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -2367,11 +1783,13 @@
       <c r="P6" s="11">
         <v>85</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="11">
+        <v>100</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="8">
         <f>SUM(L6:R6)/(A$1)</f>
-        <v>86.25</v>
+        <v>111.25</v>
       </c>
       <c r="T6" s="12"/>
       <c r="U6" s="11"/>
@@ -2394,7 +1812,7 @@
       <c r="AF6" s="12"/>
       <c r="AG6" s="17">
         <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>27.25</v>
+        <v>34.75</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,11 +1840,13 @@
       <c r="H7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="8">
         <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -2443,11 +1863,13 @@
       <c r="P7" s="11">
         <v>85</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="11">
+        <v>100</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="8">
         <f>SUM(L7:R7)/(A$1)</f>
-        <v>66.25</v>
+        <v>91.25</v>
       </c>
       <c r="T7" s="12"/>
       <c r="U7" s="11"/>
@@ -2470,7 +1892,7 @@
       <c r="AF7" s="12"/>
       <c r="AG7" s="17">
         <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>20.75</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2498,11 +1920,13 @@
       <c r="H8" s="18">
         <v>2</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="8">
         <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -2519,11 +1943,13 @@
       <c r="P8" s="12">
         <v>95</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="11">
+        <v>100</v>
+      </c>
       <c r="R8" s="11"/>
       <c r="S8" s="8">
         <f>SUM(L8:R8)/(A$1)</f>
-        <v>68.75</v>
+        <v>93.75</v>
       </c>
       <c r="T8" s="12"/>
       <c r="U8" s="11"/>
@@ -2546,7 +1972,7 @@
       <c r="AF8" s="12"/>
       <c r="AG8" s="17">
         <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>20</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,11 +2000,13 @@
       <c r="H9" s="18">
         <v>1.7</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="8">
         <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>71.25</v>
+        <v>96.25</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -2595,11 +2023,13 @@
       <c r="P9" s="11">
         <v>85</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="11">
+        <v>100</v>
+      </c>
       <c r="R9" s="11"/>
       <c r="S9" s="8">
         <f>SUM(L9:R9)/(A$1)</f>
-        <v>63.75</v>
+        <v>88.75</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="11"/>
@@ -2622,60 +2052,64 @@
       <c r="AF9" s="12"/>
       <c r="AG9" s="17">
         <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>19.875</v>
+        <v>27.375</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="D10" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="18">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18">
-        <v>2</v>
-      </c>
-      <c r="I10" s="18"/>
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="8">
         <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
       <c r="L10" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N10" s="11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="11">
         <v>100</v>
       </c>
-      <c r="P10" s="11">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="8">
         <f>SUM(L10:R10)/(A$1)</f>
-        <v>67.5</v>
+        <v>90</v>
       </c>
       <c r="T10" s="12"/>
       <c r="U10" s="11"/>
@@ -2698,60 +2132,64 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="17">
         <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>19.75</v>
+        <v>26.75</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D11" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" s="18">
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G11" s="18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H11" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="I11" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="8">
         <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>62.5</v>
+        <v>93.75</v>
       </c>
       <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>70</v>
+      </c>
+      <c r="O11" s="11">
+        <v>70</v>
+      </c>
+      <c r="P11" s="12">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="11">
         <v>100</v>
       </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>90</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="8">
         <f>SUM(L11:R11)/(A$1)</f>
-        <v>65</v>
+        <v>81.25</v>
       </c>
       <c r="T11" s="12"/>
       <c r="U11" s="11"/>
@@ -2774,60 +2212,64 @@
       <c r="AF11" s="12"/>
       <c r="AG11" s="17">
         <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>19.25</v>
+        <v>25.625</v>
       </c>
     </row>
     <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>117</v>
+        <v>58</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
       </c>
       <c r="E12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="18">
         <v>2</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="8">
         <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>68.75</v>
+        <v>75</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N12" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O12" s="11">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="P12" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>60</v>
+      </c>
       <c r="R12" s="11"/>
       <c r="S12" s="8">
         <f>SUM(L12:R12)/(A$1)</f>
-        <v>56.25</v>
+        <v>82.5</v>
       </c>
       <c r="T12" s="12"/>
       <c r="U12" s="11"/>
@@ -2850,7 +2292,7 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="17">
         <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>18.125</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,11 +2320,13 @@
       <c r="H13" s="18">
         <v>1.6</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18">
+        <v>2</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="8">
         <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -2899,11 +2343,13 @@
       <c r="P13" s="12">
         <v>90</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="11">
+        <v>100</v>
+      </c>
       <c r="R13" s="11"/>
       <c r="S13" s="8">
         <f>SUM(L13:R13)/(A$1)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="T13" s="12"/>
       <c r="U13" s="11"/>
@@ -2926,7 +2372,7 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="17">
         <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
-        <v>13.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2954,11 +2400,13 @@
       <c r="H14" s="18">
         <v>2</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
       <c r="J14" s="18"/>
       <c r="K14" s="8">
         <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -2975,11 +2423,13 @@
       <c r="P14" s="12">
         <v>85</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="11">
+        <v>100</v>
+      </c>
       <c r="R14" s="11"/>
       <c r="S14" s="8">
         <f>SUM(L14:R14)/(A$1)</f>
-        <v>41.25</v>
+        <v>66.25</v>
       </c>
       <c r="T14" s="12"/>
       <c r="U14" s="11"/>
@@ -3002,7 +2452,7 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="17">
         <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
-        <v>13.25</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3030,11 +2480,13 @@
       <c r="H15" s="18">
         <v>2</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18">
+        <v>0.3</v>
+      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="8">
         <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>50</v>
+        <v>53.75</v>
       </c>
       <c r="L15" s="12">
         <v>0</v>
@@ -3051,11 +2503,13 @@
       <c r="P15" s="12">
         <v>85</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="11">
+        <v>30</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="8">
         <f>SUM(L15:R15)/(A$1)</f>
-        <v>33.75</v>
+        <v>41.25</v>
       </c>
       <c r="T15" s="12"/>
       <c r="U15" s="11"/>
@@ -3078,21 +2532,21 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="17">
         <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
-        <v>11.75</v>
+        <v>13.625</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D16" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
@@ -3104,16 +2558,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <v>2</v>
-      </c>
-      <c r="I16" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="8">
         <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="L16" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M16" s="11">
         <v>0</v>
@@ -3125,13 +2581,15 @@
         <v>0</v>
       </c>
       <c r="P16" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>100</v>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="8">
         <f>SUM(L16:R16)/(A$1)</f>
-        <v>21.25</v>
+        <v>45</v>
       </c>
       <c r="T16" s="12"/>
       <c r="U16" s="11"/>
@@ -3154,24 +2612,24 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="17">
         <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
-        <v>6.75</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="D17" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="18">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F17" s="18">
         <v>0</v>
@@ -3182,17 +2640,19 @@
       <c r="H17" s="18">
         <v>0</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8">
         <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>15.625</v>
+        <v>37.5</v>
       </c>
       <c r="L17" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M17" s="11">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="N17" s="11">
         <v>0</v>
@@ -3203,11 +2663,13 @@
       <c r="P17" s="12">
         <v>0</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="11">
+        <v>100</v>
+      </c>
       <c r="R17" s="11"/>
       <c r="S17" s="8">
         <f>SUM(L17:R17)/(A$1)</f>
-        <v>21.25</v>
+        <v>45</v>
       </c>
       <c r="T17" s="12"/>
       <c r="U17" s="11"/>
@@ -3230,21 +2692,19 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="17">
         <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
-        <v>5.8125</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>76</v>
-      </c>
+      <c r="A18" s="25"/>
       <c r="B18" s="24" t="s">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D18" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <v>0</v>
@@ -3258,14 +2718,16 @@
       <c r="H18" s="18">
         <v>0</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18">
+        <v>2</v>
+      </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8">
         <f>100*SUM(D18:J18)/(2*A$1)</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L18" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M18" s="11">
         <v>0</v>
@@ -3279,11 +2741,13 @@
       <c r="P18" s="11">
         <v>0</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="11">
+        <v>100</v>
+      </c>
       <c r="R18" s="11"/>
       <c r="S18" s="8">
         <f>SUM(L18:R18)/(A$1)</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="11"/>
@@ -3306,24 +2770,21 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="17">
         <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
-        <v>5.25</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>62</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D19" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="18">
         <v>0</v>
@@ -3335,16 +2796,18 @@
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
       <c r="J19" s="18"/>
       <c r="K19" s="8">
         <f>100*SUM(D19:J19)/(2*A$1)</f>
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L19" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M19" s="12">
         <v>0</v>
@@ -3356,13 +2819,15 @@
         <v>0</v>
       </c>
       <c r="P19" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="11"/>
+        <v>85</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
       <c r="R19" s="11"/>
       <c r="S19" s="8">
         <f>SUM(L19:R19)/(A$1)</f>
-        <v>20</v>
+        <v>21.25</v>
       </c>
       <c r="T19" s="12"/>
       <c r="U19" s="11"/>
@@ -3385,24 +2850,24 @@
       <c r="AF19" s="12"/>
       <c r="AG19" s="17">
         <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
-        <v>5.25</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="D20" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F20" s="18">
         <v>0</v>
@@ -3413,17 +2878,19 @@
       <c r="H20" s="18">
         <v>0</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8">
         <f>100*SUM(D20:J20)/(2*A$1)</f>
-        <v>12.5</v>
+        <v>15.625</v>
       </c>
       <c r="L20" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M20" s="12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N20" s="12">
         <v>0</v>
@@ -3434,11 +2901,13 @@
       <c r="P20" s="12">
         <v>0</v>
       </c>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="11">
+        <v>0</v>
+      </c>
       <c r="R20" s="11"/>
       <c r="S20" s="8">
         <f>SUM(L20:R20)/(A$1)</f>
-        <v>20</v>
+        <v>21.25</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="11"/>
@@ -3461,21 +2930,21 @@
       <c r="AF20" s="12"/>
       <c r="AG20" s="17">
         <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
-        <v>5.25</v>
+        <v>5.8125</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D21" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
@@ -3489,14 +2958,16 @@
       <c r="H21" s="18">
         <v>0</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
       <c r="J21" s="18"/>
       <c r="K21" s="8">
         <f>100*SUM(D21:J21)/(2*A$1)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="L21" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M21" s="12">
         <v>0</v>
@@ -3510,11 +2981,13 @@
       <c r="P21" s="12">
         <v>0</v>
       </c>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
       <c r="R21" s="11"/>
       <c r="S21" s="8">
         <f>SUM(L21:R21)/(A$1)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T21" s="12"/>
       <c r="U21" s="11"/>
@@ -3537,18 +3010,21 @@
       <c r="AF21" s="12"/>
       <c r="AG21" s="17">
         <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
-        <v>0</v>
+        <v>5.25</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D22" s="18">
         <v>0</v>
@@ -3565,7 +3041,9 @@
       <c r="H22" s="18">
         <v>0</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
       <c r="J22" s="18"/>
       <c r="K22" s="8">
         <f>100*SUM(D22:J22)/(2*A$1)</f>
@@ -3586,7 +3064,9 @@
       <c r="P22" s="12">
         <v>0</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
       <c r="R22" s="11"/>
       <c r="S22" s="8">
         <f>SUM(L22:R22)/(A$1)</f>
@@ -3618,13 +3098,13 @@
     </row>
     <row r="23" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -3641,7 +3121,9 @@
       <c r="H23" s="18">
         <v>0</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8">
         <f>100*SUM(D23:J23)/(2*A$1)</f>
@@ -3662,7 +3144,9 @@
       <c r="P23" s="11">
         <v>0</v>
       </c>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
       <c r="R23" s="11"/>
       <c r="S23" s="8">
         <f>SUM(L23:R23)/(A$1)</f>
@@ -3694,13 +3178,13 @@
     </row>
     <row r="24" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D24" s="18">
         <v>0</v>
@@ -3717,7 +3201,9 @@
       <c r="H24" s="18">
         <v>0</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
       <c r="J24" s="18"/>
       <c r="K24" s="8">
         <f>100*SUM(D24:J24)/(2*A$1)</f>
@@ -3738,7 +3224,9 @@
       <c r="P24" s="12">
         <v>0</v>
       </c>
-      <c r="Q24" s="11"/>
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
       <c r="R24" s="11"/>
       <c r="S24" s="8">
         <f>SUM(L24:R24)/(A$1)</f>
@@ -3770,13 +3258,13 @@
     </row>
     <row r="25" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="D25" s="18">
         <v>0</v>
@@ -3793,7 +3281,9 @@
       <c r="H25" s="18">
         <v>0</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="8">
         <f>100*SUM(D25:J25)/(2*A$1)</f>
@@ -3814,7 +3304,9 @@
       <c r="P25" s="12">
         <v>0</v>
       </c>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
       <c r="R25" s="11"/>
       <c r="S25" s="8">
         <f>SUM(L25:R25)/(A$1)</f>
@@ -3846,13 +3338,13 @@
     </row>
     <row r="26" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D26" s="18">
         <v>0</v>
@@ -3869,7 +3361,9 @@
       <c r="H26" s="18">
         <v>0</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
       <c r="J26" s="18"/>
       <c r="K26" s="8">
         <f>100*SUM(D26:J26)/(2*A$1)</f>
@@ -3890,7 +3384,9 @@
       <c r="P26" s="12">
         <v>0</v>
       </c>
-      <c r="Q26" s="11"/>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
       <c r="R26" s="11"/>
       <c r="S26" s="8">
         <f>SUM(L26:R26)/(A$1)</f>
@@ -3922,13 +3418,13 @@
     </row>
     <row r="27" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="D27" s="18">
         <v>0</v>
@@ -3945,7 +3441,9 @@
       <c r="H27" s="18">
         <v>0</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
       <c r="J27" s="18"/>
       <c r="K27" s="8">
         <f>100*SUM(D27:J27)/(2*A$1)</f>
@@ -3966,7 +3464,9 @@
       <c r="P27" s="11">
         <v>0</v>
       </c>
-      <c r="Q27" s="11"/>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
       <c r="R27" s="11"/>
       <c r="S27" s="8">
         <f>SUM(L27:R27)/(A$1)</f>
@@ -3998,13 +3498,13 @@
     </row>
     <row r="28" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D28" s="18">
         <v>0</v>
@@ -4021,7 +3521,9 @@
       <c r="H28" s="18">
         <v>0</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
       <c r="J28" s="18"/>
       <c r="K28" s="8">
         <f>100*SUM(D28:J28)/(2*A$1)</f>
@@ -4042,7 +3544,9 @@
       <c r="P28" s="12">
         <v>0</v>
       </c>
-      <c r="Q28" s="11"/>
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
       <c r="R28" s="11"/>
       <c r="S28" s="8">
         <f>SUM(L28:R28)/(A$1)</f>
@@ -4074,13 +3578,13 @@
     </row>
     <row r="29" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D29" s="18">
         <v>0</v>
@@ -4097,7 +3601,9 @@
       <c r="H29" s="18">
         <v>0</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
       <c r="J29" s="18"/>
       <c r="K29" s="8">
         <f>100*SUM(D29:J29)/(2*A$1)</f>
@@ -4118,7 +3624,9 @@
       <c r="P29" s="12">
         <v>0</v>
       </c>
-      <c r="Q29" s="11"/>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
       <c r="R29" s="11"/>
       <c r="S29" s="8">
         <f>SUM(L29:R29)/(A$1)</f>
@@ -4150,13 +3658,13 @@
     </row>
     <row r="30" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D30" s="18">
         <v>0</v>
@@ -4173,7 +3681,9 @@
       <c r="H30" s="18">
         <v>0</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
       <c r="J30" s="18"/>
       <c r="K30" s="8">
         <f>100*SUM(D30:J30)/(2*A$1)</f>
@@ -4194,7 +3704,9 @@
       <c r="P30" s="12">
         <v>0</v>
       </c>
-      <c r="Q30" s="11"/>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
       <c r="R30" s="11"/>
       <c r="S30" s="8">
         <f>SUM(L30:R30)/(A$1)</f>
@@ -4226,13 +3738,13 @@
     </row>
     <row r="31" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="D31" s="18">
         <v>0</v>
@@ -4249,7 +3761,9 @@
       <c r="H31" s="18">
         <v>0</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
       <c r="J31" s="18"/>
       <c r="K31" s="8">
         <f>100*SUM(D31:J31)/(2*A$1)</f>
@@ -4270,7 +3784,9 @@
       <c r="P31" s="12">
         <v>0</v>
       </c>
-      <c r="Q31" s="11"/>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
       <c r="R31" s="11"/>
       <c r="S31" s="8">
         <f>SUM(L31:R31)/(A$1)</f>
@@ -4302,13 +3818,13 @@
     </row>
     <row r="32" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="D32" s="18">
         <v>0</v>
@@ -4325,7 +3841,9 @@
       <c r="H32" s="18">
         <v>0</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
       <c r="J32" s="18"/>
       <c r="K32" s="8">
         <f>100*SUM(D32:J32)/(2*A$1)</f>
@@ -4346,7 +3864,9 @@
       <c r="P32" s="12">
         <v>0</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
       <c r="R32" s="11"/>
       <c r="S32" s="8">
         <f>SUM(L32:R32)/(A$1)</f>
@@ -4376,15 +3896,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>27</v>
+    <row r="33" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>125</v>
       </c>
       <c r="D33" s="18">
         <v>0</v>
@@ -4401,8 +3921,10 @@
       <c r="H33" s="18">
         <v>0</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="42">
+        <v>0</v>
+      </c>
+      <c r="J33" s="42"/>
       <c r="K33" s="8">
         <f>100*SUM(D33:J33)/(2*A$1)</f>
         <v>0</v>
@@ -4422,46 +3944,119 @@
       <c r="P33" s="12">
         <v>0</v>
       </c>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11"/>
       <c r="S33" s="8">
         <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="10">
+      <c r="T33" s="12"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="8">
         <f>SUM(T33:X33)</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
       <c r="AE33" s="8">
         <f>SUM(Z33:AD33)</f>
         <v>0</v>
       </c>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="6">
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="17">
         <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="8">
+        <f>100*SUM(D34:J34)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="8">
+        <f>SUM(L34:R34)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="10">
+        <f>SUM(T34:X34)</f>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="8">
+        <f>SUM(Z34:AD34)</f>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="6">
+        <f>K34*0.1+S34*0.2+Y34*0.2+AE34*0.2+AF34*0.3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4469,24 +4064,6 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
     </row>
     <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
@@ -5730,9 +5307,36 @@
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
     </row>
+    <row r="82" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:AH33">
-    <sortCondition descending="1" ref="AG1"/>
+  <sortState ref="A3:AH34">
+    <sortCondition descending="1" ref="AG2"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="T1:Y1"/>
@@ -5740,19 +5344,19 @@
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J33">
-    <cfRule type="cellIs" dxfId="76" priority="10" operator="between">
+  <conditionalFormatting sqref="D3:J34">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K33">
+  <conditionalFormatting sqref="K3:K34">
     <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
@@ -5766,7 +5370,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S33">
+  <conditionalFormatting sqref="S3:S34">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -5780,7 +5384,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y33">
+  <conditionalFormatting sqref="Y3:Y34">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -5794,7 +5398,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE33">
+  <conditionalFormatting sqref="AE3:AE34">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -5808,7 +5412,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG33">
+  <conditionalFormatting sqref="AG3:AG34">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -5822,19 +5426,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R33">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="between">
+  <conditionalFormatting sqref="L3:R34">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5854,7 +5458,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K33</xm:sqref>
+          <xm:sqref>K3:K34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B379E5B3-42AD-4C0B-AA04-3A02BE851FDC}">
@@ -5865,7 +5469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S33</xm:sqref>
+          <xm:sqref>S3:S34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8EFB264D-B87A-49EE-830B-FBE7ADC68A58}">
@@ -5876,7 +5480,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y33</xm:sqref>
+          <xm:sqref>Y3:Y34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{FD22F188-E0E8-4DE0-B918-1844BDD897BB}">
@@ -5887,7 +5491,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE3:AE33</xm:sqref>
+          <xm:sqref>AE3:AE34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{664BDE93-EA77-401D-9F6C-79FB71655A1B}">
@@ -5898,7 +5502,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG3:AG33</xm:sqref>
+          <xm:sqref>AG3:AG34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Vize" sheetId="2" r:id="rId1"/>
+    <sheet name="Final" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -38,8 +39,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Arial Narrow"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Hafta Sayısı
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
   <si>
     <t>Ad Soyad</t>
   </si>
@@ -438,6 +463,15 @@
   </si>
   <si>
     <t>TÜRKER</t>
+  </si>
+  <si>
+    <t>DEVAM DURUMU (%20)</t>
+  </si>
+  <si>
+    <t>ÖDEVLER (%25)</t>
+  </si>
+  <si>
+    <t>SINAV (%35)</t>
   </si>
 </sst>
 </file>
@@ -794,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -863,18 +897,130 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1314,11 +1460,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG2" sqref="AG2"/>
+      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1328,75 +1474,56 @@
     <col min="3" max="3" width="9.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.44140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="3.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="2.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4.77734375" style="2" customWidth="1"/>
-    <col min="20" max="21" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="2" customWidth="1"/>
-    <col min="26" max="30" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.21875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.77734375" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="2"/>
+    <col min="20" max="20" width="6.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.77734375" style="2" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38">
         <v>4</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="39" t="s">
+      <c r="D1" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="27" t="s">
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="V1" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
@@ -1454,50 +1581,17 @@
       <c r="S2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="28">
-        <v>1</v>
-      </c>
-      <c r="U2" s="30">
-        <v>2</v>
-      </c>
-      <c r="V2" s="30">
-        <v>3</v>
-      </c>
-      <c r="W2" s="30">
-        <v>4</v>
-      </c>
-      <c r="X2" s="30">
-        <v>5</v>
-      </c>
-      <c r="Y2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="30">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="30">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="30">
-        <v>4</v>
-      </c>
-      <c r="AD2" s="30">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>61</v>
       </c>
@@ -1525,10 +1619,12 @@
       <c r="I3" s="18">
         <v>2</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18">
+        <v>2</v>
+      </c>
       <c r="K3" s="8">
         <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>148.75</v>
+        <v>173.75</v>
       </c>
       <c r="L3" s="12">
         <v>100</v>
@@ -1548,36 +1644,24 @@
       <c r="Q3" s="11">
         <v>100</v>
       </c>
-      <c r="R3" s="11"/>
+      <c r="R3" s="11">
+        <f>J3*50-10</f>
+        <v>90</v>
+      </c>
       <c r="S3" s="8">
         <f>SUM(L3:R3)/(A$1)</f>
-        <v>133.75</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="8">
-        <f>SUM(T3:X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="8">
-        <f>SUM(Z3:AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="17">
-        <f>K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>41.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>156.25</v>
+      </c>
+      <c r="T3" s="8">
+        <v>75</v>
+      </c>
+      <c r="U3" s="12"/>
+      <c r="V3" s="17">
+        <f>K3*0.2+S3*0.2+T3*0.25+U3*0.35</f>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>114</v>
       </c>
@@ -1605,10 +1689,12 @@
       <c r="I4" s="18">
         <v>2</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="18">
+        <v>2</v>
+      </c>
       <c r="K4" s="8">
         <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -1628,36 +1714,24 @@
       <c r="Q4" s="11">
         <v>100</v>
       </c>
-      <c r="R4" s="11"/>
+      <c r="R4" s="11">
+        <f t="shared" ref="R4:R15" si="0">J4*50-10</f>
+        <v>90</v>
+      </c>
       <c r="S4" s="8">
         <f>SUM(L4:R4)/(A$1)</f>
-        <v>113.75</v>
-      </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="8">
-        <f>SUM(T4:X4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="8">
-        <f>SUM(Z4:AD4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="17">
-        <f>K4*0.1+S4*0.2+Y4*0.2+AE4*0.2+AF4*0.3</f>
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136.25</v>
+      </c>
+      <c r="T4" s="8">
+        <v>100</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="17">
+        <f>K4*0.2+S4*0.2+T4*0.25+U4*0.35</f>
+        <v>82.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>85</v>
       </c>
@@ -1685,10 +1759,12 @@
       <c r="I5" s="18">
         <v>2</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="18">
+        <v>2</v>
+      </c>
       <c r="K5" s="8">
         <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -1708,36 +1784,24 @@
       <c r="Q5" s="11">
         <v>100</v>
       </c>
-      <c r="R5" s="11"/>
+      <c r="R5" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S5" s="8">
         <f>SUM(L5:R5)/(A$1)</f>
-        <v>111.25</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="8">
-        <f>SUM(T5:X5)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="8">
-        <f>SUM(Z5:AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="17">
-        <f>K5*0.1+S5*0.2+Y5*0.2+AE5*0.2+AF5*0.3</f>
-        <v>34.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133.75</v>
+      </c>
+      <c r="T5" s="8">
+        <v>75</v>
+      </c>
+      <c r="U5" s="12"/>
+      <c r="V5" s="17">
+        <f>K5*0.2+S5*0.2+T5*0.25+U5*0.35</f>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>109</v>
       </c>
@@ -1763,10 +1827,12 @@
       <c r="I6" s="18">
         <v>2</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="18">
+        <v>2</v>
+      </c>
       <c r="K6" s="8">
         <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -1786,36 +1852,24 @@
       <c r="Q6" s="11">
         <v>100</v>
       </c>
-      <c r="R6" s="11"/>
+      <c r="R6" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S6" s="8">
         <f>SUM(L6:R6)/(A$1)</f>
-        <v>111.25</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="8">
-        <f>SUM(T6:X6)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="8">
-        <f>SUM(Z6:AD6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="17">
-        <f>K6*0.1+S6*0.2+Y6*0.2+AE6*0.2+AF6*0.3</f>
-        <v>34.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133.75</v>
+      </c>
+      <c r="T6" s="8">
+        <v>75</v>
+      </c>
+      <c r="U6" s="12"/>
+      <c r="V6" s="17">
+        <f>K6*0.2+S6*0.2+T6*0.25+U6*0.35</f>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>111</v>
       </c>
@@ -1843,10 +1897,12 @@
       <c r="I7" s="18">
         <v>2</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="18">
+        <v>2</v>
+      </c>
       <c r="K7" s="8">
         <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1866,36 +1922,24 @@
       <c r="Q7" s="11">
         <v>100</v>
       </c>
-      <c r="R7" s="11"/>
+      <c r="R7" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S7" s="8">
         <f>SUM(L7:R7)/(A$1)</f>
-        <v>91.25</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="8">
-        <f>SUM(T7:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="8">
-        <f>SUM(Z7:AD7)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="17">
-        <f>K7*0.1+S7*0.2+Y7*0.2+AE7*0.2+AF7*0.3</f>
-        <v>28.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113.75</v>
+      </c>
+      <c r="T7" s="8">
+        <v>100</v>
+      </c>
+      <c r="U7" s="12"/>
+      <c r="V7" s="17">
+        <f>K7*0.2+S7*0.2+T7*0.25+U7*0.35</f>
+        <v>72.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
@@ -1923,10 +1967,12 @@
       <c r="I8" s="18">
         <v>2</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18">
+        <v>2</v>
+      </c>
       <c r="K8" s="8">
         <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>87.5</v>
+        <v>112.5</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1946,36 +1992,24 @@
       <c r="Q8" s="11">
         <v>100</v>
       </c>
-      <c r="R8" s="11"/>
+      <c r="R8" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S8" s="8">
         <f>SUM(L8:R8)/(A$1)</f>
-        <v>93.75</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="8">
-        <f>SUM(T8:X8)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="8">
-        <f>SUM(Z8:AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="17">
-        <f>K8*0.1+S8*0.2+Y8*0.2+AE8*0.2+AF8*0.3</f>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116.25</v>
+      </c>
+      <c r="T8" s="8">
+        <v>95</v>
+      </c>
+      <c r="U8" s="12"/>
+      <c r="V8" s="17">
+        <f>K8*0.2+S8*0.2+T8*0.25+U8*0.35</f>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>94</v>
       </c>
@@ -2003,10 +2037,12 @@
       <c r="I9" s="18">
         <v>2</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18">
+        <v>2</v>
+      </c>
       <c r="K9" s="8">
         <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>96.25</v>
+        <v>121.24999999999999</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -2026,36 +2062,24 @@
       <c r="Q9" s="11">
         <v>100</v>
       </c>
-      <c r="R9" s="11"/>
+      <c r="R9" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S9" s="8">
         <f>SUM(L9:R9)/(A$1)</f>
-        <v>88.75</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="8">
-        <f>SUM(T9:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="8">
-        <f>SUM(Z9:AD9)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="17">
-        <f>K9*0.1+S9*0.2+Y9*0.2+AE9*0.2+AF9*0.3</f>
-        <v>27.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111.25</v>
+      </c>
+      <c r="T9" s="8">
+        <v>90</v>
+      </c>
+      <c r="U9" s="12"/>
+      <c r="V9" s="17">
+        <f>K9*0.2+S9*0.2+T9*0.25+U9*0.35</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>126</v>
       </c>
@@ -2083,10 +2107,12 @@
       <c r="I10" s="18">
         <v>2</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
       <c r="K10" s="8">
         <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>87.5</v>
+        <v>112.5</v>
       </c>
       <c r="L10" s="12">
         <v>100</v>
@@ -2106,36 +2132,24 @@
       <c r="Q10" s="11">
         <v>100</v>
       </c>
-      <c r="R10" s="11"/>
+      <c r="R10" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S10" s="8">
         <f>SUM(L10:R10)/(A$1)</f>
-        <v>90</v>
-      </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="8">
-        <f>SUM(T10:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="8">
-        <f>SUM(Z10:AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="17">
-        <f>K10*0.1+S10*0.2+Y10*0.2+AE10*0.2+AF10*0.3</f>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112.5</v>
+      </c>
+      <c r="T10" s="8">
+        <v>80</v>
+      </c>
+      <c r="U10" s="12"/>
+      <c r="V10" s="17">
+        <f>K10*0.2+S10*0.2+T10*0.25+U10*0.35</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>117</v>
       </c>
@@ -2163,10 +2177,12 @@
       <c r="I11" s="18">
         <v>2</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="18">
+        <v>2</v>
+      </c>
       <c r="K11" s="8">
         <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>93.75</v>
+        <v>118.75</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -2186,67 +2202,57 @@
       <c r="Q11" s="11">
         <v>100</v>
       </c>
-      <c r="R11" s="11"/>
+      <c r="R11" s="11">
+        <f>J11*50-20</f>
+        <v>80</v>
+      </c>
       <c r="S11" s="8">
         <f>SUM(L11:R11)/(A$1)</f>
-        <v>81.25</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="8">
-        <f>SUM(T11:X11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="8">
-        <f>SUM(Z11:AD11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="17">
-        <f>K11*0.1+S11*0.2+Y11*0.2+AE11*0.2+AF11*0.3</f>
-        <v>25.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101.25</v>
+      </c>
+      <c r="T11" s="8">
+        <v>70</v>
+      </c>
+      <c r="U11" s="12"/>
+      <c r="V11" s="17">
+        <f>K11*0.2+S11*0.2+T11*0.25+U11*0.35</f>
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
       </c>
       <c r="E12" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="18">
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="18">
         <v>2</v>
       </c>
       <c r="I12" s="18">
-        <v>1</v>
-      </c>
-      <c r="J12" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="18">
+        <v>2</v>
+      </c>
       <c r="K12" s="8">
         <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -2258,44 +2264,32 @@
         <v>0</v>
       </c>
       <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="11">
         <v>100</v>
       </c>
-      <c r="P12" s="11">
+      <c r="R12" s="11">
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="Q12" s="11">
-        <v>60</v>
-      </c>
-      <c r="R12" s="11"/>
       <c r="S12" s="8">
         <f>SUM(L12:R12)/(A$1)</f>
-        <v>82.5</v>
-      </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="8">
-        <f>SUM(T12:X12)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="8">
-        <f>SUM(Z12:AD12)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="17">
-        <f>K12*0.1+S12*0.2+Y12*0.2+AE12*0.2+AF12*0.3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88.75</v>
+      </c>
+      <c r="T12" s="8">
+        <v>75</v>
+      </c>
+      <c r="U12" s="12"/>
+      <c r="V12" s="17">
+        <f>K12*0.2+S12*0.2+T12*0.25+U12*0.35</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>103</v>
       </c>
@@ -2323,10 +2317,12 @@
       <c r="I13" s="18">
         <v>2</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18">
+        <v>2</v>
+      </c>
       <c r="K13" s="8">
         <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -2346,67 +2342,57 @@
       <c r="Q13" s="11">
         <v>100</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
       <c r="S13" s="8">
         <f>SUM(L13:R13)/(A$1)</f>
-        <v>70</v>
-      </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="8">
-        <f>SUM(T13:X13)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="8">
-        <f>SUM(Z13:AD13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="17">
-        <f>K13*0.1+S13*0.2+Y13*0.2+AE13*0.2+AF13*0.3</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92.5</v>
+      </c>
+      <c r="T13" s="8">
+        <v>60</v>
+      </c>
+      <c r="U13" s="12"/>
+      <c r="V13" s="17">
+        <f>K13*0.2+S13*0.2+T13*0.25+U13*0.35</f>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
       </c>
       <c r="E14" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="18">
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14" s="18">
         <v>2</v>
       </c>
       <c r="I14" s="18">
-        <v>2</v>
-      </c>
-      <c r="J14" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2</v>
+      </c>
       <c r="K14" s="8">
         <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -2418,212 +2404,174 @@
         <v>0</v>
       </c>
       <c r="O14" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="12">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="11">
-        <v>100</v>
-      </c>
-      <c r="R14" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="R14" s="11">
+        <f>J14*50-20</f>
+        <v>80</v>
+      </c>
       <c r="S14" s="8">
         <f>SUM(L14:R14)/(A$1)</f>
-        <v>66.25</v>
-      </c>
-      <c r="T14" s="12"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="8">
-        <f>SUM(T14:X14)</f>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="8">
-        <f>SUM(Z14:AD14)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="17">
-        <f>K14*0.1+S14*0.2+Y14*0.2+AE14*0.2+AF14*0.3</f>
-        <v>20.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102.5</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="17">
+        <f>K14*0.2+S14*0.2+T14*0.25+U14*0.35</f>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D15" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="18">
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="18">
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="J15" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2</v>
+      </c>
       <c r="K15" s="8">
         <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>53.75</v>
+        <v>62.5</v>
       </c>
       <c r="L15" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M15" s="11">
         <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O15" s="11">
         <v>0</v>
       </c>
       <c r="P15" s="12">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="11">
-        <v>30</v>
-      </c>
-      <c r="R15" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="R15" s="11">
+        <f>J15*50-20</f>
+        <v>80</v>
+      </c>
       <c r="S15" s="8">
         <f>SUM(L15:R15)/(A$1)</f>
-        <v>41.25</v>
-      </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="8">
-        <f>SUM(T15:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="8">
-        <f>SUM(Z15:AD15)</f>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="17">
-        <f>K15*0.1+S15*0.2+Y15*0.2+AE15*0.2+AF15*0.3</f>
-        <v>13.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="17">
+        <f>K15*0.2+S15*0.2+T15*0.25+U15*0.35</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D16" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="18">
-        <v>2</v>
-      </c>
-      <c r="J16" s="18"/>
+        <v>0.3</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
       <c r="K16" s="8">
         <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>37.5</v>
+        <v>53.75</v>
       </c>
       <c r="L16" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
         <v>0</v>
       </c>
       <c r="N16" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O16" s="11">
         <v>0</v>
       </c>
       <c r="P16" s="12">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="11">
-        <v>100</v>
-      </c>
-      <c r="R16" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="R16" s="11">
+        <f>J16*50</f>
+        <v>0</v>
+      </c>
       <c r="S16" s="8">
         <f>SUM(L16:R16)/(A$1)</f>
-        <v>45</v>
-      </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="8">
-        <f>SUM(T16:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="8">
-        <f>SUM(Z16:AD16)</f>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="17">
-        <f>K16*0.1+S16*0.2+Y16*0.2+AE16*0.2+AF16*0.3</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41.25</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="17">
+        <f>K16*0.2+S16*0.2+T16*0.25+U16*0.35</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
@@ -2643,7 +2591,9 @@
       <c r="I17" s="18">
         <v>2</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
       <c r="K17" s="8">
         <f>100*SUM(D17:J17)/(2*A$1)</f>
         <v>37.5</v>
@@ -2666,36 +2616,22 @@
       <c r="Q17" s="11">
         <v>100</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="R17" s="11">
+        <f>J17*50</f>
+        <v>0</v>
+      </c>
       <c r="S17" s="8">
         <f>SUM(L17:R17)/(A$1)</f>
         <v>45</v>
       </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="8">
-        <f>SUM(T17:X17)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="8">
-        <f>SUM(Z17:AD17)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="17">
-        <f>K17*0.1+S17*0.2+Y17*0.2+AE17*0.2+AF17*0.3</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="8"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="17">
+        <f>K17*0.2+S17*0.2+T17*0.25+U17*0.35</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25"/>
       <c r="B18" s="24" t="s">
         <v>131</v>
@@ -2721,7 +2657,9 @@
       <c r="I18" s="18">
         <v>2</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
       <c r="K18" s="8">
         <f>100*SUM(D18:J18)/(2*A$1)</f>
         <v>25</v>
@@ -2744,36 +2682,22 @@
       <c r="Q18" s="11">
         <v>100</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="11">
+        <f>J18*50</f>
+        <v>0</v>
+      </c>
       <c r="S18" s="8">
         <f>SUM(L18:R18)/(A$1)</f>
         <v>25</v>
       </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="8">
-        <f>SUM(T18:X18)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="8">
-        <f>SUM(Z18:AD18)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="17">
-        <f>K18*0.1+S18*0.2+Y18*0.2+AE18*0.2+AF18*0.3</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="8"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="17">
+        <f>K18*0.2+S18*0.2+T18*0.25+U18*0.35</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>100</v>
       </c>
@@ -2801,7 +2725,9 @@
       <c r="I19" s="18">
         <v>0</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
       <c r="K19" s="8">
         <f>100*SUM(D19:J19)/(2*A$1)</f>
         <v>25</v>
@@ -2824,36 +2750,22 @@
       <c r="Q19" s="11">
         <v>0</v>
       </c>
-      <c r="R19" s="11"/>
+      <c r="R19" s="11">
+        <f>J19*50</f>
+        <v>0</v>
+      </c>
       <c r="S19" s="8">
         <f>SUM(L19:R19)/(A$1)</f>
         <v>21.25</v>
       </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="8">
-        <f>SUM(T19:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="8">
-        <f>SUM(Z19:AD19)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="17">
-        <f>K19*0.1+S19*0.2+Y19*0.2+AE19*0.2+AF19*0.3</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="8"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="17">
+        <f>K19*0.2+S19*0.2+T19*0.25+U19*0.35</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>44</v>
       </c>
@@ -2881,7 +2793,9 @@
       <c r="I20" s="18">
         <v>0</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
       <c r="K20" s="8">
         <f>100*SUM(D20:J20)/(2*A$1)</f>
         <v>15.625</v>
@@ -2904,36 +2818,22 @@
       <c r="Q20" s="11">
         <v>0</v>
       </c>
-      <c r="R20" s="11"/>
+      <c r="R20" s="11">
+        <f>J20*50</f>
+        <v>0</v>
+      </c>
       <c r="S20" s="8">
         <f>SUM(L20:R20)/(A$1)</f>
         <v>21.25</v>
       </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="8">
-        <f>SUM(T20:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="8">
-        <f>SUM(Z20:AD20)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="17">
-        <f>K20*0.1+S20*0.2+Y20*0.2+AE20*0.2+AF20*0.3</f>
-        <v>5.8125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T20" s="8"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="17">
+        <f>K20*0.2+S20*0.2+T20*0.25+U20*0.35</f>
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>76</v>
       </c>
@@ -2961,7 +2861,9 @@
       <c r="I21" s="18">
         <v>0</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
       <c r="K21" s="8">
         <f>100*SUM(D21:J21)/(2*A$1)</f>
         <v>12.5</v>
@@ -2984,39 +2886,25 @@
       <c r="Q21" s="11">
         <v>0</v>
       </c>
-      <c r="R21" s="11"/>
+      <c r="R21" s="11">
+        <f>J21*50</f>
+        <v>0</v>
+      </c>
       <c r="S21" s="8">
         <f>SUM(L21:R21)/(A$1)</f>
         <v>20</v>
       </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="8">
-        <f>SUM(T21:X21)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="8">
-        <f>SUM(Z21:AD21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="17">
-        <f>K21*0.1+S21*0.2+Y21*0.2+AE21*0.2+AF21*0.3</f>
-        <v>5.25</v>
-      </c>
-      <c r="AH21" s="2" t="s">
+      <c r="T21" s="8"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="17">
+        <f>K21*0.2+S21*0.2+T21*0.25+U21*0.35</f>
+        <v>6.5</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>78</v>
       </c>
@@ -3044,7 +2932,9 @@
       <c r="I22" s="18">
         <v>0</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
       <c r="K22" s="8">
         <f>100*SUM(D22:J22)/(2*A$1)</f>
         <v>0</v>
@@ -3067,36 +2957,22 @@
       <c r="Q22" s="11">
         <v>0</v>
       </c>
-      <c r="R22" s="11"/>
+      <c r="R22" s="11">
+        <f>J22*50</f>
+        <v>0</v>
+      </c>
       <c r="S22" s="8">
         <f>SUM(L22:R22)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="8">
-        <f>SUM(T22:X22)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="8">
-        <f>SUM(Z22:AD22)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="17">
-        <f>K22*0.1+S22*0.2+Y22*0.2+AE22*0.2+AF22*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T22" s="8"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="17">
+        <f>K22*0.2+S22*0.2+T22*0.25+U22*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>47</v>
       </c>
@@ -3124,7 +3000,9 @@
       <c r="I23" s="18">
         <v>0</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
       <c r="K23" s="8">
         <f>100*SUM(D23:J23)/(2*A$1)</f>
         <v>0</v>
@@ -3147,36 +3025,22 @@
       <c r="Q23" s="11">
         <v>0</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="R23" s="11">
+        <f>J23*50</f>
+        <v>0</v>
+      </c>
       <c r="S23" s="8">
         <f>SUM(L23:R23)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="8">
-        <f>SUM(T23:X23)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="8">
-        <f>SUM(Z23:AD23)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="17">
-        <f>K23*0.1+S23*0.2+Y23*0.2+AE23*0.2+AF23*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="8"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="17">
+        <f>K23*0.2+S23*0.2+T23*0.25+U23*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>41</v>
       </c>
@@ -3204,7 +3068,9 @@
       <c r="I24" s="18">
         <v>0</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
       <c r="K24" s="8">
         <f>100*SUM(D24:J24)/(2*A$1)</f>
         <v>0</v>
@@ -3227,36 +3093,22 @@
       <c r="Q24" s="11">
         <v>0</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="11">
+        <f>J24*50</f>
+        <v>0</v>
+      </c>
       <c r="S24" s="8">
         <f>SUM(L24:R24)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="12"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="8">
-        <f>SUM(T24:X24)</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="8">
-        <f>SUM(Z24:AD24)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="17">
-        <f>K24*0.1+S24*0.2+Y24*0.2+AE24*0.2+AF24*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T24" s="8"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="17">
+        <f>K24*0.2+S24*0.2+T24*0.25+U24*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>88</v>
       </c>
@@ -3284,7 +3136,9 @@
       <c r="I25" s="18">
         <v>0</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
       <c r="K25" s="8">
         <f>100*SUM(D25:J25)/(2*A$1)</f>
         <v>0</v>
@@ -3307,36 +3161,22 @@
       <c r="Q25" s="11">
         <v>0</v>
       </c>
-      <c r="R25" s="11"/>
+      <c r="R25" s="11">
+        <f>J25*50</f>
+        <v>0</v>
+      </c>
       <c r="S25" s="8">
         <f>SUM(L25:R25)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="8">
-        <f>SUM(T25:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="8">
-        <f>SUM(Z25:AD25)</f>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="17">
-        <f>K25*0.1+S25*0.2+Y25*0.2+AE25*0.2+AF25*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T25" s="8"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="17">
+        <f>K25*0.2+S25*0.2+T25*0.25+U25*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>38</v>
       </c>
@@ -3364,7 +3204,9 @@
       <c r="I26" s="18">
         <v>0</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
       <c r="K26" s="8">
         <f>100*SUM(D26:J26)/(2*A$1)</f>
         <v>0</v>
@@ -3387,36 +3229,22 @@
       <c r="Q26" s="11">
         <v>0</v>
       </c>
-      <c r="R26" s="11"/>
+      <c r="R26" s="11">
+        <f>J26*50</f>
+        <v>0</v>
+      </c>
       <c r="S26" s="8">
         <f>SUM(L26:R26)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T26" s="12"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="8">
-        <f>SUM(T26:X26)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="8">
-        <f>SUM(Z26:AD26)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="17">
-        <f>K26*0.1+S26*0.2+Y26*0.2+AE26*0.2+AF26*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T26" s="8"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="17">
+        <f>K26*0.2+S26*0.2+T26*0.25+U26*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>49</v>
       </c>
@@ -3444,7 +3272,9 @@
       <c r="I27" s="18">
         <v>0</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
       <c r="K27" s="8">
         <f>100*SUM(D27:J27)/(2*A$1)</f>
         <v>0</v>
@@ -3467,36 +3297,22 @@
       <c r="Q27" s="11">
         <v>0</v>
       </c>
-      <c r="R27" s="11"/>
+      <c r="R27" s="11">
+        <f>J27*50</f>
+        <v>0</v>
+      </c>
       <c r="S27" s="8">
         <f>SUM(L27:R27)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="12"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="8">
-        <f>SUM(T27:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="8">
-        <f>SUM(Z27:AD27)</f>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="17">
-        <f>K27*0.1+S27*0.2+Y27*0.2+AE27*0.2+AF27*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T27" s="8"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="17">
+        <f>K27*0.2+S27*0.2+T27*0.25+U27*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>97</v>
       </c>
@@ -3524,7 +3340,9 @@
       <c r="I28" s="18">
         <v>0</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
       <c r="K28" s="8">
         <f>100*SUM(D28:J28)/(2*A$1)</f>
         <v>0</v>
@@ -3547,36 +3365,22 @@
       <c r="Q28" s="11">
         <v>0</v>
       </c>
-      <c r="R28" s="11"/>
+      <c r="R28" s="11">
+        <f>J28*50</f>
+        <v>0</v>
+      </c>
       <c r="S28" s="8">
         <f>SUM(L28:R28)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="8">
-        <f>SUM(T28:X28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="8">
-        <f>SUM(Z28:AD28)</f>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="17">
-        <f>K28*0.1+S28*0.2+Y28*0.2+AE28*0.2+AF28*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T28" s="8"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="17">
+        <f>K28*0.2+S28*0.2+T28*0.25+U28*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>106</v>
       </c>
@@ -3604,7 +3408,9 @@
       <c r="I29" s="18">
         <v>0</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
       <c r="K29" s="8">
         <f>100*SUM(D29:J29)/(2*A$1)</f>
         <v>0</v>
@@ -3627,36 +3433,22 @@
       <c r="Q29" s="11">
         <v>0</v>
       </c>
-      <c r="R29" s="11"/>
+      <c r="R29" s="11">
+        <f>J29*50</f>
+        <v>0</v>
+      </c>
       <c r="S29" s="8">
         <f>SUM(L29:R29)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="12"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="8">
-        <f>SUM(T29:X29)</f>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="8">
-        <f>SUM(Z29:AD29)</f>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="17">
-        <f>K29*0.1+S29*0.2+Y29*0.2+AE29*0.2+AF29*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T29" s="8"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="17">
+        <f>K29*0.2+S29*0.2+T29*0.25+U29*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
@@ -3684,7 +3476,9 @@
       <c r="I30" s="18">
         <v>0</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
       <c r="K30" s="8">
         <f>100*SUM(D30:J30)/(2*A$1)</f>
         <v>0</v>
@@ -3707,36 +3501,22 @@
       <c r="Q30" s="11">
         <v>0</v>
       </c>
-      <c r="R30" s="11"/>
+      <c r="R30" s="11">
+        <f>J30*50</f>
+        <v>0</v>
+      </c>
       <c r="S30" s="8">
         <f>SUM(L30:R30)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="8">
-        <f>SUM(T30:X30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="8">
-        <f>SUM(Z30:AD30)</f>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="17">
-        <f>K30*0.1+S30*0.2+Y30*0.2+AE30*0.2+AF30*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T30" s="8"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="17">
+        <f>K30*0.2+S30*0.2+T30*0.25+U30*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>120</v>
       </c>
@@ -3764,7 +3544,9 @@
       <c r="I31" s="18">
         <v>0</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
       <c r="K31" s="8">
         <f>100*SUM(D31:J31)/(2*A$1)</f>
         <v>0</v>
@@ -3787,36 +3569,22 @@
       <c r="Q31" s="11">
         <v>0</v>
       </c>
-      <c r="R31" s="11"/>
+      <c r="R31" s="11">
+        <f>J31*50</f>
+        <v>0</v>
+      </c>
       <c r="S31" s="8">
         <f>SUM(L31:R31)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="8">
-        <f>SUM(T31:X31)</f>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="8">
-        <f>SUM(Z31:AD31)</f>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="17">
-        <f>K31*0.1+S31*0.2+Y31*0.2+AE31*0.2+AF31*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T31" s="8"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="17">
+        <f>K31*0.2+S31*0.2+T31*0.25+U31*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>32</v>
       </c>
@@ -3844,7 +3612,9 @@
       <c r="I32" s="18">
         <v>0</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
       <c r="K32" s="8">
         <f>100*SUM(D32:J32)/(2*A$1)</f>
         <v>0</v>
@@ -3867,36 +3637,22 @@
       <c r="Q32" s="11">
         <v>0</v>
       </c>
-      <c r="R32" s="11"/>
+      <c r="R32" s="11">
+        <f>J32*50</f>
+        <v>0</v>
+      </c>
       <c r="S32" s="8">
         <f>SUM(L32:R32)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T32" s="12"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="8">
-        <f>SUM(T32:X32)</f>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="8">
-        <f>SUM(Z32:AD32)</f>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="17">
-        <f>K32*0.1+S32*0.2+Y32*0.2+AE32*0.2+AF32*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T32" s="8"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="17">
+        <f>K32*0.2+S32*0.2+T32*0.25+U32*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>123</v>
       </c>
@@ -3921,10 +3677,12 @@
       <c r="H33" s="18">
         <v>0</v>
       </c>
-      <c r="I33" s="42">
-        <v>0</v>
-      </c>
-      <c r="J33" s="42"/>
+      <c r="I33" s="41">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
       <c r="K33" s="8">
         <f>100*SUM(D33:J33)/(2*A$1)</f>
         <v>0</v>
@@ -3947,36 +3705,22 @@
       <c r="Q33" s="11">
         <v>0</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="11">
+        <f>J33*50</f>
+        <v>0</v>
+      </c>
       <c r="S33" s="8">
         <f>SUM(L33:R33)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="8">
-        <f>SUM(T33:X33)</f>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="8">
-        <f>SUM(Z33:AD33)</f>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="17">
-        <f>K33*0.1+S33*0.2+Y33*0.2+AE33*0.2+AF33*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="8"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="17">
+        <f>K33*0.2+S33*0.2+T33*0.25+U33*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +3748,9 @@
       <c r="I34" s="13">
         <v>0</v>
       </c>
-      <c r="J34" s="13"/>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
       <c r="K34" s="8">
         <f>100*SUM(D34:J34)/(2*A$1)</f>
         <v>0</v>
@@ -4027,36 +3773,22 @@
       <c r="Q34" s="9">
         <v>0</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="11">
+        <f>J34*50</f>
+        <v>0</v>
+      </c>
       <c r="S34" s="8">
         <f>SUM(L34:R34)/(A$1)</f>
         <v>0</v>
       </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="10">
-        <f>SUM(T34:X34)</f>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="8">
-        <f>SUM(Z34:AD34)</f>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="6">
-        <f>K34*0.1+S34*0.2+Y34*0.2+AE34*0.2+AF34*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T34" s="10"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="17">
+        <f>K34*0.2+S34*0.2+T34*0.25+U34*0.35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -4065,7 +3797,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -4086,13 +3818,8 @@
       <c r="R36" s="4"/>
       <c r="S36" s="4"/>
       <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -4113,13 +3840,8 @@
       <c r="R37" s="4"/>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -4140,13 +3862,8 @@
       <c r="R38" s="4"/>
       <c r="S38" s="4"/>
       <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -4167,13 +3884,8 @@
       <c r="R39" s="4"/>
       <c r="S39" s="4"/>
       <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -4194,13 +3906,8 @@
       <c r="R40" s="4"/>
       <c r="S40" s="4"/>
       <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -4221,13 +3928,8 @@
       <c r="R41" s="4"/>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -4248,13 +3950,8 @@
       <c r="R42" s="4"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-    </row>
-    <row r="43" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -4275,13 +3972,8 @@
       <c r="R43" s="4"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -4302,13 +3994,8 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-    </row>
-    <row r="45" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -4329,13 +4016,8 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -4356,13 +4038,8 @@
       <c r="R46" s="4"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -4383,13 +4060,8 @@
       <c r="R47" s="4"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-    </row>
-    <row r="48" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -4410,13 +4082,8 @@
       <c r="R48" s="4"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-    </row>
-    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -4437,13 +4104,8 @@
       <c r="R49" s="4"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-    </row>
-    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -4464,13 +4126,8 @@
       <c r="R50" s="4"/>
       <c r="S50" s="4"/>
       <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-    </row>
-    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -4491,13 +4148,8 @@
       <c r="R51" s="4"/>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-    </row>
-    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -4518,13 +4170,8 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-    </row>
-    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -4545,13 +4192,8 @@
       <c r="R53" s="4"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-    </row>
-    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -4572,13 +4214,8 @@
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-    </row>
-    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -4599,13 +4236,8 @@
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-    </row>
-    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -4626,13 +4258,8 @@
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-    </row>
-    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -4653,13 +4280,8 @@
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-    </row>
-    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -4680,13 +4302,8 @@
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-    </row>
-    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -4707,13 +4324,8 @@
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-    </row>
-    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -4734,13 +4346,8 @@
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
       <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-    </row>
-    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -4761,13 +4368,8 @@
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
       <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-    </row>
-    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -4788,13 +4390,8 @@
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
       <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-    </row>
-    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -4815,13 +4412,8 @@
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-    </row>
-    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -4842,13 +4434,8 @@
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
       <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-    </row>
-    <row r="65" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -4869,13 +4456,8 @@
       <c r="R65" s="4"/>
       <c r="S65" s="4"/>
       <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-    </row>
-    <row r="66" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -4896,13 +4478,8 @@
       <c r="R66" s="4"/>
       <c r="S66" s="4"/>
       <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-    </row>
-    <row r="67" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -4923,13 +4500,8 @@
       <c r="R67" s="4"/>
       <c r="S67" s="4"/>
       <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-    </row>
-    <row r="68" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -4950,13 +4522,8 @@
       <c r="R68" s="4"/>
       <c r="S68" s="4"/>
       <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-    </row>
-    <row r="69" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -4977,13 +4544,8 @@
       <c r="R69" s="4"/>
       <c r="S69" s="4"/>
       <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-    </row>
-    <row r="70" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -5004,13 +4566,8 @@
       <c r="R70" s="4"/>
       <c r="S70" s="4"/>
       <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-    </row>
-    <row r="71" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -5031,13 +4588,8 @@
       <c r="R71" s="4"/>
       <c r="S71" s="4"/>
       <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-    </row>
-    <row r="72" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -5058,13 +4610,8 @@
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
       <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-    </row>
-    <row r="73" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -5085,13 +4632,8 @@
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
       <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
-      <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-    </row>
-    <row r="74" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -5112,13 +4654,8 @@
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
       <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-    </row>
-    <row r="75" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -5139,13 +4676,8 @@
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
       <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-    </row>
-    <row r="76" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -5166,13 +4698,8 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
       <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-    </row>
-    <row r="77" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -5193,13 +4720,8 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
       <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-    </row>
-    <row r="78" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -5220,13 +4742,8 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
       <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-    </row>
-    <row r="79" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -5247,13 +4764,8 @@
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
       <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-    </row>
-    <row r="80" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -5274,13 +4786,8 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-    </row>
-    <row r="81" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -5301,13 +4808,8 @@
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
       <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-    </row>
-    <row r="82" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:20" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -5328,31 +4830,24 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AH34">
-    <sortCondition descending="1" ref="AG2"/>
+  <sortState ref="A3:W34">
+    <sortCondition descending="1" ref="V3"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
+  <mergeCells count="2">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5384,7 +4879,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y34">
+  <conditionalFormatting sqref="T3:T34">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -5398,21 +4893,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE34">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD22F188-E0E8-4DE0-B918-1844BDD897BB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG34">
+  <conditionalFormatting sqref="V3:V34">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -5427,18 +4908,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5480,10 +4961,4197 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <xm:sqref>T3:T34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{664BDE93-EA77-401D-9F6C-79FB71655A1B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V3:V34</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AH82"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U1:U1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="3.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.77734375" style="2" customWidth="1"/>
+    <col min="20" max="21" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5" style="2" customWidth="1"/>
+    <col min="26" max="30" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.21875" style="2" customWidth="1"/>
+    <col min="32" max="32" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.77734375" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="38">
+        <v>4</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="28">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30">
+        <v>2</v>
+      </c>
+      <c r="F2" s="30">
+        <v>3</v>
+      </c>
+      <c r="G2" s="30">
+        <v>4</v>
+      </c>
+      <c r="H2" s="30">
+        <v>5</v>
+      </c>
+      <c r="I2" s="30">
+        <v>6</v>
+      </c>
+      <c r="J2" s="30">
+        <v>7</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="28">
+        <v>1</v>
+      </c>
+      <c r="M2" s="30">
+        <v>2</v>
+      </c>
+      <c r="N2" s="30">
+        <v>3</v>
+      </c>
+      <c r="O2" s="30">
+        <v>4</v>
+      </c>
+      <c r="P2" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="30">
+        <v>6</v>
+      </c>
+      <c r="R2" s="30">
+        <v>7</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="28">
+        <v>1</v>
+      </c>
+      <c r="U2" s="30">
+        <v>2</v>
+      </c>
+      <c r="V2" s="30">
+        <v>3</v>
+      </c>
+      <c r="W2" s="30">
+        <v>4</v>
+      </c>
+      <c r="X2" s="30">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="30">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="30">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="30">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="30">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="I3" s="18">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="8">
+        <f t="shared" ref="K3:K34" si="0">100*SUM(D3:J3)/(2*A$1)</f>
+        <v>148.75</v>
+      </c>
+      <c r="L3" s="12">
+        <v>100</v>
+      </c>
+      <c r="M3" s="11">
+        <v>100</v>
+      </c>
+      <c r="N3" s="11">
+        <v>80</v>
+      </c>
+      <c r="O3" s="11">
+        <v>70</v>
+      </c>
+      <c r="P3" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>100</v>
+      </c>
+      <c r="R3" s="11"/>
+      <c r="S3" s="8">
+        <f t="shared" ref="S3:S34" si="1">SUM(L3:R3)/(A$1)</f>
+        <v>133.75</v>
+      </c>
+      <c r="T3" s="12"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="8">
+        <f t="shared" ref="Y3:Y34" si="2">SUM(T3:X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="8">
+        <f t="shared" ref="AE3:AE34" si="3">SUM(Z3:AD3)</f>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="17">
+        <f t="shared" ref="AG3:AG34" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
+        <v>41.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>2</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="18"/>
+      <c r="K4" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <v>100</v>
+      </c>
+      <c r="N4" s="11">
+        <v>90</v>
+      </c>
+      <c r="O4" s="11">
+        <v>80</v>
+      </c>
+      <c r="P4" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>100</v>
+      </c>
+      <c r="R4" s="11"/>
+      <c r="S4" s="8">
+        <f t="shared" si="1"/>
+        <v>113.75</v>
+      </c>
+      <c r="T4" s="12"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="17">
+        <f t="shared" si="4"/>
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>100</v>
+      </c>
+      <c r="N5" s="11">
+        <v>80</v>
+      </c>
+      <c r="O5" s="11">
+        <v>80</v>
+      </c>
+      <c r="P5" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>100</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="8">
+        <f t="shared" si="1"/>
+        <v>111.25</v>
+      </c>
+      <c r="T5" s="12"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="17">
+        <f t="shared" si="4"/>
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18">
+        <v>2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+      <c r="I6" s="18">
+        <v>2</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="L6" s="12">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <v>100</v>
+      </c>
+      <c r="N6" s="11">
+        <v>80</v>
+      </c>
+      <c r="O6" s="11">
+        <v>80</v>
+      </c>
+      <c r="P6" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>100</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="8">
+        <f t="shared" si="1"/>
+        <v>111.25</v>
+      </c>
+      <c r="T6" s="12"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="17">
+        <f t="shared" si="4"/>
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
+      <c r="I7" s="18">
+        <v>2</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>100</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>80</v>
+      </c>
+      <c r="P7" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>100</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="8">
+        <f t="shared" si="1"/>
+        <v>91.25</v>
+      </c>
+      <c r="T7" s="12"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="11"/>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="17">
+        <f t="shared" si="4"/>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>2</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>2</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <v>80</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0</v>
+      </c>
+      <c r="O8" s="11">
+        <v>100</v>
+      </c>
+      <c r="P8" s="12">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>100</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="8">
+        <f t="shared" si="1"/>
+        <v>93.75</v>
+      </c>
+      <c r="T8" s="12"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="17">
+        <f t="shared" si="4"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.7</v>
+      </c>
+      <c r="I9" s="18">
+        <v>2</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>96.25</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
+        <v>80</v>
+      </c>
+      <c r="O9" s="11">
+        <v>90</v>
+      </c>
+      <c r="P9" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>100</v>
+      </c>
+      <c r="R9" s="11"/>
+      <c r="S9" s="8">
+        <f t="shared" si="1"/>
+        <v>88.75</v>
+      </c>
+      <c r="T9" s="12"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="11"/>
+      <c r="Y9" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="17">
+        <f t="shared" si="4"/>
+        <v>27.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.8</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+      <c r="L10" s="12">
+        <v>100</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11">
+        <v>90</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>100</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="T10" s="12"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="17">
+        <f t="shared" si="4"/>
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>93.75</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>70</v>
+      </c>
+      <c r="O11" s="11">
+        <v>70</v>
+      </c>
+      <c r="P11" s="12">
+        <v>85</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>100</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="8">
+        <f t="shared" si="1"/>
+        <v>81.25</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="17">
+        <f t="shared" si="4"/>
+        <v>25.625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>2</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <v>80</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
+      <c r="O12" s="11">
+        <v>100</v>
+      </c>
+      <c r="P12" s="11">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>60</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="8">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="17">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="18">
+        <v>2</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>90</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>100</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="8">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="17">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>2</v>
+      </c>
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <v>80</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <v>85</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>100</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="8">
+        <f t="shared" si="1"/>
+        <v>66.25</v>
+      </c>
+      <c r="T14" s="12"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="17">
+        <f t="shared" si="4"/>
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>2</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>53.75</v>
+      </c>
+      <c r="L15" s="12">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>50</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0</v>
+      </c>
+      <c r="P15" s="12">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>30</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="8">
+        <f t="shared" si="1"/>
+        <v>41.25</v>
+      </c>
+      <c r="T15" s="12"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="17">
+        <f t="shared" si="4"/>
+        <v>13.625</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
+      <c r="J16" s="18"/>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="L16" s="12">
+        <v>80</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>100</v>
+      </c>
+      <c r="R16" s="11"/>
+      <c r="S16" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="17">
+        <f t="shared" si="4"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="L17" s="12">
+        <v>80</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>100</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="T17" s="12"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="17">
+        <f t="shared" si="4"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>100</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="8">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T18" s="12"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="17">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>85</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11"/>
+      <c r="S19" s="8">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="T19" s="12"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="17">
+        <f t="shared" si="4"/>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1.25</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>15.625</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>85</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11"/>
+      <c r="S20" s="8">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="17">
+        <f t="shared" si="4"/>
+        <v>5.8125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="L21" s="12">
+        <v>80</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T21" s="12"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="17">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0</v>
+      </c>
+      <c r="O22" s="12">
+        <v>0</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="12"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>0</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="12"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0</v>
+      </c>
+      <c r="O24" s="12">
+        <v>0</v>
+      </c>
+      <c r="P24" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11"/>
+      <c r="S24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="12"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
+      <c r="X24" s="11"/>
+      <c r="Y24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0</v>
+      </c>
+      <c r="O25" s="12">
+        <v>0</v>
+      </c>
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>0</v>
+      </c>
+      <c r="R25" s="11"/>
+      <c r="S25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="12"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="11"/>
+      <c r="X25" s="11"/>
+      <c r="Y25" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18"/>
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
+      <c r="N26" s="12">
+        <v>0</v>
+      </c>
+      <c r="O26" s="12">
+        <v>0</v>
+      </c>
+      <c r="P26" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0</v>
+      </c>
+      <c r="R26" s="11"/>
+      <c r="S26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="12"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12">
+        <v>0</v>
+      </c>
+      <c r="O27" s="12">
+        <v>0</v>
+      </c>
+      <c r="P27" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="12"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF27" s="12"/>
+      <c r="AG27" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0</v>
+      </c>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
+      <c r="N28" s="12">
+        <v>0</v>
+      </c>
+      <c r="O28" s="12">
+        <v>0</v>
+      </c>
+      <c r="P28" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0</v>
+      </c>
+      <c r="R28" s="11"/>
+      <c r="S28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="12"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
+      <c r="Y28" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18"/>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
+        <v>0</v>
+      </c>
+      <c r="O29" s="12">
+        <v>0</v>
+      </c>
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0</v>
+      </c>
+      <c r="R29" s="11"/>
+      <c r="S29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="12"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
+      <c r="Y29" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18"/>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="12">
+        <v>0</v>
+      </c>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
+      <c r="N30" s="12">
+        <v>0</v>
+      </c>
+      <c r="O30" s="12">
+        <v>0</v>
+      </c>
+      <c r="P30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0</v>
+      </c>
+      <c r="R30" s="11"/>
+      <c r="S30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="12"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
+      <c r="Y30" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18"/>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="12">
+        <v>0</v>
+      </c>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
+      <c r="N31" s="12">
+        <v>0</v>
+      </c>
+      <c r="O31" s="12">
+        <v>0</v>
+      </c>
+      <c r="P31" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0</v>
+      </c>
+      <c r="R31" s="11"/>
+      <c r="S31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="12"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="12">
+        <v>0</v>
+      </c>
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
+      <c r="N32" s="12">
+        <v>0</v>
+      </c>
+      <c r="O32" s="12">
+        <v>0</v>
+      </c>
+      <c r="P32" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0</v>
+      </c>
+      <c r="R32" s="11"/>
+      <c r="S32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="12"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF32" s="12"/>
+      <c r="AG32" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="41">
+        <v>0</v>
+      </c>
+      <c r="J33" s="41"/>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11"/>
+      <c r="S33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="12"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF33" s="12"/>
+      <c r="AG33" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="12">
+        <v>0</v>
+      </c>
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
+      <c r="N34" s="12">
+        <v>0</v>
+      </c>
+      <c r="O34" s="12">
+        <v>0</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9"/>
+      <c r="S34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="7"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+    </row>
+    <row r="37" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+    </row>
+    <row r="38" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+    </row>
+    <row r="39" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+    </row>
+    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+    </row>
+    <row r="41" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+    </row>
+    <row r="42" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+    </row>
+    <row r="43" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+    </row>
+    <row r="44" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+    </row>
+    <row r="45" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+    </row>
+    <row r="46" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+    </row>
+    <row r="47" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+    </row>
+    <row r="48" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+    </row>
+    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+    </row>
+    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+    </row>
+    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+    </row>
+    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+    </row>
+    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+    </row>
+    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+    </row>
+    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+    </row>
+    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+    </row>
+    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+    </row>
+    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+    </row>
+    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+    </row>
+    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+    </row>
+    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+    </row>
+    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+    </row>
+    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+    </row>
+    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+    </row>
+    <row r="65" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+    </row>
+    <row r="66" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+    </row>
+    <row r="67" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+    </row>
+    <row r="68" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+    </row>
+    <row r="69" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+    </row>
+    <row r="70" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+    </row>
+    <row r="71" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+    </row>
+    <row r="72" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+    </row>
+    <row r="73" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+    </row>
+    <row r="74" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+    </row>
+    <row r="75" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+    </row>
+    <row r="76" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+    </row>
+    <row r="77" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+    </row>
+    <row r="78" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+    </row>
+    <row r="79" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+    </row>
+    <row r="80" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+    </row>
+    <row r="81" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+    </row>
+    <row r="82" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AE1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:J34">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="between">
+      <formula>0.1</formula>
+      <formula>1.99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K34">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D9F61494-260F-43EA-B765-5F553561E270}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S34">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E72E4D2B-59DB-4087-8D73-BA37B6C48E19}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:Y34">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7F3499A-59AD-4039-86AF-0DC0CA994C23}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE3:AE34">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D7FADB46-505F-42A9-A2E0-C12B10A2B638}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG3:AG34">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3CE96519-F2EB-4DF1-A225-917272E77352}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:R34">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>80</formula>
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D9F61494-260F-43EA-B765-5F553561E270}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K3:K34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E72E4D2B-59DB-4087-8D73-BA37B6C48E19}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>S3:S34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7F3499A-59AD-4039-86AF-0DC0CA994C23}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>Y3:Y34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD22F188-E0E8-4DE0-B918-1844BDD897BB}">
+          <x14:cfRule type="dataBar" id="{D7FADB46-505F-42A9-A2E0-C12B10A2B638}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5494,7 +9162,7 @@
           <xm:sqref>AE3:AE34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{664BDE93-EA77-401D-9F6C-79FB71655A1B}">
+          <x14:cfRule type="dataBar" id="{3CE96519-F2EB-4DF1-A225-917272E77352}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5510,7 +9178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -914,113 +914,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1462,9 +1356,9 @@
   </sheetPr>
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R19" sqref="R19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1489,7 +1383,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="36"/>
@@ -1624,7 +1518,7 @@
       </c>
       <c r="K3" s="8">
         <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>173.75</v>
+        <v>115.83333333333333</v>
       </c>
       <c r="L3" s="12">
         <v>100</v>
@@ -1649,16 +1543,16 @@
         <v>90</v>
       </c>
       <c r="S3" s="8">
-        <f>SUM(L3:R3)/(A$1)</f>
-        <v>156.25</v>
+        <f t="shared" ref="S3:S34" si="0">SUM(L3:R3)/(A$1)</f>
+        <v>104.16666666666667</v>
       </c>
       <c r="T3" s="8">
         <v>75</v>
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="17">
-        <f>K3*0.2+S3*0.2+T3*0.25+U3*0.35</f>
-        <v>84.75</v>
+        <f t="shared" ref="V3:V34" si="1">K3*0.2+S3*0.2+T3*0.25+U3*0.35</f>
+        <v>62.75</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1693,8 +1587,8 @@
         <v>2</v>
       </c>
       <c r="K4" s="8">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
-        <v>150</v>
+        <f t="shared" ref="K3:K34" si="2">100*SUM(D4:J4)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="L4" s="12">
         <v>0</v>
@@ -1715,20 +1609,20 @@
         <v>100</v>
       </c>
       <c r="R4" s="11">
-        <f t="shared" ref="R4:R15" si="0">J4*50-10</f>
+        <f t="shared" ref="R4:R13" si="3">J4*50-10</f>
         <v>90</v>
       </c>
       <c r="S4" s="8">
-        <f>SUM(L4:R4)/(A$1)</f>
-        <v>136.25</v>
+        <f t="shared" si="0"/>
+        <v>90.833333333333329</v>
       </c>
       <c r="T4" s="8">
         <v>100</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="17">
-        <f>K4*0.2+S4*0.2+T4*0.25+U4*0.35</f>
-        <v>82.25</v>
+        <f t="shared" si="1"/>
+        <v>63.166666666666671</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1763,8 +1657,8 @@
         <v>2</v>
       </c>
       <c r="K5" s="8">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="L5" s="12">
         <v>0</v>
@@ -1785,20 +1679,20 @@
         <v>100</v>
       </c>
       <c r="R5" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S5" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S5" s="8">
-        <f>SUM(L5:R5)/(A$1)</f>
-        <v>133.75</v>
+        <v>89.166666666666671</v>
       </c>
       <c r="T5" s="8">
         <v>75</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="17">
-        <f>K5*0.2+S5*0.2+T5*0.25+U5*0.35</f>
-        <v>75.5</v>
+        <f t="shared" si="1"/>
+        <v>56.583333333333336</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,8 +1725,8 @@
         <v>2</v>
       </c>
       <c r="K6" s="8">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
-        <v>150</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -1853,20 +1747,20 @@
         <v>100</v>
       </c>
       <c r="R6" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S6" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S6" s="8">
-        <f>SUM(L6:R6)/(A$1)</f>
-        <v>133.75</v>
+        <v>89.166666666666671</v>
       </c>
       <c r="T6" s="8">
         <v>75</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="17">
-        <f>K6*0.2+S6*0.2+T6*0.25+U6*0.35</f>
-        <v>75.5</v>
+        <f t="shared" si="1"/>
+        <v>56.583333333333336</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1901,8 +1795,8 @@
         <v>2</v>
       </c>
       <c r="K7" s="8">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>83.333333333333329</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1923,20 +1817,20 @@
         <v>100</v>
       </c>
       <c r="R7" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S7" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S7" s="8">
-        <f>SUM(L7:R7)/(A$1)</f>
-        <v>113.75</v>
+        <v>75.833333333333329</v>
       </c>
       <c r="T7" s="8">
         <v>100</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="17">
-        <f>K7*0.2+S7*0.2+T7*0.25+U7*0.35</f>
-        <v>72.75</v>
+        <f t="shared" si="1"/>
+        <v>56.833333333333336</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1971,8 +1865,8 @@
         <v>2</v>
       </c>
       <c r="K8" s="8">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="L8" s="12">
         <v>0</v>
@@ -1993,20 +1887,20 @@
         <v>100</v>
       </c>
       <c r="R8" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S8" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S8" s="8">
-        <f>SUM(L8:R8)/(A$1)</f>
-        <v>116.25</v>
+        <v>77.5</v>
       </c>
       <c r="T8" s="8">
         <v>95</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="17">
-        <f>K8*0.2+S8*0.2+T8*0.25+U8*0.35</f>
-        <v>69.5</v>
+        <f t="shared" si="1"/>
+        <v>54.25</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,8 +1935,8 @@
         <v>2</v>
       </c>
       <c r="K9" s="8">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
-        <v>121.24999999999999</v>
+        <f t="shared" si="2"/>
+        <v>80.833333333333329</v>
       </c>
       <c r="L9" s="12">
         <v>0</v>
@@ -2063,20 +1957,20 @@
         <v>100</v>
       </c>
       <c r="R9" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S9" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S9" s="8">
-        <f>SUM(L9:R9)/(A$1)</f>
-        <v>111.25</v>
+        <v>74.166666666666671</v>
       </c>
       <c r="T9" s="8">
         <v>90</v>
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="17">
-        <f>K9*0.2+S9*0.2+T9*0.25+U9*0.35</f>
-        <v>69</v>
+        <f t="shared" si="1"/>
+        <v>53.5</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2111,8 +2005,8 @@
         <v>2</v>
       </c>
       <c r="K10" s="8">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
-        <v>112.5</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="L10" s="12">
         <v>100</v>
@@ -2133,20 +2027,20 @@
         <v>100</v>
       </c>
       <c r="R10" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S10" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S10" s="8">
-        <f>SUM(L10:R10)/(A$1)</f>
-        <v>112.5</v>
+        <v>75</v>
       </c>
       <c r="T10" s="8">
         <v>80</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="17">
-        <f>K10*0.2+S10*0.2+T10*0.25+U10*0.35</f>
-        <v>65</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,8 +2075,8 @@
         <v>2</v>
       </c>
       <c r="K11" s="8">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
-        <v>118.75</v>
+        <f t="shared" si="2"/>
+        <v>79.166666666666671</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
@@ -2207,16 +2101,16 @@
         <v>80</v>
       </c>
       <c r="S11" s="8">
-        <f>SUM(L11:R11)/(A$1)</f>
-        <v>101.25</v>
+        <f t="shared" si="0"/>
+        <v>67.5</v>
       </c>
       <c r="T11" s="8">
         <v>70</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="17">
-        <f>K11*0.2+S11*0.2+T11*0.25+U11*0.35</f>
-        <v>61.5</v>
+        <f t="shared" si="1"/>
+        <v>46.833333333333336</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2251,8 +2145,8 @@
         <v>2</v>
       </c>
       <c r="K12" s="8">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
@@ -2273,20 +2167,20 @@
         <v>100</v>
       </c>
       <c r="R12" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S12" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S12" s="8">
-        <f>SUM(L12:R12)/(A$1)</f>
-        <v>88.75</v>
+        <v>59.166666666666664</v>
       </c>
       <c r="T12" s="8">
         <v>75</v>
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="17">
-        <f>K12*0.2+S12*0.2+T12*0.25+U12*0.35</f>
-        <v>56.5</v>
+        <f t="shared" si="1"/>
+        <v>43.916666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2321,8 +2215,8 @@
         <v>2</v>
       </c>
       <c r="K13" s="8">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>63.333333333333336</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
@@ -2343,20 +2237,20 @@
         <v>100</v>
       </c>
       <c r="R13" s="11">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="S13" s="8">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="S13" s="8">
-        <f>SUM(L13:R13)/(A$1)</f>
-        <v>92.5</v>
+        <v>61.666666666666664</v>
       </c>
       <c r="T13" s="8">
         <v>60</v>
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="17">
-        <f>K13*0.2+S13*0.2+T13*0.25+U13*0.35</f>
-        <v>52.5</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2391,8 +2285,8 @@
         <v>2</v>
       </c>
       <c r="K14" s="8">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
@@ -2417,14 +2311,14 @@
         <v>80</v>
       </c>
       <c r="S14" s="8">
-        <f>SUM(L14:R14)/(A$1)</f>
-        <v>102.5</v>
+        <f t="shared" si="0"/>
+        <v>68.333333333333329</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="12"/>
       <c r="V14" s="17">
-        <f>K14*0.2+S14*0.2+T14*0.25+U14*0.35</f>
-        <v>40.5</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,8 +2353,8 @@
         <v>2</v>
       </c>
       <c r="K15" s="8">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
-        <v>62.5</v>
+        <f t="shared" si="2"/>
+        <v>41.666666666666664</v>
       </c>
       <c r="L15" s="12">
         <v>80</v>
@@ -2485,14 +2379,14 @@
         <v>80</v>
       </c>
       <c r="S15" s="8">
-        <f>SUM(L15:R15)/(A$1)</f>
-        <v>65</v>
+        <f t="shared" si="0"/>
+        <v>43.333333333333336</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="12"/>
       <c r="V15" s="17">
-        <f>K15*0.2+S15*0.2+T15*0.25+U15*0.35</f>
-        <v>25.5</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2527,8 +2421,8 @@
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
-        <v>53.75</v>
+        <f t="shared" si="2"/>
+        <v>35.833333333333336</v>
       </c>
       <c r="L16" s="12">
         <v>0</v>
@@ -2549,18 +2443,18 @@
         <v>30</v>
       </c>
       <c r="R16" s="11">
-        <f>J16*50</f>
+        <f t="shared" ref="R16:R34" si="4">J16*50</f>
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <f>SUM(L16:R16)/(A$1)</f>
-        <v>41.25</v>
+        <f t="shared" si="0"/>
+        <v>27.5</v>
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="12"/>
       <c r="V16" s="17">
-        <f>K16*0.2+S16*0.2+T16*0.25+U16*0.35</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>12.666666666666668</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,8 +2489,8 @@
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
-        <v>37.5</v>
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="L17" s="12">
         <v>80</v>
@@ -2617,18 +2511,18 @@
         <v>100</v>
       </c>
       <c r="R17" s="11">
-        <f>J17*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f>SUM(L17:R17)/(A$1)</f>
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="T17" s="8"/>
       <c r="U17" s="12"/>
       <c r="V17" s="17">
-        <f>K17*0.2+S17*0.2+T17*0.25+U17*0.35</f>
-        <v>16.5</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,8 +2555,8 @@
         <v>0</v>
       </c>
       <c r="K18" s="8">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="L18" s="12">
         <v>0</v>
@@ -2683,18 +2577,18 @@
         <v>100</v>
       </c>
       <c r="R18" s="11">
-        <f>J18*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f>SUM(L18:R18)/(A$1)</f>
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="T18" s="8"/>
       <c r="U18" s="12"/>
       <c r="V18" s="17">
-        <f>K18*0.2+S18*0.2+T18*0.25+U18*0.35</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2729,8 +2623,8 @@
         <v>0</v>
       </c>
       <c r="K19" s="8">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="L19" s="12">
         <v>0</v>
@@ -2751,18 +2645,18 @@
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <f>J19*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19" s="8">
-        <f>SUM(L19:R19)/(A$1)</f>
-        <v>21.25</v>
+        <f t="shared" si="0"/>
+        <v>14.166666666666666</v>
       </c>
       <c r="T19" s="8"/>
       <c r="U19" s="12"/>
       <c r="V19" s="17">
-        <f>K19*0.2+S19*0.2+T19*0.25+U19*0.35</f>
-        <v>9.25</v>
+        <f t="shared" si="1"/>
+        <v>6.1666666666666679</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2797,8 +2691,8 @@
         <v>0</v>
       </c>
       <c r="K20" s="8">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
-        <v>15.625</v>
+        <f t="shared" si="2"/>
+        <v>10.416666666666666</v>
       </c>
       <c r="L20" s="12">
         <v>0</v>
@@ -2819,18 +2713,18 @@
         <v>0</v>
       </c>
       <c r="R20" s="11">
-        <f>J20*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S20" s="8">
-        <f>SUM(L20:R20)/(A$1)</f>
-        <v>21.25</v>
+        <f t="shared" si="0"/>
+        <v>14.166666666666666</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="12"/>
       <c r="V20" s="17">
-        <f>K20*0.2+S20*0.2+T20*0.25+U20*0.35</f>
-        <v>7.375</v>
+        <f t="shared" si="1"/>
+        <v>4.916666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,8 +2759,8 @@
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
-        <v>12.5</v>
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
       </c>
       <c r="L21" s="12">
         <v>80</v>
@@ -2887,18 +2781,18 @@
         <v>0</v>
       </c>
       <c r="R21" s="11">
-        <f>J21*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S21" s="8">
-        <f>SUM(L21:R21)/(A$1)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
       </c>
       <c r="T21" s="8"/>
       <c r="U21" s="12"/>
       <c r="V21" s="17">
-        <f>K21*0.2+S21*0.2+T21*0.25+U21*0.35</f>
-        <v>6.5</v>
+        <f t="shared" si="1"/>
+        <v>4.3333333333333339</v>
       </c>
       <c r="W21" s="2" t="s">
         <v>62</v>
@@ -2936,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="8">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="12">
@@ -2958,17 +2852,17 @@
         <v>0</v>
       </c>
       <c r="R22" s="11">
-        <f>J22*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" s="8">
-        <f>SUM(L22:R22)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T22" s="8"/>
       <c r="U22" s="12"/>
       <c r="V22" s="17">
-        <f>K22*0.2+S22*0.2+T22*0.25+U22*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3004,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23" s="12">
@@ -3026,17 +2920,17 @@
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f>J23*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="12"/>
       <c r="V23" s="17">
-        <f>K23*0.2+S23*0.2+T23*0.25+U23*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3072,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="12">
@@ -3094,17 +2988,17 @@
         <v>0</v>
       </c>
       <c r="R24" s="11">
-        <f>J24*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <f>SUM(L24:R24)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T24" s="8"/>
       <c r="U24" s="12"/>
       <c r="V24" s="17">
-        <f>K24*0.2+S24*0.2+T24*0.25+U24*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3140,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="12">
@@ -3162,17 +3056,17 @@
         <v>0</v>
       </c>
       <c r="R25" s="11">
-        <f>J25*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="8">
-        <f>SUM(L25:R25)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="12"/>
       <c r="V25" s="17">
-        <f>K25*0.2+S25*0.2+T25*0.25+U25*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3208,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="8">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="12">
@@ -3230,17 +3124,17 @@
         <v>0</v>
       </c>
       <c r="R26" s="11">
-        <f>J26*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="8">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="12"/>
       <c r="V26" s="17">
-        <f>K26*0.2+S26*0.2+T26*0.25+U26*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3276,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27" s="12">
@@ -3298,17 +3192,17 @@
         <v>0</v>
       </c>
       <c r="R27" s="11">
-        <f>J27*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T27" s="8"/>
       <c r="U27" s="12"/>
       <c r="V27" s="17">
-        <f>K27*0.2+S27*0.2+T27*0.25+U27*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3344,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="8">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="12">
@@ -3366,17 +3260,17 @@
         <v>0</v>
       </c>
       <c r="R28" s="11">
-        <f>J28*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="8">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="12"/>
       <c r="V28" s="17">
-        <f>K28*0.2+S28*0.2+T28*0.25+U28*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3412,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29" s="12">
@@ -3434,17 +3328,17 @@
         <v>0</v>
       </c>
       <c r="R29" s="11">
-        <f>J29*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T29" s="8"/>
       <c r="U29" s="12"/>
       <c r="V29" s="17">
-        <f>K29*0.2+S29*0.2+T29*0.25+U29*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3480,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="8">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="12">
@@ -3502,17 +3396,17 @@
         <v>0</v>
       </c>
       <c r="R30" s="11">
-        <f>J30*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="8">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T30" s="8"/>
       <c r="U30" s="12"/>
       <c r="V30" s="17">
-        <f>K30*0.2+S30*0.2+T30*0.25+U30*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3548,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L31" s="12">
@@ -3570,17 +3464,17 @@
         <v>0</v>
       </c>
       <c r="R31" s="11">
-        <f>J31*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T31" s="8"/>
       <c r="U31" s="12"/>
       <c r="V31" s="17">
-        <f>K31*0.2+S31*0.2+T31*0.25+U31*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3616,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="8">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="12">
@@ -3638,17 +3532,17 @@
         <v>0</v>
       </c>
       <c r="R32" s="11">
-        <f>J32*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="8">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T32" s="8"/>
       <c r="U32" s="12"/>
       <c r="V32" s="17">
-        <f>K32*0.2+S32*0.2+T32*0.25+U32*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L33" s="12">
@@ -3706,17 +3600,17 @@
         <v>0</v>
       </c>
       <c r="R33" s="11">
-        <f>J33*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f>SUM(L33:R33)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="12"/>
       <c r="V33" s="17">
-        <f>K33*0.2+S33*0.2+T33*0.25+U33*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -3752,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="8">
-        <f>100*SUM(D34:J34)/(2*A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L34" s="12">
@@ -3774,17 +3668,17 @@
         <v>0</v>
       </c>
       <c r="R34" s="11">
-        <f>J34*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S34" s="8">
-        <f>SUM(L34:R34)/(A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="7"/>
       <c r="V34" s="17">
-        <f>K34*0.2+S34*0.2+T34*0.25+U34*0.35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4840,14 +4734,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4908,18 +4802,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -9013,14 +8907,14 @@
     <mergeCell ref="Z1:AE1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9095,18 +8989,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -1358,7 +1358,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K3:K34" si="2">100*SUM(D4:J4)/(2*A$1)</f>
+        <f t="shared" ref="K4:K34" si="2">100*SUM(D4:J4)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L4" s="12">
@@ -2314,11 +2314,13 @@
         <f t="shared" si="0"/>
         <v>68.333333333333329</v>
       </c>
-      <c r="T14" s="8"/>
+      <c r="T14" s="8">
+        <v>50</v>
+      </c>
       <c r="U14" s="12"/>
       <c r="V14" s="17">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -1358,7 +1358,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
+      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1487,16 +1487,16 @@
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D3" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E3" s="18">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="I3" s="18">
         <v>2</v>
@@ -1518,19 +1518,19 @@
       </c>
       <c r="K3" s="8">
         <f>100*SUM(D3:J3)/(2*A$1)</f>
-        <v>115.83333333333333</v>
+        <v>100</v>
       </c>
       <c r="L3" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
         <v>100</v>
       </c>
       <c r="N3" s="11">
+        <v>90</v>
+      </c>
+      <c r="O3" s="11">
         <v>80</v>
-      </c>
-      <c r="O3" s="11">
-        <v>70</v>
       </c>
       <c r="P3" s="11">
         <v>85</v>
@@ -1543,30 +1543,32 @@
         <v>90</v>
       </c>
       <c r="S3" s="8">
-        <f t="shared" ref="S3:S34" si="0">SUM(L3:R3)/(A$1)</f>
-        <v>104.16666666666667</v>
+        <f>SUM(L3:R3)/(A$1)</f>
+        <v>90.833333333333329</v>
       </c>
       <c r="T3" s="8">
-        <v>75</v>
-      </c>
-      <c r="U3" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="U3" s="8">
+        <v>100</v>
+      </c>
       <c r="V3" s="17">
-        <f t="shared" ref="V3:V34" si="1">K3*0.2+S3*0.2+T3*0.25+U3*0.35</f>
-        <v>62.75</v>
+        <f>K3*0.2+S3*0.2+T3*0.25+U3*0.35+2</f>
+        <v>100.16666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="D4" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="18">
         <v>2</v>
@@ -1578,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="I4" s="18">
         <v>2</v>
@@ -1587,20 +1589,20 @@
         <v>2</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K34" si="2">100*SUM(D4:J4)/(2*A$1)</f>
+        <f>100*SUM(D4:J4)/(2*A$1)</f>
+        <v>115.83333333333333</v>
+      </c>
+      <c r="L4" s="12">
         <v>100</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
       </c>
       <c r="M4" s="11">
         <v>100</v>
       </c>
       <c r="N4" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O4" s="11">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="P4" s="11">
         <v>85</v>
@@ -1609,20 +1611,22 @@
         <v>100</v>
       </c>
       <c r="R4" s="11">
-        <f t="shared" ref="R4:R13" si="3">J4*50-10</f>
+        <f>J4*50-10</f>
         <v>90</v>
       </c>
       <c r="S4" s="8">
-        <f t="shared" si="0"/>
-        <v>90.833333333333329</v>
+        <f>SUM(L4:R4)/(A$1)</f>
+        <v>104.16666666666667</v>
       </c>
       <c r="T4" s="8">
-        <v>100</v>
-      </c>
-      <c r="U4" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="U4" s="8">
+        <v>72</v>
+      </c>
       <c r="V4" s="17">
-        <f t="shared" si="1"/>
-        <v>63.166666666666671</v>
+        <f t="shared" ref="V4:V34" si="0">K4*0.2+S4*0.2+T4*0.25+U4*0.35+2</f>
+        <v>89.95</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D5:J5)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L5" s="12">
@@ -1679,38 +1683,42 @@
         <v>100</v>
       </c>
       <c r="R5" s="11">
-        <f t="shared" si="3"/>
+        <f>J5*50-10</f>
         <v>90</v>
       </c>
       <c r="S5" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L5:R5)/(A$1)</f>
         <v>89.166666666666671</v>
       </c>
       <c r="T5" s="8">
         <v>75</v>
       </c>
-      <c r="U5" s="12"/>
+      <c r="U5" s="8">
+        <v>82</v>
+      </c>
       <c r="V5" s="17">
-        <f t="shared" si="1"/>
-        <v>56.583333333333336</v>
+        <f t="shared" si="0"/>
+        <v>87.283333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>113</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
       <c r="E6" s="18">
         <v>2</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="18">
         <v>2</v>
@@ -1725,8 +1733,8 @@
         <v>2</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <v>83.333333333333329</v>
       </c>
       <c r="L6" s="12">
         <v>0</v>
@@ -1735,7 +1743,7 @@
         <v>100</v>
       </c>
       <c r="N6" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O6" s="11">
         <v>80</v>
@@ -1747,40 +1755,40 @@
         <v>100</v>
       </c>
       <c r="R6" s="11">
-        <f t="shared" si="3"/>
+        <f>J6*50-10</f>
         <v>90</v>
       </c>
       <c r="S6" s="8">
+        <f>SUM(L6:R6)/(A$1)</f>
+        <v>75.833333333333329</v>
+      </c>
+      <c r="T6" s="8">
+        <v>100</v>
+      </c>
+      <c r="U6" s="8">
+        <v>80</v>
+      </c>
+      <c r="V6" s="17">
         <f t="shared" si="0"/>
-        <v>89.166666666666671</v>
-      </c>
-      <c r="T6" s="8">
-        <v>75</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="17">
-        <f t="shared" si="1"/>
-        <v>56.583333333333336</v>
+        <v>86.833333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="18">
         <v>2</v>
       </c>
       <c r="F7" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" s="18">
         <v>2</v>
@@ -1795,8 +1803,8 @@
         <v>2</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="2"/>
-        <v>83.333333333333329</v>
+        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <v>100</v>
       </c>
       <c r="L7" s="12">
         <v>0</v>
@@ -1805,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="N7" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O7" s="11">
         <v>80</v>
@@ -1817,20 +1825,22 @@
         <v>100</v>
       </c>
       <c r="R7" s="11">
-        <f t="shared" si="3"/>
+        <f>J7*50-10</f>
         <v>90</v>
       </c>
       <c r="S7" s="8">
+        <f>SUM(L7:R7)/(A$1)</f>
+        <v>89.166666666666671</v>
+      </c>
+      <c r="T7" s="8">
+        <v>75</v>
+      </c>
+      <c r="U7" s="8">
+        <v>75</v>
+      </c>
+      <c r="V7" s="17">
         <f t="shared" si="0"/>
-        <v>75.833333333333329</v>
-      </c>
-      <c r="T7" s="8">
-        <v>100</v>
-      </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="17">
-        <f t="shared" si="1"/>
-        <v>56.833333333333336</v>
+        <v>84.833333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D8:J8)/(2*A$1)</f>
         <v>75</v>
       </c>
       <c r="L8" s="12">
@@ -1887,20 +1897,22 @@
         <v>100</v>
       </c>
       <c r="R8" s="11">
-        <f t="shared" si="3"/>
+        <f>J8*50-10</f>
         <v>90</v>
       </c>
       <c r="S8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L8:R8)/(A$1)</f>
         <v>77.5</v>
       </c>
       <c r="T8" s="8">
         <v>95</v>
       </c>
-      <c r="U8" s="12"/>
+      <c r="U8" s="8">
+        <v>61</v>
+      </c>
       <c r="V8" s="17">
-        <f t="shared" si="1"/>
-        <v>54.25</v>
+        <f t="shared" si="0"/>
+        <v>77.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D9:J9)/(2*A$1)</f>
         <v>80.833333333333329</v>
       </c>
       <c r="L9" s="12">
@@ -1957,20 +1969,22 @@
         <v>100</v>
       </c>
       <c r="R9" s="11">
-        <f t="shared" si="3"/>
+        <f>J9*50-10</f>
         <v>90</v>
       </c>
       <c r="S9" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L9:R9)/(A$1)</f>
         <v>74.166666666666671</v>
       </c>
       <c r="T9" s="8">
         <v>90</v>
       </c>
-      <c r="U9" s="12"/>
+      <c r="U9" s="8">
+        <v>54</v>
+      </c>
       <c r="V9" s="17">
-        <f t="shared" si="1"/>
-        <v>53.5</v>
+        <f t="shared" si="0"/>
+        <v>74.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2005,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D10:J10)/(2*A$1)</f>
         <v>75</v>
       </c>
       <c r="L10" s="12">
@@ -2027,43 +2041,45 @@
         <v>100</v>
       </c>
       <c r="R10" s="11">
-        <f t="shared" si="3"/>
+        <f>J10*50-10</f>
         <v>90</v>
       </c>
       <c r="S10" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(L10:R10)/(A$1)</f>
         <v>75</v>
       </c>
       <c r="T10" s="8">
         <v>80</v>
       </c>
-      <c r="U10" s="12"/>
+      <c r="U10" s="8">
+        <v>53</v>
+      </c>
       <c r="V10" s="17">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="0"/>
+        <v>70.55</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
       </c>
       <c r="E11" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" s="18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18">
         <v>2</v>
@@ -2075,20 +2091,20 @@
         <v>2</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="2"/>
-        <v>79.166666666666671</v>
+        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="L11" s="12">
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N11" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O11" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P11" s="12">
         <v>85</v>
@@ -2097,43 +2113,45 @@
         <v>100</v>
       </c>
       <c r="R11" s="11">
-        <f>J11*50-20</f>
-        <v>80</v>
+        <f>J11*50-10</f>
+        <v>90</v>
       </c>
       <c r="S11" s="8">
+        <f>SUM(L11:R11)/(A$1)</f>
+        <v>59.166666666666664</v>
+      </c>
+      <c r="T11" s="8">
+        <v>75</v>
+      </c>
+      <c r="U11" s="8">
+        <v>69</v>
+      </c>
+      <c r="V11" s="17">
         <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="T11" s="8">
-        <v>70</v>
-      </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="17">
-        <f t="shared" si="1"/>
-        <v>46.833333333333336</v>
+        <v>70.066666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
       </c>
       <c r="E12" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" s="18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H12" s="18">
         <v>2</v>
@@ -2145,20 +2163,20 @@
         <v>2</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <f>100*SUM(D12:J12)/(2*A$1)</f>
+        <v>79.166666666666671</v>
       </c>
       <c r="L12" s="12">
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N12" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="O12" s="11">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P12" s="11">
         <v>85</v>
@@ -2167,160 +2185,166 @@
         <v>100</v>
       </c>
       <c r="R12" s="11">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>J12*50-20</f>
+        <v>80</v>
       </c>
       <c r="S12" s="8">
+        <f>SUM(L12:R12)/(A$1)</f>
+        <v>67.5</v>
+      </c>
+      <c r="T12" s="8">
+        <v>70</v>
+      </c>
+      <c r="U12" s="8">
+        <v>60</v>
+      </c>
+      <c r="V12" s="17">
         <f t="shared" si="0"/>
-        <v>59.166666666666664</v>
-      </c>
-      <c r="T12" s="8">
-        <v>75</v>
-      </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="17">
-        <f t="shared" si="1"/>
-        <v>43.916666666666671</v>
+        <v>69.833333333333343</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>105</v>
+        <v>56</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
       </c>
       <c r="E13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="18">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="18">
         <v>2</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="2"/>
-        <v>63.333333333333336</v>
+        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <v>66.666666666666671</v>
       </c>
       <c r="L13" s="12">
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="N13" s="11">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P13" s="12">
         <v>90</v>
       </c>
       <c r="Q13" s="11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R13" s="11">
-        <f t="shared" si="3"/>
-        <v>90</v>
+        <f>J13*50-20</f>
+        <v>80</v>
       </c>
       <c r="S13" s="8">
+        <f>SUM(L13:R13)/(A$1)</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="T13" s="8">
+        <v>50</v>
+      </c>
+      <c r="U13" s="8">
+        <v>54</v>
+      </c>
+      <c r="V13" s="17">
         <f t="shared" si="0"/>
-        <v>61.666666666666664</v>
-      </c>
-      <c r="T13" s="8">
-        <v>60</v>
-      </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="17">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
       </c>
       <c r="E14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" s="18">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="I14" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" s="18">
         <v>2</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <v>63.333333333333336</v>
       </c>
       <c r="L14" s="12">
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N14" s="11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O14" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="12">
         <v>90</v>
       </c>
       <c r="Q14" s="11">
+        <v>100</v>
+      </c>
+      <c r="R14" s="11">
+        <f>J14*50-10</f>
+        <v>90</v>
+      </c>
+      <c r="S14" s="8">
+        <f>SUM(L14:R14)/(A$1)</f>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="T14" s="8">
         <v>60</v>
       </c>
-      <c r="R14" s="11">
-        <f>J14*50-20</f>
-        <v>80</v>
-      </c>
-      <c r="S14" s="8">
+      <c r="U14" s="8">
+        <v>50</v>
+      </c>
+      <c r="V14" s="17">
         <f t="shared" si="0"/>
-        <v>68.333333333333329</v>
-      </c>
-      <c r="T14" s="8">
-        <v>50</v>
-      </c>
-      <c r="U14" s="12"/>
-      <c r="V14" s="17">
-        <f t="shared" si="1"/>
-        <v>39.5</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2355,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D15:J15)/(2*A$1)</f>
         <v>41.666666666666664</v>
       </c>
       <c r="L15" s="12">
@@ -2381,14 +2405,16 @@
         <v>80</v>
       </c>
       <c r="S15" s="8">
+        <f>SUM(L15:R15)/(A$1)</f>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8">
+        <v>26</v>
+      </c>
+      <c r="V15" s="17">
         <f t="shared" si="0"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="17">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2423,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D16:J16)/(2*A$1)</f>
         <v>35.833333333333336</v>
       </c>
       <c r="L16" s="12">
@@ -2445,18 +2471,20 @@
         <v>30</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" ref="R16:R34" si="4">J16*50</f>
+        <f>J16*50</f>
         <v>0</v>
       </c>
       <c r="S16" s="8">
+        <f>SUM(L16:R16)/(A$1)</f>
+        <v>27.5</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8">
+        <v>22</v>
+      </c>
+      <c r="V16" s="17">
         <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="T16" s="8"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="17">
-        <f t="shared" si="1"/>
-        <v>12.666666666666668</v>
+        <v>22.366666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2491,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D17:J17)/(2*A$1)</f>
         <v>25</v>
       </c>
       <c r="L17" s="12">
@@ -2513,234 +2541,240 @@
         <v>100</v>
       </c>
       <c r="R17" s="11">
-        <f t="shared" si="4"/>
+        <f>J17*50</f>
         <v>0</v>
       </c>
       <c r="S17" s="8">
+        <f>SUM(L17:R17)/(A$1)</f>
+        <v>30</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8">
+        <v>22</v>
+      </c>
+      <c r="V17" s="17">
         <f t="shared" si="0"/>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>85</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11">
+        <f>J18*50</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <f>SUM(L18:R18)/(A$1)</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8">
         <v>30</v>
       </c>
-      <c r="T17" s="8"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="17">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>100</v>
-      </c>
-      <c r="R18" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S18" s="8">
+      <c r="V18" s="17">
         <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="T18" s="8"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="17">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666679</v>
+        <v>18.666666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11">
+        <f>J19*50</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="8">
+        <f>SUM(L19:R19)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8">
+        <v>26</v>
+      </c>
+      <c r="V19" s="17">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>2</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="11">
         <v>100</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>2</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
-      <c r="J19" s="18">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="2"/>
+      <c r="R20" s="11">
+        <f>J20*50</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <f>SUM(L20:R20)/(A$1)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="8">
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="17">
         <f t="shared" si="0"/>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="T19" s="8"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="17">
-        <f t="shared" si="1"/>
-        <v>6.1666666666666679</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1.25</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <f t="shared" si="2"/>
-        <v>10.416666666666666</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>85</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>0</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="8">
-        <f t="shared" si="0"/>
-        <v>14.166666666666666</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="17">
-        <f t="shared" si="1"/>
-        <v>4.916666666666667</v>
+        <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18">
         <v>0</v>
@@ -2761,11 +2795,11 @@
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
+        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <v>0</v>
       </c>
       <c r="L21" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M21" s="12">
         <v>0</v>
@@ -2783,32 +2817,31 @@
         <v>0</v>
       </c>
       <c r="R21" s="11">
-        <f t="shared" si="4"/>
+        <f>J21*50</f>
         <v>0</v>
       </c>
       <c r="S21" s="8">
+        <f>SUM(L21:R21)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8">
+        <v>19</v>
+      </c>
+      <c r="V21" s="17">
         <f t="shared" si="0"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="T21" s="8"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="17">
-        <f t="shared" si="1"/>
-        <v>4.3333333333333339</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>62</v>
+        <v>8.6499999999999986</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="D22" s="18">
         <v>0</v>
@@ -2832,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D22:J22)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L22" s="12">
@@ -2854,35 +2887,37 @@
         <v>0</v>
       </c>
       <c r="R22" s="11">
-        <f t="shared" si="4"/>
+        <f>J22*50</f>
         <v>0</v>
       </c>
       <c r="S22" s="8">
+        <f>SUM(L22:R22)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8">
+        <v>18</v>
+      </c>
+      <c r="V22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="8"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
       </c>
       <c r="E23" s="18">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="F23" s="18">
         <v>0</v>
@@ -2900,14 +2935,14 @@
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <v>10.416666666666666</v>
       </c>
       <c r="L23" s="12">
         <v>0</v>
       </c>
       <c r="M23" s="11">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -2922,32 +2957,32 @@
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" si="4"/>
+        <f>J23*50</f>
         <v>0</v>
       </c>
       <c r="S23" s="8">
+        <f>SUM(L23:R23)/(A$1)</f>
+        <v>14.166666666666666</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.916666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D24" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="18">
         <v>0</v>
@@ -2968,11 +3003,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="L24" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M24" s="12">
         <v>0</v>
@@ -2990,29 +3025,32 @@
         <v>0</v>
       </c>
       <c r="R24" s="11">
-        <f t="shared" si="4"/>
+        <f>J24*50</f>
         <v>0</v>
       </c>
       <c r="S24" s="8">
+        <f>SUM(L24:R24)/(A$1)</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="8"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.3333333333333339</v>
+      </c>
+      <c r="W24" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D25" s="18">
         <v>0</v>
@@ -3036,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D25:J25)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L25" s="12">
@@ -3058,29 +3096,29 @@
         <v>0</v>
       </c>
       <c r="R25" s="11">
-        <f t="shared" si="4"/>
+        <f>J25*50</f>
         <v>0</v>
       </c>
       <c r="S25" s="8">
+        <f>SUM(L25:R25)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="8"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D26" s="18">
         <v>0</v>
@@ -3104,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D26:J26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L26" s="12">
@@ -3126,29 +3164,29 @@
         <v>0</v>
       </c>
       <c r="R26" s="11">
-        <f t="shared" si="4"/>
+        <f>J26*50</f>
         <v>0</v>
       </c>
       <c r="S26" s="8">
+        <f>SUM(L26:R26)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="12"/>
-      <c r="V26" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D27" s="18">
         <v>0</v>
@@ -3172,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D27:J27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L27" s="12">
@@ -3194,29 +3232,29 @@
         <v>0</v>
       </c>
       <c r="R27" s="11">
-        <f t="shared" si="4"/>
+        <f>J27*50</f>
         <v>0</v>
       </c>
       <c r="S27" s="8">
+        <f>SUM(L27:R27)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="8"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D28" s="18">
         <v>0</v>
@@ -3240,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D28:J28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L28" s="12">
@@ -3262,29 +3300,29 @@
         <v>0</v>
       </c>
       <c r="R28" s="11">
-        <f t="shared" si="4"/>
+        <f>J28*50</f>
         <v>0</v>
       </c>
       <c r="S28" s="8">
+        <f>SUM(L28:R28)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="8"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D29" s="18">
         <v>0</v>
@@ -3308,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D29:J29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L29" s="12">
@@ -3330,29 +3368,29 @@
         <v>0</v>
       </c>
       <c r="R29" s="11">
-        <f t="shared" si="4"/>
+        <f>J29*50</f>
         <v>0</v>
       </c>
       <c r="S29" s="8">
+        <f>SUM(L29:R29)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="8"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="D30" s="18">
         <v>0</v>
@@ -3376,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D30:J30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L30" s="12">
@@ -3398,29 +3436,29 @@
         <v>0</v>
       </c>
       <c r="R30" s="11">
-        <f t="shared" si="4"/>
+        <f>J30*50</f>
         <v>0</v>
       </c>
       <c r="S30" s="8">
+        <f>SUM(L30:R30)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="8"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="D31" s="18">
         <v>0</v>
@@ -3444,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D31:J31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L31" s="12">
@@ -3466,18 +3504,18 @@
         <v>0</v>
       </c>
       <c r="R31" s="11">
-        <f t="shared" si="4"/>
+        <f>J31*50</f>
         <v>0</v>
       </c>
       <c r="S31" s="8">
+        <f>SUM(L31:R31)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="8"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D32:J32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L32" s="12">
@@ -3534,18 +3572,18 @@
         <v>0</v>
       </c>
       <c r="R32" s="11">
-        <f t="shared" si="4"/>
+        <f>J32*50</f>
         <v>0</v>
       </c>
       <c r="S32" s="8">
+        <f>SUM(L32:R32)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="8"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D33:J33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L33" s="12">
@@ -3602,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="R33" s="11">
-        <f t="shared" si="4"/>
+        <f>J33*50</f>
         <v>0</v>
       </c>
       <c r="S33" s="8">
+        <f>SUM(L33:R33)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="8"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3648,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="8">
-        <f t="shared" si="2"/>
+        <f>100*SUM(D34:J34)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="L34" s="12">
@@ -3670,18 +3708,18 @@
         <v>0</v>
       </c>
       <c r="R34" s="11">
-        <f t="shared" si="4"/>
+        <f>J34*50</f>
         <v>0</v>
       </c>
       <c r="S34" s="8">
+        <f>SUM(L34:R34)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="10"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="10"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,19 +4774,19 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K34">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4762,7 +4800,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S34">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4776,7 +4814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T34">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4790,7 +4828,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V34">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4804,20 +4842,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U3:U34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8714777B-A242-4EFE-98F1-D51B58F1BB53}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4869,6 +4921,17 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>V3:V34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8714777B-A242-4EFE-98F1-D51B58F1BB53}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U3:U34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="137">
   <si>
     <t>Ad Soyad</t>
   </si>
@@ -309,9 +309,6 @@
     <t>SENCAN</t>
   </si>
   <si>
-    <t>Furkan</t>
-  </si>
-  <si>
     <t>H5150022</t>
   </si>
   <si>
@@ -472,6 +469,12 @@
   </si>
   <si>
     <t>SINAV (%35)</t>
+  </si>
+  <si>
+    <t>FİNAL</t>
+  </si>
+  <si>
+    <t>DERS NOTU</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -824,11 +827,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,11 +952,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -980,6 +1077,218 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1358,7 +1667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X28" sqref="X28"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1697,7 @@
       <c r="B1" s="37"/>
       <c r="C1" s="36"/>
       <c r="D1" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E1" s="43"/>
       <c r="F1" s="43"/>
@@ -1408,10 +1717,10 @@
       <c r="R1" s="43"/>
       <c r="S1" s="44"/>
       <c r="T1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="U1" s="35" t="s">
         <v>134</v>
-      </c>
-      <c r="U1" s="35" t="s">
-        <v>135</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>70</v>
@@ -1487,13 +1796,13 @@
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="D3" s="19">
         <v>0</v>
@@ -1625,19 +1934,19 @@
         <v>72</v>
       </c>
       <c r="V4" s="17">
-        <f t="shared" ref="V4:V34" si="0">K4*0.2+S4*0.2+T4*0.25+U4*0.35+2</f>
+        <f>K4*0.2+S4*0.2+T4*0.25+U4*0.35+2</f>
         <v>89.95</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>87</v>
       </c>
       <c r="D5" s="19">
         <v>0</v>
@@ -1697,19 +2006,19 @@
         <v>82</v>
       </c>
       <c r="V5" s="17">
-        <f t="shared" si="0"/>
+        <f>K5*0.2+S5*0.2+T5*0.25+U5*0.35+2</f>
         <v>87.283333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>113</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -1769,16 +2078,16 @@
         <v>80</v>
       </c>
       <c r="V6" s="17">
-        <f t="shared" si="0"/>
+        <f>K6*0.2+S6*0.2+T6*0.25+U6*0.35+2</f>
         <v>86.833333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>109</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>110</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>53</v>
@@ -1839,7 +2148,7 @@
         <v>75</v>
       </c>
       <c r="V7" s="17">
-        <f t="shared" si="0"/>
+        <f>K7*0.2+S7*0.2+T7*0.25+U7*0.35+2</f>
         <v>84.833333333333343</v>
       </c>
     </row>
@@ -1911,19 +2220,19 @@
         <v>61</v>
       </c>
       <c r="V8" s="17">
-        <f t="shared" si="0"/>
+        <f>K8*0.2+S8*0.2+T8*0.25+U8*0.35+2</f>
         <v>77.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="D9" s="19">
         <v>0</v>
@@ -1983,19 +2292,19 @@
         <v>54</v>
       </c>
       <c r="V9" s="17">
-        <f t="shared" si="0"/>
+        <f>K9*0.2+S9*0.2+T9*0.25+U9*0.35+2</f>
         <v>74.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>127</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>128</v>
       </c>
       <c r="D10" s="19">
         <v>2</v>
@@ -2055,19 +2364,19 @@
         <v>53</v>
       </c>
       <c r="V10" s="17">
-        <f t="shared" si="0"/>
+        <f>K10*0.2+S10*0.2+T10*0.25+U10*0.35+2</f>
         <v>70.55</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>92</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>93</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -2127,19 +2436,19 @@
         <v>69</v>
       </c>
       <c r="V11" s="17">
-        <f t="shared" si="0"/>
+        <f>K11*0.2+S11*0.2+T11*0.25+U11*0.35+2</f>
         <v>70.066666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="D12" s="19">
         <v>0</v>
@@ -2199,7 +2508,7 @@
         <v>60</v>
       </c>
       <c r="V12" s="17">
-        <f t="shared" si="0"/>
+        <f>K12*0.2+S12*0.2+T12*0.25+U12*0.35+2</f>
         <v>69.833333333333343</v>
       </c>
     </row>
@@ -2271,19 +2580,19 @@
         <v>54</v>
       </c>
       <c r="V13" s="17">
-        <f t="shared" si="0"/>
+        <f>K13*0.2+S13*0.2+T13*0.25+U13*0.35+2</f>
         <v>60.4</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>104</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>105</v>
       </c>
       <c r="D14" s="19">
         <v>0</v>
@@ -2343,19 +2652,19 @@
         <v>50</v>
       </c>
       <c r="V14" s="17">
-        <f t="shared" si="0"/>
+        <f>K14*0.2+S14*0.2+T14*0.25+U14*0.35+2</f>
         <v>59.5</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="19">
         <v>1</v>
@@ -2413,19 +2722,19 @@
         <v>26</v>
       </c>
       <c r="V15" s="17">
-        <f t="shared" si="0"/>
+        <f>K15*0.2+S15*0.2+T15*0.25+U15*0.35+2</f>
         <v>28.1</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>84</v>
       </c>
       <c r="D16" s="19">
         <v>0</v>
@@ -2483,7 +2792,7 @@
         <v>22</v>
       </c>
       <c r="V16" s="17">
-        <f t="shared" si="0"/>
+        <f>K16*0.2+S16*0.2+T16*0.25+U16*0.35+2</f>
         <v>22.366666666666667</v>
       </c>
     </row>
@@ -2553,19 +2862,19 @@
         <v>22</v>
       </c>
       <c r="V17" s="17">
-        <f t="shared" si="0"/>
+        <f>K17*0.2+S17*0.2+T17*0.25+U17*0.35+2</f>
         <v>20.7</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>101</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>102</v>
       </c>
       <c r="D18" s="19">
         <v>0</v>
@@ -2623,19 +2932,19 @@
         <v>30</v>
       </c>
       <c r="V18" s="17">
-        <f t="shared" si="0"/>
+        <f>K18*0.2+S18*0.2+T18*0.25+U18*0.35+2</f>
         <v>18.666666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>108</v>
       </c>
       <c r="D19" s="18">
         <v>0</v>
@@ -2693,17 +3002,17 @@
         <v>26</v>
       </c>
       <c r="V19" s="17">
-        <f t="shared" si="0"/>
+        <f>K19*0.2+S19*0.2+T19*0.25+U19*0.35+2</f>
         <v>11.1</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>131</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>132</v>
       </c>
       <c r="D20" s="18">
         <v>0</v>
@@ -2759,7 +3068,7 @@
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="17">
-        <f t="shared" si="0"/>
+        <f>K20*0.2+S20*0.2+T20*0.25+U20*0.35+2</f>
         <v>8.6666666666666679</v>
       </c>
     </row>
@@ -2829,19 +3138,19 @@
         <v>19</v>
       </c>
       <c r="V21" s="17">
-        <f t="shared" si="0"/>
+        <f>K21*0.2+S21*0.2+T21*0.25+U21*0.35+2</f>
         <v>8.6499999999999986</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="D22" s="18">
         <v>0</v>
@@ -2899,7 +3208,7 @@
         <v>18</v>
       </c>
       <c r="V22" s="17">
-        <f t="shared" si="0"/>
+        <f>K22*0.2+S22*0.2+T22*0.25+U22*0.35+2</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -2967,7 +3276,7 @@
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="17">
-        <f t="shared" si="0"/>
+        <f>K23*0.2+S23*0.2+T23*0.25+U23*0.35+2</f>
         <v>6.916666666666667</v>
       </c>
     </row>
@@ -3035,7 +3344,7 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="17">
-        <f t="shared" si="0"/>
+        <f>K24*0.2+S24*0.2+T24*0.25+U24*0.35+2</f>
         <v>6.3333333333333339</v>
       </c>
       <c r="W24" s="2" t="s">
@@ -3044,13 +3353,13 @@
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D25" s="18">
         <v>0</v>
@@ -3106,19 +3415,19 @@
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="17">
-        <f t="shared" si="0"/>
+        <f>K25*0.2+S25*0.2+T25*0.25+U25*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D26" s="18">
         <v>0</v>
@@ -3174,19 +3483,19 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="17">
-        <f t="shared" si="0"/>
+        <f>K26*0.2+S26*0.2+T26*0.25+U26*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="D27" s="18">
         <v>0</v>
@@ -3242,19 +3551,19 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="17">
-        <f t="shared" si="0"/>
+        <f>K27*0.2+S27*0.2+T27*0.25+U27*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D28" s="18">
         <v>0</v>
@@ -3310,19 +3619,19 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="17">
-        <f t="shared" si="0"/>
+        <f>K28*0.2+S28*0.2+T28*0.25+U28*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D29" s="18">
         <v>0</v>
@@ -3378,19 +3687,19 @@
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="17">
-        <f t="shared" si="0"/>
+        <f>K29*0.2+S29*0.2+T29*0.25+U29*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D30" s="18">
         <v>0</v>
@@ -3446,19 +3755,19 @@
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="17">
-        <f t="shared" si="0"/>
+        <f>K30*0.2+S30*0.2+T30*0.25+U30*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D31" s="18">
         <v>0</v>
@@ -3514,19 +3823,19 @@
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="17">
-        <f t="shared" si="0"/>
+        <f>K31*0.2+S31*0.2+T31*0.25+U31*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="18">
         <v>0</v>
@@ -3582,19 +3891,19 @@
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="17">
-        <f t="shared" si="0"/>
+        <f>K32*0.2+S32*0.2+T32*0.25+U32*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="D33" s="18">
         <v>0</v>
@@ -3650,19 +3959,19 @@
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="17">
-        <f t="shared" si="0"/>
+        <f>K33*0.2+S33*0.2+T33*0.25+U33*0.35+2</f>
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D34" s="18">
         <v>0</v>
@@ -3718,7 +4027,7 @@
       <c r="T34" s="10"/>
       <c r="U34" s="8"/>
       <c r="V34" s="17">
-        <f t="shared" si="0"/>
+        <f>K34*0.2+S34*0.2+T34*0.25+U34*0.35+2</f>
         <v>2</v>
       </c>
     </row>
@@ -4767,21 +5076,21 @@
     </row>
   </sheetData>
   <sortState ref="A3:W34">
-    <sortCondition descending="1" ref="V3"/>
+    <sortCondition descending="1" ref="V2"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4842,18 +5151,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -4944,11 +5253,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U2" sqref="U1:U1048576"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4956,2737 +5265,2205 @@
     <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.77734375" style="2" customWidth="1"/>
-    <col min="20" max="21" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5" style="2" customWidth="1"/>
-    <col min="26" max="30" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.21875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.77734375" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="7" style="3" customWidth="1"/>
+    <col min="5" max="6" width="3.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.77734375" style="2" customWidth="1"/>
+    <col min="21" max="22" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" style="2" customWidth="1"/>
+    <col min="27" max="31" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2.21875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.77734375" style="2" customWidth="1"/>
+    <col min="35" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="47"/>
+      <c r="D1" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E1" s="43"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="42" t="s">
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="43"/>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
       <c r="P1" s="43"/>
       <c r="Q1" s="43"/>
       <c r="R1" s="43"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="42" t="s">
+      <c r="S1" s="43"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="43"/>
       <c r="V1" s="43"/>
       <c r="W1" s="43"/>
       <c r="X1" s="43"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="42" t="s">
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="AA1" s="43"/>
       <c r="AB1" s="43"/>
       <c r="AC1" s="43"/>
       <c r="AD1" s="43"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AG1" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH1" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="45">
         <v>1</v>
       </c>
-      <c r="E2" s="30">
-        <v>2</v>
-      </c>
       <c r="F2" s="30">
+        <v>2</v>
+      </c>
+      <c r="G2" s="30">
         <v>3</v>
       </c>
-      <c r="G2" s="30">
+      <c r="H2" s="30">
         <v>4</v>
       </c>
-      <c r="H2" s="30">
+      <c r="I2" s="30">
         <v>5</v>
       </c>
-      <c r="I2" s="30">
+      <c r="J2" s="30">
         <v>6</v>
       </c>
-      <c r="J2" s="30">
+      <c r="K2" s="30">
         <v>7</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="28">
+      <c r="M2" s="28">
         <v>1</v>
       </c>
-      <c r="M2" s="30">
-        <v>2</v>
-      </c>
       <c r="N2" s="30">
+        <v>2</v>
+      </c>
+      <c r="O2" s="30">
         <v>3</v>
       </c>
-      <c r="O2" s="30">
+      <c r="P2" s="30">
         <v>4</v>
       </c>
-      <c r="P2" s="30">
+      <c r="Q2" s="30">
         <v>5</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="R2" s="30">
         <v>6</v>
       </c>
-      <c r="R2" s="30">
+      <c r="S2" s="30">
         <v>7</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="T2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="28">
+      <c r="U2" s="28">
         <v>1</v>
       </c>
-      <c r="U2" s="30">
-        <v>2</v>
-      </c>
       <c r="V2" s="30">
+        <v>2</v>
+      </c>
+      <c r="W2" s="30">
         <v>3</v>
       </c>
-      <c r="W2" s="30">
+      <c r="X2" s="30">
         <v>4</v>
       </c>
-      <c r="X2" s="30">
+      <c r="Y2" s="30">
         <v>5</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="AA2" s="28">
         <v>1</v>
       </c>
-      <c r="AA2" s="30">
-        <v>2</v>
-      </c>
       <c r="AB2" s="30">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="30">
         <v>3</v>
       </c>
-      <c r="AC2" s="30">
+      <c r="AD2" s="30">
         <v>4</v>
       </c>
-      <c r="AD2" s="30">
+      <c r="AE2" s="30">
         <v>5</v>
       </c>
-      <c r="AE2" s="29" t="s">
+      <c r="AF2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AF2" s="28" t="s">
+      <c r="AG2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AH2" s="27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI2" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="19">
-        <v>2</v>
-      </c>
-      <c r="E3" s="18">
-        <v>2</v>
-      </c>
-      <c r="F3" s="18">
-        <v>2</v>
-      </c>
-      <c r="G3" s="18">
-        <v>2</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1.9</v>
-      </c>
-      <c r="I3" s="18">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="12">
+        <v>100.16666666666667</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
       <c r="J3" s="18"/>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:K34" si="0">100*SUM(D3:J3)/(2*A$1)</f>
-        <v>148.75</v>
-      </c>
-      <c r="L3" s="12">
-        <v>100</v>
-      </c>
-      <c r="M3" s="11">
-        <v>100</v>
-      </c>
-      <c r="N3" s="11">
-        <v>80</v>
-      </c>
-      <c r="O3" s="11">
-        <v>70</v>
-      </c>
-      <c r="P3" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q3" s="11">
-        <v>100</v>
-      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="8">
+        <f>100*SUM(E3:K3)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="8">
-        <f t="shared" ref="S3:S34" si="1">SUM(L3:R3)/(A$1)</f>
-        <v>133.75</v>
-      </c>
-      <c r="T3" s="12"/>
-      <c r="U3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="8">
+        <f>SUM(M3:S3)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="12"/>
       <c r="V3" s="11"/>
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
-      <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y34" si="2">SUM(T3:X3)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="8">
+        <f>SUM(U3:Y3)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12"/>
       <c r="AB3" s="11"/>
       <c r="AC3" s="11"/>
       <c r="AD3" s="11"/>
-      <c r="AE3" s="8">
-        <f t="shared" ref="AE3:AE34" si="3">SUM(Z3:AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="17">
-        <f t="shared" ref="AG3:AG34" si="4">K3*0.1+S3*0.2+Y3*0.2+AE3*0.2+AF3*0.3</f>
-        <v>41.625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="8">
+        <f>SUM(AA3:AE3)</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="17">
+        <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="17">
+        <f>D3*0.4+AH3*0.6</f>
+        <v>40.06666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="18">
-        <v>2</v>
-      </c>
-      <c r="F4" s="18">
-        <v>2</v>
-      </c>
-      <c r="G4" s="18">
-        <v>2</v>
-      </c>
-      <c r="H4" s="18">
-        <v>2</v>
-      </c>
-      <c r="I4" s="18">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="12">
+        <v>89.95</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
       <c r="J4" s="18"/>
-      <c r="K4" s="8">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11">
-        <v>100</v>
-      </c>
-      <c r="N4" s="11">
-        <v>90</v>
-      </c>
-      <c r="O4" s="11">
-        <v>80</v>
-      </c>
-      <c r="P4" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="11">
-        <v>100</v>
-      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="8">
+        <f>100*SUM(E4:K4)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="12"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="8">
-        <f t="shared" si="1"/>
-        <v>113.75</v>
-      </c>
-      <c r="T4" s="12"/>
-      <c r="U4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="8">
+        <f>SUM(M4:S4)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="12"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
-      <c r="Y4" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="8">
+        <f>SUM(U4:Y4)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12"/>
       <c r="AB4" s="11"/>
       <c r="AC4" s="11"/>
       <c r="AD4" s="11"/>
-      <c r="AE4" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="17">
-        <f t="shared" si="4"/>
-        <v>35.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="8">
+        <f>SUM(AA4:AE4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="17">
+        <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="17">
+        <f>D4*0.4+AH4*0.6</f>
+        <v>35.980000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="19">
-        <v>0</v>
-      </c>
-      <c r="E5" s="18">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>2</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18">
-        <v>2</v>
-      </c>
-      <c r="I5" s="18">
-        <v>2</v>
-      </c>
+      <c r="D5" s="12">
+        <v>87.283333333333331</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
       <c r="J5" s="18"/>
-      <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="11">
-        <v>100</v>
-      </c>
-      <c r="N5" s="11">
-        <v>80</v>
-      </c>
-      <c r="O5" s="11">
-        <v>80</v>
-      </c>
-      <c r="P5" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>100</v>
-      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="8">
+        <f>100*SUM(E5:K5)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="8">
-        <f t="shared" si="1"/>
-        <v>111.25</v>
-      </c>
-      <c r="T5" s="12"/>
-      <c r="U5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="8">
+        <f>SUM(M5:S5)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="12"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
-      <c r="Y5" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="11"/>
+      <c r="Y5" s="11"/>
+      <c r="Z5" s="8">
+        <f>SUM(U5:Y5)</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12"/>
       <c r="AB5" s="11"/>
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
-      <c r="AE5" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="17">
-        <f t="shared" si="4"/>
-        <v>34.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="8">
+        <f>SUM(AA5:AE5)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="17">
+        <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="17">
+        <f>D5*0.4+AH5*0.6</f>
+        <v>34.913333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="18">
-        <v>2</v>
-      </c>
-      <c r="F6" s="18">
-        <v>2</v>
-      </c>
-      <c r="G6" s="18">
-        <v>2</v>
-      </c>
-      <c r="H6" s="18">
-        <v>2</v>
-      </c>
-      <c r="I6" s="18">
-        <v>2</v>
-      </c>
+      <c r="B6" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="12">
+        <v>86.833333333333343</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="8">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="L6" s="12">
-        <v>0</v>
-      </c>
-      <c r="M6" s="11">
-        <v>100</v>
-      </c>
-      <c r="N6" s="11">
-        <v>80</v>
-      </c>
-      <c r="O6" s="11">
-        <v>80</v>
-      </c>
-      <c r="P6" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>100</v>
-      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="8">
+        <f>100*SUM(E6:K6)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="8">
-        <f t="shared" si="1"/>
-        <v>111.25</v>
-      </c>
-      <c r="T6" s="12"/>
-      <c r="U6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="8">
+        <f>SUM(M6:S6)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="12"/>
       <c r="V6" s="11"/>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
-      <c r="Y6" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="8">
+        <f>SUM(U6:Y6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="12"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
-      <c r="AE6" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="17">
-        <f t="shared" si="4"/>
-        <v>34.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="8">
+        <f>SUM(AA6:AE6)</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="17">
+        <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="17">
+        <f>D6*0.4+AH6*0.6</f>
+        <v>34.733333333333341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0</v>
-      </c>
-      <c r="G7" s="18">
-        <v>2</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2</v>
-      </c>
-      <c r="I7" s="18">
-        <v>2</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="12">
+        <v>84.833333333333343</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L7" s="12">
-        <v>0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>100</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>80</v>
-      </c>
-      <c r="P7" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>100</v>
-      </c>
+      <c r="K7" s="18"/>
+      <c r="L7" s="8">
+        <f>100*SUM(E7:K7)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
-      <c r="S7" s="8">
-        <f t="shared" si="1"/>
-        <v>91.25</v>
-      </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="8">
+        <f>SUM(M7:S7)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="12"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
-      <c r="Y7" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="8">
+        <f>SUM(U7:Y7)</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
       <c r="AD7" s="11"/>
-      <c r="AE7" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="17">
-        <f t="shared" si="4"/>
-        <v>28.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="8">
+        <f>SUM(AA7:AE7)</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="17">
+        <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="17">
+        <f>D7*0.4+AH7*0.6</f>
+        <v>33.933333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>0</v>
-      </c>
-      <c r="G8" s="18">
-        <v>2</v>
-      </c>
-      <c r="H8" s="18">
-        <v>2</v>
-      </c>
-      <c r="I8" s="18">
-        <v>2</v>
-      </c>
+      <c r="D8" s="12">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E8" s="46"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="L8" s="12">
-        <v>0</v>
-      </c>
-      <c r="M8" s="11">
-        <v>80</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="11">
-        <v>100</v>
-      </c>
-      <c r="P8" s="12">
-        <v>95</v>
-      </c>
-      <c r="Q8" s="11">
-        <v>100</v>
-      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="8">
+        <f>100*SUM(E8:K8)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="11"/>
-      <c r="S8" s="8">
-        <f t="shared" si="1"/>
-        <v>93.75</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="8">
+        <f>SUM(M8:S8)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="12"/>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
-      <c r="Y8" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="8">
+        <f>SUM(U8:Y8)</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="12"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
       <c r="AD8" s="11"/>
-      <c r="AE8" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="17">
-        <f t="shared" si="4"/>
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="8">
+        <f>SUM(AA8:AE8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="17">
+        <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="17">
+        <f>D8*0.4+AH8*0.6</f>
+        <v>31.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="C9" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <v>2</v>
-      </c>
-      <c r="G9" s="18">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1.7</v>
-      </c>
-      <c r="I9" s="18">
-        <v>2</v>
-      </c>
+      <c r="D9" s="12">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E9" s="46"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>96.25</v>
-      </c>
-      <c r="L9" s="12">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>80</v>
-      </c>
-      <c r="O9" s="11">
-        <v>90</v>
-      </c>
-      <c r="P9" s="11">
-        <v>85</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>100</v>
-      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="8">
+        <f>100*SUM(E9:K9)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
-      <c r="S9" s="8">
-        <f t="shared" si="1"/>
-        <v>88.75</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="8">
+        <f>SUM(M9:S9)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="12"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
-      <c r="Y9" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="11"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="8">
+        <f>SUM(U9:Y9)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
-      <c r="AE9" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="17">
-        <f t="shared" si="4"/>
-        <v>27.375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="8">
+        <f>SUM(AA9:AE9)</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="17">
+        <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="17">
+        <f>D9*0.4+AH9*0.6</f>
+        <v>29.760000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="C10" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="19">
-        <v>2</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.8</v>
-      </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="I10" s="18">
-        <v>2</v>
-      </c>
+      <c r="D10" s="12">
+        <v>70.55</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="8">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="L10" s="12">
-        <v>100</v>
-      </c>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>90</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>100</v>
-      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="8">
+        <f>100*SUM(E10:K10)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="8">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="T10" s="12"/>
-      <c r="U10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="8">
+        <f>SUM(M10:S10)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="12"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
-      <c r="Y10" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="8">
+        <f>SUM(U10:Y10)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="17">
-        <f t="shared" si="4"/>
-        <v>26.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="8">
+        <f>SUM(AA10:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="17">
+        <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="17">
+        <f>D10*0.4+AH10*0.6</f>
+        <v>28.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <v>2</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1.5</v>
-      </c>
-      <c r="H11" s="18">
-        <v>2</v>
-      </c>
-      <c r="I11" s="18">
-        <v>2</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="12">
+        <v>70.066666666666663</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="8">
-        <f t="shared" si="0"/>
-        <v>93.75</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <v>70</v>
-      </c>
-      <c r="O11" s="11">
-        <v>70</v>
-      </c>
-      <c r="P11" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="11">
-        <v>100</v>
-      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="8">
+        <f>100*SUM(E11:K11)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="12"/>
       <c r="R11" s="11"/>
-      <c r="S11" s="8">
-        <f t="shared" si="1"/>
-        <v>81.25</v>
-      </c>
-      <c r="T11" s="12"/>
-      <c r="U11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="8">
+        <f>SUM(M11:S11)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="12"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
-      <c r="Y11" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="11"/>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="8">
+        <f>SUM(U11:Y11)</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
       <c r="AD11" s="11"/>
-      <c r="AE11" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="17">
-        <f t="shared" si="4"/>
-        <v>25.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="8">
+        <f>SUM(AA11:AE11)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="17">
+        <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="17">
+        <f>D11*0.4+AH11*0.6</f>
+        <v>28.026666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18">
-        <v>2</v>
-      </c>
-      <c r="H12" s="18">
-        <v>2</v>
-      </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="12">
+        <v>69.833333333333343</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="L12" s="12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="11">
-        <v>80</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11">
-        <v>100</v>
-      </c>
-      <c r="P12" s="11">
-        <v>90</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>60</v>
-      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="8">
+        <f>100*SUM(E12:K12)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="8">
-        <f t="shared" si="1"/>
-        <v>82.5</v>
-      </c>
-      <c r="T12" s="12"/>
-      <c r="U12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="8">
+        <f>SUM(M12:S12)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="12"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
-      <c r="Y12" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="8">
+        <f>SUM(U12:Y12)</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
       <c r="AD12" s="11"/>
-      <c r="AE12" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="17">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="8">
+        <f>SUM(AA12:AE12)</f>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="17">
+        <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="17">
+        <f>D12*0.4+AH12*0.6</f>
+        <v>27.933333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
-        <v>2</v>
-      </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1.6</v>
-      </c>
-      <c r="I13" s="18">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="12">
+        <v>60.4</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="8">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="L13" s="12">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>90</v>
-      </c>
-      <c r="O13" s="11">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <v>90</v>
-      </c>
-      <c r="Q13" s="11">
-        <v>100</v>
-      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="8">
+        <f>100*SUM(E13:K13)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="8">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="8">
+        <f>SUM(M13:S13)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="12"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
-      <c r="Y13" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="8">
+        <f>SUM(U13:Y13)</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12"/>
       <c r="AB13" s="11"/>
       <c r="AC13" s="11"/>
       <c r="AD13" s="11"/>
-      <c r="AE13" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="17">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="8">
+        <f>SUM(AA13:AE13)</f>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="17">
+        <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="17">
+        <f>D13*0.4+AH13*0.6</f>
+        <v>24.16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="18">
-        <v>0</v>
-      </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="18">
-        <v>2</v>
-      </c>
-      <c r="I14" s="18">
-        <v>2</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="12">
+        <v>59.5</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="18"/>
-      <c r="K14" s="8">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="L14" s="12">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11">
-        <v>80</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11">
-        <v>0</v>
-      </c>
-      <c r="P14" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="11">
-        <v>100</v>
-      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="8">
+        <f>100*SUM(E14:K14)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="12"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="8">
-        <f t="shared" si="1"/>
-        <v>66.25</v>
-      </c>
-      <c r="T14" s="12"/>
-      <c r="U14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="8">
+        <f>SUM(M14:S14)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="12"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
-      <c r="Y14" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="8">
+        <f>SUM(U14:Y14)</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
       <c r="AD14" s="11"/>
-      <c r="AE14" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="17">
-        <f t="shared" si="4"/>
-        <v>20.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="8">
+        <f>SUM(AA14:AE14)</f>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="17">
+        <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="17">
+        <f>D14*0.4+AH14*0.6</f>
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
-        <v>2</v>
-      </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="18">
-        <v>2</v>
-      </c>
-      <c r="I15" s="18">
-        <v>0.3</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="12">
+        <v>28.1</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="18"/>
-      <c r="K15" s="8">
-        <f t="shared" si="0"/>
-        <v>53.75</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>50</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>30</v>
-      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="8">
+        <f>100*SUM(E15:K15)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="12"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="8">
-        <f t="shared" si="1"/>
-        <v>41.25</v>
-      </c>
-      <c r="T15" s="12"/>
-      <c r="U15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="8">
+        <f>SUM(M15:S15)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="12"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
-      <c r="Y15" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="8">
+        <f>SUM(U15:Y15)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="12"/>
       <c r="AB15" s="11"/>
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
-      <c r="AE15" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="17">
-        <f t="shared" si="4"/>
-        <v>13.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="8">
+        <f>SUM(AA15:AE15)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="17">
+        <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="17">
+        <f>D15*0.4+AH15*0.6</f>
+        <v>11.240000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="19">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
-        <v>2</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="12">
+        <v>22.366666666666667</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="18"/>
-      <c r="K16" s="8">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="L16" s="12">
-        <v>80</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11">
-        <v>0</v>
-      </c>
-      <c r="P16" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="11">
-        <v>100</v>
-      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="8">
+        <f>100*SUM(E16:K16)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="8">
+        <f>SUM(M16:S16)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="12"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
       <c r="X16" s="11"/>
-      <c r="Y16" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="8">
+        <f>SUM(U16:Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="11"/>
-      <c r="AE16" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="17">
-        <f t="shared" si="4"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="8">
+        <f>SUM(AA16:AE16)</f>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="17">
+        <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="17">
+        <f>D16*0.4+AH16*0.6</f>
+        <v>8.9466666666666672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
-      </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12">
+        <v>20.7</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="8">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="L17" s="12">
-        <v>80</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11">
-        <v>0</v>
-      </c>
-      <c r="P17" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>100</v>
-      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="8">
+        <f>100*SUM(E17:K17)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T17" s="12"/>
-      <c r="U17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="8">
+        <f>SUM(M17:S17)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="12"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11"/>
-      <c r="Y17" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="8">
+        <f>SUM(U17:Y17)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12"/>
       <c r="AB17" s="11"/>
       <c r="AC17" s="11"/>
       <c r="AD17" s="11"/>
-      <c r="AE17" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="17">
-        <f t="shared" si="4"/>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="19">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
-        <v>2</v>
-      </c>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="8">
+        <f>SUM(AA17:AE17)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="17">
+        <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="17">
+        <f>D17*0.4+AH17*0.6</f>
+        <v>8.2799999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="12">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="E18" s="46"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L18" s="12">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="11">
-        <v>100</v>
-      </c>
+      <c r="K18" s="18"/>
+      <c r="L18" s="8">
+        <f>100*SUM(E18:K18)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="8">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="8">
+        <f>SUM(M18:S18)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="12"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
-      <c r="Y18" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="8">
+        <f>SUM(U18:Y18)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12"/>
       <c r="AB18" s="11"/>
       <c r="AC18" s="11"/>
       <c r="AD18" s="11"/>
-      <c r="AE18" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="17">
-        <f t="shared" si="4"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="8">
+        <f>SUM(AA18:AE18)</f>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="17">
+        <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="17">
+        <f>D18*0.4+AH18*0.6</f>
+        <v>7.4666666666666677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="18">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
-        <v>0</v>
-      </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="18">
-        <v>2</v>
-      </c>
-      <c r="I19" s="18">
-        <v>0</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="12">
+        <v>11.1</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="8">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="11">
-        <v>0</v>
-      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="8">
+        <f>100*SUM(E19:K19)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="8">
-        <f t="shared" si="1"/>
-        <v>21.25</v>
-      </c>
-      <c r="T19" s="12"/>
-      <c r="U19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="8">
+        <f>SUM(M19:S19)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="12"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
-      <c r="Y19" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="8">
+        <f>SUM(U19:Y19)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="12"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
       <c r="AD19" s="11"/>
-      <c r="AE19" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="17">
-        <f t="shared" si="4"/>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1.25</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="8">
+        <f>SUM(AA19:AE19)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="17">
+        <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="17">
+        <f>D19*0.4+AH19*0.6</f>
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="12">
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="8">
-        <f t="shared" si="0"/>
-        <v>15.625</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>85</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>0</v>
-      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="8">
+        <f>100*SUM(E20:K20)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="8">
-        <f t="shared" si="1"/>
-        <v>21.25</v>
-      </c>
-      <c r="T20" s="12"/>
-      <c r="U20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="8">
+        <f>SUM(M20:S20)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="12"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
-      <c r="Y20" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="8">
+        <f>SUM(U20:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12"/>
       <c r="AB20" s="11"/>
       <c r="AC20" s="11"/>
       <c r="AD20" s="11"/>
-      <c r="AE20" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="17">
-        <f t="shared" si="4"/>
-        <v>5.8125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="8">
+        <f>SUM(AA20:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="17">
+        <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="17">
+        <f>D20*0.4+AH20*0.6</f>
+        <v>3.4666666666666672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="18">
-        <v>0</v>
-      </c>
-      <c r="H21" s="18">
-        <v>0</v>
-      </c>
-      <c r="I21" s="18">
-        <v>0</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="12">
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="8">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="L21" s="12">
-        <v>80</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="12">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="11">
-        <v>0</v>
-      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="8">
+        <f>100*SUM(E21:K21)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="T21" s="12"/>
-      <c r="U21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="8">
+        <f>SUM(M21:S21)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="12"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
       <c r="X21" s="11"/>
-      <c r="Y21" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="8">
+        <f>SUM(U21:Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
-      <c r="AE21" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="17">
-        <f t="shared" si="4"/>
-        <v>5.25</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE21" s="11"/>
+      <c r="AF21" s="8">
+        <f>SUM(AA21:AE21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="17">
+        <f>L21*0.1+T21*0.2+Z21*0.2+AF21*0.2+AG21*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="17">
+        <f>D21*0.4+AH21*0.6</f>
+        <v>3.4599999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
-      </c>
-      <c r="G22" s="18">
-        <v>0</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="18">
-        <v>0</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0</v>
-      </c>
-      <c r="O22" s="12">
-        <v>0</v>
-      </c>
-      <c r="P22" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>0</v>
-      </c>
+      <c r="K22" s="18"/>
+      <c r="L22" s="8">
+        <f>100*SUM(E22:K22)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="12"/>
-      <c r="U22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="8">
+        <f>SUM(M22:S22)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="12"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="8">
+        <f>SUM(U22:Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
-      <c r="AE22" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="8">
+        <f>SUM(AA22:AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="17">
+        <f>L22*0.1+T22*0.2+Z22*0.2+AF22*0.2+AG22*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="17">
+        <f>D22*0.4+AH22*0.6</f>
+        <v>3.3200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
-        <v>0</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="12">
-        <v>0</v>
-      </c>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="12">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12">
-        <v>0</v>
-      </c>
-      <c r="P23" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="11">
-        <v>0</v>
-      </c>
+      <c r="K23" s="18"/>
+      <c r="L23" s="8">
+        <f>100*SUM(E23:K23)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="12"/>
-      <c r="U23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="8">
+        <f>SUM(M23:S23)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="12"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
       <c r="X23" s="11"/>
-      <c r="Y23" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="8">
+        <f>SUM(U23:Y23)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
-      <c r="AE23" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="8">
+        <f>SUM(AA23:AE23)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="17">
+        <f>L23*0.1+T23*0.2+Z23*0.2+AF23*0.2+AG23*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="17">
+        <f>D23*0.4+AH23*0.6</f>
+        <v>2.7666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="12">
+        <v>6.3333333333333339</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="12">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12">
-        <v>0</v>
-      </c>
-      <c r="P24" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="11">
-        <v>0</v>
-      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="8">
+        <f>100*SUM(E24:K24)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
       <c r="R24" s="11"/>
-      <c r="S24" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="12"/>
-      <c r="U24" s="11"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="8">
+        <f>SUM(M24:S24)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="12"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
       <c r="X24" s="11"/>
-      <c r="Y24" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="11"/>
+      <c r="Y24" s="11"/>
+      <c r="Z24" s="8">
+        <f>SUM(U24:Y24)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="12"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
-      <c r="AE24" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="8">
+        <f>SUM(AA24:AE24)</f>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="17">
+        <f>L24*0.1+T24*0.2+Z24*0.2+AF24*0.2+AG24*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI24" s="17">
+        <f>D24*0.4+AH24*0.6</f>
+        <v>2.5333333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="C25" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="18">
-        <v>0</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18">
-        <v>0</v>
-      </c>
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="12">
-        <v>0</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="12">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12">
-        <v>0</v>
-      </c>
-      <c r="P25" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>0</v>
-      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="8">
+        <f>100*SUM(E25:K25)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
       <c r="R25" s="11"/>
-      <c r="S25" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="12"/>
-      <c r="U25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="8">
+        <f>SUM(M25:S25)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="12"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
       <c r="X25" s="11"/>
-      <c r="Y25" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="11"/>
+      <c r="Y25" s="11"/>
+      <c r="Z25" s="8">
+        <f>SUM(U25:Y25)</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="12"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
-      <c r="AE25" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="8">
+        <f>SUM(AA25:AE25)</f>
+        <v>0</v>
+      </c>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="17">
+        <f>L25*0.1+T25*0.2+Z25*0.2+AF25*0.2+AG25*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI25" s="17">
+        <f>D25*0.4+AH25*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="12">
+        <v>2</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
-      <c r="N26" s="12">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12">
-        <v>0</v>
-      </c>
-      <c r="P26" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="11">
-        <v>0</v>
-      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="8">
+        <f>100*SUM(E26:K26)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
       <c r="R26" s="11"/>
-      <c r="S26" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="12"/>
-      <c r="U26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="8">
+        <f>SUM(M26:S26)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="12"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
       <c r="X26" s="11"/>
-      <c r="Y26" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="8">
+        <f>SUM(U26:Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="12"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
-      <c r="AE26" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="8">
+        <f>SUM(AA26:AE26)</f>
+        <v>0</v>
+      </c>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="17">
+        <f>L26*0.1+T26*0.2+Z26*0.2+AF26*0.2+AG26*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI26" s="17">
+        <f>D26*0.4+AH26*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="18">
-        <v>0</v>
-      </c>
-      <c r="E27" s="18">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
-        <v>0</v>
-      </c>
-      <c r="G27" s="18">
-        <v>0</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0</v>
-      </c>
-      <c r="I27" s="18">
-        <v>0</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="12">
-        <v>0</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0</v>
-      </c>
-      <c r="N27" s="12">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12">
-        <v>0</v>
-      </c>
-      <c r="P27" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="11">
-        <v>0</v>
-      </c>
+      <c r="K27" s="18"/>
+      <c r="L27" s="8">
+        <f>100*SUM(E27:K27)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
-      <c r="S27" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="12"/>
-      <c r="U27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="8">
+        <f>SUM(M27:S27)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="12"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
       <c r="X27" s="11"/>
-      <c r="Y27" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="8">
+        <f>SUM(U27:Y27)</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
-      <c r="AE27" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF27" s="12"/>
-      <c r="AG27" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="8">
+        <f>SUM(AA27:AE27)</f>
+        <v>0</v>
+      </c>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="17">
+        <f>L27*0.1+T27*0.2+Z27*0.2+AF27*0.2+AG27*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI27" s="17">
+        <f>D27*0.4+AH27*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D28" s="18">
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
-        <v>0</v>
-      </c>
-      <c r="G28" s="18">
-        <v>0</v>
-      </c>
-      <c r="H28" s="18">
-        <v>0</v>
-      </c>
-      <c r="I28" s="18">
-        <v>0</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="12">
+        <v>2</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="12">
-        <v>0</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="12">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12">
-        <v>0</v>
-      </c>
-      <c r="P28" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="11">
-        <v>0</v>
-      </c>
+      <c r="K28" s="18"/>
+      <c r="L28" s="8">
+        <f>100*SUM(E28:K28)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
       <c r="R28" s="11"/>
-      <c r="S28" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="12"/>
-      <c r="U28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="8">
+        <f>SUM(M28:S28)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="12"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
       <c r="X28" s="11"/>
-      <c r="Y28" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="8">
+        <f>SUM(U28:Y28)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="12"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
       <c r="AD28" s="11"/>
-      <c r="AE28" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="8">
+        <f>SUM(AA28:AE28)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="17">
+        <f>L28*0.1+T28*0.2+Z28*0.2+AF28*0.2+AG28*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI28" s="17">
+        <f>D28*0.4+AH28*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="12">
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <v>0</v>
-      </c>
-      <c r="N29" s="12">
-        <v>0</v>
-      </c>
-      <c r="O29" s="12">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="11">
-        <v>0</v>
-      </c>
+      <c r="K29" s="18"/>
+      <c r="L29" s="8">
+        <f>100*SUM(E29:K29)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
       <c r="R29" s="11"/>
-      <c r="S29" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="12"/>
-      <c r="U29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="8">
+        <f>SUM(M29:S29)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="12"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
       <c r="X29" s="11"/>
-      <c r="Y29" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="8">
+        <f>SUM(U29:Y29)</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="12"/>
       <c r="AB29" s="11"/>
       <c r="AC29" s="11"/>
       <c r="AD29" s="11"/>
-      <c r="AE29" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="8">
+        <f>SUM(AA29:AE29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="17">
+        <f>L29*0.1+T29*0.2+Z29*0.2+AF29*0.2+AG29*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI29" s="17">
+        <f>D29*0.4+AH29*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="18">
-        <v>0</v>
-      </c>
-      <c r="E30" s="18">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <v>0</v>
-      </c>
-      <c r="G30" s="18">
-        <v>0</v>
-      </c>
-      <c r="H30" s="18">
-        <v>0</v>
-      </c>
-      <c r="I30" s="18">
-        <v>0</v>
-      </c>
+      <c r="D30" s="12">
+        <v>2</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="12">
-        <v>0</v>
-      </c>
-      <c r="M30" s="12">
-        <v>0</v>
-      </c>
-      <c r="N30" s="12">
-        <v>0</v>
-      </c>
-      <c r="O30" s="12">
-        <v>0</v>
-      </c>
-      <c r="P30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>0</v>
-      </c>
+      <c r="K30" s="18"/>
+      <c r="L30" s="8">
+        <f>100*SUM(E30:K30)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="12"/>
-      <c r="U30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="8">
+        <f>SUM(M30:S30)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="12"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
       <c r="X30" s="11"/>
-      <c r="Y30" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="12"/>
-      <c r="AA30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="8">
+        <f>SUM(U30:Y30)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="12"/>
       <c r="AB30" s="11"/>
       <c r="AC30" s="11"/>
       <c r="AD30" s="11"/>
-      <c r="AE30" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="12"/>
-      <c r="AG30" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="8">
+        <f>SUM(AA30:AE30)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="17">
+        <f>L30*0.1+T30*0.2+Z30*0.2+AF30*0.2+AG30*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI30" s="17">
+        <f>D30*0.4+AH30*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="18">
-        <v>0</v>
-      </c>
-      <c r="E31" s="18">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
-        <v>0</v>
-      </c>
-      <c r="G31" s="18">
-        <v>0</v>
-      </c>
-      <c r="H31" s="18">
-        <v>0</v>
-      </c>
-      <c r="I31" s="18">
-        <v>0</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="12">
+        <v>2</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="12">
-        <v>0</v>
-      </c>
-      <c r="M31" s="12">
-        <v>0</v>
-      </c>
-      <c r="N31" s="12">
-        <v>0</v>
-      </c>
-      <c r="O31" s="12">
-        <v>0</v>
-      </c>
-      <c r="P31" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="11">
-        <v>0</v>
-      </c>
+      <c r="K31" s="18"/>
+      <c r="L31" s="8">
+        <f>100*SUM(E31:K31)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
       <c r="R31" s="11"/>
-      <c r="S31" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="12"/>
-      <c r="U31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="8">
+        <f>SUM(M31:S31)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="12"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
       <c r="X31" s="11"/>
-      <c r="Y31" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="8">
+        <f>SUM(U31:Y31)</f>
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12"/>
       <c r="AB31" s="11"/>
       <c r="AC31" s="11"/>
       <c r="AD31" s="11"/>
-      <c r="AE31" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="8">
+        <f>SUM(AA31:AE31)</f>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="17">
+        <f>L31*0.1+T31*0.2+Z31*0.2+AF31*0.2+AG31*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI31" s="17">
+        <f>D31*0.4+AH31*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="18">
-        <v>0</v>
-      </c>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0</v>
-      </c>
-      <c r="G32" s="18">
-        <v>0</v>
-      </c>
-      <c r="H32" s="18">
-        <v>0</v>
-      </c>
-      <c r="I32" s="18">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="12">
-        <v>0</v>
-      </c>
-      <c r="M32" s="12">
-        <v>0</v>
-      </c>
-      <c r="N32" s="12">
-        <v>0</v>
-      </c>
-      <c r="O32" s="12">
-        <v>0</v>
-      </c>
-      <c r="P32" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>0</v>
-      </c>
+      <c r="K32" s="18"/>
+      <c r="L32" s="8">
+        <f>100*SUM(E32:K32)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="12"/>
-      <c r="U32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="8">
+        <f>SUM(M32:S32)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="12"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
       <c r="X32" s="11"/>
-      <c r="Y32" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="12"/>
-      <c r="AA32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="8">
+        <f>SUM(U32:Y32)</f>
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12"/>
       <c r="AB32" s="11"/>
       <c r="AC32" s="11"/>
       <c r="AD32" s="11"/>
-      <c r="AE32" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="8">
+        <f>SUM(AA32:AE32)</f>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="17">
+        <f>L32*0.1+T32*0.2+Z32*0.2+AF32*0.2+AG32*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="17">
+        <f>D32*0.4+AH32*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <v>0</v>
-      </c>
-      <c r="I33" s="41">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="12">
+        <v>2</v>
+      </c>
+      <c r="E33" s="46"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="41"/>
-      <c r="K33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="12">
-        <v>0</v>
-      </c>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="12">
-        <v>0</v>
-      </c>
-      <c r="O33" s="12">
-        <v>0</v>
-      </c>
-      <c r="P33" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="11">
-        <v>0</v>
-      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="8">
+        <f>100*SUM(E33:K33)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="12"/>
-      <c r="U33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="8">
+        <f>SUM(M33:S33)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="12"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
-      <c r="Y33" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="8">
+        <f>SUM(U33:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12"/>
       <c r="AB33" s="11"/>
       <c r="AC33" s="11"/>
       <c r="AD33" s="11"/>
-      <c r="AE33" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="12"/>
-      <c r="AG33" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="8">
+        <f>SUM(AA33:AE33)</f>
+        <v>0</v>
+      </c>
+      <c r="AG33" s="12"/>
+      <c r="AH33" s="17">
+        <f>L33*0.1+T33*0.2+Z33*0.2+AF33*0.2+AG33*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI33" s="17">
+        <f>D33*0.4+AH33*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="18">
-        <v>0</v>
-      </c>
-      <c r="E34" s="18">
-        <v>0</v>
-      </c>
-      <c r="F34" s="18">
-        <v>0</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0</v>
-      </c>
-      <c r="H34" s="18">
-        <v>0</v>
-      </c>
-      <c r="I34" s="13">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="12">
+        <v>2</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="13"/>
-      <c r="K34" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="12">
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
-      <c r="N34" s="12">
-        <v>0</v>
-      </c>
-      <c r="O34" s="12">
-        <v>0</v>
-      </c>
-      <c r="P34" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="9">
-        <v>0</v>
-      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="8">
+        <f>100*SUM(E34:K34)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="7"/>
-      <c r="U34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="8">
+        <f>SUM(M34:S34)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="7"/>
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
-      <c r="Y34" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="10">
+        <f>SUM(U34:Y34)</f>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="9"/>
-      <c r="AE34" s="8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:33" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="8">
+        <f>SUM(AA34:AE34)</f>
+        <v>0</v>
+      </c>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="6">
+        <f>L34*0.1+T34*0.2+Z34*0.2+AF34*0.2+AG34*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="17">
+        <f>D34*0.4+AH34*0.6</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -7694,8 +7471,9 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -7703,7 +7481,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -7721,8 +7499,9 @@
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="4"/>
+    </row>
+    <row r="37" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7730,7 +7509,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
-      <c r="H37" s="4"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -7748,8 +7527,9 @@
       <c r="W37" s="4"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -7757,7 +7537,7 @@
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -7775,8 +7555,9 @@
       <c r="W38" s="4"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -7784,7 +7565,7 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -7802,8 +7583,9 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="4"/>
+    </row>
+    <row r="40" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -7811,7 +7593,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -7829,8 +7611,9 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="4"/>
+    </row>
+    <row r="41" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -7838,7 +7621,7 @@
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="4"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -7856,8 +7639,9 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -7865,7 +7649,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="4"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -7883,8 +7667,9 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-    </row>
-    <row r="43" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="4"/>
+    </row>
+    <row r="43" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -7892,7 +7677,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="4"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -7910,8 +7695,9 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-    </row>
-    <row r="44" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="4"/>
+    </row>
+    <row r="44" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -7919,7 +7705,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="4"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -7937,8 +7723,9 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-    </row>
-    <row r="45" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z44" s="4"/>
+    </row>
+    <row r="45" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -7946,7 +7733,7 @@
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="4"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -7964,8 +7751,9 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-    </row>
-    <row r="46" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z45" s="4"/>
+    </row>
+    <row r="46" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -7973,7 +7761,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="4"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -7991,8 +7779,9 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-    </row>
-    <row r="47" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z46" s="4"/>
+    </row>
+    <row r="47" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8000,7 +7789,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -8018,8 +7807,9 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-    </row>
-    <row r="48" spans="1:33" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z47" s="4"/>
+    </row>
+    <row r="48" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -8027,7 +7817,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -8045,8 +7835,9 @@
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
-    </row>
-    <row r="49" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z48" s="4"/>
+    </row>
+    <row r="49" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -8054,7 +7845,7 @@
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -8072,8 +7863,9 @@
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
-    </row>
-    <row r="50" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z49" s="4"/>
+    </row>
+    <row r="50" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -8081,7 +7873,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -8099,8 +7891,9 @@
       <c r="W50" s="4"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
-    </row>
-    <row r="51" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z50" s="4"/>
+    </row>
+    <row r="51" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -8108,7 +7901,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="4"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -8126,8 +7919,9 @@
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
-    </row>
-    <row r="52" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z51" s="4"/>
+    </row>
+    <row r="52" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8135,7 +7929,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -8153,8 +7947,9 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
-    </row>
-    <row r="53" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z52" s="4"/>
+    </row>
+    <row r="53" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -8162,7 +7957,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="5"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -8180,8 +7975,9 @@
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
-    </row>
-    <row r="54" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z53" s="4"/>
+    </row>
+    <row r="54" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -8189,7 +7985,7 @@
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="5"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -8207,8 +8003,9 @@
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
-    </row>
-    <row r="55" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z54" s="4"/>
+    </row>
+    <row r="55" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8216,7 +8013,7 @@
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="5"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -8234,8 +8031,9 @@
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
-    </row>
-    <row r="56" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="4"/>
+    </row>
+    <row r="56" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8243,7 +8041,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="5"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -8261,8 +8059,9 @@
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
       <c r="Y56" s="4"/>
-    </row>
-    <row r="57" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8270,7 +8069,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="5"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -8288,8 +8087,9 @@
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
-    </row>
-    <row r="58" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="4"/>
+    </row>
+    <row r="58" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8297,7 +8097,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="5"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -8315,8 +8115,9 @@
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
-    </row>
-    <row r="59" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z58" s="4"/>
+    </row>
+    <row r="59" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8324,7 +8125,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -8342,8 +8143,9 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
-    </row>
-    <row r="60" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z59" s="4"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8351,7 +8153,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="5"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -8369,8 +8171,9 @@
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
-    </row>
-    <row r="61" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z60" s="4"/>
+    </row>
+    <row r="61" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -8378,7 +8181,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="5"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -8396,8 +8199,9 @@
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
-    </row>
-    <row r="62" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z61" s="4"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -8405,7 +8209,7 @@
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -8423,8 +8227,9 @@
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
-    </row>
-    <row r="63" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z62" s="4"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -8432,7 +8237,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="5"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -8450,8 +8255,9 @@
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
       <c r="Y63" s="4"/>
-    </row>
-    <row r="64" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z63" s="4"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -8459,7 +8265,7 @@
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="5"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -8477,8 +8283,9 @@
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
-    </row>
-    <row r="65" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z64" s="4"/>
+    </row>
+    <row r="65" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -8486,7 +8293,7 @@
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="5"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -8504,8 +8311,9 @@
       <c r="W65" s="4"/>
       <c r="X65" s="4"/>
       <c r="Y65" s="4"/>
-    </row>
-    <row r="66" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -8513,7 +8321,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="5"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -8531,8 +8339,9 @@
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
       <c r="Y66" s="4"/>
-    </row>
-    <row r="67" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z66" s="4"/>
+    </row>
+    <row r="67" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -8540,7 +8349,7 @@
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -8558,8 +8367,9 @@
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
       <c r="Y67" s="4"/>
-    </row>
-    <row r="68" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z67" s="4"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -8567,7 +8377,7 @@
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="5"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -8585,8 +8395,9 @@
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
       <c r="Y68" s="4"/>
-    </row>
-    <row r="69" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z68" s="4"/>
+    </row>
+    <row r="69" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -8594,7 +8405,7 @@
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="5"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -8612,8 +8423,9 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-    </row>
-    <row r="70" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z69" s="4"/>
+    </row>
+    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -8621,7 +8433,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -8639,8 +8451,9 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-    </row>
-    <row r="71" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -8648,7 +8461,7 @@
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="5"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -8666,8 +8479,9 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-    </row>
-    <row r="72" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z71" s="4"/>
+    </row>
+    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -8675,7 +8489,7 @@
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="5"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -8693,8 +8507,9 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-    </row>
-    <row r="73" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z72" s="4"/>
+    </row>
+    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -8702,7 +8517,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -8720,8 +8535,9 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
-    </row>
-    <row r="74" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z73" s="4"/>
+    </row>
+    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -8729,7 +8545,7 @@
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="5"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -8747,8 +8563,9 @@
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-    </row>
-    <row r="75" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z74" s="4"/>
+    </row>
+    <row r="75" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -8756,7 +8573,7 @@
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="5"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -8774,8 +8591,9 @@
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
-    </row>
-    <row r="76" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z75" s="4"/>
+    </row>
+    <row r="76" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -8783,7 +8601,7 @@
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -8801,8 +8619,9 @@
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
-    </row>
-    <row r="77" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z76" s="4"/>
+    </row>
+    <row r="77" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8810,7 +8629,7 @@
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
-      <c r="H77" s="4"/>
+      <c r="H77" s="5"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -8828,8 +8647,9 @@
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
-    </row>
-    <row r="78" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z77" s="4"/>
+    </row>
+    <row r="78" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -8837,7 +8657,7 @@
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="5"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -8855,8 +8675,9 @@
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
-    </row>
-    <row r="79" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z78" s="4"/>
+    </row>
+    <row r="79" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -8864,7 +8685,7 @@
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="4"/>
+      <c r="H79" s="5"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -8882,8 +8703,9 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
-    </row>
-    <row r="80" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z79" s="4"/>
+    </row>
+    <row r="80" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -8891,7 +8713,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -8909,8 +8731,9 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
-    </row>
-    <row r="81" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z80" s="4"/>
+    </row>
+    <row r="81" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -8918,7 +8741,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -8936,8 +8759,9 @@
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
-    </row>
-    <row r="82" spans="1:25" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z81" s="4"/>
+    </row>
+    <row r="82" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -8945,7 +8769,7 @@
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="5"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -8963,28 +8787,32 @@
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A3:AI34">
+    <sortCondition descending="1" ref="AI3"/>
+  </sortState>
   <mergeCells count="4">
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="L1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AE1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AF1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="between">
+  <conditionalFormatting sqref="E3:K34">
+    <cfRule type="cellIs" dxfId="28" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K34">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="L3:L34">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8997,8 +8825,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:S34">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="T3:T34">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9011,8 +8839,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y3:Y34">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="Z3:Z34">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9025,8 +8853,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AE34">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="AF3:AF34">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9039,8 +8867,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AG34">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="AH3:AH34">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -9053,21 +8881,52 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+  <conditionalFormatting sqref="M3:S34">
+    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="between">
       <formula>80</formula>
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D34">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+      <formula>80</formula>
+      <formula>150</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI34">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8B117272-CCF3-4825-AE1E-C44FA47E9DD7}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9085,7 +8944,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>K3:K34</xm:sqref>
+          <xm:sqref>L3:L34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E72E4D2B-59DB-4087-8D73-BA37B6C48E19}">
@@ -9096,7 +8955,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>S3:S34</xm:sqref>
+          <xm:sqref>T3:T34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B7F3499A-59AD-4039-86AF-0DC0CA994C23}">
@@ -9107,7 +8966,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Y3:Y34</xm:sqref>
+          <xm:sqref>Z3:Z34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D7FADB46-505F-42A9-A2E0-C12B10A2B638}">
@@ -9118,7 +8977,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AE3:AE34</xm:sqref>
+          <xm:sqref>AF3:AF34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3CE96519-F2EB-4DF1-A225-917272E77352}">
@@ -9129,7 +8988,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG3:AG34</xm:sqref>
+          <xm:sqref>AH3:AH34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8B117272-CCF3-4825-AE1E-C44FA47E9DD7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>AI3:AI34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Vize" sheetId="2" r:id="rId1"/>
@@ -943,15 +943,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -969,11 +960,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1077,218 +1077,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1665,9 +1453,9 @@
   </sheetPr>
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1696,26 +1484,26 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="42" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51"/>
       <c r="T1" s="40" t="s">
         <v>133</v>
       </c>
@@ -1826,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="8">
-        <f>100*SUM(D3:J3)/(2*A$1)</f>
+        <f t="shared" ref="K3:K34" si="0">100*SUM(D3:J3)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="L3" s="12">
@@ -1848,11 +1636,11 @@
         <v>100</v>
       </c>
       <c r="R3" s="11">
-        <f>J3*50-10</f>
+        <f t="shared" ref="R3:R11" si="1">J3*50-10</f>
         <v>90</v>
       </c>
       <c r="S3" s="8">
-        <f>SUM(L3:R3)/(A$1)</f>
+        <f t="shared" ref="S3:S34" si="2">SUM(L3:R3)/(A$1)</f>
         <v>90.833333333333329</v>
       </c>
       <c r="T3" s="8">
@@ -1862,7 +1650,7 @@
         <v>100</v>
       </c>
       <c r="V3" s="17">
-        <f>K3*0.2+S3*0.2+T3*0.25+U3*0.35+2</f>
+        <f t="shared" ref="V3:V34" si="3">K3*0.2+S3*0.2+T3*0.25+U3*0.35+2</f>
         <v>100.16666666666667</v>
       </c>
     </row>
@@ -1898,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="8">
-        <f>100*SUM(D4:J4)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>115.83333333333333</v>
       </c>
       <c r="L4" s="12">
@@ -1920,11 +1708,11 @@
         <v>100</v>
       </c>
       <c r="R4" s="11">
-        <f>J4*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S4" s="8">
-        <f>SUM(L4:R4)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>104.16666666666667</v>
       </c>
       <c r="T4" s="8">
@@ -1934,7 +1722,7 @@
         <v>72</v>
       </c>
       <c r="V4" s="17">
-        <f>K4*0.2+S4*0.2+T4*0.25+U4*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>89.95</v>
       </c>
     </row>
@@ -1970,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="K5" s="8">
-        <f>100*SUM(D5:J5)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L5" s="12">
@@ -1992,11 +1780,11 @@
         <v>100</v>
       </c>
       <c r="R5" s="11">
-        <f>J5*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S5" s="8">
-        <f>SUM(L5:R5)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>89.166666666666671</v>
       </c>
       <c r="T5" s="8">
@@ -2006,7 +1794,7 @@
         <v>82</v>
       </c>
       <c r="V5" s="17">
-        <f>K5*0.2+S5*0.2+T5*0.25+U5*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>87.283333333333331</v>
       </c>
     </row>
@@ -2042,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="8">
-        <f>100*SUM(D6:J6)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
       <c r="L6" s="12">
@@ -2064,11 +1852,11 @@
         <v>100</v>
       </c>
       <c r="R6" s="11">
-        <f>J6*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S6" s="8">
-        <f>SUM(L6:R6)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>75.833333333333329</v>
       </c>
       <c r="T6" s="8">
@@ -2078,7 +1866,7 @@
         <v>80</v>
       </c>
       <c r="V6" s="17">
-        <f>K6*0.2+S6*0.2+T6*0.25+U6*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>86.833333333333343</v>
       </c>
     </row>
@@ -2112,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="K7" s="8">
-        <f>100*SUM(D7:J7)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="L7" s="12">
@@ -2134,11 +1922,11 @@
         <v>100</v>
       </c>
       <c r="R7" s="11">
-        <f>J7*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S7" s="8">
-        <f>SUM(L7:R7)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>89.166666666666671</v>
       </c>
       <c r="T7" s="8">
@@ -2148,7 +1936,7 @@
         <v>75</v>
       </c>
       <c r="V7" s="17">
-        <f>K7*0.2+S7*0.2+T7*0.25+U7*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>84.833333333333343</v>
       </c>
     </row>
@@ -2184,7 +1972,7 @@
         <v>2</v>
       </c>
       <c r="K8" s="8">
-        <f>100*SUM(D8:J8)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="L8" s="12">
@@ -2206,11 +1994,11 @@
         <v>100</v>
       </c>
       <c r="R8" s="11">
-        <f>J8*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S8" s="8">
-        <f>SUM(L8:R8)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
       <c r="T8" s="8">
@@ -2220,7 +2008,7 @@
         <v>61</v>
       </c>
       <c r="V8" s="17">
-        <f>K8*0.2+S8*0.2+T8*0.25+U8*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>77.599999999999994</v>
       </c>
     </row>
@@ -2256,7 +2044,7 @@
         <v>2</v>
       </c>
       <c r="K9" s="8">
-        <f>100*SUM(D9:J9)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>80.833333333333329</v>
       </c>
       <c r="L9" s="12">
@@ -2278,11 +2066,11 @@
         <v>100</v>
       </c>
       <c r="R9" s="11">
-        <f>J9*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S9" s="8">
-        <f>SUM(L9:R9)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>74.166666666666671</v>
       </c>
       <c r="T9" s="8">
@@ -2292,7 +2080,7 @@
         <v>54</v>
       </c>
       <c r="V9" s="17">
-        <f>K9*0.2+S9*0.2+T9*0.25+U9*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>74.400000000000006</v>
       </c>
     </row>
@@ -2328,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="8">
-        <f>100*SUM(D10:J10)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="L10" s="12">
@@ -2350,11 +2138,11 @@
         <v>100</v>
       </c>
       <c r="R10" s="11">
-        <f>J10*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S10" s="8">
-        <f>SUM(L10:R10)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="T10" s="8">
@@ -2364,7 +2152,7 @@
         <v>53</v>
       </c>
       <c r="V10" s="17">
-        <f>K10*0.2+S10*0.2+T10*0.25+U10*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>70.55</v>
       </c>
     </row>
@@ -2400,7 +2188,7 @@
         <v>2</v>
       </c>
       <c r="K11" s="8">
-        <f>100*SUM(D11:J11)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="L11" s="12">
@@ -2422,11 +2210,11 @@
         <v>100</v>
       </c>
       <c r="R11" s="11">
-        <f>J11*50-10</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="S11" s="8">
-        <f>SUM(L11:R11)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>59.166666666666664</v>
       </c>
       <c r="T11" s="8">
@@ -2436,7 +2224,7 @@
         <v>69</v>
       </c>
       <c r="V11" s="17">
-        <f>K11*0.2+S11*0.2+T11*0.25+U11*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>70.066666666666663</v>
       </c>
     </row>
@@ -2472,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="8">
-        <f>100*SUM(D12:J12)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>79.166666666666671</v>
       </c>
       <c r="L12" s="12">
@@ -2498,7 +2286,7 @@
         <v>80</v>
       </c>
       <c r="S12" s="8">
-        <f>SUM(L12:R12)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
       <c r="T12" s="8">
@@ -2508,7 +2296,7 @@
         <v>60</v>
       </c>
       <c r="V12" s="17">
-        <f>K12*0.2+S12*0.2+T12*0.25+U12*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>69.833333333333343</v>
       </c>
     </row>
@@ -2544,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="K13" s="8">
-        <f>100*SUM(D13:J13)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
       <c r="L13" s="12">
@@ -2570,7 +2358,7 @@
         <v>80</v>
       </c>
       <c r="S13" s="8">
-        <f>SUM(L13:R13)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>68.333333333333329</v>
       </c>
       <c r="T13" s="8">
@@ -2580,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="V13" s="17">
-        <f>K13*0.2+S13*0.2+T13*0.25+U13*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>60.4</v>
       </c>
     </row>
@@ -2616,7 +2404,7 @@
         <v>2</v>
       </c>
       <c r="K14" s="8">
-        <f>100*SUM(D14:J14)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>63.333333333333336</v>
       </c>
       <c r="L14" s="12">
@@ -2642,7 +2430,7 @@
         <v>90</v>
       </c>
       <c r="S14" s="8">
-        <f>SUM(L14:R14)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>61.666666666666664</v>
       </c>
       <c r="T14" s="8">
@@ -2652,7 +2440,7 @@
         <v>50</v>
       </c>
       <c r="V14" s="17">
-        <f>K14*0.2+S14*0.2+T14*0.25+U14*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
     </row>
@@ -2688,7 +2476,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="8">
-        <f>100*SUM(D15:J15)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
       <c r="L15" s="12">
@@ -2714,7 +2502,7 @@
         <v>80</v>
       </c>
       <c r="S15" s="8">
-        <f>SUM(L15:R15)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>43.333333333333336</v>
       </c>
       <c r="T15" s="8"/>
@@ -2722,7 +2510,7 @@
         <v>26</v>
       </c>
       <c r="V15" s="17">
-        <f>K15*0.2+S15*0.2+T15*0.25+U15*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>28.1</v>
       </c>
     </row>
@@ -2758,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="8">
-        <f>100*SUM(D16:J16)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>35.833333333333336</v>
       </c>
       <c r="L16" s="12">
@@ -2780,11 +2568,11 @@
         <v>30</v>
       </c>
       <c r="R16" s="11">
-        <f>J16*50</f>
+        <f t="shared" ref="R16:R34" si="4">J16*50</f>
         <v>0</v>
       </c>
       <c r="S16" s="8">
-        <f>SUM(L16:R16)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
       <c r="T16" s="8"/>
@@ -2792,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="V16" s="17">
-        <f>K16*0.2+S16*0.2+T16*0.25+U16*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>22.366666666666667</v>
       </c>
     </row>
@@ -2828,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="8">
-        <f>100*SUM(D17:J17)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="L17" s="12">
@@ -2850,11 +2638,11 @@
         <v>100</v>
       </c>
       <c r="R17" s="11">
-        <f>J17*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S17" s="8">
-        <f>SUM(L17:R17)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="T17" s="8"/>
@@ -2862,7 +2650,7 @@
         <v>22</v>
       </c>
       <c r="V17" s="17">
-        <f>K17*0.2+S17*0.2+T17*0.25+U17*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>20.7</v>
       </c>
     </row>
@@ -2898,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="8">
-        <f>100*SUM(D18:J18)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L18" s="12">
@@ -2920,11 +2708,11 @@
         <v>0</v>
       </c>
       <c r="R18" s="11">
-        <f>J18*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f>SUM(L18:R18)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>14.166666666666666</v>
       </c>
       <c r="T18" s="8"/>
@@ -2932,7 +2720,7 @@
         <v>30</v>
       </c>
       <c r="V18" s="17">
-        <f>K18*0.2+S18*0.2+T18*0.25+U18*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>18.666666666666668</v>
       </c>
     </row>
@@ -2968,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="8">
-        <f>100*SUM(D19:J19)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="12">
@@ -2990,11 +2778,11 @@
         <v>0</v>
       </c>
       <c r="R19" s="11">
-        <f>J19*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S19" s="8">
-        <f>SUM(L19:R19)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T19" s="8"/>
@@ -3002,7 +2790,7 @@
         <v>26</v>
       </c>
       <c r="V19" s="17">
-        <f>K19*0.2+S19*0.2+T19*0.25+U19*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>11.1</v>
       </c>
     </row>
@@ -3036,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="8">
-        <f>100*SUM(D20:J20)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
       <c r="L20" s="12">
@@ -3058,17 +2846,17 @@
         <v>100</v>
       </c>
       <c r="R20" s="11">
-        <f>J20*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S20" s="8">
-        <f>SUM(L20:R20)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="T20" s="8"/>
       <c r="U20" s="8"/>
       <c r="V20" s="17">
-        <f>K20*0.2+S20*0.2+T20*0.25+U20*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>8.6666666666666679</v>
       </c>
     </row>
@@ -3104,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="8">
-        <f>100*SUM(D21:J21)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21" s="12">
@@ -3126,11 +2914,11 @@
         <v>0</v>
       </c>
       <c r="R21" s="11">
-        <f>J21*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S21" s="8">
-        <f>SUM(L21:R21)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T21" s="8"/>
@@ -3138,7 +2926,7 @@
         <v>19</v>
       </c>
       <c r="V21" s="17">
-        <f>K21*0.2+S21*0.2+T21*0.25+U21*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>8.6499999999999986</v>
       </c>
     </row>
@@ -3174,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="8">
-        <f>100*SUM(D22:J22)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="12">
@@ -3196,11 +2984,11 @@
         <v>0</v>
       </c>
       <c r="R22" s="11">
-        <f>J22*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S22" s="8">
-        <f>SUM(L22:R22)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="8"/>
@@ -3208,7 +2996,7 @@
         <v>18</v>
       </c>
       <c r="V22" s="17">
-        <f>K22*0.2+S22*0.2+T22*0.25+U22*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3244,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="8">
-        <f>100*SUM(D23:J23)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>10.416666666666666</v>
       </c>
       <c r="L23" s="12">
@@ -3266,17 +3054,17 @@
         <v>0</v>
       </c>
       <c r="R23" s="11">
-        <f>J23*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S23" s="8">
-        <f>SUM(L23:R23)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>14.166666666666666</v>
       </c>
       <c r="T23" s="8"/>
       <c r="U23" s="8"/>
       <c r="V23" s="17">
-        <f>K23*0.2+S23*0.2+T23*0.25+U23*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>6.916666666666667</v>
       </c>
     </row>
@@ -3312,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="8">
-        <f>100*SUM(D24:J24)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
       <c r="L24" s="12">
@@ -3334,17 +3122,17 @@
         <v>0</v>
       </c>
       <c r="R24" s="11">
-        <f>J24*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S24" s="8">
-        <f>SUM(L24:R24)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>13.333333333333334</v>
       </c>
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="17">
-        <f>K24*0.2+S24*0.2+T24*0.25+U24*0.35+2</f>
+        <f t="shared" si="3"/>
         <v>6.3333333333333339</v>
       </c>
       <c r="W24" s="2" t="s">
@@ -3383,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="8">
-        <f>100*SUM(D25:J25)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25" s="12">
@@ -3405,18 +3193,17 @@
         <v>0</v>
       </c>
       <c r="R25" s="11">
-        <f>J25*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S25" s="8">
-        <f>SUM(L25:R25)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="8"/>
       <c r="U25" s="8"/>
       <c r="V25" s="17">
-        <f>K25*0.2+S25*0.2+T25*0.25+U25*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3451,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="8">
-        <f>100*SUM(D26:J26)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="12">
@@ -3473,18 +3260,17 @@
         <v>0</v>
       </c>
       <c r="R26" s="11">
-        <f>J26*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S26" s="8">
-        <f>SUM(L26:R26)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="17">
-        <f>K26*0.2+S26*0.2+T26*0.25+U26*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="8">
-        <f>100*SUM(D27:J27)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="12">
@@ -3541,18 +3327,17 @@
         <v>0</v>
       </c>
       <c r="R27" s="11">
-        <f>J27*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S27" s="8">
-        <f>SUM(L27:R27)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="17">
-        <f>K27*0.2+S27*0.2+T27*0.25+U27*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3587,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="8">
-        <f>100*SUM(D28:J28)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L28" s="12">
@@ -3609,18 +3394,17 @@
         <v>0</v>
       </c>
       <c r="R28" s="11">
-        <f>J28*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="8">
-        <f>SUM(L28:R28)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="17">
-        <f>K28*0.2+S28*0.2+T28*0.25+U28*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3655,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="8">
-        <f>100*SUM(D29:J29)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L29" s="12">
@@ -3677,18 +3461,17 @@
         <v>0</v>
       </c>
       <c r="R29" s="11">
-        <f>J29*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S29" s="8">
-        <f>SUM(L29:R29)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="8"/>
       <c r="U29" s="8"/>
       <c r="V29" s="17">
-        <f>K29*0.2+S29*0.2+T29*0.25+U29*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3723,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="8">
-        <f>100*SUM(D30:J30)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L30" s="12">
@@ -3745,18 +3528,17 @@
         <v>0</v>
       </c>
       <c r="R30" s="11">
-        <f>J30*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S30" s="8">
-        <f>SUM(L30:R30)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" s="8"/>
       <c r="U30" s="8"/>
       <c r="V30" s="17">
-        <f>K30*0.2+S30*0.2+T30*0.25+U30*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="8">
-        <f>100*SUM(D31:J31)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L31" s="12">
@@ -3813,18 +3595,17 @@
         <v>0</v>
       </c>
       <c r="R31" s="11">
-        <f>J31*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S31" s="8">
-        <f>SUM(L31:R31)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T31" s="8"/>
       <c r="U31" s="8"/>
       <c r="V31" s="17">
-        <f>K31*0.2+S31*0.2+T31*0.25+U31*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3859,7 +3640,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="8">
-        <f>100*SUM(D32:J32)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L32" s="12">
@@ -3881,18 +3662,17 @@
         <v>0</v>
       </c>
       <c r="R32" s="11">
-        <f>J32*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S32" s="8">
-        <f>SUM(L32:R32)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T32" s="8"/>
       <c r="U32" s="8"/>
       <c r="V32" s="17">
-        <f>K32*0.2+S32*0.2+T32*0.25+U32*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3927,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f>100*SUM(D33:J33)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L33" s="12">
@@ -3949,18 +3729,17 @@
         <v>0</v>
       </c>
       <c r="R33" s="11">
-        <f>J33*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S33" s="8">
-        <f>SUM(L33:R33)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" s="8"/>
       <c r="U33" s="8"/>
       <c r="V33" s="17">
-        <f>K33*0.2+S33*0.2+T33*0.25+U33*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3995,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="8">
-        <f>100*SUM(D34:J34)/(2*A$1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L34" s="12">
@@ -4017,18 +3796,17 @@
         <v>0</v>
       </c>
       <c r="R34" s="11">
-        <f>J34*50</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S34" s="8">
-        <f>SUM(L34:R34)/(A$1)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T34" s="10"/>
       <c r="U34" s="8"/>
       <c r="V34" s="17">
-        <f>K34*0.2+S34*0.2+T34*0.25+U34*0.35+2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5083,14 +4861,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5151,18 +4929,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5255,9 +5033,9 @@
   </sheetPr>
   <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="AM27" sqref="AM27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5292,46 +5070,46 @@
         <v>1</v>
       </c>
       <c r="B1" s="37"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="42" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="42" t="s">
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="42" t="s">
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="44"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="51"/>
       <c r="AG1" s="39" t="s">
         <v>71</v>
       </c>
@@ -5349,13 +5127,13 @@
       <c r="B2" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="42">
         <v>1</v>
       </c>
       <c r="F2" s="30">
@@ -5456,13 +5234,15 @@
       <c r="B3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="12">
         <v>100.16666666666667</v>
       </c>
-      <c r="E3" s="46"/>
+      <c r="E3" s="43">
+        <v>2</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -5471,9 +5251,11 @@
       <c r="K3" s="18"/>
       <c r="L3" s="8">
         <f>100*SUM(E3:K3)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="M3" s="12">
+        <v>80</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -5482,7 +5264,7 @@
       <c r="S3" s="11"/>
       <c r="T3" s="8">
         <f>SUM(M3:S3)/(A$1)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="11"/>
@@ -5505,11 +5287,11 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="17">
         <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI3" s="17">
         <f>D3*0.4+AH3*0.6</f>
-        <v>40.06666666666667</v>
+        <v>55.666666666666671</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5519,13 +5301,15 @@
       <c r="B4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="48" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="12">
         <v>89.95</v>
       </c>
-      <c r="E4" s="46"/>
+      <c r="E4" s="43">
+        <v>2</v>
+      </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -5534,9 +5318,11 @@
       <c r="K4" s="18"/>
       <c r="L4" s="8">
         <f>100*SUM(E4:K4)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="M4" s="12">
+        <v>80</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -5545,7 +5331,7 @@
       <c r="S4" s="11"/>
       <c r="T4" s="8">
         <f>SUM(M4:S4)/(A$1)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="11"/>
@@ -5568,27 +5354,29 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="17">
         <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI4" s="17">
         <f>D4*0.4+AH4*0.6</f>
-        <v>35.980000000000004</v>
+        <v>51.580000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>86</v>
+        <v>111</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>112</v>
       </c>
       <c r="D5" s="12">
-        <v>87.283333333333331</v>
-      </c>
-      <c r="E5" s="46"/>
+        <v>86.833333333333343</v>
+      </c>
+      <c r="E5" s="43">
+        <v>2</v>
+      </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -5597,9 +5385,11 @@
       <c r="K5" s="18"/>
       <c r="L5" s="8">
         <f>100*SUM(E5:K5)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="M5" s="12">
+        <v>80</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -5608,7 +5398,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="8">
         <f>SUM(M5:S5)/(A$1)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="11"/>
@@ -5631,27 +5421,29 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="17">
         <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI5" s="17">
         <f>D5*0.4+AH5*0.6</f>
-        <v>34.913333333333334</v>
+        <v>50.333333333333343</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>112</v>
+        <v>51</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="12">
-        <v>86.833333333333343</v>
-      </c>
-      <c r="E6" s="46"/>
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E6" s="43">
+        <v>1.3</v>
+      </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
@@ -5660,9 +5452,11 @@
       <c r="K6" s="18"/>
       <c r="L6" s="8">
         <f>100*SUM(E6:K6)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="M6" s="12">
+        <v>80</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -5671,7 +5465,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="8">
         <f>SUM(M6:S6)/(A$1)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="11"/>
@@ -5694,27 +5488,29 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="17">
         <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="AI6" s="17">
         <f>D6*0.4+AH6*0.6</f>
-        <v>34.733333333333341</v>
+        <v>44.54</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>53</v>
+        <v>94</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="D7" s="12">
-        <v>84.833333333333343</v>
-      </c>
-      <c r="E7" s="46"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1</v>
+      </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -5723,9 +5519,11 @@
       <c r="K7" s="18"/>
       <c r="L7" s="8">
         <f>100*SUM(E7:K7)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="M7" s="12">
+        <v>60</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -5734,7 +5532,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="8">
         <f>SUM(M7:S7)/(A$1)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="11"/>
@@ -5757,27 +5555,29 @@
       <c r="AG7" s="12"/>
       <c r="AH7" s="17">
         <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI7" s="17">
         <f>D7*0.4+AH7*0.6</f>
-        <v>33.933333333333337</v>
+        <v>39.960000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>50</v>
+        <v>57</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="12">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="E8" s="46"/>
+        <v>60.4</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1.3</v>
+      </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -5786,9 +5586,11 @@
       <c r="K8" s="18"/>
       <c r="L8" s="8">
         <f>100*SUM(E8:K8)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="M8" s="12">
+        <v>80</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -5797,7 +5599,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="8">
         <f>SUM(M8:S8)/(A$1)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="11"/>
@@ -5820,27 +5622,29 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="17">
         <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="AI8" s="17">
         <f>D8*0.4+AH8*0.6</f>
-        <v>31.04</v>
+        <v>37.659999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="12">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="E9" s="46"/>
+        <v>70.066666666666663</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -5849,9 +5653,11 @@
       <c r="K9" s="18"/>
       <c r="L9" s="8">
         <f>100*SUM(E9:K9)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="12">
+        <v>55</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -5860,7 +5666,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="8">
         <f>SUM(M9:S9)/(A$1)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="11"/>
@@ -5883,27 +5689,29 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="17">
         <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI9" s="17">
         <f>D9*0.4+AH9*0.6</f>
-        <v>29.760000000000005</v>
+        <v>37.626666666666665</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>127</v>
+        <v>85</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="D10" s="12">
-        <v>70.55</v>
-      </c>
-      <c r="E10" s="46"/>
+        <v>87.283333333333331</v>
+      </c>
+      <c r="E10" s="43">
+        <v>0</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -5914,7 +5722,9 @@
         <f>100*SUM(E10:K10)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="12"/>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -5950,23 +5760,25 @@
       </c>
       <c r="AI10" s="17">
         <f>D10*0.4+AH10*0.6</f>
-        <v>28.22</v>
+        <v>34.913333333333334</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>92</v>
+        <v>109</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="12">
-        <v>70.066666666666663</v>
-      </c>
-      <c r="E11" s="46"/>
+        <v>84.833333333333343</v>
+      </c>
+      <c r="E11" s="43">
+        <v>0</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -5977,7 +5789,9 @@
         <f>100*SUM(E11:K11)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="12"/>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -6013,23 +5827,25 @@
       </c>
       <c r="AI11" s="17">
         <f>D11*0.4+AH11*0.6</f>
-        <v>28.026666666666667</v>
+        <v>33.933333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>127</v>
       </c>
       <c r="D12" s="12">
-        <v>69.833333333333343</v>
-      </c>
-      <c r="E12" s="46"/>
+        <v>70.55</v>
+      </c>
+      <c r="E12" s="43">
+        <v>0</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -6040,7 +5856,9 @@
         <f>100*SUM(E12:K12)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="12">
+        <v>0</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -6076,23 +5894,25 @@
       </c>
       <c r="AI12" s="17">
         <f>D12*0.4+AH12*0.6</f>
-        <v>27.933333333333337</v>
+        <v>28.22</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>118</v>
       </c>
       <c r="D13" s="12">
-        <v>60.4</v>
-      </c>
-      <c r="E13" s="46"/>
+        <v>69.833333333333343</v>
+      </c>
+      <c r="E13" s="43">
+        <v>0</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -6103,7 +5923,9 @@
         <f>100*SUM(E13:K13)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="12"/>
+      <c r="M13" s="12">
+        <v>0</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -6139,7 +5961,7 @@
       </c>
       <c r="AI13" s="17">
         <f>D13*0.4+AH13*0.6</f>
-        <v>24.16</v>
+        <v>27.933333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6149,13 +5971,15 @@
       <c r="B14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="48" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="12">
         <v>59.5</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="43">
+        <v>0</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -6166,7 +5990,9 @@
         <f>100*SUM(E14:K14)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="12"/>
+      <c r="M14" s="12">
+        <v>0</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -6207,18 +6033,20 @@
     </row>
     <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="12">
-        <v>28.1</v>
-      </c>
-      <c r="E15" s="46"/>
+        <v>20.7</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -6227,9 +6055,11 @@
       <c r="K15" s="18"/>
       <c r="L15" s="8">
         <f>100*SUM(E15:K15)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="12"/>
+        <v>50</v>
+      </c>
+      <c r="M15" s="12">
+        <v>55</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -6238,7 +6068,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="8">
         <f>SUM(M15:S15)/(A$1)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="11"/>
@@ -6261,27 +6091,29 @@
       <c r="AG15" s="12"/>
       <c r="AH15" s="17">
         <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AI15" s="17">
         <f>D15*0.4+AH15*0.6</f>
-        <v>11.240000000000002</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="51" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>129</v>
       </c>
       <c r="D16" s="12">
-        <v>22.366666666666667</v>
-      </c>
-      <c r="E16" s="46"/>
+        <v>28.1</v>
+      </c>
+      <c r="E16" s="43">
+        <v>0</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -6292,7 +6124,9 @@
         <f>100*SUM(E16:K16)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="12"/>
+      <c r="M16" s="12">
+        <v>0</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -6328,23 +6162,25 @@
       </c>
       <c r="AI16" s="17">
         <f>D16*0.4+AH16*0.6</f>
-        <v>8.9466666666666672</v>
+        <v>11.240000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>53</v>
+        <v>82</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="D17" s="12">
-        <v>20.7</v>
-      </c>
-      <c r="E17" s="46"/>
+        <v>22.366666666666667</v>
+      </c>
+      <c r="E17" s="43">
+        <v>0</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -6355,7 +6191,9 @@
         <f>100*SUM(E17:K17)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="12"/>
+      <c r="M17" s="12">
+        <v>0</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -6391,7 +6229,7 @@
       </c>
       <c r="AI17" s="17">
         <f>D17*0.4+AH17*0.6</f>
-        <v>8.2799999999999994</v>
+        <v>8.9466666666666672</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,13 +6239,15 @@
       <c r="B18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="12">
         <v>18.666666666666668</v>
       </c>
-      <c r="E18" s="46"/>
+      <c r="E18" s="43">
+        <v>0</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -6418,7 +6258,9 @@
         <f>100*SUM(E18:K18)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="12"/>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -6464,13 +6306,15 @@
       <c r="B19" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="48" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="12">
         <v>11.1</v>
       </c>
-      <c r="E19" s="46"/>
+      <c r="E19" s="43">
+        <v>0</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -6481,7 +6325,9 @@
         <f>100*SUM(E19:K19)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="12"/>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -6525,13 +6371,15 @@
       <c r="B20" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="48" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="12">
         <v>8.6666666666666679</v>
       </c>
-      <c r="E20" s="46"/>
+      <c r="E20" s="43">
+        <v>0</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6542,7 +6390,9 @@
         <f>100*SUM(E20:K20)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
@@ -6588,13 +6438,15 @@
       <c r="B21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="48" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="12">
         <v>8.6499999999999986</v>
       </c>
-      <c r="E21" s="46"/>
+      <c r="E21" s="43">
+        <v>0</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
@@ -6605,7 +6457,9 @@
         <f>100*SUM(E21:K21)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -6651,13 +6505,15 @@
       <c r="B22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="48" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="12">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="43">
+        <v>0</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
@@ -6668,7 +6524,9 @@
         <f>100*SUM(E22:K22)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="M22" s="12">
+        <v>0</v>
+      </c>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
@@ -6714,13 +6572,15 @@
       <c r="B23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="51" t="s">
+      <c r="C23" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="12">
         <v>6.916666666666667</v>
       </c>
-      <c r="E23" s="46"/>
+      <c r="E23" s="43">
+        <v>0</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
@@ -6731,7 +6591,9 @@
         <f>100*SUM(E23:K23)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="12"/>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
@@ -6777,13 +6639,15 @@
       <c r="B24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="C24" s="48" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="12">
         <v>6.3333333333333339</v>
       </c>
-      <c r="E24" s="46"/>
+      <c r="E24" s="43">
+        <v>0</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
@@ -6794,7 +6658,9 @@
         <f>100*SUM(E24:K24)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="12">
+        <v>0</v>
+      </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
@@ -6840,13 +6706,15 @@
       <c r="B25" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="48" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="12">
-        <v>2</v>
-      </c>
-      <c r="E25" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="43">
+        <v>0</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
@@ -6857,7 +6725,9 @@
         <f>100*SUM(E25:K25)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="12"/>
+      <c r="M25" s="12">
+        <v>0</v>
+      </c>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
@@ -6893,7 +6763,7 @@
       </c>
       <c r="AI25" s="17">
         <f>D25*0.4+AH25*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6903,13 +6773,15 @@
       <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="48" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="12">
-        <v>2</v>
-      </c>
-      <c r="E26" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="43">
+        <v>0</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
@@ -6920,7 +6792,9 @@
         <f>100*SUM(E26:K26)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="12"/>
+      <c r="M26" s="12">
+        <v>0</v>
+      </c>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
@@ -6956,7 +6830,7 @@
       </c>
       <c r="AI26" s="17">
         <f>D26*0.4+AH26*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6966,13 +6840,15 @@
       <c r="B27" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="48" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="E27" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="43">
+        <v>0</v>
+      </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
@@ -6983,7 +6859,9 @@
         <f>100*SUM(E27:K27)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M27" s="12"/>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
@@ -7019,7 +6897,7 @@
       </c>
       <c r="AI27" s="17">
         <f>D27*0.4+AH27*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7029,13 +6907,15 @@
       <c r="B28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="48" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="12">
-        <v>2</v>
-      </c>
-      <c r="E28" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="43">
+        <v>0</v>
+      </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -7046,7 +6926,9 @@
         <f>100*SUM(E28:K28)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M28" s="12"/>
+      <c r="M28" s="12">
+        <v>0</v>
+      </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -7082,7 +6964,7 @@
       </c>
       <c r="AI28" s="17">
         <f>D28*0.4+AH28*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7092,13 +6974,15 @@
       <c r="B29" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="48" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="12">
-        <v>2</v>
-      </c>
-      <c r="E29" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="43">
+        <v>0</v>
+      </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
@@ -7109,7 +6993,9 @@
         <f>100*SUM(E29:K29)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -7145,7 +7031,7 @@
       </c>
       <c r="AI29" s="17">
         <f>D29*0.4+AH29*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7155,13 +7041,15 @@
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="48" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="12">
-        <v>2</v>
-      </c>
-      <c r="E30" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="43">
+        <v>0</v>
+      </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -7172,7 +7060,9 @@
         <f>100*SUM(E30:K30)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M30" s="12"/>
+      <c r="M30" s="12">
+        <v>0</v>
+      </c>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
@@ -7208,7 +7098,7 @@
       </c>
       <c r="AI30" s="17">
         <f>D30*0.4+AH30*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7218,13 +7108,15 @@
       <c r="B31" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="48" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="12">
-        <v>2</v>
-      </c>
-      <c r="E31" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E31" s="43">
+        <v>0</v>
+      </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
@@ -7235,7 +7127,9 @@
         <f>100*SUM(E31:K31)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12">
+        <v>0</v>
+      </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
@@ -7271,7 +7165,7 @@
       </c>
       <c r="AI31" s="17">
         <f>D31*0.4+AH31*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7281,13 +7175,15 @@
       <c r="B32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="48" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="12">
-        <v>2</v>
-      </c>
-      <c r="E32" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="43">
+        <v>0</v>
+      </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
@@ -7298,7 +7194,9 @@
         <f>100*SUM(E32:K32)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="12"/>
+      <c r="M32" s="12">
+        <v>0</v>
+      </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
@@ -7334,7 +7232,7 @@
       </c>
       <c r="AI32" s="17">
         <f>D32*0.4+AH32*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7344,13 +7242,15 @@
       <c r="B33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="48" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="12">
-        <v>2</v>
-      </c>
-      <c r="E33" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="43">
+        <v>0</v>
+      </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
@@ -7361,7 +7261,9 @@
         <f>100*SUM(E33:K33)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="12"/>
+      <c r="M33" s="12">
+        <v>0</v>
+      </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
@@ -7397,7 +7299,7 @@
       </c>
       <c r="AI33" s="17">
         <f>D33*0.4+AH33*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7407,13 +7309,15 @@
       <c r="B34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="48" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="12">
-        <v>2</v>
-      </c>
-      <c r="E34" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="E34" s="43">
+        <v>0</v>
+      </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
@@ -7424,7 +7328,9 @@
         <f>100*SUM(E34:K34)/(2*A$1)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="12"/>
+      <c r="M34" s="12">
+        <v>0</v>
+      </c>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
@@ -7460,7 +7366,7 @@
       </c>
       <c r="AI34" s="17">
         <f>D34*0.4+AH34*0.6</f>
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8800,14 +8706,14 @@
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:K34">
-    <cfRule type="cellIs" dxfId="28" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8882,35 +8788,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:S34">
-    <cfRule type="cellIs" dxfId="25" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
       <formula>80</formula>
       <formula>150</formula>
     </cfRule>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -973,7 +973,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1650,7 +1688,7 @@
         <v>100</v>
       </c>
       <c r="V3" s="17">
-        <f t="shared" ref="V3:V34" si="3">K3*0.2+S3*0.2+T3*0.25+U3*0.35+2</f>
+        <f t="shared" ref="V3:V24" si="3">K3*0.2+S3*0.2+T3*0.25+U3*0.35+2</f>
         <v>100.16666666666667</v>
       </c>
     </row>
@@ -4861,14 +4899,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4929,18 +4967,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5035,7 +5073,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM27" sqref="AM27"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5067,7 +5105,7 @@
   <sheetData>
     <row r="1" spans="1:35" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="44"/>
@@ -5243,7 +5281,9 @@
       <c r="E3" s="43">
         <v>2</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="18">
+        <v>2</v>
+      </c>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18"/>
@@ -5256,7 +5296,9 @@
       <c r="M3" s="12">
         <v>80</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="11">
+        <v>100</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -5264,7 +5306,7 @@
       <c r="S3" s="11"/>
       <c r="T3" s="8">
         <f>SUM(M3:S3)/(A$1)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="11"/>
@@ -5287,11 +5329,11 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="17">
         <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI3" s="17">
         <f>D3*0.4+AH3*0.6</f>
-        <v>55.666666666666671</v>
+        <v>56.866666666666674</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5310,7 +5352,9 @@
       <c r="E4" s="43">
         <v>2</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -5323,7 +5367,9 @@
       <c r="M4" s="12">
         <v>80</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="11">
+        <v>100</v>
+      </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -5331,7 +5377,7 @@
       <c r="S4" s="11"/>
       <c r="T4" s="8">
         <f>SUM(M4:S4)/(A$1)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="11"/>
@@ -5354,11 +5400,11 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="17">
         <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI4" s="17">
         <f>D4*0.4+AH4*0.6</f>
-        <v>51.580000000000005</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5377,7 +5423,9 @@
       <c r="E5" s="43">
         <v>2</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
@@ -5390,7 +5438,9 @@
       <c r="M5" s="12">
         <v>80</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="11">
+        <v>100</v>
+      </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -5398,7 +5448,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="8">
         <f>SUM(M5:S5)/(A$1)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="11"/>
@@ -5421,30 +5471,32 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="17">
         <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI5" s="17">
         <f>D5*0.4+AH5*0.6</f>
-        <v>50.333333333333343</v>
+        <v>51.533333333333346</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12">
-        <v>77.599999999999994</v>
+        <v>87.283333333333331</v>
       </c>
       <c r="E6" s="43">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
@@ -5452,12 +5504,14 @@
       <c r="K6" s="18"/>
       <c r="L6" s="8">
         <f>100*SUM(E6:K6)/(2*A$1)</f>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M6" s="12">
-        <v>80</v>
-      </c>
-      <c r="N6" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11">
+        <v>100</v>
+      </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -5465,7 +5519,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="8">
         <f>SUM(M6:S6)/(A$1)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="11"/>
@@ -5488,30 +5542,32 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="17">
         <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="AI6" s="17">
         <f>D6*0.4+AH6*0.6</f>
-        <v>44.54</v>
+        <v>43.913333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12">
-        <v>74.400000000000006</v>
+        <v>84.833333333333343</v>
       </c>
       <c r="E7" s="43">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
@@ -5522,9 +5578,11 @@
         <v>50</v>
       </c>
       <c r="M7" s="12">
-        <v>60</v>
-      </c>
-      <c r="N7" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>100</v>
+      </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -5532,7 +5590,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="8">
         <f>SUM(M7:S7)/(A$1)</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="11"/>
@@ -5555,30 +5613,32 @@
       <c r="AG7" s="12"/>
       <c r="AH7" s="17">
         <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" s="17">
         <f>D7*0.4+AH7*0.6</f>
-        <v>39.960000000000008</v>
+        <v>42.933333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D8" s="12">
-        <v>60.4</v>
+        <v>70.066666666666663</v>
       </c>
       <c r="E8" s="43">
-        <v>1.3</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
@@ -5586,12 +5646,14 @@
       <c r="K8" s="18"/>
       <c r="L8" s="8">
         <f>100*SUM(E8:K8)/(2*A$1)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M8" s="12">
-        <v>80</v>
-      </c>
-      <c r="N8" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="N8" s="11">
+        <v>100</v>
+      </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="12"/>
@@ -5599,7 +5661,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="8">
         <f>SUM(M8:S8)/(A$1)</f>
-        <v>80</v>
+        <v>77.5</v>
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="11"/>
@@ -5622,30 +5684,32 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="17">
         <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>22.5</v>
+        <v>23</v>
       </c>
       <c r="AI8" s="17">
         <f>D8*0.4+AH8*0.6</f>
-        <v>37.659999999999997</v>
+        <v>41.826666666666668</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D9" s="12">
-        <v>70.066666666666663</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E9" s="43">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18"/>
+        <v>1.3</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -5653,12 +5717,14 @@
       <c r="K9" s="18"/>
       <c r="L9" s="8">
         <f>100*SUM(E9:K9)/(2*A$1)</f>
-        <v>50</v>
+        <v>32.5</v>
       </c>
       <c r="M9" s="12">
-        <v>55</v>
-      </c>
-      <c r="N9" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -5666,7 +5732,7 @@
       <c r="S9" s="11"/>
       <c r="T9" s="8">
         <f>SUM(M9:S9)/(A$1)</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="11"/>
@@ -5689,30 +5755,32 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="17">
         <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>16</v>
+        <v>11.25</v>
       </c>
       <c r="AI9" s="17">
         <f>D9*0.4+AH9*0.6</f>
-        <v>37.626666666666665</v>
+        <v>37.79</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D10" s="12">
-        <v>87.283333333333331</v>
+        <v>70.55</v>
       </c>
       <c r="E10" s="43">
         <v>0</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -5720,12 +5788,14 @@
       <c r="K10" s="18"/>
       <c r="L10" s="8">
         <f>100*SUM(E10:K10)/(2*A$1)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M10" s="12">
         <v>0</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="11">
+        <v>100</v>
+      </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -5733,7 +5803,7 @@
       <c r="S10" s="11"/>
       <c r="T10" s="8">
         <f>SUM(M10:S10)/(A$1)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="11"/>
@@ -5756,30 +5826,32 @@
       <c r="AG10" s="12"/>
       <c r="AH10" s="17">
         <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI10" s="17">
         <f>D10*0.4+AH10*0.6</f>
-        <v>34.913333333333334</v>
+        <v>37.22</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D11" s="12">
-        <v>84.833333333333343</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E11" s="43">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -5787,12 +5859,14 @@
       <c r="K11" s="18"/>
       <c r="L11" s="8">
         <f>100*SUM(E11:K11)/(2*A$1)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M11" s="12">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="12"/>
@@ -5800,7 +5874,7 @@
       <c r="S11" s="11"/>
       <c r="T11" s="8">
         <f>SUM(M11:S11)/(A$1)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="11"/>
@@ -5823,30 +5897,32 @@
       <c r="AG11" s="12"/>
       <c r="AH11" s="17">
         <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" s="17">
         <f>D11*0.4+AH11*0.6</f>
-        <v>33.933333333333337</v>
+        <v>34.860000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12">
-        <v>70.55</v>
+        <v>60.4</v>
       </c>
       <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>1.3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -5854,12 +5930,14 @@
       <c r="K12" s="18"/>
       <c r="L12" s="8">
         <f>100*SUM(E12:K12)/(2*A$1)</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="M12" s="12">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0</v>
+      </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -5867,7 +5945,7 @@
       <c r="S12" s="11"/>
       <c r="T12" s="8">
         <f>SUM(M12:S12)/(A$1)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="11"/>
@@ -5890,11 +5968,11 @@
       <c r="AG12" s="12"/>
       <c r="AH12" s="17">
         <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AI12" s="17">
         <f>D12*0.4+AH12*0.6</f>
-        <v>28.22</v>
+        <v>30.91</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5913,7 +5991,9 @@
       <c r="E13" s="43">
         <v>0</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -5926,7 +6006,9 @@
       <c r="M13" s="12">
         <v>0</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
@@ -5980,7 +6062,9 @@
       <c r="E14" s="43">
         <v>0</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -5993,7 +6077,9 @@
       <c r="M14" s="12">
         <v>0</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="11">
+        <v>0</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
@@ -6033,21 +6119,23 @@
     </row>
     <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="D15" s="12">
-        <v>20.7</v>
+        <v>28.1</v>
       </c>
       <c r="E15" s="43">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
@@ -6058,9 +6146,11 @@
         <v>50</v>
       </c>
       <c r="M15" s="12">
-        <v>55</v>
-      </c>
-      <c r="N15" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>100</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="12"/>
@@ -6068,7 +6158,7 @@
       <c r="S15" s="11"/>
       <c r="T15" s="8">
         <f>SUM(M15:S15)/(A$1)</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="U15" s="12"/>
       <c r="V15" s="11"/>
@@ -6091,30 +6181,32 @@
       <c r="AG15" s="12"/>
       <c r="AH15" s="17">
         <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI15" s="17">
         <f>D15*0.4+AH15*0.6</f>
-        <v>17.88</v>
+        <v>20.240000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="D16" s="12">
-        <v>28.1</v>
+        <v>20.7</v>
       </c>
       <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -6122,12 +6214,14 @@
       <c r="K16" s="18"/>
       <c r="L16" s="8">
         <f>100*SUM(E16:K16)/(2*A$1)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M16" s="12">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
@@ -6135,7 +6229,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="8">
         <f>SUM(M16:S16)/(A$1)</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="U16" s="12"/>
       <c r="V16" s="11"/>
@@ -6158,11 +6252,11 @@
       <c r="AG16" s="12"/>
       <c r="AH16" s="17">
         <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI16" s="17">
         <f>D16*0.4+AH16*0.6</f>
-        <v>11.240000000000002</v>
+        <v>13.079999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6181,7 +6275,9 @@
       <c r="E17" s="43">
         <v>0</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -6194,7 +6290,9 @@
       <c r="M17" s="12">
         <v>0</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="12"/>
@@ -6248,7 +6346,9 @@
       <c r="E18" s="43">
         <v>0</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -6261,7 +6361,9 @@
       <c r="M18" s="12">
         <v>0</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="11">
+        <v>0</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -6315,7 +6417,9 @@
       <c r="E19" s="43">
         <v>0</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
@@ -6328,7 +6432,9 @@
       <c r="M19" s="12">
         <v>0</v>
       </c>
-      <c r="N19" s="12"/>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
@@ -6380,7 +6486,9 @@
       <c r="E20" s="43">
         <v>0</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
@@ -6393,7 +6501,9 @@
       <c r="M20" s="12">
         <v>0</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="11">
+        <v>0</v>
+      </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
@@ -6447,7 +6557,9 @@
       <c r="E21" s="43">
         <v>0</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
@@ -6460,7 +6572,9 @@
       <c r="M21" s="12">
         <v>0</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="11">
+        <v>0</v>
+      </c>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
@@ -6514,7 +6628,9 @@
       <c r="E22" s="43">
         <v>0</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
@@ -6527,7 +6643,9 @@
       <c r="M22" s="12">
         <v>0</v>
       </c>
-      <c r="N22" s="12"/>
+      <c r="N22" s="11">
+        <v>0</v>
+      </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
@@ -6581,7 +6699,9 @@
       <c r="E23" s="43">
         <v>0</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -6594,7 +6714,9 @@
       <c r="M23" s="12">
         <v>0</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="11">
+        <v>0</v>
+      </c>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="11"/>
@@ -6648,7 +6770,9 @@
       <c r="E24" s="43">
         <v>0</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -6661,7 +6785,9 @@
       <c r="M24" s="12">
         <v>0</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="11">
+        <v>0</v>
+      </c>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
@@ -6715,7 +6841,9 @@
       <c r="E25" s="43">
         <v>0</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -6728,7 +6856,9 @@
       <c r="M25" s="12">
         <v>0</v>
       </c>
-      <c r="N25" s="12"/>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
@@ -6782,7 +6912,9 @@
       <c r="E26" s="43">
         <v>0</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
@@ -6795,7 +6927,9 @@
       <c r="M26" s="12">
         <v>0</v>
       </c>
-      <c r="N26" s="12"/>
+      <c r="N26" s="11">
+        <v>0</v>
+      </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
@@ -6849,7 +6983,9 @@
       <c r="E27" s="43">
         <v>0</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -6862,7 +6998,9 @@
       <c r="M27" s="12">
         <v>0</v>
       </c>
-      <c r="N27" s="12"/>
+      <c r="N27" s="11">
+        <v>0</v>
+      </c>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="11"/>
@@ -6916,7 +7054,9 @@
       <c r="E28" s="43">
         <v>0</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
@@ -6929,7 +7069,9 @@
       <c r="M28" s="12">
         <v>0</v>
       </c>
-      <c r="N28" s="12"/>
+      <c r="N28" s="11">
+        <v>0</v>
+      </c>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
@@ -6983,7 +7125,9 @@
       <c r="E29" s="43">
         <v>0</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -6996,7 +7140,9 @@
       <c r="M29" s="12">
         <v>0</v>
       </c>
-      <c r="N29" s="12"/>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
@@ -7050,7 +7196,9 @@
       <c r="E30" s="43">
         <v>0</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
@@ -7063,7 +7211,9 @@
       <c r="M30" s="12">
         <v>0</v>
       </c>
-      <c r="N30" s="12"/>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
@@ -7117,7 +7267,9 @@
       <c r="E31" s="43">
         <v>0</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
@@ -7130,7 +7282,9 @@
       <c r="M31" s="12">
         <v>0</v>
       </c>
-      <c r="N31" s="12"/>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
@@ -7184,7 +7338,9 @@
       <c r="E32" s="43">
         <v>0</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -7197,7 +7353,9 @@
       <c r="M32" s="12">
         <v>0</v>
       </c>
-      <c r="N32" s="12"/>
+      <c r="N32" s="11">
+        <v>0</v>
+      </c>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
@@ -7251,7 +7409,9 @@
       <c r="E33" s="43">
         <v>0</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
@@ -7264,7 +7424,9 @@
       <c r="M33" s="12">
         <v>0</v>
       </c>
-      <c r="N33" s="12"/>
+      <c r="N33" s="11">
+        <v>0</v>
+      </c>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
@@ -7318,7 +7480,9 @@
       <c r="E34" s="43">
         <v>0</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
@@ -7331,7 +7495,9 @@
       <c r="M34" s="12">
         <v>0</v>
       </c>
-      <c r="N34" s="12"/>
+      <c r="N34" s="11">
+        <v>0</v>
+      </c>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
@@ -8706,14 +8872,14 @@
     <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:K34">
-    <cfRule type="cellIs" dxfId="10" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8788,35 +8954,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:S34">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>80</formula>
       <formula>150</formula>
     </cfRule>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -870,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -956,10 +956,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -973,7 +975,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -981,16 +983,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1005,10 +997,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
       <fill>
         <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1522,26 +1516,26 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="36"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="49" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="51"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="55"/>
       <c r="T1" s="40" t="s">
         <v>133</v>
       </c>
@@ -4899,14 +4893,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4967,18 +4961,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5069,11 +5063,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI82"/>
+  <dimension ref="A1:AE82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5084,81 +5078,74 @@
     <col min="4" max="4" width="7" style="3" customWidth="1"/>
     <col min="5" max="6" width="3.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="2.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.77734375" style="2" customWidth="1"/>
-    <col min="21" max="22" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5" style="2" customWidth="1"/>
-    <col min="27" max="31" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.21875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="2" customWidth="1"/>
-    <col min="35" max="16384" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.77734375" style="2" customWidth="1"/>
+    <col min="17" max="18" width="2.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5" style="2" customWidth="1"/>
+    <col min="23" max="27" width="1.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.21875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.77734375" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="34" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="44"/>
       <c r="D1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="49" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="49" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="49" t="s">
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="39" t="s">
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AD1" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AE1" s="27" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" s="26" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
@@ -5168,7 +5155,7 @@
       <c r="C2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="28" t="s">
         <v>65</v>
       </c>
       <c r="E2" s="42">
@@ -5186,93 +5173,81 @@
       <c r="I2" s="30">
         <v>5</v>
       </c>
-      <c r="J2" s="30">
-        <v>6</v>
-      </c>
-      <c r="K2" s="30">
-        <v>7</v>
-      </c>
-      <c r="L2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="M2" s="28">
+      <c r="K2" s="28">
         <v>1</v>
       </c>
-      <c r="N2" s="30">
-        <v>2</v>
+      <c r="L2" s="30">
+        <v>2</v>
+      </c>
+      <c r="M2" s="32">
+        <v>3</v>
+      </c>
+      <c r="N2" s="32">
+        <v>4</v>
       </c>
       <c r="O2" s="30">
+        <v>5</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>1</v>
+      </c>
+      <c r="R2" s="30">
+        <v>2</v>
+      </c>
+      <c r="S2" s="30">
         <v>3</v>
       </c>
-      <c r="P2" s="30">
+      <c r="T2" s="30">
         <v>4</v>
       </c>
-      <c r="Q2" s="30">
+      <c r="U2" s="30">
         <v>5</v>
       </c>
-      <c r="R2" s="30">
-        <v>6</v>
-      </c>
-      <c r="S2" s="30">
-        <v>7</v>
-      </c>
-      <c r="T2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="28">
+      <c r="W2" s="28">
         <v>1</v>
       </c>
-      <c r="V2" s="30">
-        <v>2</v>
-      </c>
-      <c r="W2" s="30">
+      <c r="X2" s="30">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="30">
         <v>3</v>
       </c>
-      <c r="X2" s="30">
+      <c r="Z2" s="30">
         <v>4</v>
       </c>
-      <c r="Y2" s="30">
+      <c r="AA2" s="30">
         <v>5</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="30">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="30">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="30">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="30">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG2" s="28" t="s">
+      <c r="AC2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AD2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="27" t="s">
+      <c r="AE2" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="47" t="s">
         <v>115</v>
       </c>
       <c r="D3" s="12">
@@ -5284,66 +5259,68 @@
       <c r="F3" s="18">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="18">
+        <v>2</v>
+      </c>
       <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="8">
-        <f>100*SUM(E3:K3)/(2*A$1)</f>
+      <c r="J3" s="8">
+        <f>100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M3" s="12">
+      <c r="K3" s="12">
         <v>80</v>
       </c>
-      <c r="N3" s="11">
+      <c r="L3" s="48">
         <v>100</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="M3" s="50">
+        <v>100</v>
+      </c>
+      <c r="N3" s="50"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="8">
+        <f>SUM(K3:O3)/(A$1)</f>
+        <v>70</v>
+      </c>
+      <c r="Q3" s="12"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="8">
-        <f>SUM(M3:S3)/(A$1)</f>
-        <v>90</v>
-      </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="8">
+        <f t="shared" ref="V3:V34" si="0">SUM(Q3:U3)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="12"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
-      <c r="Z3" s="8">
-        <f>SUM(U3:Y3)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="8">
-        <f>SUM(AA3:AE3)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="17">
-        <f>L3*0.1+T3*0.2+Z3*0.2+AF3*0.2+AG3*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AI3" s="17">
-        <f>D3*0.4+AH3*0.6</f>
-        <v>56.866666666666674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="8">
+        <f t="shared" ref="AB3:AB34" si="1">SUM(W3:AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="17">
+        <f>J3*0.1+P3*0.2+V3*0.2+AB3*0.2+AC3*0.3</f>
+        <v>24</v>
+      </c>
+      <c r="AE3" s="17">
+        <f>D3*0.4+AD3*0.6</f>
+        <v>54.466666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="12">
@@ -5355,66 +5332,68 @@
       <c r="F4" s="18">
         <v>2</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
       <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="8">
-        <f>100*SUM(E4:K4)/(2*A$1)</f>
+      <c r="J4" s="8">
+        <f>100*SUM(E4:I4)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="M4" s="12">
+      <c r="K4" s="12">
         <v>80</v>
       </c>
-      <c r="N4" s="11">
+      <c r="L4" s="48">
         <v>100</v>
       </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="M4" s="50">
+        <v>100</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="8">
+        <f>SUM(K4:O4)/(A$1)</f>
+        <v>70</v>
+      </c>
+      <c r="Q4" s="12"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
-      <c r="T4" s="8">
-        <f>SUM(M4:S4)/(A$1)</f>
-        <v>90</v>
-      </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="12"/>
       <c r="X4" s="11"/>
       <c r="Y4" s="11"/>
-      <c r="Z4" s="8">
-        <f>SUM(U4:Y4)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="8">
-        <f>SUM(AA4:AE4)</f>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="17">
-        <f>L4*0.1+T4*0.2+Z4*0.2+AF4*0.2+AG4*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AI4" s="17">
-        <f>D4*0.4+AH4*0.6</f>
-        <v>52.78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="17">
+        <f>J4*0.1+P4*0.2+V4*0.2+AB4*0.2+AC4*0.3</f>
+        <v>24</v>
+      </c>
+      <c r="AE4" s="17">
+        <f>D4*0.4+AD4*0.6</f>
+        <v>50.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>112</v>
       </c>
       <c r="D5" s="12">
@@ -5426,66 +5405,68 @@
       <c r="F5" s="18">
         <v>2</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
       <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="8">
-        <f>100*SUM(E5:K5)/(2*A$1)</f>
+      <c r="J5" s="8">
+        <f>100*SUM(E5:I5)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K5" s="12">
+        <v>80</v>
+      </c>
+      <c r="L5" s="48">
         <v>100</v>
       </c>
-      <c r="M5" s="12">
-        <v>80</v>
-      </c>
-      <c r="N5" s="11">
-        <v>100</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="M5" s="50">
+        <v>0</v>
+      </c>
+      <c r="N5" s="50"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="8">
+        <f>SUM(K5:O5)/(A$1)</f>
+        <v>45</v>
+      </c>
+      <c r="Q5" s="12"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
-      <c r="T5" s="8">
-        <f>SUM(M5:S5)/(A$1)</f>
-        <v>90</v>
-      </c>
-      <c r="U5" s="12"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="12"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
-      <c r="Z5" s="8">
-        <f>SUM(U5:Y5)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="8">
-        <f>SUM(AA5:AE5)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="17">
-        <f>L5*0.1+T5*0.2+Z5*0.2+AF5*0.2+AG5*0.3</f>
-        <v>28</v>
-      </c>
-      <c r="AI5" s="17">
-        <f>D5*0.4+AH5*0.6</f>
-        <v>51.533333333333346</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="17">
+        <f>J5*0.1+P5*0.2+V5*0.2+AB5*0.2+AC5*0.3</f>
+        <v>16.5</v>
+      </c>
+      <c r="AE5" s="17">
+        <f>D5*0.4+AD5*0.6</f>
+        <v>44.63333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="12">
@@ -5497,66 +5478,68 @@
       <c r="F6" s="18">
         <v>2</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="18">
+        <v>2</v>
+      </c>
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
       <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="8">
-        <f>100*SUM(E6:K6)/(2*A$1)</f>
+      <c r="J6" s="8">
+        <f>100*SUM(E6:I6)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="48">
+        <v>100</v>
+      </c>
+      <c r="M6" s="50">
+        <v>100</v>
+      </c>
+      <c r="N6" s="50"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="8">
+        <f>SUM(K6:O6)/(A$1)</f>
         <v>50</v>
       </c>
-      <c r="M6" s="12">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
-        <v>100</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="8">
-        <f>SUM(M6:S6)/(A$1)</f>
-        <v>50</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="12"/>
       <c r="X6" s="11"/>
       <c r="Y6" s="11"/>
-      <c r="Z6" s="8">
-        <f>SUM(U6:Y6)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="8">
-        <f>SUM(AA6:AE6)</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="17">
-        <f>L6*0.1+T6*0.2+Z6*0.2+AF6*0.2+AG6*0.3</f>
-        <v>15</v>
-      </c>
-      <c r="AI6" s="17">
-        <f>D6*0.4+AH6*0.6</f>
-        <v>43.913333333333334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="17">
+        <f>J6*0.1+P6*0.2+V6*0.2+AB6*0.2+AC6*0.3</f>
+        <v>17.5</v>
+      </c>
+      <c r="AE6" s="17">
+        <f>D6*0.4+AD6*0.6</f>
+        <v>45.413333333333334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="12">
@@ -5568,66 +5551,68 @@
       <c r="F7" s="18">
         <v>2</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="18">
+        <v>2</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2</v>
+      </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="8">
-        <f>100*SUM(E7:K7)/(2*A$1)</f>
+      <c r="J7" s="8">
+        <f>100*SUM(E7:I7)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="48">
+        <v>100</v>
+      </c>
+      <c r="M7" s="50">
+        <v>100</v>
+      </c>
+      <c r="N7" s="50"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="8">
+        <f>SUM(K7:O7)/(A$1)</f>
         <v>50</v>
       </c>
-      <c r="M7" s="12">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>100</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="8">
-        <f>SUM(M7:S7)/(A$1)</f>
-        <v>50</v>
-      </c>
-      <c r="U7" s="12"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="12"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
-      <c r="Z7" s="8">
-        <f>SUM(U7:Y7)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="8">
-        <f>SUM(AA7:AE7)</f>
-        <v>0</v>
-      </c>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="17">
-        <f>L7*0.1+T7*0.2+Z7*0.2+AF7*0.2+AG7*0.3</f>
-        <v>15</v>
-      </c>
-      <c r="AI7" s="17">
-        <f>D7*0.4+AH7*0.6</f>
-        <v>42.933333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="11"/>
+      <c r="AB7" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="17">
+        <f>J7*0.1+P7*0.2+V7*0.2+AB7*0.2+AC7*0.3</f>
+        <v>17.5</v>
+      </c>
+      <c r="AE7" s="17">
+        <f>D7*0.4+AD7*0.6</f>
+        <v>44.433333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>92</v>
       </c>
       <c r="D8" s="12">
@@ -5639,66 +5624,68 @@
       <c r="F8" s="18">
         <v>2</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="8">
-        <f>100*SUM(E8:K8)/(2*A$1)</f>
-        <v>75</v>
-      </c>
-      <c r="M8" s="12">
+      <c r="J8" s="8">
+        <f>100*SUM(E8:I8)/(2*A$1)</f>
+        <v>62.5</v>
+      </c>
+      <c r="K8" s="12">
         <v>55</v>
       </c>
-      <c r="N8" s="11">
+      <c r="L8" s="48">
         <v>100</v>
       </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+      <c r="M8" s="50">
+        <v>0</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="8">
+        <f>SUM(K8:O8)/(A$1)</f>
+        <v>38.75</v>
+      </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
-      <c r="T8" s="8">
-        <f>SUM(M8:S8)/(A$1)</f>
-        <v>77.5</v>
-      </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="12"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
-      <c r="Z8" s="8">
-        <f>SUM(U8:Y8)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="8">
-        <f>SUM(AA8:AE8)</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="17">
-        <f>L8*0.1+T8*0.2+Z8*0.2+AF8*0.2+AG8*0.3</f>
-        <v>23</v>
-      </c>
-      <c r="AI8" s="17">
-        <f>D8*0.4+AH8*0.6</f>
-        <v>41.826666666666668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="17">
+        <f>J8*0.1+P8*0.2+V8*0.2+AB8*0.2+AC8*0.3</f>
+        <v>14</v>
+      </c>
+      <c r="AE8" s="17">
+        <f>D8*0.4+AD8*0.6</f>
+        <v>36.426666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="12">
@@ -5710,66 +5697,68 @@
       <c r="F9" s="18">
         <v>0</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="G9" s="18">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>2</v>
+      </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="8">
-        <f>100*SUM(E9:K9)/(2*A$1)</f>
-        <v>32.5</v>
-      </c>
-      <c r="M9" s="12">
+      <c r="J9" s="8">
+        <f>100*SUM(E9:I9)/(2*A$1)</f>
+        <v>66.25</v>
+      </c>
+      <c r="K9" s="12">
         <v>80</v>
       </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="L9" s="48">
+        <v>0</v>
+      </c>
+      <c r="M9" s="50">
+        <v>100</v>
+      </c>
+      <c r="N9" s="50"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="8">
+        <f>SUM(K9:O9)/(A$1)</f>
+        <v>45</v>
+      </c>
+      <c r="Q9" s="12"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="8">
-        <f>SUM(M9:S9)/(A$1)</f>
-        <v>40</v>
-      </c>
-      <c r="U9" s="12"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="12"/>
       <c r="X9" s="11"/>
       <c r="Y9" s="11"/>
-      <c r="Z9" s="8">
-        <f>SUM(U9:Y9)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="8">
-        <f>SUM(AA9:AE9)</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="17">
-        <f>L9*0.1+T9*0.2+Z9*0.2+AF9*0.2+AG9*0.3</f>
-        <v>11.25</v>
-      </c>
-      <c r="AI9" s="17">
-        <f>D9*0.4+AH9*0.6</f>
-        <v>37.79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="17">
+        <f>J9*0.1+P9*0.2+V9*0.2+AB9*0.2+AC9*0.3</f>
+        <v>15.625</v>
+      </c>
+      <c r="AE9" s="17">
+        <f>D9*0.4+AD9*0.6</f>
+        <v>40.414999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>127</v>
       </c>
       <c r="D10" s="12">
@@ -5781,66 +5770,68 @@
       <c r="F10" s="18">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="G10" s="18">
+        <v>2</v>
+      </c>
+      <c r="H10" s="18">
+        <v>2</v>
+      </c>
       <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="8">
-        <f>100*SUM(E10:K10)/(2*A$1)</f>
+      <c r="J10" s="8">
+        <f>100*SUM(E10:I10)/(2*A$1)</f>
+        <v>75</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="48">
+        <v>100</v>
+      </c>
+      <c r="M10" s="50">
+        <v>100</v>
+      </c>
+      <c r="N10" s="50"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="8">
+        <f>SUM(K10:O10)/(A$1)</f>
         <v>50</v>
       </c>
-      <c r="M10" s="12">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
-        <v>100</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="8">
-        <f>SUM(M10:S10)/(A$1)</f>
-        <v>50</v>
-      </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="12"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="8">
-        <f>SUM(U10:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="8">
-        <f>SUM(AA10:AE10)</f>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="17">
-        <f>L10*0.1+T10*0.2+Z10*0.2+AF10*0.2+AG10*0.3</f>
-        <v>15</v>
-      </c>
-      <c r="AI10" s="17">
-        <f>D10*0.4+AH10*0.6</f>
-        <v>37.22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="17">
+        <f>J10*0.1+P10*0.2+V10*0.2+AB10*0.2+AC10*0.3</f>
+        <v>17.5</v>
+      </c>
+      <c r="AE10" s="17">
+        <f>D10*0.4+AD10*0.6</f>
+        <v>38.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="12">
@@ -5852,66 +5843,68 @@
       <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="G11" s="18">
+        <v>2</v>
+      </c>
+      <c r="H11" s="18">
+        <v>2</v>
+      </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="8">
-        <f>100*SUM(E11:K11)/(2*A$1)</f>
-        <v>25</v>
-      </c>
-      <c r="M11" s="12">
+      <c r="J11" s="8">
+        <f>100*SUM(E11:I11)/(2*A$1)</f>
+        <v>62.5</v>
+      </c>
+      <c r="K11" s="12">
         <v>60</v>
       </c>
-      <c r="N11" s="11">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="L11" s="48">
+        <v>0</v>
+      </c>
+      <c r="M11" s="50">
+        <v>100</v>
+      </c>
+      <c r="N11" s="50"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="8">
+        <f>SUM(K11:O11)/(A$1)</f>
+        <v>40</v>
+      </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="8">
-        <f>SUM(M11:S11)/(A$1)</f>
-        <v>30</v>
-      </c>
-      <c r="U11" s="12"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="12"/>
       <c r="X11" s="11"/>
       <c r="Y11" s="11"/>
-      <c r="Z11" s="8">
-        <f>SUM(U11:Y11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="8">
-        <f>SUM(AA11:AE11)</f>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="17">
-        <f>L11*0.1+T11*0.2+Z11*0.2+AF11*0.2+AG11*0.3</f>
-        <v>8.5</v>
-      </c>
-      <c r="AI11" s="17">
-        <f>D11*0.4+AH11*0.6</f>
-        <v>34.860000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="17">
+        <f>J11*0.1+P11*0.2+V11*0.2+AB11*0.2+AC11*0.3</f>
+        <v>14.25</v>
+      </c>
+      <c r="AE11" s="17">
+        <f>D11*0.4+AD11*0.6</f>
+        <v>38.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="12">
@@ -5923,66 +5916,68 @@
       <c r="F12" s="18">
         <v>0</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="G12" s="18">
+        <v>2</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
       <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="8">
-        <f>100*SUM(E12:K12)/(2*A$1)</f>
-        <v>32.5</v>
-      </c>
-      <c r="M12" s="12">
+      <c r="J12" s="8">
+        <f>100*SUM(E12:I12)/(2*A$1)</f>
+        <v>41.25</v>
+      </c>
+      <c r="K12" s="12">
         <v>80</v>
       </c>
-      <c r="N12" s="11">
-        <v>0</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="L12" s="48">
+        <v>0</v>
+      </c>
+      <c r="M12" s="50">
+        <v>100</v>
+      </c>
+      <c r="N12" s="50"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="8">
+        <f>SUM(K12:O12)/(A$1)</f>
+        <v>45</v>
+      </c>
+      <c r="Q12" s="12"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="8">
-        <f>SUM(M12:S12)/(A$1)</f>
-        <v>40</v>
-      </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="12"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="8">
-        <f>SUM(U12:Y12)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="8">
-        <f>SUM(AA12:AE12)</f>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="17">
-        <f>L12*0.1+T12*0.2+Z12*0.2+AF12*0.2+AG12*0.3</f>
-        <v>11.25</v>
-      </c>
-      <c r="AI12" s="17">
-        <f>D12*0.4+AH12*0.6</f>
-        <v>30.91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="17">
+        <f>J12*0.1+P12*0.2+V12*0.2+AB12*0.2+AC12*0.3</f>
+        <v>13.125</v>
+      </c>
+      <c r="AE12" s="17">
+        <f>D12*0.4+AD12*0.6</f>
+        <v>32.034999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="47" t="s">
         <v>118</v>
       </c>
       <c r="D13" s="12">
@@ -5994,66 +5989,68 @@
       <c r="F13" s="18">
         <v>0</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="G13" s="18">
+        <v>2</v>
+      </c>
+      <c r="H13" s="18">
+        <v>2</v>
+      </c>
       <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="8">
-        <f>100*SUM(E13:K13)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="12">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="J13" s="8">
+        <f>100*SUM(E13:I13)/(2*A$1)</f>
+        <v>50</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="48">
+        <v>0</v>
+      </c>
+      <c r="M13" s="50">
+        <v>100</v>
+      </c>
+      <c r="N13" s="50"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="8">
+        <f>SUM(K13:O13)/(A$1)</f>
+        <v>25</v>
+      </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="8">
-        <f>SUM(M13:S13)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="12"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="12"/>
       <c r="X13" s="11"/>
       <c r="Y13" s="11"/>
-      <c r="Z13" s="8">
-        <f>SUM(U13:Y13)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="8">
-        <f>SUM(AA13:AE13)</f>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="17">
-        <f>L13*0.1+T13*0.2+Z13*0.2+AF13*0.2+AG13*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="17">
-        <f>D13*0.4+AH13*0.6</f>
-        <v>27.933333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="17">
+        <f>J13*0.1+P13*0.2+V13*0.2+AB13*0.2+AC13*0.3</f>
+        <v>10</v>
+      </c>
+      <c r="AE13" s="17">
+        <f>D13*0.4+AD13*0.6</f>
+        <v>33.933333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="12">
@@ -6065,66 +6062,68 @@
       <c r="F14" s="18">
         <v>0</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
       <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="8">
-        <f>100*SUM(E14:K14)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="12">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="J14" s="8">
+        <f>100*SUM(E14:I14)/(2*A$1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="K14" s="12">
+        <v>0</v>
+      </c>
+      <c r="L14" s="48">
+        <v>0</v>
+      </c>
+      <c r="M14" s="50">
+        <v>0</v>
+      </c>
+      <c r="N14" s="50"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="8">
+        <f>SUM(K14:O14)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="8">
-        <f>SUM(M14:S14)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="12"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="12"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="8">
-        <f>SUM(U14:Y14)</f>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="8">
-        <f>SUM(AA14:AE14)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="17">
-        <f>L14*0.1+T14*0.2+Z14*0.2+AF14*0.2+AG14*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="17">
-        <f>D14*0.4+AH14*0.6</f>
-        <v>23.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="17">
+        <f>J14*0.1+P14*0.2+V14*0.2+AB14*0.2+AC14*0.3</f>
+        <v>1.25</v>
+      </c>
+      <c r="AE14" s="17">
+        <f>D14*0.4+AD14*0.6</f>
+        <v>24.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="47" t="s">
         <v>129</v>
       </c>
       <c r="D15" s="12">
@@ -6136,66 +6135,68 @@
       <c r="F15" s="18">
         <v>2</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
       <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="8">
-        <f>100*SUM(E15:K15)/(2*A$1)</f>
+      <c r="J15" s="8">
+        <f>100*SUM(E15:I15)/(2*A$1)</f>
         <v>50</v>
       </c>
-      <c r="M15" s="12">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="48">
         <v>100</v>
       </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="M15" s="50">
+        <v>100</v>
+      </c>
+      <c r="N15" s="50"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="8">
+        <f>SUM(K15:O15)/(A$1)</f>
+        <v>50</v>
+      </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="8">
-        <f>SUM(M15:S15)/(A$1)</f>
-        <v>50</v>
-      </c>
-      <c r="U15" s="12"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W15" s="12"/>
       <c r="X15" s="11"/>
       <c r="Y15" s="11"/>
-      <c r="Z15" s="8">
-        <f>SUM(U15:Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="8">
-        <f>SUM(AA15:AE15)</f>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="17">
-        <f>L15*0.1+T15*0.2+Z15*0.2+AF15*0.2+AG15*0.3</f>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="17">
+        <f>J15*0.1+P15*0.2+V15*0.2+AB15*0.2+AC15*0.3</f>
         <v>15</v>
       </c>
-      <c r="AI15" s="17">
-        <f>D15*0.4+AH15*0.6</f>
+      <c r="AE15" s="17">
+        <f>D15*0.4+AD15*0.6</f>
         <v>20.240000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="47" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="12">
@@ -6207,66 +6208,68 @@
       <c r="F16" s="18">
         <v>0</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
       <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="8">
-        <f>100*SUM(E16:K16)/(2*A$1)</f>
-        <v>25</v>
-      </c>
-      <c r="M16" s="12">
+      <c r="J16" s="8">
+        <f>100*SUM(E16:I16)/(2*A$1)</f>
+        <v>12.5</v>
+      </c>
+      <c r="K16" s="12">
         <v>55</v>
       </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="L16" s="48">
+        <v>0</v>
+      </c>
+      <c r="M16" s="50">
+        <v>0</v>
+      </c>
+      <c r="N16" s="50"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="8">
+        <f>SUM(K16:O16)/(A$1)</f>
+        <v>13.75</v>
+      </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="8">
-        <f>SUM(M16:S16)/(A$1)</f>
-        <v>27.5</v>
-      </c>
-      <c r="U16" s="12"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="12"/>
       <c r="X16" s="11"/>
       <c r="Y16" s="11"/>
-      <c r="Z16" s="8">
-        <f>SUM(U16:Y16)</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="8">
-        <f>SUM(AA16:AE16)</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="17">
-        <f>L16*0.1+T16*0.2+Z16*0.2+AF16*0.2+AG16*0.3</f>
-        <v>8</v>
-      </c>
-      <c r="AI16" s="17">
-        <f>D16*0.4+AH16*0.6</f>
-        <v>13.079999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="17">
+        <f>J16*0.1+P16*0.2+V16*0.2+AB16*0.2+AC16*0.3</f>
+        <v>4</v>
+      </c>
+      <c r="AE16" s="17">
+        <f>D16*0.4+AD16*0.6</f>
+        <v>10.68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="47" t="s">
         <v>83</v>
       </c>
       <c r="D17" s="12">
@@ -6278,66 +6281,68 @@
       <c r="F17" s="18">
         <v>0</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
       <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="8">
-        <f>100*SUM(E17:K17)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="12">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="J17" s="8">
+        <f>100*SUM(E17:I17)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="12">
+        <v>0</v>
+      </c>
+      <c r="L17" s="48">
+        <v>0</v>
+      </c>
+      <c r="M17" s="50">
+        <v>0</v>
+      </c>
+      <c r="N17" s="50"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="8">
+        <f>SUM(K17:O17)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="8">
-        <f>SUM(M17:S17)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="12"/>
       <c r="X17" s="11"/>
       <c r="Y17" s="11"/>
-      <c r="Z17" s="8">
-        <f>SUM(U17:Y17)</f>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="8">
-        <f>SUM(AA17:AE17)</f>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="17">
-        <f>L17*0.1+T17*0.2+Z17*0.2+AF17*0.2+AG17*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="17">
-        <f>D17*0.4+AH17*0.6</f>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="17">
+        <f>J17*0.1+P17*0.2+V17*0.2+AB17*0.2+AC17*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="17">
+        <f>D17*0.4+AD17*0.6</f>
         <v>8.9466666666666672</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="47" t="s">
         <v>101</v>
       </c>
       <c r="D18" s="12">
@@ -6349,66 +6354,68 @@
       <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
       <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="8">
-        <f>100*SUM(E18:K18)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="12">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="J18" s="8">
+        <f>100*SUM(E18:I18)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="48">
+        <v>0</v>
+      </c>
+      <c r="M18" s="50">
+        <v>0</v>
+      </c>
+      <c r="N18" s="50"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="8">
+        <f>SUM(K18:O18)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="8">
-        <f>SUM(M18:S18)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="12"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="12"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
-      <c r="Z18" s="8">
-        <f>SUM(U18:Y18)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="8">
-        <f>SUM(AA18:AE18)</f>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="17">
-        <f>L18*0.1+T18*0.2+Z18*0.2+AF18*0.2+AG18*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="17">
-        <f>D18*0.4+AH18*0.6</f>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="17">
+        <f>J18*0.1+P18*0.2+V18*0.2+AB18*0.2+AC18*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="17">
+        <f>D18*0.4+AD18*0.6</f>
         <v>7.4666666666666677</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="47" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="12">
@@ -6420,64 +6427,66 @@
       <c r="F19" s="18">
         <v>0</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
       <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="8">
-        <f>100*SUM(E19:K19)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
+      <c r="J19" s="8">
+        <f>100*SUM(E19:I19)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="48">
+        <v>0</v>
+      </c>
+      <c r="M19" s="50">
+        <v>0</v>
+      </c>
+      <c r="N19" s="50"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="8">
+        <f>SUM(K19:O19)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="8">
-        <f>SUM(M19:S19)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="12"/>
       <c r="X19" s="11"/>
       <c r="Y19" s="11"/>
-      <c r="Z19" s="8">
-        <f>SUM(U19:Y19)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="8">
-        <f>SUM(AA19:AE19)</f>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="17">
-        <f>L19*0.1+T19*0.2+Z19*0.2+AF19*0.2+AG19*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="17">
-        <f>D19*0.4+AH19*0.6</f>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="17">
+        <f>J19*0.1+P19*0.2+V19*0.2+AB19*0.2+AC19*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17">
+        <f>D19*0.4+AD19*0.6</f>
         <v>4.4400000000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="47" t="s">
         <v>131</v>
       </c>
       <c r="D20" s="12">
@@ -6489,66 +6498,68 @@
       <c r="F20" s="18">
         <v>0</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
       <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="8">
-        <f>100*SUM(E20:K20)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="12">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
+      <c r="J20" s="8">
+        <f>100*SUM(E20:I20)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="48">
+        <v>0</v>
+      </c>
+      <c r="M20" s="50">
+        <v>0</v>
+      </c>
+      <c r="N20" s="50"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="8">
+        <f>SUM(K20:O20)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="8">
-        <f>SUM(M20:S20)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="12"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
-      <c r="Z20" s="8">
-        <f>SUM(U20:Y20)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="8">
-        <f>SUM(AA20:AE20)</f>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="17">
-        <f>L20*0.1+T20*0.2+Z20*0.2+AF20*0.2+AG20*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="17">
-        <f>D20*0.4+AH20*0.6</f>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="17">
+        <f>J20*0.1+P20*0.2+V20*0.2+AB20*0.2+AC20*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
+        <f>D20*0.4+AD20*0.6</f>
         <v>3.4666666666666672</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="47" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="12">
@@ -6560,66 +6571,68 @@
       <c r="F21" s="18">
         <v>0</v>
       </c>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
       <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="8">
-        <f>100*SUM(E21:K21)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="12">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
+      <c r="J21" s="8">
+        <f>100*SUM(E21:I21)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="48">
+        <v>0</v>
+      </c>
+      <c r="M21" s="50">
+        <v>0</v>
+      </c>
+      <c r="N21" s="50"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="8">
+        <f>SUM(K21:O21)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="8">
-        <f>SUM(M21:S21)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="12"/>
       <c r="X21" s="11"/>
       <c r="Y21" s="11"/>
-      <c r="Z21" s="8">
-        <f>SUM(U21:Y21)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="8">
-        <f>SUM(AA21:AE21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="17">
-        <f>L21*0.1+T21*0.2+Z21*0.2+AF21*0.2+AG21*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="17">
-        <f>D21*0.4+AH21*0.6</f>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="17">
+        <f>J21*0.1+P21*0.2+V21*0.2+AB21*0.2+AC21*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="17">
+        <f>D21*0.4+AD21*0.6</f>
         <v>3.4599999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="47" t="s">
         <v>121</v>
       </c>
       <c r="D22" s="12">
@@ -6631,66 +6644,68 @@
       <c r="F22" s="18">
         <v>0</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
       <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="8">
-        <f>100*SUM(E22:K22)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="12">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
+      <c r="J22" s="8">
+        <f>100*SUM(E22:I22)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="48">
+        <v>0</v>
+      </c>
+      <c r="M22" s="50">
+        <v>0</v>
+      </c>
+      <c r="N22" s="50"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="8">
+        <f>SUM(K22:O22)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q22" s="12"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="8">
-        <f>SUM(M22:S22)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="12"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="12"/>
       <c r="X22" s="11"/>
       <c r="Y22" s="11"/>
-      <c r="Z22" s="8">
-        <f>SUM(U22:Y22)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="8">
-        <f>SUM(AA22:AE22)</f>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="17">
-        <f>L22*0.1+T22*0.2+Z22*0.2+AF22*0.2+AG22*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="17">
-        <f>D22*0.4+AH22*0.6</f>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="17">
+        <f>J22*0.1+P22*0.2+V22*0.2+AB22*0.2+AC22*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="17">
+        <f>D22*0.4+AD22*0.6</f>
         <v>3.3200000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="12">
@@ -6702,66 +6717,68 @@
       <c r="F23" s="18">
         <v>0</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
       <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="8">
-        <f>100*SUM(E23:K23)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="12">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="11"/>
+      <c r="J23" s="8">
+        <f>100*SUM(E23:I23)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="48">
+        <v>0</v>
+      </c>
+      <c r="M23" s="50">
+        <v>0</v>
+      </c>
+      <c r="N23" s="50"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="8">
+        <f>SUM(K23:O23)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="8">
-        <f>SUM(M23:S23)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="12"/>
       <c r="X23" s="11"/>
       <c r="Y23" s="11"/>
-      <c r="Z23" s="8">
-        <f>SUM(U23:Y23)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="8">
-        <f>SUM(AA23:AE23)</f>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="17">
-        <f>L23*0.1+T23*0.2+Z23*0.2+AF23*0.2+AG23*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="17">
-        <f>D23*0.4+AH23*0.6</f>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="17">
+        <f>J23*0.1+P23*0.2+V23*0.2+AB23*0.2+AC23*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17">
+        <f>D23*0.4+AD23*0.6</f>
         <v>2.7666666666666671</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="12">
@@ -6773,66 +6790,68 @@
       <c r="F24" s="18">
         <v>0</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
       <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="8">
-        <f>100*SUM(E24:K24)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="12">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
+      <c r="J24" s="8">
+        <f>100*SUM(E24:I24)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12">
+        <v>0</v>
+      </c>
+      <c r="L24" s="48">
+        <v>0</v>
+      </c>
+      <c r="M24" s="50">
+        <v>0</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="8">
+        <f>SUM(K24:O24)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="8">
-        <f>SUM(M24:S24)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="12"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="12"/>
       <c r="X24" s="11"/>
       <c r="Y24" s="11"/>
-      <c r="Z24" s="8">
-        <f>SUM(U24:Y24)</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="8">
-        <f>SUM(AA24:AE24)</f>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="17">
-        <f>L24*0.1+T24*0.2+Z24*0.2+AF24*0.2+AG24*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="17">
-        <f>D24*0.4+AH24*0.6</f>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="17">
+        <f>J24*0.1+P24*0.2+V24*0.2+AB24*0.2+AC24*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <f>D24*0.4+AD24*0.6</f>
         <v>2.5333333333333337</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="12">
@@ -6844,66 +6863,68 @@
       <c r="F25" s="18">
         <v>0</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
       <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="8">
-        <f>100*SUM(E25:K25)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="12">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
+      <c r="J25" s="8">
+        <f>100*SUM(E25:I25)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0</v>
+      </c>
+      <c r="L25" s="48">
+        <v>0</v>
+      </c>
+      <c r="M25" s="50">
+        <v>0</v>
+      </c>
+      <c r="N25" s="50"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="8">
+        <f>SUM(K25:O25)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="8">
-        <f>SUM(M25:S25)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="12"/>
       <c r="X25" s="11"/>
       <c r="Y25" s="11"/>
-      <c r="Z25" s="8">
-        <f>SUM(U25:Y25)</f>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="8">
-        <f>SUM(AA25:AE25)</f>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="17">
-        <f>L25*0.1+T25*0.2+Z25*0.2+AF25*0.2+AG25*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="17">
-        <f>D25*0.4+AH25*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="17">
+        <f>J25*0.1+P25*0.2+V25*0.2+AB25*0.2+AC25*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <f>D25*0.4+AD25*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B26" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="12">
@@ -6915,66 +6936,68 @@
       <c r="F26" s="18">
         <v>0</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
       <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="8">
-        <f>100*SUM(E26:K26)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="12">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
+      <c r="J26" s="8">
+        <f>100*SUM(E26:I26)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0</v>
+      </c>
+      <c r="L26" s="48">
+        <v>0</v>
+      </c>
+      <c r="M26" s="50">
+        <v>0</v>
+      </c>
+      <c r="N26" s="50"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="8">
+        <f>SUM(K26:O26)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="8">
-        <f>SUM(M26:S26)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="12"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="12"/>
       <c r="X26" s="11"/>
       <c r="Y26" s="11"/>
-      <c r="Z26" s="8">
-        <f>SUM(U26:Y26)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="12"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="8">
-        <f>SUM(AA26:AE26)</f>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="17">
-        <f>L26*0.1+T26*0.2+Z26*0.2+AF26*0.2+AG26*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="17">
-        <f>D26*0.4+AH26*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="17">
+        <f>J26*0.1+P26*0.2+V26*0.2+AB26*0.2+AC26*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="17">
+        <f>D26*0.4+AD26*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="12">
@@ -6986,66 +7009,68 @@
       <c r="F27" s="18">
         <v>0</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
       <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="8">
-        <f>100*SUM(E27:K27)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="11"/>
+      <c r="J27" s="8">
+        <f>100*SUM(E27:I27)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <v>0</v>
+      </c>
+      <c r="L27" s="48">
+        <v>0</v>
+      </c>
+      <c r="M27" s="50">
+        <v>0</v>
+      </c>
+      <c r="N27" s="50"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="8">
+        <f>SUM(K27:O27)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="12"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
-      <c r="T27" s="8">
-        <f>SUM(M27:S27)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="12"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W27" s="12"/>
       <c r="X27" s="11"/>
       <c r="Y27" s="11"/>
-      <c r="Z27" s="8">
-        <f>SUM(U27:Y27)</f>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="12"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="8">
-        <f>SUM(AA27:AE27)</f>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="12"/>
-      <c r="AH27" s="17">
-        <f>L27*0.1+T27*0.2+Z27*0.2+AF27*0.2+AG27*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="17">
-        <f>D27*0.4+AH27*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="17">
+        <f>J27*0.1+P27*0.2+V27*0.2+AB27*0.2+AC27*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="17">
+        <f>D27*0.4+AD27*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>39</v>
       </c>
       <c r="D28" s="12">
@@ -7057,66 +7082,68 @@
       <c r="F28" s="18">
         <v>0</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
       <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="8">
-        <f>100*SUM(E28:K28)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <v>0</v>
-      </c>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
+      <c r="J28" s="8">
+        <f>100*SUM(E28:I28)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0</v>
+      </c>
+      <c r="L28" s="48">
+        <v>0</v>
+      </c>
+      <c r="M28" s="50">
+        <v>0</v>
+      </c>
+      <c r="N28" s="50"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="8">
+        <f>SUM(K28:O28)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="8">
-        <f>SUM(M28:S28)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="12"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
-      <c r="Z28" s="8">
-        <f>SUM(U28:Y28)</f>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="8">
-        <f>SUM(AA28:AE28)</f>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="17">
-        <f>L28*0.1+T28*0.2+Z28*0.2+AF28*0.2+AG28*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="17">
-        <f>D28*0.4+AH28*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="17">
+        <f>J28*0.1+P28*0.2+V28*0.2+AB28*0.2+AC28*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <f>D28*0.4+AD28*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="47" t="s">
         <v>80</v>
       </c>
       <c r="D29" s="12">
@@ -7128,66 +7155,68 @@
       <c r="F29" s="18">
         <v>0</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
       <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="8">
-        <f>100*SUM(E29:K29)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="J29" s="8">
+        <f>100*SUM(E29:I29)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="48">
+        <v>0</v>
+      </c>
+      <c r="M29" s="50">
+        <v>0</v>
+      </c>
+      <c r="N29" s="50"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="8">
+        <f>SUM(K29:O29)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
-      <c r="T29" s="8">
-        <f>SUM(M29:S29)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="12"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W29" s="12"/>
       <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
-      <c r="Z29" s="8">
-        <f>SUM(U29:Y29)</f>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="12"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="8">
-        <f>SUM(AA29:AE29)</f>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="17">
-        <f>L29*0.1+T29*0.2+Z29*0.2+AF29*0.2+AG29*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="17">
-        <f>D29*0.4+AH29*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="17">
+        <f>J29*0.1+P29*0.2+V29*0.2+AB29*0.2+AC29*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <f>D29*0.4+AD29*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="48" t="s">
+      <c r="C30" s="47" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="12">
@@ -7199,66 +7228,68 @@
       <c r="F30" s="18">
         <v>0</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
       <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="8">
-        <f>100*SUM(E30:K30)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="12">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
+      <c r="J30" s="8">
+        <f>100*SUM(E30:I30)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0</v>
+      </c>
+      <c r="L30" s="48">
+        <v>0</v>
+      </c>
+      <c r="M30" s="50">
+        <v>0</v>
+      </c>
+      <c r="N30" s="50"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="8">
+        <f>SUM(K30:O30)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="8">
-        <f>SUM(M30:S30)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="12"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W30" s="12"/>
       <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
-      <c r="Z30" s="8">
-        <f>SUM(U30:Y30)</f>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="12"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="8">
-        <f>SUM(AA30:AE30)</f>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="12"/>
-      <c r="AH30" s="17">
-        <f>L30*0.1+T30*0.2+Z30*0.2+AF30*0.2+AG30*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="17">
-        <f>D30*0.4+AH30*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="17">
+        <f>J30*0.1+P30*0.2+V30*0.2+AB30*0.2+AC30*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17">
+        <f>D30*0.4+AD30*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>48</v>
       </c>
       <c r="D31" s="12">
@@ -7270,66 +7301,68 @@
       <c r="F31" s="18">
         <v>0</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
       <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="8">
-        <f>100*SUM(E31:K31)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="12">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
+      <c r="J31" s="8">
+        <f>100*SUM(E31:I31)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="48">
+        <v>0</v>
+      </c>
+      <c r="M31" s="50">
+        <v>0</v>
+      </c>
+      <c r="N31" s="50"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="8">
+        <f>SUM(K31:O31)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q31" s="12"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
-      <c r="T31" s="8">
-        <f>SUM(M31:S31)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="12"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="12"/>
       <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
-      <c r="Z31" s="8">
-        <f>SUM(U31:Y31)</f>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="12"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="8">
-        <f>SUM(AA31:AE31)</f>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="17">
-        <f>L31*0.1+T31*0.2+Z31*0.2+AF31*0.2+AG31*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="17">
-        <f>D31*0.4+AH31*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="17">
+        <f>J31*0.1+P31*0.2+V31*0.2+AB31*0.2+AC31*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="17">
+        <f>D31*0.4+AD31*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="12">
@@ -7341,66 +7374,68 @@
       <c r="F32" s="18">
         <v>0</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
       <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="8">
-        <f>100*SUM(E32:K32)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="12">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
+      <c r="J32" s="8">
+        <f>100*SUM(E32:I32)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+      <c r="L32" s="48">
+        <v>0</v>
+      </c>
+      <c r="M32" s="50">
+        <v>0</v>
+      </c>
+      <c r="N32" s="50"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="8">
+        <f>SUM(K32:O32)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
-      <c r="T32" s="8">
-        <f>SUM(M32:S32)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="12"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W32" s="12"/>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
-      <c r="Z32" s="8">
-        <f>SUM(U32:Y32)</f>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="12"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="8">
-        <f>SUM(AA32:AE32)</f>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="12"/>
-      <c r="AH32" s="17">
-        <f>L32*0.1+T32*0.2+Z32*0.2+AF32*0.2+AG32*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="17">
-        <f>D32*0.4+AH32*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="17">
+        <f>J32*0.1+P32*0.2+V32*0.2+AB32*0.2+AC32*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="17">
+        <f>D32*0.4+AD32*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="12">
@@ -7412,66 +7447,68 @@
       <c r="F33" s="18">
         <v>0</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
       <c r="I33" s="18"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="8">
-        <f>100*SUM(E33:K33)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="12">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
+      <c r="J33" s="8">
+        <f>100*SUM(E33:I33)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+      <c r="L33" s="48">
+        <v>0</v>
+      </c>
+      <c r="M33" s="50">
+        <v>0</v>
+      </c>
+      <c r="N33" s="50"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="8">
+        <f>SUM(K33:O33)/(A$1)</f>
+        <v>0</v>
+      </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
-      <c r="T33" s="8">
-        <f>SUM(M33:S33)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="12"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="12"/>
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
-      <c r="Z33" s="8">
-        <f>SUM(U33:Y33)</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="12"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="8">
-        <f>SUM(AA33:AE33)</f>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="12"/>
-      <c r="AH33" s="17">
-        <f>L33*0.1+T33*0.2+Z33*0.2+AF33*0.2+AG33*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="17">
-        <f>D33*0.4+AH33*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="17">
+        <f>J33*0.1+P33*0.2+V33*0.2+AB33*0.2+AC33*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17">
+        <f>D33*0.4+AD33*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D34" s="12">
@@ -7483,59 +7520,61 @@
       <c r="F34" s="18">
         <v>0</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
       <c r="I34" s="18"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="8">
-        <f>100*SUM(E34:K34)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="12">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
+      <c r="J34" s="52">
+        <f>100*SUM(E34:I34)/(2*A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+      <c r="L34" s="48">
+        <v>0</v>
+      </c>
+      <c r="M34" s="50">
+        <v>0</v>
+      </c>
+      <c r="N34" s="50"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="52">
+        <f>SUM(K34:O34)/(A$1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-      <c r="T34" s="8">
-        <f>SUM(M34:S34)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="7"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="7"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
-      <c r="Z34" s="10">
-        <f>SUM(U34:Y34)</f>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="8">
-        <f>SUM(AA34:AE34)</f>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="6">
-        <f>L34*0.1+T34*0.2+Z34*0.2+AF34*0.2+AG34*0.3</f>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="17">
-        <f>D34*0.4+AH34*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="6">
+        <f>J34*0.1+P34*0.2+V34*0.2+AB34*0.2+AC34*0.3</f>
+        <v>0</v>
+      </c>
+      <c r="AE34" s="17">
+        <f>D34*0.4+AD34*0.6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" s="4" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -7545,7 +7584,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -7568,12 +7607,8 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-    </row>
-    <row r="37" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -7596,12 +7631,8 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="38" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -7624,12 +7655,8 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-    </row>
-    <row r="39" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -7652,12 +7679,8 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-    </row>
-    <row r="40" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -7680,12 +7703,8 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="4"/>
-    </row>
-    <row r="41" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -7708,12 +7727,8 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
-    </row>
-    <row r="42" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -7736,12 +7751,8 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
-    </row>
-    <row r="43" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -7764,12 +7775,8 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="4"/>
-    </row>
-    <row r="44" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -7792,12 +7799,8 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-    </row>
-    <row r="45" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -7820,12 +7823,8 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
-      <c r="W45" s="4"/>
-      <c r="X45" s="4"/>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="4"/>
-    </row>
-    <row r="46" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -7848,12 +7847,8 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
-    </row>
-    <row r="47" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7876,12 +7871,8 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-    </row>
-    <row r="48" spans="1:35" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -7904,12 +7895,8 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
-      <c r="W48" s="4"/>
-      <c r="X48" s="4"/>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="4"/>
-    </row>
-    <row r="49" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -7932,12 +7919,8 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
-      <c r="W49" s="4"/>
-      <c r="X49" s="4"/>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="4"/>
-    </row>
-    <row r="50" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7960,12 +7943,8 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
-      <c r="W50" s="4"/>
-      <c r="X50" s="4"/>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="4"/>
-    </row>
-    <row r="51" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -7988,12 +7967,8 @@
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-    </row>
-    <row r="52" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -8016,12 +7991,8 @@
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-    </row>
-    <row r="53" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -8044,12 +8015,8 @@
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-    </row>
-    <row r="54" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -8072,12 +8039,8 @@
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-    </row>
-    <row r="55" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -8100,12 +8063,8 @@
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-    </row>
-    <row r="56" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -8128,12 +8087,8 @@
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-    </row>
-    <row r="57" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -8156,12 +8111,8 @@
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-    </row>
-    <row r="58" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -8184,12 +8135,8 @@
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-    </row>
-    <row r="59" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -8212,12 +8159,8 @@
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-    </row>
-    <row r="60" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -8240,12 +8183,8 @@
       <c r="T60" s="4"/>
       <c r="U60" s="4"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-    </row>
-    <row r="61" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -8268,12 +8207,8 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-    </row>
-    <row r="62" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -8296,12 +8231,8 @@
       <c r="T62" s="4"/>
       <c r="U62" s="4"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-    </row>
-    <row r="63" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -8324,12 +8255,8 @@
       <c r="T63" s="4"/>
       <c r="U63" s="4"/>
       <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
-    </row>
-    <row r="64" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -8352,12 +8279,8 @@
       <c r="T64" s="4"/>
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-    </row>
-    <row r="65" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -8380,12 +8303,8 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
-    </row>
-    <row r="66" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -8408,12 +8327,8 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
-    </row>
-    <row r="67" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -8436,12 +8351,8 @@
       <c r="T67" s="4"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
-    </row>
-    <row r="68" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -8464,12 +8375,8 @@
       <c r="T68" s="4"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
-    </row>
-    <row r="69" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -8492,12 +8399,8 @@
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
-    </row>
-    <row r="70" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -8520,12 +8423,8 @@
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-    </row>
-    <row r="71" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -8548,12 +8447,8 @@
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-    </row>
-    <row r="72" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -8576,12 +8471,8 @@
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
-    </row>
-    <row r="73" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -8604,12 +8495,8 @@
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
-      <c r="W73" s="4"/>
-      <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="Z73" s="4"/>
-    </row>
-    <row r="74" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -8632,12 +8519,8 @@
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
-    </row>
-    <row r="75" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -8660,12 +8543,8 @@
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
-    </row>
-    <row r="76" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -8688,12 +8567,8 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-    </row>
-    <row r="77" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -8716,12 +8591,8 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-    </row>
-    <row r="78" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -8744,12 +8615,8 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-    </row>
-    <row r="79" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -8772,12 +8639,8 @@
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
-    </row>
-    <row r="80" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -8800,12 +8663,8 @@
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
       <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-    </row>
-    <row r="81" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -8828,12 +8687,8 @@
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
       <c r="V81" s="4"/>
-      <c r="W81" s="4"/>
-      <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-    </row>
-    <row r="82" spans="1:26" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -8856,34 +8711,30 @@
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A3:AI34">
-    <sortCondition descending="1" ref="AI3"/>
+    <sortCondition descending="1" ref="AE3"/>
   </sortState>
   <mergeCells count="4">
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AF1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="W1:AB1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:K34">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="between">
+  <conditionalFormatting sqref="E3:I34">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L34">
+  <conditionalFormatting sqref="J3:J34">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
@@ -8897,7 +8748,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T3:T34">
+  <conditionalFormatting sqref="P3:P34">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -8911,7 +8762,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z3:Z34">
+  <conditionalFormatting sqref="V3:V34">
     <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
@@ -8925,7 +8776,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF3:AF34">
+  <conditionalFormatting sqref="AB3:AB34">
     <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
@@ -8939,7 +8790,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH3:AH34">
+  <conditionalFormatting sqref="AD3:AD34">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -8953,41 +8804,41 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:S34">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="between">
+  <conditionalFormatting sqref="K3:O34">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="between">
       <formula>80</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI34">
+  <conditionalFormatting sqref="AE3:AE34">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -9016,7 +8867,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>L3:L34</xm:sqref>
+          <xm:sqref>J3:J34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E72E4D2B-59DB-4087-8D73-BA37B6C48E19}">
@@ -9027,7 +8878,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T3:T34</xm:sqref>
+          <xm:sqref>P3:P34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B7F3499A-59AD-4039-86AF-0DC0CA994C23}">
@@ -9038,7 +8889,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Z3:Z34</xm:sqref>
+          <xm:sqref>V3:V34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D7FADB46-505F-42A9-A2E0-C12B10A2B638}">
@@ -9049,7 +8900,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AF3:AF34</xm:sqref>
+          <xm:sqref>AB3:AB34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3CE96519-F2EB-4DF1-A225-917272E77352}">
@@ -9060,7 +8911,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AH3:AH34</xm:sqref>
+          <xm:sqref>AD3:AD34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8B117272-CCF3-4825-AE1E-C44FA47E9DD7}">
@@ -9071,7 +8922,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AI3:AI34</xm:sqref>
+          <xm:sqref>AE3:AE34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -5067,7 +5067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5279,11 +5279,13 @@
       <c r="M3" s="50">
         <v>100</v>
       </c>
-      <c r="N3" s="50"/>
+      <c r="N3" s="50">
+        <v>100</v>
+      </c>
       <c r="O3" s="49"/>
       <c r="P3" s="8">
         <f>SUM(K3:O3)/(A$1)</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="11"/>
@@ -5291,7 +5293,7 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="8">
-        <f t="shared" ref="V3:V34" si="0">SUM(Q3:U3)</f>
+        <f>SUM(Q3:U3)</f>
         <v>0</v>
       </c>
       <c r="W3" s="12"/>
@@ -5300,17 +5302,17 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
       <c r="AB3" s="8">
-        <f t="shared" ref="AB3:AB34" si="1">SUM(W3:AA3)</f>
+        <f>SUM(W3:AA3)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="17">
         <f>J3*0.1+P3*0.2+V3*0.2+AB3*0.2+AC3*0.3</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="17">
         <f>D3*0.4+AD3*0.6</f>
-        <v>54.466666666666669</v>
+        <v>57.466666666666669</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5352,11 +5354,13 @@
       <c r="M4" s="50">
         <v>100</v>
       </c>
-      <c r="N4" s="50"/>
+      <c r="N4" s="50">
+        <v>100</v>
+      </c>
       <c r="O4" s="49"/>
       <c r="P4" s="8">
         <f>SUM(K4:O4)/(A$1)</f>
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="11"/>
@@ -5364,7 +5368,7 @@
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
       <c r="V4" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q4:U4)</f>
         <v>0</v>
       </c>
       <c r="W4" s="12"/>
@@ -5373,17 +5377,17 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W4:AA4)</f>
         <v>0</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="17">
         <f>J4*0.1+P4*0.2+V4*0.2+AB4*0.2+AC4*0.3</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE4" s="17">
         <f>D4*0.4+AD4*0.6</f>
-        <v>50.38</v>
+        <v>53.38</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5425,11 +5429,13 @@
       <c r="M5" s="50">
         <v>0</v>
       </c>
-      <c r="N5" s="50"/>
+      <c r="N5" s="50">
+        <v>100</v>
+      </c>
       <c r="O5" s="49"/>
       <c r="P5" s="8">
         <f>SUM(K5:O5)/(A$1)</f>
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="11"/>
@@ -5437,7 +5443,7 @@
       <c r="T5" s="11"/>
       <c r="U5" s="11"/>
       <c r="V5" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q5:U5)</f>
         <v>0</v>
       </c>
       <c r="W5" s="12"/>
@@ -5446,17 +5452,17 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="11"/>
       <c r="AB5" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W5:AA5)</f>
         <v>0</v>
       </c>
       <c r="AC5" s="12"/>
       <c r="AD5" s="17">
         <f>J5*0.1+P5*0.2+V5*0.2+AB5*0.2+AC5*0.3</f>
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="AE5" s="17">
         <f>D5*0.4+AD5*0.6</f>
-        <v>44.63333333333334</v>
+        <v>47.63333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5498,11 +5504,13 @@
       <c r="M6" s="50">
         <v>100</v>
       </c>
-      <c r="N6" s="50"/>
+      <c r="N6" s="50">
+        <v>60</v>
+      </c>
       <c r="O6" s="49"/>
       <c r="P6" s="8">
         <f>SUM(K6:O6)/(A$1)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="11"/>
@@ -5510,7 +5518,7 @@
       <c r="T6" s="11"/>
       <c r="U6" s="11"/>
       <c r="V6" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q6:U6)</f>
         <v>0</v>
       </c>
       <c r="W6" s="12"/>
@@ -5519,17 +5527,17 @@
       <c r="Z6" s="11"/>
       <c r="AA6" s="11"/>
       <c r="AB6" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W6:AA6)</f>
         <v>0</v>
       </c>
       <c r="AC6" s="12"/>
       <c r="AD6" s="17">
         <f>J6*0.1+P6*0.2+V6*0.2+AB6*0.2+AC6*0.3</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE6" s="17">
         <f>D6*0.4+AD6*0.6</f>
-        <v>45.413333333333334</v>
+        <v>47.213333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5571,11 +5579,13 @@
       <c r="M7" s="50">
         <v>100</v>
       </c>
-      <c r="N7" s="50"/>
+      <c r="N7" s="50">
+        <v>60</v>
+      </c>
       <c r="O7" s="49"/>
       <c r="P7" s="8">
         <f>SUM(K7:O7)/(A$1)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="11"/>
@@ -5583,7 +5593,7 @@
       <c r="T7" s="11"/>
       <c r="U7" s="11"/>
       <c r="V7" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q7:U7)</f>
         <v>0</v>
       </c>
       <c r="W7" s="12"/>
@@ -5592,40 +5602,40 @@
       <c r="Z7" s="11"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W7:AA7)</f>
         <v>0</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="17">
         <f>J7*0.1+P7*0.2+V7*0.2+AB7*0.2+AC7*0.3</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE7" s="17">
         <f>D7*0.4+AD7*0.6</f>
-        <v>44.433333333333337</v>
+        <v>46.233333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="D8" s="12">
-        <v>70.066666666666663</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E8" s="43">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="F8" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="18">
         <v>2</v>
@@ -5633,22 +5643,24 @@
       <c r="I8" s="18"/>
       <c r="J8" s="8">
         <f>100*SUM(E8:I8)/(2*A$1)</f>
-        <v>62.5</v>
+        <v>66.25</v>
       </c>
       <c r="K8" s="12">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="L8" s="48">
+        <v>0</v>
+      </c>
+      <c r="M8" s="50">
         <v>100</v>
       </c>
-      <c r="M8" s="50">
-        <v>0</v>
-      </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="50">
+        <v>100</v>
+      </c>
       <c r="O8" s="49"/>
       <c r="P8" s="8">
         <f>SUM(K8:O8)/(A$1)</f>
-        <v>38.75</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="11"/>
@@ -5656,7 +5668,7 @@
       <c r="T8" s="11"/>
       <c r="U8" s="11"/>
       <c r="V8" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q8:U8)</f>
         <v>0</v>
       </c>
       <c r="W8" s="12"/>
@@ -5665,37 +5677,37 @@
       <c r="Z8" s="11"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W8:AA8)</f>
         <v>0</v>
       </c>
       <c r="AC8" s="12"/>
       <c r="AD8" s="17">
         <f>J8*0.1+P8*0.2+V8*0.2+AB8*0.2+AC8*0.3</f>
-        <v>14</v>
+        <v>20.625</v>
       </c>
       <c r="AE8" s="17">
         <f>D8*0.4+AD8*0.6</f>
-        <v>36.426666666666669</v>
+        <v>43.414999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="D9" s="12">
-        <v>77.599999999999994</v>
+        <v>70.55</v>
       </c>
       <c r="E9" s="43">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F9" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="18">
         <v>2</v>
@@ -5706,22 +5718,24 @@
       <c r="I9" s="18"/>
       <c r="J9" s="8">
         <f>100*SUM(E9:I9)/(2*A$1)</f>
-        <v>66.25</v>
+        <v>75</v>
       </c>
       <c r="K9" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L9" s="48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="50">
         <v>100</v>
       </c>
-      <c r="N9" s="50"/>
+      <c r="N9" s="50">
+        <v>100</v>
+      </c>
       <c r="O9" s="49"/>
       <c r="P9" s="8">
         <f>SUM(K9:O9)/(A$1)</f>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="11"/>
@@ -5729,7 +5743,7 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q9:U9)</f>
         <v>0</v>
       </c>
       <c r="W9" s="12"/>
@@ -5738,37 +5752,37 @@
       <c r="Z9" s="11"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W9:AA9)</f>
         <v>0</v>
       </c>
       <c r="AC9" s="12"/>
       <c r="AD9" s="17">
         <f>J9*0.1+P9*0.2+V9*0.2+AB9*0.2+AC9*0.3</f>
-        <v>15.625</v>
+        <v>22.5</v>
       </c>
       <c r="AE9" s="17">
         <f>D9*0.4+AD9*0.6</f>
-        <v>40.414999999999999</v>
+        <v>41.72</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D10" s="12">
-        <v>70.55</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E10" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="18">
         <v>2</v>
@@ -5779,22 +5793,24 @@
       <c r="I10" s="18"/>
       <c r="J10" s="8">
         <f>100*SUM(E10:I10)/(2*A$1)</f>
-        <v>75</v>
+        <v>62.5</v>
       </c>
       <c r="K10" s="12">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L10" s="48">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="50">
         <v>100</v>
       </c>
-      <c r="N10" s="50"/>
+      <c r="N10" s="50">
+        <v>100</v>
+      </c>
       <c r="O10" s="49"/>
       <c r="P10" s="8">
         <f>SUM(K10:O10)/(A$1)</f>
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="11"/>
@@ -5802,7 +5818,7 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q10:U10)</f>
         <v>0</v>
       </c>
       <c r="W10" s="12"/>
@@ -5811,40 +5827,40 @@
       <c r="Z10" s="11"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W10:AA10)</f>
         <v>0</v>
       </c>
       <c r="AC10" s="12"/>
       <c r="AD10" s="17">
         <f>J10*0.1+P10*0.2+V10*0.2+AB10*0.2+AC10*0.3</f>
-        <v>17.5</v>
+        <v>19.25</v>
       </c>
       <c r="AE10" s="17">
         <f>D10*0.4+AD10*0.6</f>
-        <v>38.72</v>
+        <v>41.31</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D11" s="12">
-        <v>74.400000000000006</v>
+        <v>70.066666666666663</v>
       </c>
       <c r="E11" s="43">
         <v>1</v>
       </c>
       <c r="F11" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18">
         <v>2</v>
@@ -5855,19 +5871,21 @@
         <v>62.5</v>
       </c>
       <c r="K11" s="12">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L11" s="48">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="50">
+        <v>0</v>
+      </c>
+      <c r="N11" s="50">
         <v>100</v>
       </c>
-      <c r="N11" s="50"/>
       <c r="O11" s="49"/>
       <c r="P11" s="8">
         <f>SUM(K11:O11)/(A$1)</f>
-        <v>40</v>
+        <v>63.75</v>
       </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="11"/>
@@ -5875,7 +5893,7 @@
       <c r="T11" s="11"/>
       <c r="U11" s="11"/>
       <c r="V11" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q11:U11)</f>
         <v>0</v>
       </c>
       <c r="W11" s="12"/>
@@ -5884,34 +5902,34 @@
       <c r="Z11" s="11"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W11:AA11)</f>
         <v>0</v>
       </c>
       <c r="AC11" s="12"/>
       <c r="AD11" s="17">
         <f>J11*0.1+P11*0.2+V11*0.2+AB11*0.2+AC11*0.3</f>
-        <v>14.25</v>
+        <v>19</v>
       </c>
       <c r="AE11" s="17">
         <f>D11*0.4+AD11*0.6</f>
-        <v>38.31</v>
+        <v>39.426666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D12" s="12">
-        <v>60.4</v>
+        <v>69.833333333333343</v>
       </c>
       <c r="E12" s="43">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="F12" s="18">
         <v>0</v>
@@ -5920,15 +5938,15 @@
         <v>2</v>
       </c>
       <c r="H12" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="8">
         <f>100*SUM(E12:I12)/(2*A$1)</f>
-        <v>41.25</v>
+        <v>50</v>
       </c>
       <c r="K12" s="12">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L12" s="48">
         <v>0</v>
@@ -5936,11 +5954,13 @@
       <c r="M12" s="50">
         <v>100</v>
       </c>
-      <c r="N12" s="50"/>
+      <c r="N12" s="50">
+        <v>60</v>
+      </c>
       <c r="O12" s="49"/>
       <c r="P12" s="8">
         <f>SUM(K12:O12)/(A$1)</f>
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="11"/>
@@ -5948,7 +5968,7 @@
       <c r="T12" s="11"/>
       <c r="U12" s="11"/>
       <c r="V12" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q12:U12)</f>
         <v>0</v>
       </c>
       <c r="W12" s="12"/>
@@ -5957,34 +5977,34 @@
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W12:AA12)</f>
         <v>0</v>
       </c>
       <c r="AC12" s="12"/>
       <c r="AD12" s="17">
         <f>J12*0.1+P12*0.2+V12*0.2+AB12*0.2+AC12*0.3</f>
-        <v>13.125</v>
+        <v>13</v>
       </c>
       <c r="AE12" s="17">
         <f>D12*0.4+AD12*0.6</f>
-        <v>32.034999999999997</v>
+        <v>35.733333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12">
-        <v>69.833333333333343</v>
+        <v>60.4</v>
       </c>
       <c r="E13" s="43">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F13" s="18">
         <v>0</v>
@@ -5993,15 +6013,15 @@
         <v>2</v>
       </c>
       <c r="H13" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="8">
         <f>100*SUM(E13:I13)/(2*A$1)</f>
-        <v>50</v>
+        <v>41.25</v>
       </c>
       <c r="K13" s="12">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L13" s="48">
         <v>0</v>
@@ -6009,11 +6029,13 @@
       <c r="M13" s="50">
         <v>100</v>
       </c>
-      <c r="N13" s="50"/>
+      <c r="N13" s="50">
+        <v>0</v>
+      </c>
       <c r="O13" s="49"/>
       <c r="P13" s="8">
         <f>SUM(K13:O13)/(A$1)</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="11"/>
@@ -6021,7 +6043,7 @@
       <c r="T13" s="11"/>
       <c r="U13" s="11"/>
       <c r="V13" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q13:U13)</f>
         <v>0</v>
       </c>
       <c r="W13" s="12"/>
@@ -6030,17 +6052,17 @@
       <c r="Z13" s="11"/>
       <c r="AA13" s="11"/>
       <c r="AB13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W13:AA13)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="12"/>
       <c r="AD13" s="17">
         <f>J13*0.1+P13*0.2+V13*0.2+AB13*0.2+AC13*0.3</f>
-        <v>10</v>
+        <v>13.125</v>
       </c>
       <c r="AE13" s="17">
         <f>D13*0.4+AD13*0.6</f>
-        <v>33.933333333333337</v>
+        <v>32.034999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,11 +6104,13 @@
       <c r="M14" s="50">
         <v>0</v>
       </c>
-      <c r="N14" s="50"/>
+      <c r="N14" s="50">
+        <v>60</v>
+      </c>
       <c r="O14" s="49"/>
       <c r="P14" s="8">
         <f>SUM(K14:O14)/(A$1)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="11"/>
@@ -6094,7 +6118,7 @@
       <c r="T14" s="11"/>
       <c r="U14" s="11"/>
       <c r="V14" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q14:U14)</f>
         <v>0</v>
       </c>
       <c r="W14" s="12"/>
@@ -6103,17 +6127,17 @@
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
       <c r="AB14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W14:AA14)</f>
         <v>0</v>
       </c>
       <c r="AC14" s="12"/>
       <c r="AD14" s="17">
         <f>J14*0.1+P14*0.2+V14*0.2+AB14*0.2+AC14*0.3</f>
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="AE14" s="17">
         <f>D14*0.4+AD14*0.6</f>
-        <v>24.55</v>
+        <v>26.35</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6155,7 +6179,9 @@
       <c r="M15" s="50">
         <v>100</v>
       </c>
-      <c r="N15" s="50"/>
+      <c r="N15" s="50">
+        <v>0</v>
+      </c>
       <c r="O15" s="49"/>
       <c r="P15" s="8">
         <f>SUM(K15:O15)/(A$1)</f>
@@ -6167,7 +6193,7 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q15:U15)</f>
         <v>0</v>
       </c>
       <c r="W15" s="12"/>
@@ -6176,7 +6202,7 @@
       <c r="Z15" s="11"/>
       <c r="AA15" s="11"/>
       <c r="AB15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W15:AA15)</f>
         <v>0</v>
       </c>
       <c r="AC15" s="12"/>
@@ -6228,7 +6254,9 @@
       <c r="M16" s="50">
         <v>0</v>
       </c>
-      <c r="N16" s="50"/>
+      <c r="N16" s="50">
+        <v>0</v>
+      </c>
       <c r="O16" s="49"/>
       <c r="P16" s="8">
         <f>SUM(K16:O16)/(A$1)</f>
@@ -6240,7 +6268,7 @@
       <c r="T16" s="11"/>
       <c r="U16" s="11"/>
       <c r="V16" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q16:U16)</f>
         <v>0</v>
       </c>
       <c r="W16" s="12"/>
@@ -6249,7 +6277,7 @@
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W16:AA16)</f>
         <v>0</v>
       </c>
       <c r="AC16" s="12"/>
@@ -6301,7 +6329,9 @@
       <c r="M17" s="50">
         <v>0</v>
       </c>
-      <c r="N17" s="50"/>
+      <c r="N17" s="50">
+        <v>0</v>
+      </c>
       <c r="O17" s="49"/>
       <c r="P17" s="8">
         <f>SUM(K17:O17)/(A$1)</f>
@@ -6313,7 +6343,7 @@
       <c r="T17" s="11"/>
       <c r="U17" s="11"/>
       <c r="V17" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q17:U17)</f>
         <v>0</v>
       </c>
       <c r="W17" s="12"/>
@@ -6322,7 +6352,7 @@
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W17:AA17)</f>
         <v>0</v>
       </c>
       <c r="AC17" s="12"/>
@@ -6374,7 +6404,9 @@
       <c r="M18" s="50">
         <v>0</v>
       </c>
-      <c r="N18" s="50"/>
+      <c r="N18" s="50">
+        <v>0</v>
+      </c>
       <c r="O18" s="49"/>
       <c r="P18" s="8">
         <f>SUM(K18:O18)/(A$1)</f>
@@ -6386,7 +6418,7 @@
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q18:U18)</f>
         <v>0</v>
       </c>
       <c r="W18" s="12"/>
@@ -6395,7 +6427,7 @@
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W18:AA18)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="12"/>
@@ -6447,7 +6479,9 @@
       <c r="M19" s="50">
         <v>0</v>
       </c>
-      <c r="N19" s="50"/>
+      <c r="N19" s="50">
+        <v>0</v>
+      </c>
       <c r="O19" s="49"/>
       <c r="P19" s="8">
         <f>SUM(K19:O19)/(A$1)</f>
@@ -6459,7 +6493,7 @@
       <c r="T19" s="11"/>
       <c r="U19" s="11"/>
       <c r="V19" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q19:U19)</f>
         <v>0</v>
       </c>
       <c r="W19" s="12"/>
@@ -6468,7 +6502,7 @@
       <c r="Z19" s="11"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W19:AA19)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="12"/>
@@ -6518,7 +6552,9 @@
       <c r="M20" s="50">
         <v>0</v>
       </c>
-      <c r="N20" s="50"/>
+      <c r="N20" s="50">
+        <v>0</v>
+      </c>
       <c r="O20" s="49"/>
       <c r="P20" s="8">
         <f>SUM(K20:O20)/(A$1)</f>
@@ -6530,7 +6566,7 @@
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q20:U20)</f>
         <v>0</v>
       </c>
       <c r="W20" s="12"/>
@@ -6539,7 +6575,7 @@
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
       <c r="AB20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W20:AA20)</f>
         <v>0</v>
       </c>
       <c r="AC20" s="12"/>
@@ -6591,7 +6627,9 @@
       <c r="M21" s="50">
         <v>0</v>
       </c>
-      <c r="N21" s="50"/>
+      <c r="N21" s="50">
+        <v>0</v>
+      </c>
       <c r="O21" s="49"/>
       <c r="P21" s="8">
         <f>SUM(K21:O21)/(A$1)</f>
@@ -6603,7 +6641,7 @@
       <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q21:U21)</f>
         <v>0</v>
       </c>
       <c r="W21" s="12"/>
@@ -6612,7 +6650,7 @@
       <c r="Z21" s="11"/>
       <c r="AA21" s="11"/>
       <c r="AB21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W21:AA21)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="12"/>
@@ -6664,7 +6702,9 @@
       <c r="M22" s="50">
         <v>0</v>
       </c>
-      <c r="N22" s="50"/>
+      <c r="N22" s="50">
+        <v>0</v>
+      </c>
       <c r="O22" s="49"/>
       <c r="P22" s="8">
         <f>SUM(K22:O22)/(A$1)</f>
@@ -6676,7 +6716,7 @@
       <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q22:U22)</f>
         <v>0</v>
       </c>
       <c r="W22" s="12"/>
@@ -6685,7 +6725,7 @@
       <c r="Z22" s="11"/>
       <c r="AA22" s="11"/>
       <c r="AB22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W22:AA22)</f>
         <v>0</v>
       </c>
       <c r="AC22" s="12"/>
@@ -6737,7 +6777,9 @@
       <c r="M23" s="50">
         <v>0</v>
       </c>
-      <c r="N23" s="50"/>
+      <c r="N23" s="50">
+        <v>0</v>
+      </c>
       <c r="O23" s="49"/>
       <c r="P23" s="8">
         <f>SUM(K23:O23)/(A$1)</f>
@@ -6749,7 +6791,7 @@
       <c r="T23" s="11"/>
       <c r="U23" s="11"/>
       <c r="V23" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q23:U23)</f>
         <v>0</v>
       </c>
       <c r="W23" s="12"/>
@@ -6758,7 +6800,7 @@
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
       <c r="AB23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W23:AA23)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="12"/>
@@ -6810,7 +6852,9 @@
       <c r="M24" s="50">
         <v>0</v>
       </c>
-      <c r="N24" s="50"/>
+      <c r="N24" s="50">
+        <v>0</v>
+      </c>
       <c r="O24" s="49"/>
       <c r="P24" s="8">
         <f>SUM(K24:O24)/(A$1)</f>
@@ -6822,7 +6866,7 @@
       <c r="T24" s="11"/>
       <c r="U24" s="11"/>
       <c r="V24" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q24:U24)</f>
         <v>0</v>
       </c>
       <c r="W24" s="12"/>
@@ -6831,7 +6875,7 @@
       <c r="Z24" s="11"/>
       <c r="AA24" s="11"/>
       <c r="AB24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W24:AA24)</f>
         <v>0</v>
       </c>
       <c r="AC24" s="12"/>
@@ -6883,7 +6927,9 @@
       <c r="M25" s="50">
         <v>0</v>
       </c>
-      <c r="N25" s="50"/>
+      <c r="N25" s="50">
+        <v>0</v>
+      </c>
       <c r="O25" s="49"/>
       <c r="P25" s="8">
         <f>SUM(K25:O25)/(A$1)</f>
@@ -6895,7 +6941,7 @@
       <c r="T25" s="11"/>
       <c r="U25" s="11"/>
       <c r="V25" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q25:U25)</f>
         <v>0</v>
       </c>
       <c r="W25" s="12"/>
@@ -6904,7 +6950,7 @@
       <c r="Z25" s="11"/>
       <c r="AA25" s="11"/>
       <c r="AB25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W25:AA25)</f>
         <v>0</v>
       </c>
       <c r="AC25" s="12"/>
@@ -6956,7 +7002,9 @@
       <c r="M26" s="50">
         <v>0</v>
       </c>
-      <c r="N26" s="50"/>
+      <c r="N26" s="50">
+        <v>0</v>
+      </c>
       <c r="O26" s="49"/>
       <c r="P26" s="8">
         <f>SUM(K26:O26)/(A$1)</f>
@@ -6968,7 +7016,7 @@
       <c r="T26" s="11"/>
       <c r="U26" s="11"/>
       <c r="V26" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q26:U26)</f>
         <v>0</v>
       </c>
       <c r="W26" s="12"/>
@@ -6977,7 +7025,7 @@
       <c r="Z26" s="11"/>
       <c r="AA26" s="11"/>
       <c r="AB26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W26:AA26)</f>
         <v>0</v>
       </c>
       <c r="AC26" s="12"/>
@@ -7029,7 +7077,9 @@
       <c r="M27" s="50">
         <v>0</v>
       </c>
-      <c r="N27" s="50"/>
+      <c r="N27" s="50">
+        <v>0</v>
+      </c>
       <c r="O27" s="49"/>
       <c r="P27" s="8">
         <f>SUM(K27:O27)/(A$1)</f>
@@ -7041,7 +7091,7 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q27:U27)</f>
         <v>0</v>
       </c>
       <c r="W27" s="12"/>
@@ -7050,7 +7100,7 @@
       <c r="Z27" s="11"/>
       <c r="AA27" s="11"/>
       <c r="AB27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W27:AA27)</f>
         <v>0</v>
       </c>
       <c r="AC27" s="12"/>
@@ -7102,7 +7152,9 @@
       <c r="M28" s="50">
         <v>0</v>
       </c>
-      <c r="N28" s="50"/>
+      <c r="N28" s="50">
+        <v>0</v>
+      </c>
       <c r="O28" s="49"/>
       <c r="P28" s="8">
         <f>SUM(K28:O28)/(A$1)</f>
@@ -7114,7 +7166,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q28:U28)</f>
         <v>0</v>
       </c>
       <c r="W28" s="12"/>
@@ -7123,7 +7175,7 @@
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
       <c r="AB28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W28:AA28)</f>
         <v>0</v>
       </c>
       <c r="AC28" s="12"/>
@@ -7175,7 +7227,9 @@
       <c r="M29" s="50">
         <v>0</v>
       </c>
-      <c r="N29" s="50"/>
+      <c r="N29" s="50">
+        <v>0</v>
+      </c>
       <c r="O29" s="49"/>
       <c r="P29" s="8">
         <f>SUM(K29:O29)/(A$1)</f>
@@ -7187,7 +7241,7 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q29:U29)</f>
         <v>0</v>
       </c>
       <c r="W29" s="12"/>
@@ -7196,7 +7250,7 @@
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
       <c r="AB29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W29:AA29)</f>
         <v>0</v>
       </c>
       <c r="AC29" s="12"/>
@@ -7248,7 +7302,9 @@
       <c r="M30" s="50">
         <v>0</v>
       </c>
-      <c r="N30" s="50"/>
+      <c r="N30" s="50">
+        <v>0</v>
+      </c>
       <c r="O30" s="49"/>
       <c r="P30" s="8">
         <f>SUM(K30:O30)/(A$1)</f>
@@ -7260,7 +7316,7 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q30:U30)</f>
         <v>0</v>
       </c>
       <c r="W30" s="12"/>
@@ -7269,7 +7325,7 @@
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
       <c r="AB30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W30:AA30)</f>
         <v>0</v>
       </c>
       <c r="AC30" s="12"/>
@@ -7321,7 +7377,9 @@
       <c r="M31" s="50">
         <v>0</v>
       </c>
-      <c r="N31" s="50"/>
+      <c r="N31" s="50">
+        <v>0</v>
+      </c>
       <c r="O31" s="49"/>
       <c r="P31" s="8">
         <f>SUM(K31:O31)/(A$1)</f>
@@ -7333,7 +7391,7 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q31:U31)</f>
         <v>0</v>
       </c>
       <c r="W31" s="12"/>
@@ -7342,7 +7400,7 @@
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
       <c r="AB31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W31:AA31)</f>
         <v>0</v>
       </c>
       <c r="AC31" s="12"/>
@@ -7394,7 +7452,9 @@
       <c r="M32" s="50">
         <v>0</v>
       </c>
-      <c r="N32" s="50"/>
+      <c r="N32" s="50">
+        <v>0</v>
+      </c>
       <c r="O32" s="49"/>
       <c r="P32" s="8">
         <f>SUM(K32:O32)/(A$1)</f>
@@ -7406,7 +7466,7 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q32:U32)</f>
         <v>0</v>
       </c>
       <c r="W32" s="12"/>
@@ -7415,7 +7475,7 @@
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
       <c r="AB32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W32:AA32)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="12"/>
@@ -7467,7 +7527,9 @@
       <c r="M33" s="50">
         <v>0</v>
       </c>
-      <c r="N33" s="50"/>
+      <c r="N33" s="50">
+        <v>0</v>
+      </c>
       <c r="O33" s="49"/>
       <c r="P33" s="8">
         <f>SUM(K33:O33)/(A$1)</f>
@@ -7479,7 +7541,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
       <c r="V33" s="8">
-        <f t="shared" si="0"/>
+        <f>SUM(Q33:U33)</f>
         <v>0</v>
       </c>
       <c r="W33" s="12"/>
@@ -7488,7 +7550,7 @@
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
       <c r="AB33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W33:AA33)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="12"/>
@@ -7540,7 +7602,9 @@
       <c r="M34" s="50">
         <v>0</v>
       </c>
-      <c r="N34" s="50"/>
+      <c r="N34" s="50">
+        <v>0</v>
+      </c>
       <c r="O34" s="51"/>
       <c r="P34" s="52">
         <f>SUM(K34:O34)/(A$1)</f>
@@ -7552,7 +7616,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="10">
-        <f t="shared" si="0"/>
+        <f>SUM(Q34:U34)</f>
         <v>0</v>
       </c>
       <c r="W34" s="7"/>
@@ -7561,7 +7625,7 @@
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
       <c r="AB34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(W34:AA34)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="7"/>
@@ -8713,7 +8777,7 @@
       <c r="V82" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A3:AI34">
+  <sortState ref="A3:AE34">
     <sortCondition descending="1" ref="AE3"/>
   </sortState>
   <mergeCells count="4">

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -852,14 +852,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -955,7 +954,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1264,6 +1263,158 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1317,6 +1468,112 @@
         <patternFill>
           <fgColor auto="1"/>
           <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1650,1660 +1907,1660 @@
     <col min="23" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37">
+    <row r="1" spans="1:22" s="32" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36">
         <v>6</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="51" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="51" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="39" t="s">
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="25" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="29">
-        <v>2</v>
-      </c>
-      <c r="F2" s="29">
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+      <c r="F2" s="28">
         <v>3</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>4</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <v>5</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>6</v>
       </c>
-      <c r="J2" s="29">
+      <c r="J2" s="28">
         <v>7</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="27">
+      <c r="L2" s="26">
         <v>1</v>
       </c>
-      <c r="M2" s="29">
-        <v>2</v>
-      </c>
-      <c r="N2" s="29">
+      <c r="M2" s="28">
+        <v>2</v>
+      </c>
+      <c r="N2" s="28">
         <v>3</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="28">
         <v>4</v>
       </c>
-      <c r="P2" s="29">
+      <c r="P2" s="28">
         <v>5</v>
       </c>
-      <c r="Q2" s="29">
+      <c r="Q2" s="28">
         <v>6</v>
       </c>
-      <c r="R2" s="29">
+      <c r="R2" s="28">
         <v>7</v>
       </c>
-      <c r="S2" s="28" t="s">
+      <c r="S2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="T2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17">
-        <v>2</v>
-      </c>
-      <c r="H3" s="17">
-        <v>2</v>
-      </c>
-      <c r="I3" s="17">
-        <v>2</v>
-      </c>
-      <c r="J3" s="17">
-        <v>2</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>2</v>
+      </c>
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K34" si="0">100*SUM(D3:J3)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="10">
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
         <v>100</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <v>90</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="9">
         <v>80</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>85</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>100</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <f t="shared" ref="R3:R11" si="1">J3*50-10</f>
         <v>90</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <f t="shared" ref="S3:S34" si="2">SUM(L3:R3)/(A$1)</f>
         <v>90.833333333333329</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="6">
         <v>100</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="6">
         <v>100</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="15">
         <f t="shared" ref="V3:V24" si="3">K3*0.2+S3*0.2+T3*0.25+U3*0.35+2</f>
         <v>100.16666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="18">
-        <v>2</v>
-      </c>
-      <c r="E4" s="17">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>2</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
         <v>1.9</v>
       </c>
-      <c r="I4" s="17">
-        <v>2</v>
-      </c>
-      <c r="J4" s="17">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="J4" s="16">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>115.83333333333333</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>100</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>100</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="9">
         <v>80</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="9">
         <v>70</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="9">
         <v>85</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>100</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="6">
         <f t="shared" si="2"/>
         <v>104.16666666666667</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="6">
         <v>75</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="6">
         <v>72</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="15">
         <f t="shared" si="3"/>
         <v>89.95</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="18">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17">
-        <v>2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>2</v>
-      </c>
-      <c r="H5" s="17">
-        <v>2</v>
-      </c>
-      <c r="I5" s="17">
-        <v>2</v>
-      </c>
-      <c r="J5" s="17">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="D5" s="17">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="16">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L5" s="11">
-        <v>0</v>
-      </c>
-      <c r="M5" s="10">
+      <c r="L5" s="10">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
         <v>100</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="9">
         <v>80</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>80</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>85</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>100</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="6">
         <f t="shared" si="2"/>
         <v>89.166666666666671</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="6">
         <v>75</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>82</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="15">
         <f t="shared" si="3"/>
         <v>87.283333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="18">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2</v>
-      </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17">
-        <v>2</v>
-      </c>
-      <c r="H6" s="17">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17">
-        <v>2</v>
-      </c>
-      <c r="J6" s="17">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="D6" s="17">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="16">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="L6" s="11">
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
         <v>100</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
         <v>80</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="9">
         <v>85</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>100</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <f t="shared" si="2"/>
         <v>75.833333333333329</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="6">
         <v>100</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="6">
         <v>80</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="15">
         <f t="shared" si="3"/>
         <v>86.833333333333343</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="17">
-        <v>2</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>2</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2</v>
-      </c>
-      <c r="J7" s="17">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="D7" s="17"/>
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="16">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="L7" s="11">
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
         <v>100</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="9">
         <v>80</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="9">
         <v>80</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="9">
         <v>85</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>100</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <f t="shared" si="2"/>
         <v>89.166666666666671</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <v>75</v>
       </c>
-      <c r="U7" s="7">
+      <c r="U7" s="6">
         <v>75</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="15">
         <f t="shared" si="3"/>
         <v>84.833333333333343</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
+      <c r="D8" s="17">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>2</v>
-      </c>
-      <c r="I8" s="17">
-        <v>2</v>
-      </c>
-      <c r="J8" s="17">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L8" s="11">
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="M8" s="9">
         <v>80</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
+      <c r="N8" s="9">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
         <v>100</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>95</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>100</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <f t="shared" si="2"/>
         <v>77.5</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="6">
         <v>95</v>
       </c>
-      <c r="U8" s="7">
+      <c r="U8" s="6">
         <v>61</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="15">
         <f t="shared" si="3"/>
         <v>77.599999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="18">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="D9" s="17">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
         <v>1.7</v>
       </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-      <c r="J9" s="17">
-        <v>2</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="16">
+        <v>2</v>
+      </c>
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>80.833333333333329</v>
       </c>
-      <c r="L9" s="11">
-        <v>0</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="10">
+      <c r="L9" s="10">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
         <v>80</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="9">
         <v>90</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>85</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>100</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <f t="shared" si="2"/>
         <v>74.166666666666671</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <v>90</v>
       </c>
-      <c r="U9" s="7">
+      <c r="U9" s="6">
         <v>54</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="15">
         <f t="shared" si="3"/>
         <v>74.400000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
         <v>1.8</v>
       </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>1.2</v>
       </c>
-      <c r="I10" s="17">
-        <v>2</v>
-      </c>
-      <c r="J10" s="17">
-        <v>2</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="10">
         <v>100</v>
       </c>
-      <c r="M10" s="10">
-        <v>0</v>
-      </c>
-      <c r="N10" s="10">
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9">
         <v>90</v>
       </c>
-      <c r="O10" s="10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9">
         <v>70</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>100</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="6">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="6">
         <v>80</v>
       </c>
-      <c r="U10" s="7">
+      <c r="U10" s="6">
         <v>53</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="15">
         <f t="shared" si="3"/>
         <v>70.55</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="18">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>2</v>
-      </c>
-      <c r="I11" s="17">
-        <v>2</v>
-      </c>
-      <c r="J11" s="17">
-        <v>2</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L11" s="11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="10">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
         <v>80</v>
       </c>
-      <c r="N11" s="10">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>85</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>100</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="9">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <f t="shared" si="2"/>
         <v>59.166666666666664</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <v>75</v>
       </c>
-      <c r="U11" s="7">
+      <c r="U11" s="6">
         <v>69</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="15">
         <f t="shared" si="3"/>
         <v>70.066666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D12" s="18">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>2</v>
-      </c>
-      <c r="G12" s="17">
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
         <v>1.5</v>
       </c>
-      <c r="H12" s="17">
-        <v>2</v>
-      </c>
-      <c r="I12" s="17">
-        <v>2</v>
-      </c>
-      <c r="J12" s="17">
-        <v>2</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="H12" s="16">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="16">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>79.166666666666671</v>
       </c>
-      <c r="L12" s="11">
-        <v>0</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
+      <c r="L12" s="10">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
         <v>70</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="9">
         <v>70</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="9">
         <v>85</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <v>100</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="9">
         <f>J12*50-20</f>
         <v>80</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <f t="shared" si="2"/>
         <v>67.5</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="6">
         <v>70</v>
       </c>
-      <c r="U12" s="7">
+      <c r="U12" s="6">
         <v>60</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="15">
         <f t="shared" si="3"/>
         <v>69.833333333333343</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="18">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
+      <c r="D13" s="17">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>2</v>
-      </c>
-      <c r="H13" s="17">
-        <v>2</v>
-      </c>
-      <c r="I13" s="17">
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16">
         <v>1</v>
       </c>
-      <c r="J13" s="17">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="16">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="L13" s="11">
-        <v>0</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
         <v>80</v>
       </c>
-      <c r="N13" s="10">
-        <v>0</v>
-      </c>
-      <c r="O13" s="10">
+      <c r="N13" s="9">
+        <v>0</v>
+      </c>
+      <c r="O13" s="9">
         <v>100</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>90</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <v>60</v>
       </c>
-      <c r="R13" s="10">
+      <c r="R13" s="9">
         <f>J13*50-20</f>
         <v>80</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <f t="shared" si="2"/>
         <v>68.333333333333329</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <v>50</v>
       </c>
-      <c r="U13" s="7">
+      <c r="U13" s="6">
         <v>54</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="15">
         <f t="shared" si="3"/>
         <v>60.4</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>2</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
+      <c r="D14" s="17">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
         <v>1.6</v>
       </c>
-      <c r="I14" s="17">
-        <v>2</v>
-      </c>
-      <c r="J14" s="17">
-        <v>2</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="I14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>2</v>
+      </c>
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>63.333333333333336</v>
       </c>
-      <c r="L14" s="11">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10">
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9">
         <v>90</v>
       </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="10">
         <v>90</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>100</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R14" s="9">
         <f>J14*50-10</f>
         <v>90</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="6">
         <f t="shared" si="2"/>
         <v>61.666666666666664</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="6">
         <v>60</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="6">
         <v>50</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="15">
         <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="17">
         <v>1</v>
       </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>0</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>2</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="16">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>41.666666666666664</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>80</v>
       </c>
-      <c r="M15" s="10">
-        <v>0</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0</v>
-      </c>
-      <c r="O15" s="10">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="10">
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9">
         <v>100</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="9">
         <f>J15*50-20</f>
         <v>80</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <f t="shared" si="2"/>
         <v>43.333333333333336</v>
       </c>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7">
+      <c r="T15" s="6"/>
+      <c r="U15" s="6">
         <v>26</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="15">
         <f t="shared" si="3"/>
         <v>28.1</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="18">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>2</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <v>2</v>
-      </c>
-      <c r="I16" s="17">
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>2</v>
+      </c>
+      <c r="I16" s="16">
         <v>0.3</v>
       </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
         <f t="shared" si="0"/>
         <v>35.833333333333336</v>
       </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0</v>
-      </c>
-      <c r="N16" s="10">
+      <c r="L16" s="10">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9">
         <v>50</v>
       </c>
-      <c r="O16" s="10">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11">
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <v>85</v>
       </c>
-      <c r="Q16" s="10">
+      <c r="Q16" s="9">
         <v>30</v>
       </c>
-      <c r="R16" s="10">
+      <c r="R16" s="9">
         <f t="shared" ref="R16:R34" si="4">J16*50</f>
         <v>0</v>
       </c>
-      <c r="S16" s="7">
+      <c r="S16" s="6">
         <f t="shared" si="2"/>
         <v>27.5</v>
       </c>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7">
+      <c r="T16" s="6"/>
+      <c r="U16" s="6">
         <v>22</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="15">
         <f t="shared" si="3"/>
         <v>22.366666666666667</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <v>1</v>
       </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>2</v>
-      </c>
-      <c r="J17" s="17">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="10">
         <v>80</v>
       </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0</v>
-      </c>
-      <c r="O17" s="10">
-        <v>0</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="10">
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0</v>
+      </c>
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
         <v>100</v>
       </c>
-      <c r="R17" s="10">
+      <c r="R17" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7">
+      <c r="T17" s="6"/>
+      <c r="U17" s="6">
         <v>22</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="15">
         <f t="shared" si="3"/>
         <v>20.7</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>2</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="D18" s="17">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="L18" s="11">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10">
-        <v>0</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
         <v>85</v>
       </c>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10">
+      <c r="Q18" s="9">
+        <v>0</v>
+      </c>
+      <c r="R18" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S18" s="7">
+      <c r="S18" s="6">
         <f t="shared" si="2"/>
         <v>14.166666666666666</v>
       </c>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7">
+      <c r="T18" s="6"/>
+      <c r="U18" s="6">
         <v>30</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="15">
         <f t="shared" si="3"/>
         <v>18.666666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-      <c r="O19" s="11">
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0</v>
-      </c>
-      <c r="R19" s="10">
+      <c r="L19" s="10">
+        <v>0</v>
+      </c>
+      <c r="M19" s="10">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <v>0</v>
+      </c>
+      <c r="O19" s="10">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7">
+      <c r="T19" s="6"/>
+      <c r="U19" s="6">
         <v>26</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="15">
         <f t="shared" si="3"/>
         <v>11.1</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>2</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>2</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
         <f t="shared" si="0"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="L20" s="11">
-        <v>0</v>
-      </c>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="10">
+      <c r="L20" s="10">
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9">
         <v>100</v>
       </c>
-      <c r="R20" s="10">
+      <c r="R20" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S20" s="7">
+      <c r="S20" s="6">
         <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="16">
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="15">
         <f t="shared" si="3"/>
         <v>8.6666666666666679</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0</v>
-      </c>
-      <c r="R21" s="10">
+      <c r="L21" s="10">
+        <v>0</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7">
+      <c r="T21" s="6"/>
+      <c r="U21" s="6">
         <v>19</v>
       </c>
-      <c r="V21" s="16">
+      <c r="V21" s="15">
         <f t="shared" si="3"/>
         <v>8.6499999999999986</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="11">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
-        <v>0</v>
-      </c>
-      <c r="O22" s="11">
-        <v>0</v>
-      </c>
-      <c r="P22" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>0</v>
-      </c>
-      <c r="R22" s="10">
+      <c r="L22" s="10">
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S22" s="7">
+      <c r="S22" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7">
+      <c r="T22" s="6"/>
+      <c r="U22" s="6">
         <v>18</v>
       </c>
-      <c r="V22" s="16">
+      <c r="V22" s="15">
         <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
         <v>1.25</v>
       </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
         <f t="shared" si="0"/>
         <v>10.416666666666666</v>
       </c>
-      <c r="L23" s="11">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
+      <c r="L23" s="10">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9">
         <v>85</v>
       </c>
-      <c r="N23" s="11">
-        <v>0</v>
-      </c>
-      <c r="O23" s="11">
-        <v>0</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>0</v>
-      </c>
-      <c r="R23" s="10">
+      <c r="N23" s="10">
+        <v>0</v>
+      </c>
+      <c r="O23" s="10">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0</v>
+      </c>
+      <c r="R23" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="6">
         <f t="shared" si="2"/>
         <v>14.166666666666666</v>
       </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="16">
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="15">
         <f t="shared" si="3"/>
         <v>6.916666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
         <f t="shared" si="0"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="10">
         <v>80</v>
       </c>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
-        <v>0</v>
-      </c>
-      <c r="O24" s="11">
-        <v>0</v>
-      </c>
-      <c r="P24" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>0</v>
-      </c>
-      <c r="R24" s="10">
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="6">
         <f t="shared" si="2"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="16">
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="15">
         <f t="shared" si="3"/>
         <v>6.3333333333333339</v>
       </c>
@@ -3312,672 +3569,672 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-      <c r="N25" s="11">
-        <v>0</v>
-      </c>
-      <c r="O25" s="11">
-        <v>0</v>
-      </c>
-      <c r="P25" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>0</v>
-      </c>
-      <c r="R25" s="10">
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>0</v>
+      </c>
+      <c r="P25" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="16">
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="11">
-        <v>0</v>
-      </c>
-      <c r="M26" s="11">
-        <v>0</v>
-      </c>
-      <c r="N26" s="11">
-        <v>0</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0</v>
-      </c>
-      <c r="P26" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0</v>
-      </c>
-      <c r="R26" s="10">
+      <c r="L26" s="10">
+        <v>0</v>
+      </c>
+      <c r="M26" s="10">
+        <v>0</v>
+      </c>
+      <c r="N26" s="10">
+        <v>0</v>
+      </c>
+      <c r="O26" s="10">
+        <v>0</v>
+      </c>
+      <c r="P26" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S26" s="7">
+      <c r="S26" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="16">
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="11">
-        <v>0</v>
-      </c>
-      <c r="M27" s="11">
-        <v>0</v>
-      </c>
-      <c r="N27" s="11">
-        <v>0</v>
-      </c>
-      <c r="O27" s="11">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="10">
-        <v>0</v>
-      </c>
-      <c r="R27" s="10">
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="N27" s="10">
+        <v>0</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S27" s="7">
+      <c r="S27" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="16">
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="11">
-        <v>0</v>
-      </c>
-      <c r="M28" s="11">
-        <v>0</v>
-      </c>
-      <c r="N28" s="11">
-        <v>0</v>
-      </c>
-      <c r="O28" s="11">
-        <v>0</v>
-      </c>
-      <c r="P28" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="10">
-        <v>0</v>
-      </c>
-      <c r="R28" s="10">
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
+      </c>
+      <c r="N28" s="10">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="P28" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S28" s="7">
+      <c r="S28" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="16">
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
-        <v>0</v>
-      </c>
-      <c r="K29" s="7">
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="11">
-        <v>0</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0</v>
-      </c>
-      <c r="N29" s="11">
-        <v>0</v>
-      </c>
-      <c r="O29" s="11">
-        <v>0</v>
-      </c>
-      <c r="P29" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="10">
-        <v>0</v>
-      </c>
-      <c r="R29" s="10">
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S29" s="7">
+      <c r="S29" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="16">
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="7">
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="11">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>0</v>
-      </c>
-      <c r="N30" s="11">
-        <v>0</v>
-      </c>
-      <c r="O30" s="11">
-        <v>0</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="10">
-        <v>0</v>
-      </c>
-      <c r="R30" s="10">
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0</v>
+      </c>
+      <c r="R30" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S30" s="7">
+      <c r="S30" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="16">
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
-        <v>0</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="11">
-        <v>0</v>
-      </c>
-      <c r="M31" s="11">
-        <v>0</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-      <c r="O31" s="11">
-        <v>0</v>
-      </c>
-      <c r="P31" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>0</v>
-      </c>
-      <c r="R31" s="10">
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
+        <v>0</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="16">
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="11">
-        <v>0</v>
-      </c>
-      <c r="M32" s="11">
-        <v>0</v>
-      </c>
-      <c r="N32" s="11">
-        <v>0</v>
-      </c>
-      <c r="O32" s="11">
-        <v>0</v>
-      </c>
-      <c r="P32" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>0</v>
-      </c>
-      <c r="R32" s="10">
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>0</v>
+      </c>
+      <c r="R32" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="16">
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="40">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="39">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="11">
-        <v>0</v>
-      </c>
-      <c r="M33" s="11">
-        <v>0</v>
-      </c>
-      <c r="N33" s="11">
-        <v>0</v>
-      </c>
-      <c r="O33" s="11">
-        <v>0</v>
-      </c>
-      <c r="P33" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>0</v>
-      </c>
-      <c r="R33" s="10">
+      <c r="L33" s="10">
+        <v>0</v>
+      </c>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9">
+        <v>0</v>
+      </c>
+      <c r="R33" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="16">
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="12">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="11">
-        <v>0</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0</v>
-      </c>
-      <c r="O34" s="11">
-        <v>0</v>
-      </c>
-      <c r="P34" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="8">
-        <v>0</v>
-      </c>
-      <c r="R34" s="10">
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="M34" s="10">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T34" s="9"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="16">
+      <c r="T34" s="8"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="15">
         <v>0</v>
       </c>
     </row>
@@ -5033,14 +5290,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="33" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5101,18 +5358,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="61" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5207,7 +5464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA16" sqref="AA16"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5231,2313 +5488,2375 @@
     <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="33" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37">
+    <row r="1" spans="1:21" s="32" customFormat="1" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36">
         <v>5</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51" t="s">
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="51" t="s">
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="38" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="25" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:21" s="24" customFormat="1" ht="11.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="40">
         <v>1</v>
       </c>
-      <c r="F2" s="29">
-        <v>2</v>
-      </c>
-      <c r="G2" s="29">
+      <c r="F2" s="28">
+        <v>2</v>
+      </c>
+      <c r="G2" s="28">
         <v>3</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <v>4</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>5</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="27">
+      <c r="K2" s="26">
         <v>1</v>
       </c>
-      <c r="L2" s="29">
-        <v>2</v>
-      </c>
-      <c r="M2" s="31">
+      <c r="L2" s="28">
+        <v>2</v>
+      </c>
+      <c r="M2" s="30">
         <v>3</v>
       </c>
-      <c r="N2" s="31">
+      <c r="N2" s="30">
         <v>4</v>
       </c>
-      <c r="O2" s="29">
+      <c r="O2" s="28">
         <v>5</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="P2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="27">
+      <c r="Q2" s="26">
         <v>1</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="25" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>100.16666666666667</v>
       </c>
-      <c r="E3" s="42">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17">
-        <v>2</v>
-      </c>
-      <c r="G3" s="17">
-        <v>2</v>
-      </c>
-      <c r="H3" s="17">
-        <v>2</v>
-      </c>
-      <c r="I3" s="17">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
-        <f>100*SUM(E3:I3)/(2*A$1)</f>
+      <c r="E3" s="41">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>2</v>
+      </c>
+      <c r="G3" s="16">
+        <v>2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>2</v>
+      </c>
+      <c r="I3" s="16">
+        <v>2</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J34" si="0">100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>80</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="46">
         <v>100</v>
       </c>
-      <c r="M3" s="49">
+      <c r="M3" s="48">
         <v>100</v>
       </c>
-      <c r="N3" s="49">
+      <c r="N3" s="48">
         <v>100</v>
       </c>
-      <c r="O3" s="48">
-        <f>I3*45</f>
+      <c r="O3" s="47">
+        <f t="shared" ref="O3:O34" si="1">I3*45</f>
         <v>90</v>
       </c>
-      <c r="P3" s="7">
-        <f>SUM(K3:O3)/(A$1)</f>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P34" si="2">SUM(K3:O3)/(A$1)</f>
         <v>94</v>
       </c>
-      <c r="Q3" s="49">
+      <c r="Q3" s="48">
         <v>80</v>
       </c>
-      <c r="R3" s="7">
-        <f>SUM(Q3:Q3)</f>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R34" si="3">SUM(Q3:Q3)</f>
         <v>80</v>
       </c>
-      <c r="S3" s="11"/>
-      <c r="T3" s="16">
-        <f>J3*0.15+P3*0.25+R3*0.25+S3*0.35</f>
-        <v>58.5</v>
-      </c>
-      <c r="U3" s="16">
-        <f>D3*0.4+T3*0.6</f>
-        <v>75.166666666666671</v>
+      <c r="S3" s="47">
+        <v>115</v>
+      </c>
+      <c r="T3" s="15">
+        <f t="shared" ref="T3:T34" si="4">J3*0.15+P3*0.25+R3*0.25+S3*0.35</f>
+        <v>98.75</v>
+      </c>
+      <c r="U3" s="15">
+        <f t="shared" ref="U3:U34" si="5">D3*0.4+T3*0.6</f>
+        <v>99.316666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>89.95</v>
       </c>
-      <c r="E4" s="42">
-        <v>2</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
-        <v>2</v>
-      </c>
-      <c r="H4" s="17">
-        <v>2</v>
-      </c>
-      <c r="I4" s="17">
+      <c r="E4" s="41">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>2</v>
+      </c>
+      <c r="H4" s="16">
+        <v>2</v>
+      </c>
+      <c r="I4" s="16">
         <v>1.9</v>
       </c>
-      <c r="J4" s="7">
-        <f>100*SUM(E4:I4)/(2*A$1)</f>
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>80</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="46">
         <v>100</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>100</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>100</v>
       </c>
-      <c r="O4" s="48">
-        <f>I4*45</f>
+      <c r="O4" s="47">
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
-      <c r="P4" s="7">
-        <f>SUM(K4:O4)/(A$1)</f>
+      <c r="P4" s="6">
+        <f t="shared" si="2"/>
         <v>93.1</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="48">
         <v>69</v>
       </c>
-      <c r="R4" s="7">
-        <f>SUM(Q4:Q4)</f>
+      <c r="R4" s="6">
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="16">
-        <f>J4*0.15+P4*0.25+R4*0.25+S4*0.35</f>
-        <v>55.375</v>
-      </c>
-      <c r="U4" s="16">
-        <f>D4*0.4+T4*0.6</f>
-        <v>69.205000000000013</v>
+      <c r="S4" s="47">
+        <v>50</v>
+      </c>
+      <c r="T4" s="15">
+        <f t="shared" si="4"/>
+        <v>72.875</v>
+      </c>
+      <c r="U4" s="15">
+        <f t="shared" si="5"/>
+        <v>79.705000000000013</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>86.833333333333343</v>
       </c>
-      <c r="E5" s="42">
-        <v>2</v>
-      </c>
-      <c r="F5" s="17">
-        <v>2</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>2</v>
-      </c>
-      <c r="I5" s="17">
-        <v>2</v>
-      </c>
-      <c r="J5" s="7">
-        <f>100*SUM(E5:I5)/(2*A$1)</f>
+      <c r="E5" s="41">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>2</v>
+      </c>
+      <c r="I5" s="16">
+        <v>2</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>80</v>
       </c>
-      <c r="L5" s="47">
+      <c r="L5" s="46">
         <v>100</v>
       </c>
-      <c r="M5" s="49">
-        <v>0</v>
-      </c>
-      <c r="N5" s="49">
+      <c r="M5" s="48">
+        <v>0</v>
+      </c>
+      <c r="N5" s="48">
         <v>100</v>
       </c>
-      <c r="O5" s="48">
-        <f>I5*45</f>
+      <c r="O5" s="47">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P5" s="7">
-        <f>SUM(K5:O5)/(A$1)</f>
+      <c r="P5" s="6">
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="Q5" s="49">
+      <c r="Q5" s="48">
         <v>100</v>
       </c>
-      <c r="R5" s="7">
-        <f>SUM(Q5:Q5)</f>
+      <c r="R5" s="6">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="S5" s="11"/>
-      <c r="T5" s="16">
-        <f>J5*0.15+P5*0.25+R5*0.25+S5*0.35</f>
-        <v>55.5</v>
-      </c>
-      <c r="U5" s="16">
-        <f>D5*0.4+T5*0.6</f>
-        <v>68.033333333333331</v>
+      <c r="S5" s="47">
+        <v>50</v>
+      </c>
+      <c r="T5" s="15">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="U5" s="15">
+        <f t="shared" si="5"/>
+        <v>78.533333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>70.55</v>
       </c>
-      <c r="E6" s="42">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>2</v>
-      </c>
-      <c r="G6" s="17">
-        <v>2</v>
-      </c>
-      <c r="H6" s="17">
-        <v>2</v>
-      </c>
-      <c r="I6" s="17">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7">
-        <f>100*SUM(E6:I6)/(2*A$1)</f>
+      <c r="E6" s="41">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>2</v>
+      </c>
+      <c r="I6" s="16">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K6" s="11">
-        <v>0</v>
-      </c>
-      <c r="L6" s="47">
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="46">
         <v>100</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="48">
         <v>100</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="48">
         <v>100</v>
       </c>
-      <c r="O6" s="48">
-        <f>I6*45</f>
+      <c r="O6" s="47">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P6" s="7">
-        <f>SUM(K6:O6)/(A$1)</f>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="48">
         <v>99</v>
       </c>
-      <c r="R6" s="7">
-        <f>SUM(Q6:Q6)</f>
+      <c r="R6" s="6">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="S6" s="11"/>
-      <c r="T6" s="16">
-        <f>J6*0.15+P6*0.25+R6*0.25+S6*0.35</f>
-        <v>56.25</v>
-      </c>
-      <c r="U6" s="16">
-        <f>D6*0.4+T6*0.6</f>
-        <v>61.97</v>
+      <c r="S6" s="47">
+        <v>50</v>
+      </c>
+      <c r="T6" s="15">
+        <f t="shared" si="4"/>
+        <v>73.75</v>
+      </c>
+      <c r="U6" s="15">
+        <f t="shared" si="5"/>
+        <v>72.47</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>87.283333333333331</v>
       </c>
-      <c r="E7" s="42">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>2</v>
-      </c>
-      <c r="G7" s="17">
-        <v>2</v>
-      </c>
-      <c r="H7" s="17">
-        <v>2</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <f>100*SUM(E7:I7)/(2*A$1)</f>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="H7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16">
+        <v>2</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="47">
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="46">
         <v>100</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="48">
         <v>100</v>
       </c>
-      <c r="N7" s="49">
+      <c r="N7" s="48">
         <v>60</v>
       </c>
-      <c r="O7" s="48">
-        <f>I7*45</f>
+      <c r="O7" s="47">
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="P7" s="7">
-        <f>SUM(K7:O7)/(A$1)</f>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="Q7" s="49">
+      <c r="Q7" s="48">
         <v>54</v>
       </c>
-      <c r="R7" s="7">
-        <f>SUM(Q7:Q7)</f>
+      <c r="R7" s="6">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="S7" s="11"/>
-      <c r="T7" s="16">
-        <f>J7*0.15+P7*0.25+R7*0.25+S7*0.35</f>
+      <c r="S7" s="47">
+        <v>50</v>
+      </c>
+      <c r="T7" s="15">
+        <f t="shared" si="4"/>
+        <v>60.5</v>
+      </c>
+      <c r="U7" s="15">
+        <f t="shared" si="5"/>
+        <v>71.213333333333338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="10">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E8" s="41">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="K8" s="10">
+        <v>60</v>
+      </c>
+      <c r="L8" s="46">
+        <v>0</v>
+      </c>
+      <c r="M8" s="48">
+        <v>100</v>
+      </c>
+      <c r="N8" s="48">
+        <v>100</v>
+      </c>
+      <c r="O8" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>94</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="S8" s="47">
+        <v>50</v>
+      </c>
+      <c r="T8" s="15">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="5"/>
+        <v>71.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="10">
+        <v>84.833333333333343</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16">
+        <v>2</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0</v>
+      </c>
+      <c r="L9" s="46">
+        <v>100</v>
+      </c>
+      <c r="M9" s="48">
+        <v>100</v>
+      </c>
+      <c r="N9" s="48">
+        <v>60</v>
+      </c>
+      <c r="O9" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>40</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S9" s="47">
+        <v>50</v>
+      </c>
+      <c r="T9" s="15">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="U9" s="15">
+        <f t="shared" si="5"/>
+        <v>68.133333333333326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E10" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="K10" s="10">
+        <v>80</v>
+      </c>
+      <c r="L10" s="46">
+        <v>0</v>
+      </c>
+      <c r="M10" s="48">
+        <v>100</v>
+      </c>
+      <c r="N10" s="48">
+        <v>100</v>
+      </c>
+      <c r="O10" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>50</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S10" s="47">
+        <v>50</v>
+      </c>
+      <c r="T10" s="15">
+        <f t="shared" si="4"/>
+        <v>59.45</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="5"/>
+        <v>66.710000000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="10">
+        <v>69.833333333333343</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="46">
+        <v>0</v>
+      </c>
+      <c r="M11" s="48">
+        <v>100</v>
+      </c>
+      <c r="N11" s="48">
+        <v>60</v>
+      </c>
+      <c r="O11" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q11" s="48">
+        <v>95</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="S11" s="47">
+        <v>50</v>
+      </c>
+      <c r="T11" s="15">
+        <f t="shared" si="4"/>
+        <v>62.75</v>
+      </c>
+      <c r="U11" s="15">
+        <f t="shared" si="5"/>
+        <v>65.583333333333343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="10">
+        <v>70.066666666666663</v>
+      </c>
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="K12" s="10">
+        <v>55</v>
+      </c>
+      <c r="L12" s="46">
+        <v>100</v>
+      </c>
+      <c r="M12" s="48">
+        <v>0</v>
+      </c>
+      <c r="N12" s="48">
+        <v>100</v>
+      </c>
+      <c r="O12" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="Q12" s="48">
+        <v>64</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="S12" s="47">
+        <v>50</v>
+      </c>
+      <c r="T12" s="15">
+        <f t="shared" si="4"/>
+        <v>61.25</v>
+      </c>
+      <c r="U12" s="15">
+        <f t="shared" si="5"/>
+        <v>64.776666666666671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="10">
+        <v>60.4</v>
+      </c>
+      <c r="E13" s="41">
+        <v>1.3</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K13" s="10">
+        <v>80</v>
+      </c>
+      <c r="L13" s="46">
+        <v>0</v>
+      </c>
+      <c r="M13" s="48">
+        <v>100</v>
+      </c>
+      <c r="N13" s="48">
+        <v>0</v>
+      </c>
+      <c r="O13" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>95</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="S13" s="47">
+        <v>50</v>
+      </c>
+      <c r="T13" s="15">
+        <f t="shared" si="4"/>
+        <v>62.7</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" si="5"/>
+        <v>61.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="10">
+        <v>59.5</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16">
+        <v>2</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0</v>
+      </c>
+      <c r="L14" s="46">
+        <v>0</v>
+      </c>
+      <c r="M14" s="48">
+        <v>0</v>
+      </c>
+      <c r="N14" s="48">
+        <v>60</v>
+      </c>
+      <c r="O14" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q14" s="48">
+        <v>60</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="S14" s="47">
+        <v>50</v>
+      </c>
+      <c r="T14" s="15">
+        <f t="shared" si="4"/>
+        <v>44.5</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="5"/>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="10">
+        <v>28.1</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="46">
+        <v>100</v>
+      </c>
+      <c r="M15" s="48">
+        <v>100</v>
+      </c>
+      <c r="N15" s="48">
+        <v>0</v>
+      </c>
+      <c r="O15" s="47">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="Q15" s="48">
+        <v>60</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="S15" s="47">
+        <v>50</v>
+      </c>
+      <c r="T15" s="15">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="U15" s="15">
+        <f t="shared" si="5"/>
+        <v>44.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="10">
+        <v>20.7</v>
+      </c>
+      <c r="E16" s="41">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="K16" s="10">
+        <v>55</v>
+      </c>
+      <c r="L16" s="46">
+        <v>0</v>
+      </c>
+      <c r="M16" s="48">
+        <v>0</v>
+      </c>
+      <c r="N16" s="48">
+        <v>0</v>
+      </c>
+      <c r="O16" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q16" s="48">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="47">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <f t="shared" si="4"/>
+        <v>4.25</v>
+      </c>
+      <c r="U16" s="15">
+        <f t="shared" si="5"/>
+        <v>10.829999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="10">
+        <v>22.366666666666667</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <v>0</v>
+      </c>
+      <c r="L17" s="46">
+        <v>0</v>
+      </c>
+      <c r="M17" s="48">
+        <v>0</v>
+      </c>
+      <c r="N17" s="48">
+        <v>0</v>
+      </c>
+      <c r="O17" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="47">
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <f t="shared" si="5"/>
+        <v>8.9466666666666672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="10">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <v>0</v>
+      </c>
+      <c r="L18" s="46">
+        <v>0</v>
+      </c>
+      <c r="M18" s="48">
+        <v>0</v>
+      </c>
+      <c r="N18" s="48">
+        <v>0</v>
+      </c>
+      <c r="O18" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="48">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="47">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <f t="shared" si="5"/>
+        <v>7.4666666666666677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="E19" s="41">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="46">
+        <v>0</v>
+      </c>
+      <c r="M19" s="48">
+        <v>0</v>
+      </c>
+      <c r="N19" s="48">
+        <v>0</v>
+      </c>
+      <c r="O19" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="48">
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="47">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <f t="shared" si="5"/>
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="10">
+        <v>8.6666666666666679</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="46">
+        <v>0</v>
+      </c>
+      <c r="M20" s="48">
+        <v>0</v>
+      </c>
+      <c r="N20" s="48">
+        <v>0</v>
+      </c>
+      <c r="O20" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="48">
+        <v>0</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="47">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <f t="shared" si="5"/>
+        <v>3.4666666666666672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="10">
+        <v>8.6499999999999986</v>
+      </c>
+      <c r="E21" s="41">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <v>0</v>
+      </c>
+      <c r="L21" s="46">
+        <v>0</v>
+      </c>
+      <c r="M21" s="48">
+        <v>0</v>
+      </c>
+      <c r="N21" s="48">
+        <v>0</v>
+      </c>
+      <c r="O21" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="47">
+        <v>0</v>
+      </c>
+      <c r="T21" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="15">
+        <f t="shared" si="5"/>
+        <v>3.4599999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E22" s="41">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <v>0</v>
+      </c>
+      <c r="L22" s="46">
+        <v>0</v>
+      </c>
+      <c r="M22" s="48">
+        <v>0</v>
+      </c>
+      <c r="N22" s="48">
+        <v>0</v>
+      </c>
+      <c r="O22" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="48">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="47">
+        <v>0</v>
+      </c>
+      <c r="T22" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15">
+        <f t="shared" si="5"/>
+        <v>3.3200000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="16">
-        <f>D7*0.4+T7*0.6</f>
-        <v>60.713333333333338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="11">
-        <v>74.400000000000006</v>
-      </c>
-      <c r="E8" s="42">
-        <v>1</v>
-      </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17">
-        <v>2</v>
-      </c>
-      <c r="H8" s="17">
-        <v>2</v>
-      </c>
-      <c r="I8" s="17">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <f>100*SUM(E8:I8)/(2*A$1)</f>
-        <v>70</v>
-      </c>
-      <c r="K8" s="11">
-        <v>60</v>
-      </c>
-      <c r="L8" s="47">
-        <v>0</v>
-      </c>
-      <c r="M8" s="49">
-        <v>100</v>
-      </c>
-      <c r="N8" s="49">
-        <v>100</v>
-      </c>
-      <c r="O8" s="48">
-        <f>I8*45</f>
-        <v>90</v>
-      </c>
-      <c r="P8" s="7">
-        <f>SUM(K8:O8)/(A$1)</f>
-        <v>70</v>
-      </c>
-      <c r="Q8" s="49">
+      <c r="C23" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="10">
+        <v>6.916666666666667</v>
+      </c>
+      <c r="E23" s="41">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <v>0</v>
+      </c>
+      <c r="L23" s="46">
+        <v>0</v>
+      </c>
+      <c r="M23" s="48">
+        <v>0</v>
+      </c>
+      <c r="N23" s="48">
+        <v>0</v>
+      </c>
+      <c r="O23" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="47">
+        <v>0</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="15">
+        <f t="shared" si="5"/>
+        <v>2.7666666666666671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="10">
+        <v>6.3333333333333339</v>
+      </c>
+      <c r="E24" s="41">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <v>0</v>
+      </c>
+      <c r="L24" s="46">
+        <v>0</v>
+      </c>
+      <c r="M24" s="48">
+        <v>0</v>
+      </c>
+      <c r="N24" s="48">
+        <v>0</v>
+      </c>
+      <c r="O24" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="48">
+        <v>0</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="47">
+        <v>0</v>
+      </c>
+      <c r="T24" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <f t="shared" si="5"/>
+        <v>2.5333333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0</v>
+      </c>
+      <c r="E25" s="41">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="10">
+        <v>0</v>
+      </c>
+      <c r="L25" s="46">
+        <v>0</v>
+      </c>
+      <c r="M25" s="48">
+        <v>0</v>
+      </c>
+      <c r="N25" s="48">
+        <v>0</v>
+      </c>
+      <c r="O25" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="48">
+        <v>0</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="47">
+        <v>0</v>
+      </c>
+      <c r="T25" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="7">
-        <f>SUM(Q8:Q8)</f>
-        <v>94</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="16">
-        <f>J8*0.15+P8*0.25+R8*0.25+S8*0.35</f>
-        <v>51.5</v>
-      </c>
-      <c r="U8" s="16">
-        <f>D8*0.4+T8*0.6</f>
-        <v>60.660000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="11">
-        <v>84.833333333333343</v>
-      </c>
-      <c r="E9" s="42">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-      <c r="J9" s="7">
-        <f>100*SUM(E9:I9)/(2*A$1)</f>
-        <v>80</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="47">
-        <v>100</v>
-      </c>
-      <c r="M9" s="49">
-        <v>100</v>
-      </c>
-      <c r="N9" s="49">
-        <v>60</v>
-      </c>
-      <c r="O9" s="48">
-        <f>I9*45</f>
-        <v>90</v>
-      </c>
-      <c r="P9" s="7">
-        <f>SUM(K9:O9)/(A$1)</f>
-        <v>70</v>
-      </c>
-      <c r="Q9" s="49">
+      <c r="D26" s="10">
+        <v>0</v>
+      </c>
+      <c r="E26" s="41">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10">
+        <v>0</v>
+      </c>
+      <c r="L26" s="46">
+        <v>0</v>
+      </c>
+      <c r="M26" s="48">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48">
+        <v>0</v>
+      </c>
+      <c r="O26" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="48">
+        <v>0</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="47">
+        <v>0</v>
+      </c>
+      <c r="T26" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0</v>
+      </c>
+      <c r="E27" s="41">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="10">
+        <v>0</v>
+      </c>
+      <c r="L27" s="46">
+        <v>0</v>
+      </c>
+      <c r="M27" s="48">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48">
+        <v>0</v>
+      </c>
+      <c r="O27" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="48">
+        <v>0</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="47">
+        <v>0</v>
+      </c>
+      <c r="T27" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="7">
-        <f>SUM(Q9:Q9)</f>
-        <v>40</v>
-      </c>
-      <c r="S9" s="11"/>
-      <c r="T9" s="16">
-        <f>J9*0.15+P9*0.25+R9*0.25+S9*0.35</f>
-        <v>39.5</v>
-      </c>
-      <c r="U9" s="16">
-        <f>D9*0.4+T9*0.6</f>
-        <v>57.63333333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="11">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="E10" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>2</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2</v>
-      </c>
-      <c r="I10" s="17">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7">
-        <f>100*SUM(E10:I10)/(2*A$1)</f>
-        <v>73</v>
-      </c>
-      <c r="K10" s="11">
-        <v>80</v>
-      </c>
-      <c r="L10" s="47">
-        <v>0</v>
-      </c>
-      <c r="M10" s="49">
-        <v>100</v>
-      </c>
-      <c r="N10" s="49">
-        <v>100</v>
-      </c>
-      <c r="O10" s="48">
-        <f>I10*45</f>
-        <v>90</v>
-      </c>
-      <c r="P10" s="7">
-        <f>SUM(K10:O10)/(A$1)</f>
+      <c r="C28" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0</v>
+      </c>
+      <c r="E28" s="41">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="10">
+        <v>0</v>
+      </c>
+      <c r="L28" s="46">
+        <v>0</v>
+      </c>
+      <c r="M28" s="48">
+        <v>0</v>
+      </c>
+      <c r="N28" s="48">
+        <v>0</v>
+      </c>
+      <c r="O28" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="48">
+        <v>0</v>
+      </c>
+      <c r="R28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="47">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q10" s="49">
-        <v>50</v>
-      </c>
-      <c r="R10" s="7">
-        <f>SUM(Q10:Q10)</f>
-        <v>50</v>
-      </c>
-      <c r="S10" s="11"/>
-      <c r="T10" s="16">
-        <f>J10*0.15+P10*0.25+R10*0.25+S10*0.35</f>
-        <v>41.95</v>
-      </c>
-      <c r="U10" s="16">
-        <f>D10*0.4+T10*0.6</f>
-        <v>56.21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="11">
-        <v>69.833333333333343</v>
-      </c>
-      <c r="E11" s="42">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>2</v>
-      </c>
-      <c r="H11" s="17">
-        <v>2</v>
-      </c>
-      <c r="I11" s="17">
-        <v>2</v>
-      </c>
-      <c r="J11" s="7">
-        <f>100*SUM(E11:I11)/(2*A$1)</f>
-        <v>60</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="47">
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
-        <v>100</v>
-      </c>
-      <c r="N11" s="49">
-        <v>60</v>
-      </c>
-      <c r="O11" s="48">
-        <f>I11*45</f>
-        <v>90</v>
-      </c>
-      <c r="P11" s="7">
-        <f>SUM(K11:O11)/(A$1)</f>
-        <v>50</v>
-      </c>
-      <c r="Q11" s="49">
-        <v>95</v>
-      </c>
-      <c r="R11" s="7">
-        <f>SUM(Q11:Q11)</f>
-        <v>95</v>
-      </c>
-      <c r="S11" s="11"/>
-      <c r="T11" s="16">
-        <f>J11*0.15+P11*0.25+R11*0.25+S11*0.35</f>
-        <v>45.25</v>
-      </c>
-      <c r="U11" s="16">
-        <f>D11*0.4+T11*0.6</f>
-        <v>55.083333333333336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="11">
-        <v>70.066666666666663</v>
-      </c>
-      <c r="E12" s="42">
-        <v>1</v>
-      </c>
-      <c r="F12" s="17">
-        <v>2</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2</v>
-      </c>
-      <c r="I12" s="17">
-        <v>2</v>
-      </c>
-      <c r="J12" s="7">
-        <f>100*SUM(E12:I12)/(2*A$1)</f>
-        <v>70</v>
-      </c>
-      <c r="K12" s="11">
-        <v>55</v>
-      </c>
-      <c r="L12" s="47">
-        <v>100</v>
-      </c>
-      <c r="M12" s="49">
-        <v>0</v>
-      </c>
-      <c r="N12" s="49">
-        <v>100</v>
-      </c>
-      <c r="O12" s="48">
-        <f>I12*45</f>
-        <v>90</v>
-      </c>
-      <c r="P12" s="7">
-        <f>SUM(K12:O12)/(A$1)</f>
-        <v>69</v>
-      </c>
-      <c r="Q12" s="49">
-        <v>64</v>
-      </c>
-      <c r="R12" s="7">
-        <f>SUM(Q12:Q12)</f>
-        <v>64</v>
-      </c>
-      <c r="S12" s="11"/>
-      <c r="T12" s="16">
-        <f>J12*0.15+P12*0.25+R12*0.25+S12*0.35</f>
-        <v>43.75</v>
-      </c>
-      <c r="U12" s="16">
-        <f>D12*0.4+T12*0.6</f>
-        <v>54.276666666666671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="11">
-        <v>60.4</v>
-      </c>
-      <c r="E13" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="F13" s="17">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
-        <v>2</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7">
-        <f>100*SUM(E13:I13)/(2*A$1)</f>
-        <v>53</v>
-      </c>
-      <c r="K13" s="11">
-        <v>80</v>
-      </c>
-      <c r="L13" s="47">
-        <v>0</v>
-      </c>
-      <c r="M13" s="49">
-        <v>100</v>
-      </c>
-      <c r="N13" s="49">
-        <v>0</v>
-      </c>
-      <c r="O13" s="48">
-        <f>I13*45</f>
-        <v>90</v>
-      </c>
-      <c r="P13" s="7">
-        <f>SUM(K13:O13)/(A$1)</f>
-        <v>54</v>
-      </c>
-      <c r="Q13" s="49">
-        <v>95</v>
-      </c>
-      <c r="R13" s="7">
-        <f>SUM(Q13:Q13)</f>
-        <v>95</v>
-      </c>
-      <c r="S13" s="11"/>
-      <c r="T13" s="16">
-        <f>J13*0.15+P13*0.25+R13*0.25+S13*0.35</f>
-        <v>45.2</v>
-      </c>
-      <c r="U13" s="16">
-        <f>D13*0.4+T13*0.6</f>
-        <v>51.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="11">
-        <v>59.5</v>
-      </c>
-      <c r="E14" s="42">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>0</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17">
-        <v>2</v>
-      </c>
-      <c r="J14" s="7">
-        <f>100*SUM(E14:I14)/(2*A$1)</f>
+      <c r="B29" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0</v>
+      </c>
+      <c r="E29" s="41">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="10">
+        <v>0</v>
+      </c>
+      <c r="L29" s="46">
+        <v>0</v>
+      </c>
+      <c r="M29" s="48">
+        <v>0</v>
+      </c>
+      <c r="N29" s="48">
+        <v>0</v>
+      </c>
+      <c r="O29" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="48">
+        <v>0</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="47">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0</v>
+      </c>
+      <c r="E30" s="41">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="10">
+        <v>0</v>
+      </c>
+      <c r="L30" s="46">
+        <v>0</v>
+      </c>
+      <c r="M30" s="48">
+        <v>0</v>
+      </c>
+      <c r="N30" s="48">
+        <v>0</v>
+      </c>
+      <c r="O30" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="48">
+        <v>0</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="47">
+        <v>0</v>
+      </c>
+      <c r="T30" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0</v>
+      </c>
+      <c r="E31" s="41">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="10">
+        <v>0</v>
+      </c>
+      <c r="L31" s="46">
+        <v>0</v>
+      </c>
+      <c r="M31" s="48">
+        <v>0</v>
+      </c>
+      <c r="N31" s="48">
+        <v>0</v>
+      </c>
+      <c r="O31" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="48">
+        <v>0</v>
+      </c>
+      <c r="R31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="47">
+        <v>0</v>
+      </c>
+      <c r="T31" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0</v>
+      </c>
+      <c r="E32" s="41">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <v>0</v>
+      </c>
+      <c r="M32" s="48">
+        <v>0</v>
+      </c>
+      <c r="N32" s="48">
+        <v>0</v>
+      </c>
+      <c r="O32" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="48">
+        <v>0</v>
+      </c>
+      <c r="R32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="47">
+        <v>0</v>
+      </c>
+      <c r="T32" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="10">
+        <v>0</v>
+      </c>
+      <c r="E33" s="41">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <v>0</v>
+      </c>
+      <c r="L33" s="46">
+        <v>0</v>
+      </c>
+      <c r="M33" s="48">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48">
+        <v>0</v>
+      </c>
+      <c r="O33" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="48">
+        <v>0</v>
+      </c>
+      <c r="R33" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="47">
+        <v>0</v>
+      </c>
+      <c r="T33" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="11">
-        <v>0</v>
-      </c>
-      <c r="L14" s="47">
-        <v>0</v>
-      </c>
-      <c r="M14" s="49">
-        <v>0</v>
-      </c>
-      <c r="N14" s="49">
-        <v>60</v>
-      </c>
-      <c r="O14" s="48">
-        <f>I14*45</f>
-        <v>90</v>
-      </c>
-      <c r="P14" s="7">
-        <f>SUM(K14:O14)/(A$1)</f>
-        <v>30</v>
-      </c>
-      <c r="Q14" s="49">
-        <v>60</v>
-      </c>
-      <c r="R14" s="7">
-        <f>SUM(Q14:Q14)</f>
-        <v>60</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="16">
-        <f>J14*0.15+P14*0.25+R14*0.25+S14*0.35</f>
-        <v>27</v>
-      </c>
-      <c r="U14" s="16">
-        <f>D14*0.4+T14*0.6</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="11">
-        <v>28.1</v>
-      </c>
-      <c r="E15" s="42">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>2</v>
-      </c>
-      <c r="G15" s="17">
-        <v>2</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>2</v>
-      </c>
-      <c r="J15" s="7">
-        <f>100*SUM(E15:I15)/(2*A$1)</f>
-        <v>60</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="47">
-        <v>100</v>
-      </c>
-      <c r="M15" s="49">
-        <v>100</v>
-      </c>
-      <c r="N15" s="49">
-        <v>0</v>
-      </c>
-      <c r="O15" s="48">
-        <f>I15*45</f>
-        <v>90</v>
-      </c>
-      <c r="P15" s="7">
-        <f>SUM(K15:O15)/(A$1)</f>
-        <v>58</v>
-      </c>
-      <c r="Q15" s="49">
-        <v>60</v>
-      </c>
-      <c r="R15" s="7">
-        <f>SUM(Q15:Q15)</f>
-        <v>60</v>
-      </c>
-      <c r="S15" s="11"/>
-      <c r="T15" s="16">
-        <f>J15*0.15+P15*0.25+R15*0.25+S15*0.35</f>
-        <v>38.5</v>
-      </c>
-      <c r="U15" s="16">
-        <f>D15*0.4+T15*0.6</f>
-        <v>34.340000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="11">
-        <v>20.7</v>
-      </c>
-      <c r="E16" s="42">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17">
-        <v>0</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <f>100*SUM(E16:I16)/(2*A$1)</f>
-        <v>10</v>
-      </c>
-      <c r="K16" s="11">
-        <v>55</v>
-      </c>
-      <c r="L16" s="47">
-        <v>0</v>
-      </c>
-      <c r="M16" s="49">
-        <v>0</v>
-      </c>
-      <c r="N16" s="49">
-        <v>0</v>
-      </c>
-      <c r="O16" s="48">
-        <f>I16*45</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
-        <f>SUM(K16:O16)/(A$1)</f>
-        <v>11</v>
-      </c>
-      <c r="Q16" s="49">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <f>SUM(Q16:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="11"/>
-      <c r="T16" s="16">
-        <f>J16*0.15+P16*0.25+R16*0.25+S16*0.35</f>
-        <v>4.25</v>
-      </c>
-      <c r="U16" s="16">
-        <f>D16*0.4+T16*0.6</f>
-        <v>10.829999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="11">
-        <v>22.366666666666667</v>
-      </c>
-      <c r="E17" s="42">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
-        <f>100*SUM(E17:I17)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="47">
-        <v>0</v>
-      </c>
-      <c r="M17" s="49">
-        <v>0</v>
-      </c>
-      <c r="N17" s="49">
-        <v>0</v>
-      </c>
-      <c r="O17" s="48">
-        <f>I17*45</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <f>SUM(K17:O17)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="49">
-        <v>0</v>
-      </c>
-      <c r="R17" s="7">
-        <f>SUM(Q17:Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="11"/>
-      <c r="T17" s="16">
-        <f>J17*0.15+P17*0.25+R17*0.25+S17*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="16">
-        <f>D17*0.4+T17*0.6</f>
-        <v>8.9466666666666672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="11">
-        <v>18.666666666666668</v>
-      </c>
-      <c r="E18" s="42">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <f>100*SUM(E18:I18)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="47">
-        <v>0</v>
-      </c>
-      <c r="M18" s="49">
-        <v>0</v>
-      </c>
-      <c r="N18" s="49">
-        <v>0</v>
-      </c>
-      <c r="O18" s="48">
-        <f>I18*45</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <f>SUM(K18:O18)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="49">
-        <v>0</v>
-      </c>
-      <c r="R18" s="7">
-        <f>SUM(Q18:Q18)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="11"/>
-      <c r="T18" s="16">
-        <f>J18*0.15+P18*0.25+R18*0.25+S18*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="16">
-        <f>D18*0.4+T18*0.6</f>
-        <v>7.4666666666666677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="11">
-        <v>11.1</v>
-      </c>
-      <c r="E19" s="42">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <f>100*SUM(E19:I19)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="47">
-        <v>0</v>
-      </c>
-      <c r="M19" s="49">
-        <v>0</v>
-      </c>
-      <c r="N19" s="49">
-        <v>0</v>
-      </c>
-      <c r="O19" s="48">
-        <f>I19*45</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <f>SUM(K19:O19)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="49">
-        <v>0</v>
-      </c>
-      <c r="R19" s="7">
-        <f>SUM(Q19:Q19)</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="11"/>
-      <c r="T19" s="16">
-        <f>J19*0.15+P19*0.25+R19*0.25+S19*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="16">
-        <f>D19*0.4+T19*0.6</f>
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="11">
-        <v>8.6666666666666679</v>
-      </c>
-      <c r="E20" s="42">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7">
-        <f>100*SUM(E20:I20)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="47">
-        <v>0</v>
-      </c>
-      <c r="M20" s="49">
-        <v>0</v>
-      </c>
-      <c r="N20" s="49">
-        <v>0</v>
-      </c>
-      <c r="O20" s="48">
-        <f>I20*45</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
-        <f>SUM(K20:O20)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="49">
-        <v>0</v>
-      </c>
-      <c r="R20" s="7">
-        <f>SUM(Q20:Q20)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="11"/>
-      <c r="T20" s="16">
-        <f>J20*0.15+P20*0.25+R20*0.25+S20*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="16">
-        <f>D20*0.4+T20*0.6</f>
-        <v>3.4666666666666672</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="11">
-        <v>8.6499999999999986</v>
-      </c>
-      <c r="E21" s="42">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7">
-        <f>100*SUM(E21:I21)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="47">
-        <v>0</v>
-      </c>
-      <c r="M21" s="49">
-        <v>0</v>
-      </c>
-      <c r="N21" s="49">
-        <v>0</v>
-      </c>
-      <c r="O21" s="48">
-        <f>I21*45</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <f>SUM(K21:O21)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="49">
-        <v>0</v>
-      </c>
-      <c r="R21" s="7">
-        <f>SUM(Q21:Q21)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="11"/>
-      <c r="T21" s="16">
-        <f>J21*0.15+P21*0.25+R21*0.25+S21*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="16">
-        <f>D21*0.4+T21*0.6</f>
-        <v>3.4599999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="11">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E22" s="42">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>0</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
-        <f>100*SUM(E22:I22)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="11">
-        <v>0</v>
-      </c>
-      <c r="L22" s="47">
-        <v>0</v>
-      </c>
-      <c r="M22" s="49">
-        <v>0</v>
-      </c>
-      <c r="N22" s="49">
-        <v>0</v>
-      </c>
-      <c r="O22" s="48">
-        <f>I22*45</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <f>SUM(K22:O22)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="49">
-        <v>0</v>
-      </c>
-      <c r="R22" s="7">
-        <f>SUM(Q22:Q22)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="11"/>
-      <c r="T22" s="16">
-        <f>J22*0.15+P22*0.25+R22*0.25+S22*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="16">
-        <f>D22*0.4+T22*0.6</f>
-        <v>3.3200000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="11">
-        <v>6.916666666666667</v>
-      </c>
-      <c r="E23" s="42">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
-        <f>100*SUM(E23:I23)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
-      </c>
-      <c r="L23" s="47">
-        <v>0</v>
-      </c>
-      <c r="M23" s="49">
-        <v>0</v>
-      </c>
-      <c r="N23" s="49">
-        <v>0</v>
-      </c>
-      <c r="O23" s="48">
-        <f>I23*45</f>
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <f>SUM(K23:O23)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="49">
-        <v>0</v>
-      </c>
-      <c r="R23" s="7">
-        <f>SUM(Q23:Q23)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="11"/>
-      <c r="T23" s="16">
-        <f>J23*0.15+P23*0.25+R23*0.25+S23*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="16">
-        <f>D23*0.4+T23*0.6</f>
-        <v>2.7666666666666671</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="11">
-        <v>6.3333333333333339</v>
-      </c>
-      <c r="E24" s="42">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>0</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
-        <f>100*SUM(E24:I24)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="11">
-        <v>0</v>
-      </c>
-      <c r="L24" s="47">
-        <v>0</v>
-      </c>
-      <c r="M24" s="49">
-        <v>0</v>
-      </c>
-      <c r="N24" s="49">
-        <v>0</v>
-      </c>
-      <c r="O24" s="48">
-        <f>I24*45</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
-        <f>SUM(K24:O24)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="49">
-        <v>0</v>
-      </c>
-      <c r="R24" s="7">
-        <f>SUM(Q24:Q24)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="11"/>
-      <c r="T24" s="16">
-        <f>J24*0.15+P24*0.25+R24*0.25+S24*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="16">
-        <f>D24*0.4+T24*0.6</f>
-        <v>2.5333333333333337</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="11">
-        <v>0</v>
-      </c>
-      <c r="E25" s="42">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>0</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
-        <f>100*SUM(E25:I25)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="47">
-        <v>0</v>
-      </c>
-      <c r="M25" s="49">
-        <v>0</v>
-      </c>
-      <c r="N25" s="49">
-        <v>0</v>
-      </c>
-      <c r="O25" s="48">
-        <f>I25*45</f>
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <f>SUM(K25:O25)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="49">
-        <v>0</v>
-      </c>
-      <c r="R25" s="7">
-        <f>SUM(Q25:Q25)</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="16">
-        <f>J25*0.15+P25*0.25+R25*0.25+S25*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="16">
-        <f>D25*0.4+T25*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="11">
-        <v>0</v>
-      </c>
-      <c r="E26" s="42">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
-        <f>100*SUM(E26:I26)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="11">
-        <v>0</v>
-      </c>
-      <c r="L26" s="47">
-        <v>0</v>
-      </c>
-      <c r="M26" s="49">
-        <v>0</v>
-      </c>
-      <c r="N26" s="49">
-        <v>0</v>
-      </c>
-      <c r="O26" s="48">
-        <f>I26*45</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <f>SUM(K26:O26)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="49">
-        <v>0</v>
-      </c>
-      <c r="R26" s="7">
-        <f>SUM(Q26:Q26)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="11"/>
-      <c r="T26" s="16">
-        <f>J26*0.15+P26*0.25+R26*0.25+S26*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="16">
-        <f>D26*0.4+T26*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D27" s="11">
-        <v>0</v>
-      </c>
-      <c r="E27" s="42">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>0</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <f>100*SUM(E27:I27)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
-      </c>
-      <c r="L27" s="47">
-        <v>0</v>
-      </c>
-      <c r="M27" s="49">
-        <v>0</v>
-      </c>
-      <c r="N27" s="49">
-        <v>0</v>
-      </c>
-      <c r="O27" s="48">
-        <f>I27*45</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
-        <f>SUM(K27:O27)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="49">
-        <v>0</v>
-      </c>
-      <c r="R27" s="7">
-        <f>SUM(Q27:Q27)</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="11"/>
-      <c r="T27" s="16">
-        <f>J27*0.15+P27*0.25+R27*0.25+S27*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="16">
-        <f>D27*0.4+T27*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="11">
-        <v>0</v>
-      </c>
-      <c r="E28" s="42">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
-        <f>100*SUM(E28:I28)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0</v>
-      </c>
-      <c r="L28" s="47">
-        <v>0</v>
-      </c>
-      <c r="M28" s="49">
-        <v>0</v>
-      </c>
-      <c r="N28" s="49">
-        <v>0</v>
-      </c>
-      <c r="O28" s="48">
-        <f>I28*45</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
-        <f>SUM(K28:O28)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="49">
-        <v>0</v>
-      </c>
-      <c r="R28" s="7">
-        <f>SUM(Q28:Q28)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="16">
-        <f>J28*0.15+P28*0.25+R28*0.25+S28*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="16">
-        <f>D28*0.4+T28*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0</v>
-      </c>
-      <c r="E29" s="42">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>0</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7">
-        <f>100*SUM(E29:I29)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0</v>
-      </c>
-      <c r="L29" s="47">
-        <v>0</v>
-      </c>
-      <c r="M29" s="49">
-        <v>0</v>
-      </c>
-      <c r="N29" s="49">
-        <v>0</v>
-      </c>
-      <c r="O29" s="48">
-        <f>I29*45</f>
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <f>SUM(K29:O29)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="49">
-        <v>0</v>
-      </c>
-      <c r="R29" s="7">
-        <f>SUM(Q29:Q29)</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="11"/>
-      <c r="T29" s="16">
-        <f>J29*0.15+P29*0.25+R29*0.25+S29*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="16">
-        <f>D29*0.4+T29*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="11">
-        <v>0</v>
-      </c>
-      <c r="E30" s="42">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7">
-        <f>100*SUM(E30:I30)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="11">
-        <v>0</v>
-      </c>
-      <c r="L30" s="47">
-        <v>0</v>
-      </c>
-      <c r="M30" s="49">
-        <v>0</v>
-      </c>
-      <c r="N30" s="49">
-        <v>0</v>
-      </c>
-      <c r="O30" s="48">
-        <f>I30*45</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <f>SUM(K30:O30)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="49">
-        <v>0</v>
-      </c>
-      <c r="R30" s="7">
-        <f>SUM(Q30:Q30)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="11"/>
-      <c r="T30" s="16">
-        <f>J30*0.15+P30*0.25+R30*0.25+S30*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="16">
-        <f>D30*0.4+T30*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="42">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7">
-        <f>100*SUM(E31:I31)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="47">
-        <v>0</v>
-      </c>
-      <c r="M31" s="49">
-        <v>0</v>
-      </c>
-      <c r="N31" s="49">
-        <v>0</v>
-      </c>
-      <c r="O31" s="48">
-        <f>I31*45</f>
-        <v>0</v>
-      </c>
-      <c r="P31" s="7">
-        <f>SUM(K31:O31)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="49">
-        <v>0</v>
-      </c>
-      <c r="R31" s="7">
-        <f>SUM(Q31:Q31)</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="11"/>
-      <c r="T31" s="16">
-        <f>J31*0.15+P31*0.25+R31*0.25+S31*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="16">
-        <f>D31*0.4+T31*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="11">
-        <v>0</v>
-      </c>
-      <c r="E32" s="42">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>0</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
-        <f>100*SUM(E32:I32)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="11">
-        <v>0</v>
-      </c>
-      <c r="L32" s="47">
-        <v>0</v>
-      </c>
-      <c r="M32" s="49">
-        <v>0</v>
-      </c>
-      <c r="N32" s="49">
-        <v>0</v>
-      </c>
-      <c r="O32" s="48">
-        <f>I32*45</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <f>SUM(K32:O32)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="49">
-        <v>0</v>
-      </c>
-      <c r="R32" s="7">
-        <f>SUM(Q32:Q32)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="11"/>
-      <c r="T32" s="16">
-        <f>J32*0.15+P32*0.25+R32*0.25+S32*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
-        <f>D32*0.4+T32*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="11">
-        <v>0</v>
-      </c>
-      <c r="E33" s="42">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>0</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7">
-        <f>100*SUM(E33:I33)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="11">
-        <v>0</v>
-      </c>
-      <c r="L33" s="47">
-        <v>0</v>
-      </c>
-      <c r="M33" s="49">
-        <v>0</v>
-      </c>
-      <c r="N33" s="49">
-        <v>0</v>
-      </c>
-      <c r="O33" s="48">
-        <f>I33*45</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <f>SUM(K33:O33)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="49">
-        <v>0</v>
-      </c>
-      <c r="R33" s="7">
-        <f>SUM(Q33:Q33)</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="11"/>
-      <c r="T33" s="16">
-        <f>J33*0.15+P33*0.25+R33*0.25+S33*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="16">
-        <f>D33*0.4+T33*0.6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="12.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="42">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="J34" s="50">
-        <f>100*SUM(E34:I34)/(2*A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0</v>
-      </c>
-      <c r="L34" s="47">
-        <v>0</v>
-      </c>
-      <c r="M34" s="49">
-        <v>0</v>
-      </c>
-      <c r="N34" s="49">
-        <v>0</v>
-      </c>
-      <c r="O34" s="48">
-        <f>I34*45</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="50">
-        <f>SUM(K34:O34)/(A$1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="49">
-        <v>0</v>
-      </c>
-      <c r="R34" s="7">
-        <f>SUM(Q34:Q34)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="6"/>
-      <c r="T34" s="16">
-        <f>J34*0.15+P34*0.25+R34*0.25+S34*0.35</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="16">
-        <f>D34*0.4+T34*0.6</f>
+      <c r="D34" s="10">
+        <v>0</v>
+      </c>
+      <c r="E34" s="41">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="10">
+        <v>0</v>
+      </c>
+      <c r="L34" s="46">
+        <v>0</v>
+      </c>
+      <c r="M34" s="48">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48">
+        <v>0</v>
+      </c>
+      <c r="O34" s="47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="48">
+        <v>0</v>
+      </c>
+      <c r="R34" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="47"/>
+      <c r="T34" s="15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="15">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8407,19 +8726,19 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I34">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J34">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8433,7 +8752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:P34">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8447,7 +8766,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:R34">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8461,7 +8780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T34">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8475,41 +8794,41 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O34">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="25" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="21" operator="between">
       <formula>80</formula>
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3:U34">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8523,37 +8842,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q34">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="15" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="16" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="11" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="12" operator="between">
       <formula>80</formula>
       <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S3:S34">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="between">
+      <formula>0.1</formula>
+      <formula>59.9</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="between">
+      <formula>60</formula>
+      <formula>79</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+      <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
+++ b/SoftwareDevEnvAndTools_2017Autumn/_docs/SoftDevEnvandToolsAutumun2017.xlsx
@@ -954,45 +954,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1210,302 +1172,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5290,14 +4956,14 @@
     <mergeCell ref="L1:S1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:J34">
-    <cfRule type="cellIs" dxfId="64" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5358,18 +5024,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R34">
-    <cfRule type="cellIs" dxfId="61" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
@@ -5464,7 +5130,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomLeft" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5621,7 +5287,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" ref="J3:J34" si="0">100*SUM(E3:I3)/(2*A$1)</f>
+        <f>100*SUM(E3:I3)/(2*A$1)</f>
         <v>100</v>
       </c>
       <c r="K3" s="10">
@@ -5637,30 +5303,29 @@
         <v>100</v>
       </c>
       <c r="O3" s="47">
-        <f t="shared" ref="O3:O34" si="1">I3*45</f>
+        <f>I3*45</f>
         <v>90</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P34" si="2">SUM(K3:O3)/(A$1)</f>
+        <f>SUM(K3:O3)/(A$1)</f>
         <v>94</v>
       </c>
       <c r="Q3" s="48">
         <v>80</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" ref="R3:R34" si="3">SUM(Q3:Q3)</f>
+        <f>SUM(Q3:Q3)</f>
         <v>80</v>
       </c>
       <c r="S3" s="47">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="T3" s="15">
-        <f t="shared" ref="T3:T34" si="4">J3*0.15+P3*0.25+R3*0.25+S3*0.35</f>
-        <v>98.75</v>
+        <v>100</v>
       </c>
       <c r="U3" s="15">
-        <f t="shared" ref="U3:U34" si="5">D3*0.4+T3*0.6</f>
-        <v>99.316666666666663</v>
+        <f>D3*0.4+T3*0.6</f>
+        <v>100.06666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5692,7 +5357,7 @@
         <v>1.9</v>
       </c>
       <c r="J4" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E4:I4)/(2*A$1)</f>
         <v>99</v>
       </c>
       <c r="K4" s="10">
@@ -5708,30 +5373,29 @@
         <v>100</v>
       </c>
       <c r="O4" s="47">
-        <f t="shared" si="1"/>
+        <f>I4*45</f>
         <v>85.5</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K4:O4)/(A$1)</f>
         <v>93.1</v>
       </c>
       <c r="Q4" s="48">
         <v>69</v>
       </c>
       <c r="R4" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q4:Q4)</f>
         <v>69</v>
       </c>
       <c r="S4" s="47">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="T4" s="15">
-        <f t="shared" si="4"/>
-        <v>72.875</v>
+        <v>100</v>
       </c>
       <c r="U4" s="15">
-        <f t="shared" si="5"/>
-        <v>79.705000000000013</v>
+        <f>D4*0.4+T4*0.6</f>
+        <v>95.98</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -5763,7 +5427,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E5:I5)/(2*A$1)</f>
         <v>80</v>
       </c>
       <c r="K5" s="10">
@@ -5779,44 +5443,43 @@
         <v>100</v>
       </c>
       <c r="O5" s="47">
-        <f t="shared" si="1"/>
+        <f>I5*45</f>
         <v>90</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K5:O5)/(A$1)</f>
         <v>74</v>
       </c>
       <c r="Q5" s="48">
         <v>100</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q5:Q5)</f>
         <v>100</v>
       </c>
       <c r="S5" s="47">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="T5" s="15">
-        <f t="shared" si="4"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="U5" s="15">
-        <f t="shared" si="5"/>
-        <v>78.533333333333331</v>
+        <f>D5*0.4+T5*0.6</f>
+        <v>94.733333333333348</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D6" s="10">
-        <v>70.55</v>
+        <v>87.283333333333331</v>
       </c>
       <c r="E6" s="41">
         <v>0</v>
@@ -5834,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E6:I6)/(2*A$1)</f>
         <v>80</v>
       </c>
       <c r="K6" s="10">
@@ -5847,47 +5510,47 @@
         <v>100</v>
       </c>
       <c r="N6" s="48">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" si="1"/>
+        <f>I6*45</f>
         <v>90</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="2"/>
-        <v>78</v>
+        <f>SUM(K6:O6)/(A$1)</f>
+        <v>70</v>
       </c>
       <c r="Q6" s="48">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" si="3"/>
-        <v>99</v>
+        <f>SUM(Q6:Q6)</f>
+        <v>54</v>
       </c>
       <c r="S6" s="47">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="T6" s="15">
-        <f t="shared" si="4"/>
-        <v>73.75</v>
+        <f>J6*0.15+P6*0.25+R6*0.25+S6*0.35+20</f>
+        <v>92.05</v>
       </c>
       <c r="U6" s="15">
-        <f t="shared" si="5"/>
-        <v>72.47</v>
+        <f>D6*0.4+T6*0.6</f>
+        <v>90.143333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="D7" s="10">
-        <v>87.283333333333331</v>
+        <v>70.55</v>
       </c>
       <c r="E7" s="41">
         <v>0</v>
@@ -5905,7 +5568,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E7:I7)/(2*A$1)</f>
         <v>80</v>
       </c>
       <c r="K7" s="10">
@@ -5918,50 +5581,49 @@
         <v>100</v>
       </c>
       <c r="N7" s="48">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O7" s="47">
-        <f t="shared" si="1"/>
+        <f>I7*45</f>
         <v>90</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f>SUM(K7:O7)/(A$1)</f>
+        <v>78</v>
       </c>
       <c r="Q7" s="48">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" si="3"/>
-        <v>54</v>
+        <f>SUM(Q7:Q7)</f>
+        <v>99</v>
       </c>
       <c r="S7" s="47">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="T7" s="15">
-        <f t="shared" si="4"/>
-        <v>60.5</v>
+        <v>100</v>
       </c>
       <c r="U7" s="15">
-        <f t="shared" si="5"/>
-        <v>71.213333333333338</v>
+        <f>D7*0.4+T7*0.6</f>
+        <v>88.22</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D8" s="10">
-        <v>74.400000000000006</v>
+        <v>69.833333333333343</v>
       </c>
       <c r="E8" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="16">
         <v>0</v>
@@ -5976,11 +5638,11 @@
         <v>2</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>100*SUM(E8:I8)/(2*A$1)</f>
+        <v>60</v>
       </c>
       <c r="K8" s="10">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L8" s="46">
         <v>0</v>
@@ -5989,53 +5651,53 @@
         <v>100</v>
       </c>
       <c r="N8" s="48">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="O8" s="47">
-        <f t="shared" si="1"/>
+        <f>I8*45</f>
         <v>90</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f>SUM(K8:O8)/(A$1)</f>
+        <v>50</v>
       </c>
       <c r="Q8" s="48">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="3"/>
-        <v>94</v>
+        <f>SUM(Q8:Q8)</f>
+        <v>95</v>
       </c>
       <c r="S8" s="47">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="T8" s="15">
-        <f t="shared" si="4"/>
-        <v>69</v>
+        <f>J8*0.15+P8*0.25+R8*0.25+S8*0.35+20</f>
+        <v>98.85</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="5"/>
-        <v>71.16</v>
+        <f>D8*0.4+T8*0.6</f>
+        <v>87.243333333333339</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="10">
-        <v>84.833333333333343</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E9" s="41">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="F9" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="16">
         <v>2</v>
@@ -6047,63 +5709,63 @@
         <v>2</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E9:I9)/(2*A$1)</f>
+        <v>73</v>
+      </c>
+      <c r="K9" s="10">
         <v>80</v>
       </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
       <c r="L9" s="46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M9" s="48">
         <v>100</v>
       </c>
       <c r="N9" s="48">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="O9" s="47">
-        <f t="shared" si="1"/>
+        <f>I9*45</f>
         <v>90</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="2"/>
-        <v>70</v>
+        <f>SUM(K9:O9)/(A$1)</f>
+        <v>74</v>
       </c>
       <c r="Q9" s="48">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>SUM(Q9:Q9)</f>
+        <v>50</v>
       </c>
       <c r="S9" s="47">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" si="4"/>
-        <v>57</v>
+        <f>J9*0.15+P9*0.25+R9*0.25+S9*0.35+20</f>
+        <v>92.05</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="5"/>
-        <v>68.133333333333326</v>
+        <f>D9*0.4+T9*0.6</f>
+        <v>86.27</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="D10" s="10">
-        <v>77.599999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E10" s="41">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="16">
         <v>0</v>
@@ -6118,11 +5780,11 @@
         <v>2</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="0"/>
-        <v>73</v>
+        <f>100*SUM(E10:I10)/(2*A$1)</f>
+        <v>70</v>
       </c>
       <c r="K10" s="10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L10" s="46">
         <v>0</v>
@@ -6134,50 +5796,50 @@
         <v>100</v>
       </c>
       <c r="O10" s="47">
-        <f t="shared" si="1"/>
+        <f>I10*45</f>
         <v>90</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="2"/>
-        <v>74</v>
+        <f>SUM(K10:O10)/(A$1)</f>
+        <v>70</v>
       </c>
       <c r="Q10" s="48">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f>SUM(Q10:Q10)</f>
+        <v>94</v>
       </c>
       <c r="S10" s="47">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T10" s="15">
-        <f t="shared" si="4"/>
-        <v>59.45</v>
+        <f>J10*0.15+P10*0.25+R10*0.25+S10*0.35+20</f>
+        <v>92.5</v>
       </c>
       <c r="U10" s="15">
-        <f t="shared" si="5"/>
-        <v>66.710000000000008</v>
+        <f>D10*0.4+T10*0.6</f>
+        <v>85.26</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="D11" s="10">
-        <v>69.833333333333343</v>
+        <v>84.833333333333343</v>
       </c>
       <c r="E11" s="41">
         <v>0</v>
       </c>
       <c r="F11" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="16">
         <v>2</v>
@@ -6189,14 +5851,14 @@
         <v>2</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>100*SUM(E11:I11)/(2*A$1)</f>
+        <v>80</v>
       </c>
       <c r="K11" s="10">
         <v>0</v>
       </c>
       <c r="L11" s="46">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" s="48">
         <v>100</v>
@@ -6205,30 +5867,30 @@
         <v>60</v>
       </c>
       <c r="O11" s="47">
-        <f t="shared" si="1"/>
+        <f>I11*45</f>
         <v>90</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUM(K11:O11)/(A$1)</f>
+        <v>70</v>
       </c>
       <c r="Q11" s="48">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="3"/>
-        <v>95</v>
+        <f>SUM(Q11:Q11)</f>
+        <v>40</v>
       </c>
       <c r="S11" s="47">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="T11" s="15">
-        <f t="shared" si="4"/>
-        <v>62.75</v>
+        <f>J11*0.15+P11*0.25+R11*0.25+S11*0.35+20</f>
+        <v>85.05</v>
       </c>
       <c r="U11" s="15">
-        <f t="shared" si="5"/>
-        <v>65.583333333333343</v>
+        <f>D11*0.4+T11*0.6</f>
+        <v>84.963333333333338</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6260,7 +5922,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E12:I12)/(2*A$1)</f>
         <v>70</v>
       </c>
       <c r="K12" s="10">
@@ -6276,30 +5938,30 @@
         <v>100</v>
       </c>
       <c r="O12" s="47">
-        <f t="shared" si="1"/>
+        <f>I12*45</f>
         <v>90</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K12:O12)/(A$1)</f>
         <v>69</v>
       </c>
       <c r="Q12" s="48">
         <v>64</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q12:Q12)</f>
         <v>64</v>
       </c>
       <c r="S12" s="47">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="T12" s="15">
-        <f t="shared" si="4"/>
-        <v>61.25</v>
+        <f>J12*0.15+P12*0.25+R12*0.25+S12*0.35+20</f>
+        <v>94.55</v>
       </c>
       <c r="U12" s="15">
-        <f t="shared" si="5"/>
-        <v>64.776666666666671</v>
+        <f>D12*0.4+T12*0.6</f>
+        <v>84.756666666666661</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6331,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E13:I13)/(2*A$1)</f>
         <v>53</v>
       </c>
       <c r="K13" s="10">
@@ -6347,30 +6009,30 @@
         <v>0</v>
       </c>
       <c r="O13" s="47">
-        <f t="shared" si="1"/>
+        <f>I13*45</f>
         <v>90</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K13:O13)/(A$1)</f>
         <v>54</v>
       </c>
       <c r="Q13" s="48">
         <v>95</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q13:Q13)</f>
         <v>95</v>
       </c>
       <c r="S13" s="47">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T13" s="15">
-        <f t="shared" si="4"/>
-        <v>62.7</v>
+        <f>J13*0.15+P13*0.25+R13*0.25+S13*0.35+20</f>
+        <v>86.2</v>
       </c>
       <c r="U13" s="15">
-        <f t="shared" si="5"/>
-        <v>61.78</v>
+        <f>D13*0.4+T13*0.6</f>
+        <v>75.88</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6402,7 +6064,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E14:I14)/(2*A$1)</f>
         <v>30</v>
       </c>
       <c r="K14" s="10">
@@ -6418,30 +6080,30 @@
         <v>60</v>
       </c>
       <c r="O14" s="47">
-        <f t="shared" si="1"/>
+        <f>I14*45</f>
         <v>90</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K14:O14)/(A$1)</f>
         <v>30</v>
       </c>
       <c r="Q14" s="48">
         <v>60</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q14:Q14)</f>
         <v>60</v>
       </c>
       <c r="S14" s="47">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="4"/>
-        <v>44.5</v>
+        <f>J14*0.15+P14*0.25+R14*0.25+S14*0.35+20</f>
+        <v>70.099999999999994</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
+        <f>D14*0.4+T14*0.6</f>
+        <v>65.86</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6473,7 +6135,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E15:I15)/(2*A$1)</f>
         <v>60</v>
       </c>
       <c r="K15" s="10">
@@ -6489,30 +6151,30 @@
         <v>0</v>
       </c>
       <c r="O15" s="47">
-        <f t="shared" si="1"/>
+        <f>I15*45</f>
         <v>90</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K15:O15)/(A$1)</f>
         <v>58</v>
       </c>
       <c r="Q15" s="48">
         <v>60</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q15:Q15)</f>
         <v>60</v>
       </c>
       <c r="S15" s="47">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" si="4"/>
-        <v>56</v>
+        <f>J15*0.15+P15*0.25+R15*0.25+S15*0.35+20</f>
+        <v>81.25</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="5"/>
-        <v>44.84</v>
+        <f>D15*0.4+T15*0.6</f>
+        <v>59.99</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6544,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E16:I16)/(2*A$1)</f>
         <v>10</v>
       </c>
       <c r="K16" s="10">
@@ -6560,30 +6222,30 @@
         <v>0</v>
       </c>
       <c r="O16" s="47">
-        <f t="shared" si="1"/>
+        <f>I16*45</f>
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K16:O16)/(A$1)</f>
         <v>11</v>
       </c>
       <c r="Q16" s="48">
         <v>0</v>
       </c>
       <c r="R16" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q16:Q16)</f>
         <v>0</v>
       </c>
       <c r="S16" s="47">
         <v>0</v>
       </c>
       <c r="T16" s="15">
-        <f t="shared" si="4"/>
-        <v>4.25</v>
+        <f>J16*0.15+P16*0.25+R16*0.25+S16*0.35+20</f>
+        <v>24.25</v>
       </c>
       <c r="U16" s="15">
-        <f t="shared" si="5"/>
-        <v>10.829999999999998</v>
+        <f>D16*0.4+T16*0.6</f>
+        <v>22.83</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6615,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E17:I17)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K17" s="10">
@@ -6631,29 +6293,28 @@
         <v>0</v>
       </c>
       <c r="O17" s="47">
-        <f t="shared" si="1"/>
+        <f>I17*45</f>
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K17:O17)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q17" s="48">
         <v>0</v>
       </c>
       <c r="R17" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q17:Q17)</f>
         <v>0</v>
       </c>
       <c r="S17" s="47">
         <v>0</v>
       </c>
       <c r="T17" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <f t="shared" si="5"/>
+        <f>D17*0.4+T17*0.6</f>
         <v>8.9466666666666672</v>
       </c>
     </row>
@@ -6686,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E18:I18)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K18" s="10">
@@ -6702,29 +6363,28 @@
         <v>0</v>
       </c>
       <c r="O18" s="47">
-        <f t="shared" si="1"/>
+        <f>I18*45</f>
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K18:O18)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="48">
         <v>0</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q18:Q18)</f>
         <v>0</v>
       </c>
       <c r="S18" s="47">
         <v>0</v>
       </c>
       <c r="T18" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <f t="shared" si="5"/>
+        <f>D18*0.4+T18*0.6</f>
         <v>7.4666666666666677</v>
       </c>
     </row>
@@ -6757,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E19:I19)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K19" s="10">
@@ -6773,29 +6433,28 @@
         <v>0</v>
       </c>
       <c r="O19" s="47">
-        <f t="shared" si="1"/>
+        <f>I19*45</f>
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K19:O19)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="48">
         <v>0</v>
       </c>
       <c r="R19" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q19:Q19)</f>
         <v>0</v>
       </c>
       <c r="S19" s="47">
         <v>0</v>
       </c>
       <c r="T19" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U19" s="15">
-        <f t="shared" si="5"/>
+        <f>D19*0.4+T19*0.6</f>
         <v>4.4400000000000004</v>
       </c>
     </row>
@@ -6826,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E20:I20)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K20" s="10">
@@ -6842,29 +6501,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="47">
-        <f t="shared" si="1"/>
+        <f>I20*45</f>
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K20:O20)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="48">
         <v>0</v>
       </c>
       <c r="R20" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q20:Q20)</f>
         <v>0</v>
       </c>
       <c r="S20" s="47">
         <v>0</v>
       </c>
       <c r="T20" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U20" s="15">
-        <f t="shared" si="5"/>
+        <f>D20*0.4+T20*0.6</f>
         <v>3.4666666666666672</v>
       </c>
     </row>
@@ -6897,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E21:I21)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K21" s="10">
@@ -6913,29 +6571,28 @@
         <v>0</v>
       </c>
       <c r="O21" s="47">
-        <f t="shared" si="1"/>
+        <f>I21*45</f>
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K21:O21)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="48">
         <v>0</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q21:Q21)</f>
         <v>0</v>
       </c>
       <c r="S21" s="47">
         <v>0</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="5"/>
+        <f>D21*0.4+T21*0.6</f>
         <v>3.4599999999999995</v>
       </c>
     </row>
@@ -6968,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E22:I22)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K22" s="10">
@@ -6984,29 +6641,28 @@
         <v>0</v>
       </c>
       <c r="O22" s="47">
-        <f t="shared" si="1"/>
+        <f>I22*45</f>
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K22:O22)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q22" s="48">
         <v>0</v>
       </c>
       <c r="R22" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q22:Q22)</f>
         <v>0</v>
       </c>
       <c r="S22" s="47">
         <v>0</v>
       </c>
       <c r="T22" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U22" s="15">
-        <f t="shared" si="5"/>
+        <f>D22*0.4+T22*0.6</f>
         <v>3.3200000000000003</v>
       </c>
     </row>
@@ -7039,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E23:I23)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K23" s="10">
@@ -7055,29 +6711,28 @@
         <v>0</v>
       </c>
       <c r="O23" s="47">
-        <f t="shared" si="1"/>
+        <f>I23*45</f>
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K23:O23)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="48">
         <v>0</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q23:Q23)</f>
         <v>0</v>
       </c>
       <c r="S23" s="47">
         <v>0</v>
       </c>
       <c r="T23" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U23" s="15">
-        <f t="shared" si="5"/>
+        <f>D23*0.4+T23*0.6</f>
         <v>2.7666666666666671</v>
       </c>
     </row>
@@ -7110,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E24:I24)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K24" s="10">
@@ -7126,29 +6781,28 @@
         <v>0</v>
       </c>
       <c r="O24" s="47">
-        <f t="shared" si="1"/>
+        <f>I24*45</f>
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K24:O24)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="48">
         <v>0</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q24:Q24)</f>
         <v>0</v>
       </c>
       <c r="S24" s="47">
         <v>0</v>
       </c>
       <c r="T24" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U24" s="15">
-        <f t="shared" si="5"/>
+        <f>D24*0.4+T24*0.6</f>
         <v>2.5333333333333337</v>
       </c>
     </row>
@@ -7181,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E25:I25)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K25" s="10">
@@ -7197,29 +6851,28 @@
         <v>0</v>
       </c>
       <c r="O25" s="47">
-        <f t="shared" si="1"/>
+        <f>I25*45</f>
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K25:O25)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q25" s="48">
         <v>0</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q25:Q25)</f>
         <v>0</v>
       </c>
       <c r="S25" s="47">
         <v>0</v>
       </c>
       <c r="T25" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U25" s="15">
-        <f t="shared" si="5"/>
+        <f>D25*0.4+T25*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7252,7 +6905,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E26:I26)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K26" s="10">
@@ -7268,29 +6921,28 @@
         <v>0</v>
       </c>
       <c r="O26" s="47">
-        <f t="shared" si="1"/>
+        <f>I26*45</f>
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K26:O26)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q26" s="48">
         <v>0</v>
       </c>
       <c r="R26" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q26:Q26)</f>
         <v>0</v>
       </c>
       <c r="S26" s="47">
         <v>0</v>
       </c>
       <c r="T26" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U26" s="15">
-        <f t="shared" si="5"/>
+        <f>D26*0.4+T26*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7323,7 +6975,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E27:I27)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K27" s="10">
@@ -7339,29 +6991,28 @@
         <v>0</v>
       </c>
       <c r="O27" s="47">
-        <f t="shared" si="1"/>
+        <f>I27*45</f>
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K27:O27)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q27" s="48">
         <v>0</v>
       </c>
       <c r="R27" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q27:Q27)</f>
         <v>0</v>
       </c>
       <c r="S27" s="47">
         <v>0</v>
       </c>
       <c r="T27" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U27" s="15">
-        <f t="shared" si="5"/>
+        <f>D27*0.4+T27*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7394,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E28:I28)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K28" s="10">
@@ -7410,29 +7061,28 @@
         <v>0</v>
       </c>
       <c r="O28" s="47">
-        <f t="shared" si="1"/>
+        <f>I28*45</f>
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K28:O28)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q28" s="48">
         <v>0</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q28:Q28)</f>
         <v>0</v>
       </c>
       <c r="S28" s="47">
         <v>0</v>
       </c>
       <c r="T28" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U28" s="15">
-        <f t="shared" si="5"/>
+        <f>D28*0.4+T28*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7465,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E29:I29)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K29" s="10">
@@ -7481,29 +7131,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="47">
-        <f t="shared" si="1"/>
+        <f>I29*45</f>
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K29:O29)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q29" s="48">
         <v>0</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q29:Q29)</f>
         <v>0</v>
       </c>
       <c r="S29" s="47">
         <v>0</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="5"/>
+        <f>D29*0.4+T29*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7536,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E30:I30)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K30" s="10">
@@ -7552,29 +7201,28 @@
         <v>0</v>
       </c>
       <c r="O30" s="47">
-        <f t="shared" si="1"/>
+        <f>I30*45</f>
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K30:O30)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q30" s="48">
         <v>0</v>
       </c>
       <c r="R30" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q30:Q30)</f>
         <v>0</v>
       </c>
       <c r="S30" s="47">
         <v>0</v>
       </c>
       <c r="T30" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U30" s="15">
-        <f t="shared" si="5"/>
+        <f>D30*0.4+T30*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7607,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E31:I31)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K31" s="10">
@@ -7623,29 +7271,28 @@
         <v>0</v>
       </c>
       <c r="O31" s="47">
-        <f t="shared" si="1"/>
+        <f>I31*45</f>
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K31:O31)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="48">
         <v>0</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q31:Q31)</f>
         <v>0</v>
       </c>
       <c r="S31" s="47">
         <v>0</v>
       </c>
       <c r="T31" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U31" s="15">
-        <f t="shared" si="5"/>
+        <f>D31*0.4+T31*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7678,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E32:I32)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K32" s="10">
@@ -7694,29 +7341,28 @@
         <v>0</v>
       </c>
       <c r="O32" s="47">
-        <f t="shared" si="1"/>
+        <f>I32*45</f>
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K32:O32)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="48">
         <v>0</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q32:Q32)</f>
         <v>0</v>
       </c>
       <c r="S32" s="47">
         <v>0</v>
       </c>
       <c r="T32" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U32" s="15">
-        <f t="shared" si="5"/>
+        <f>D32*0.4+T32*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7749,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="6">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E33:I33)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K33" s="10">
@@ -7765,29 +7411,28 @@
         <v>0</v>
       </c>
       <c r="O33" s="47">
-        <f t="shared" si="1"/>
+        <f>I33*45</f>
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="2"/>
+        <f>SUM(K33:O33)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="48">
         <v>0</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q33:Q33)</f>
         <v>0</v>
       </c>
       <c r="S33" s="47">
         <v>0</v>
       </c>
       <c r="T33" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U33" s="15">
-        <f t="shared" si="5"/>
+        <f>D33*0.4+T33*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -7820,7 +7465,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="49">
-        <f t="shared" si="0"/>
+        <f>100*SUM(E34:I34)/(2*A$1)</f>
         <v>0</v>
       </c>
       <c r="K34" s="10">
@@ -7836,27 +7481,26 @@
         <v>0</v>
       </c>
       <c r="O34" s="47">
-        <f t="shared" si="1"/>
+        <f>I34*45</f>
         <v>0</v>
       </c>
       <c r="P34" s="49">
-        <f t="shared" si="2"/>
+        <f>SUM(K34:O34)/(A$1)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="48">
         <v>0</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="3"/>
+        <f>SUM(Q34:Q34)</f>
         <v>0</v>
       </c>
       <c r="S34" s="47"/>
       <c r="T34" s="15">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U34" s="15">
-        <f t="shared" si="5"/>
+        <f>D34*0.4+T34*0.6</f>
         <v>0</v>
       </c>
     </row>
@@ -8726,14 +8370,14 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:I34">
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="between">
       <formula>0.1</formula>
       <formula>1.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8794,35 +8438,35 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:O34">
-    <cfRule type="cellIs" dxfId="46" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D34">
-    <cfRule type="cellIs" dxfId="42" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="between">
       <formula>80</formula>
       <formula>150</formula>
     </cfRule>
@@ -8842,52 +8486,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:Q34">
-    <cfRule type="cellIs" dxfId="38" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="cellIs" dxfId="34" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
       <formula>80</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S34">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
       <formula>0.1</formula>
       <formula>59.9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
       <formula>60</formula>
       <formula>79</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThanOrEqual">
       <formula>80</formula>
     </cfRule>
   </conditionalFormatting>
